--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/Generic_Macro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C420F5F3-6657-2443-804C-9D260E103E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25777662-1F3E-F14E-B274-8DF4F5D0928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter_Input" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="413">
   <si>
     <t>Index</t>
   </si>
@@ -1245,9 +1245,6 @@
   </si>
   <si>
     <t>U.S M3 broad money</t>
-  </si>
-  <si>
-    <t>Long27_GM2</t>
   </si>
   <si>
     <t>Global M2 aggregate (top 27 economies)</t>
@@ -1845,7 +1842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1962,11 +1959,245 @@
     <xf numFmtId="49" fontId="14" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,10 +2205,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1987,241 +2216,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2607,7 +2601,7 @@
   <dimension ref="A1:AJ197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2675,378 +2669,374 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1">
-      <c r="A2" s="118">
+      <c r="A2" s="82">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="77" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="71">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="52">
         <f>10^12</f>
         <v>1000000000000</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="18" customHeight="1">
-      <c r="A3" s="118">
+      <c r="A3" s="82">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="77" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="71">
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="52">
         <f>10^12</f>
         <v>1000000000000</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="18" customHeight="1">
-      <c r="A4" s="118">
+      <c r="A4" s="82">
         <v>3</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="69" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="69" t="s">
+      <c r="G4" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="71">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="18" customHeight="1">
-      <c r="A5" s="118">
+      <c r="A5" s="82">
         <v>4</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="H5" s="69" t="s">
+      <c r="G5" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="71">
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="18" customHeight="1">
-      <c r="A6" s="119">
+      <c r="A6" s="83">
         <v>5</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="H6" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="74">
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55">
         <f>10^12</f>
         <v>1000000000000</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="18" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="D7" s="93" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="E7" s="93" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="F7" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="G7" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="H7" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="I7" s="93" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="J7" s="93" t="s">
         <v>405</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="K7" s="96" t="s">
         <v>406</v>
       </c>
-      <c r="K7" s="123" t="s">
+      <c r="L7" s="88" t="s">
         <v>407</v>
       </c>
-      <c r="L7" s="126" t="s">
+      <c r="M7" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M7" s="127" t="s">
+      <c r="N7" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="N7" s="128" t="s">
+      <c r="O7" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="O7" s="126" t="s">
-        <v>411</v>
-      </c>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:36" ht="18" customHeight="1">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="1:36" ht="18" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="10" spans="1:36" ht="26" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:36" ht="16" customHeight="1">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
     </row>
     <row r="12" spans="1:36" ht="16" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="67"/>
     </row>
     <row r="13" spans="1:36" ht="16" customHeight="1">
       <c r="A13" s="5"/>
@@ -3054,53 +3044,50 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
     </row>
     <row r="14" spans="1:36" ht="16" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="85" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
@@ -3109,2285 +3096,2263 @@
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="54" t="s">
+      <c r="B15" s="118" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114" t="s">
-        <v>412</v>
-      </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="96"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:36" ht="16" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="96"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="67"/>
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="96"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="96"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1">
       <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="96"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="88" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="96"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1">
       <c r="A21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="96"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="67"/>
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1">
       <c r="A22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="96"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="1:14" ht="23" customHeight="1">
       <c r="A23" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="62" t="s">
+      <c r="B23" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="89" t="s">
         <v>387</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
     </row>
     <row r="24" spans="1:14" ht="19" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="62" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="99"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="105"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="105"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="105"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="105"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="105"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="105"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="105"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="105"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="96"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
     </row>
     <row r="65" spans="6:14">
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
     </row>
     <row r="66" spans="6:14">
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
     </row>
     <row r="67" spans="6:14">
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
     </row>
     <row r="68" spans="6:14">
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="96"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
     </row>
     <row r="69" spans="6:14">
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
     </row>
     <row r="70" spans="6:14">
-      <c r="F70" s="96"/>
-      <c r="G70" s="96"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="96"/>
-      <c r="N70" s="96"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
     </row>
     <row r="71" spans="6:14">
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
     </row>
     <row r="72" spans="6:14">
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="96"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
     </row>
     <row r="73" spans="6:14">
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="6:14">
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
     </row>
     <row r="75" spans="6:14">
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="67"/>
+      <c r="N75" s="67"/>
     </row>
     <row r="76" spans="6:14">
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="96"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="96"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="67"/>
     </row>
     <row r="77" spans="6:14">
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="67"/>
+      <c r="N77" s="67"/>
     </row>
     <row r="78" spans="6:14">
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="67"/>
+      <c r="N78" s="67"/>
     </row>
     <row r="79" spans="6:14">
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="67"/>
     </row>
     <row r="80" spans="6:14">
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="96"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
     </row>
     <row r="81" spans="6:14">
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
     </row>
     <row r="82" spans="6:14">
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="96"/>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="96"/>
-      <c r="M82" s="96"/>
-      <c r="N82" s="96"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
     </row>
     <row r="83" spans="6:14">
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
     </row>
     <row r="84" spans="6:14">
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="96"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="96"/>
-      <c r="M84" s="96"/>
-      <c r="N84" s="96"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
     </row>
     <row r="85" spans="6:14">
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="96"/>
-      <c r="J85" s="96"/>
-      <c r="K85" s="96"/>
-      <c r="L85" s="96"/>
-      <c r="M85" s="96"/>
-      <c r="N85" s="96"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
     </row>
     <row r="86" spans="6:14">
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
-      <c r="J86" s="96"/>
-      <c r="K86" s="96"/>
-      <c r="L86" s="96"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="96"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
     </row>
     <row r="87" spans="6:14">
-      <c r="F87" s="96"/>
-      <c r="G87" s="96"/>
-      <c r="H87" s="96"/>
-      <c r="I87" s="96"/>
-      <c r="J87" s="96"/>
-      <c r="K87" s="96"/>
-      <c r="L87" s="96"/>
-      <c r="M87" s="96"/>
-      <c r="N87" s="96"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
     </row>
     <row r="88" spans="6:14">
-      <c r="F88" s="96"/>
-      <c r="G88" s="96"/>
-      <c r="H88" s="96"/>
-      <c r="I88" s="96"/>
-      <c r="J88" s="96"/>
-      <c r="K88" s="96"/>
-      <c r="L88" s="96"/>
-      <c r="M88" s="96"/>
-      <c r="N88" s="96"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
     </row>
     <row r="89" spans="6:14">
-      <c r="F89" s="96"/>
-      <c r="G89" s="96"/>
-      <c r="H89" s="96"/>
-      <c r="I89" s="96"/>
-      <c r="J89" s="96"/>
-      <c r="K89" s="96"/>
-      <c r="L89" s="96"/>
-      <c r="M89" s="96"/>
-      <c r="N89" s="96"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
     </row>
     <row r="90" spans="6:14">
-      <c r="F90" s="96"/>
-      <c r="G90" s="96"/>
-      <c r="H90" s="96"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="96"/>
-      <c r="K90" s="96"/>
-      <c r="L90" s="96"/>
-      <c r="M90" s="96"/>
-      <c r="N90" s="96"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
     </row>
     <row r="91" spans="6:14">
-      <c r="F91" s="96"/>
-      <c r="G91" s="96"/>
-      <c r="H91" s="96"/>
-      <c r="I91" s="96"/>
-      <c r="J91" s="96"/>
-      <c r="K91" s="96"/>
-      <c r="L91" s="96"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="96"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
     </row>
     <row r="92" spans="6:14">
-      <c r="F92" s="96"/>
-      <c r="G92" s="96"/>
-      <c r="H92" s="96"/>
-      <c r="I92" s="96"/>
-      <c r="J92" s="96"/>
-      <c r="K92" s="96"/>
-      <c r="L92" s="96"/>
-      <c r="M92" s="96"/>
-      <c r="N92" s="96"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
+      <c r="N92" s="67"/>
     </row>
     <row r="93" spans="6:14">
-      <c r="F93" s="96"/>
-      <c r="G93" s="96"/>
-      <c r="H93" s="96"/>
-      <c r="I93" s="96"/>
-      <c r="J93" s="96"/>
-      <c r="K93" s="96"/>
-      <c r="L93" s="96"/>
-      <c r="M93" s="96"/>
-      <c r="N93" s="96"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="67"/>
+      <c r="M93" s="67"/>
+      <c r="N93" s="67"/>
     </row>
     <row r="94" spans="6:14">
-      <c r="F94" s="96"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="96"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
     </row>
     <row r="95" spans="6:14">
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="96"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
     </row>
     <row r="96" spans="6:14">
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="96"/>
-      <c r="K96" s="96"/>
-      <c r="L96" s="96"/>
-      <c r="M96" s="96"/>
-      <c r="N96" s="96"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="67"/>
+      <c r="N96" s="67"/>
     </row>
     <row r="97" spans="6:14">
-      <c r="F97" s="96"/>
-      <c r="G97" s="96"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="96"/>
-      <c r="J97" s="96"/>
-      <c r="K97" s="96"/>
-      <c r="L97" s="96"/>
-      <c r="M97" s="96"/>
-      <c r="N97" s="96"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="67"/>
+      <c r="N97" s="67"/>
     </row>
     <row r="98" spans="6:14">
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="96"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="96"/>
-      <c r="K98" s="96"/>
-      <c r="L98" s="96"/>
-      <c r="M98" s="96"/>
-      <c r="N98" s="96"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
     </row>
     <row r="99" spans="6:14">
-      <c r="F99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="96"/>
-      <c r="I99" s="96"/>
-      <c r="J99" s="96"/>
-      <c r="K99" s="96"/>
-      <c r="L99" s="96"/>
-      <c r="M99" s="96"/>
-      <c r="N99" s="96"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="67"/>
+      <c r="N99" s="67"/>
     </row>
     <row r="100" spans="6:14">
-      <c r="F100" s="96"/>
-      <c r="G100" s="96"/>
-      <c r="H100" s="96"/>
-      <c r="I100" s="96"/>
-      <c r="J100" s="96"/>
-      <c r="K100" s="96"/>
-      <c r="L100" s="96"/>
-      <c r="M100" s="96"/>
-      <c r="N100" s="96"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
+      <c r="L100" s="67"/>
+      <c r="M100" s="67"/>
+      <c r="N100" s="67"/>
     </row>
     <row r="101" spans="6:14">
-      <c r="F101" s="96"/>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="96"/>
-      <c r="J101" s="96"/>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="96"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
     </row>
     <row r="102" spans="6:14">
-      <c r="F102" s="96"/>
-      <c r="G102" s="96"/>
-      <c r="H102" s="96"/>
-      <c r="I102" s="96"/>
-      <c r="J102" s="96"/>
-      <c r="K102" s="96"/>
-      <c r="L102" s="96"/>
-      <c r="M102" s="96"/>
-      <c r="N102" s="96"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="67"/>
+      <c r="N102" s="67"/>
     </row>
     <row r="103" spans="6:14">
-      <c r="F103" s="96"/>
-      <c r="G103" s="96"/>
-      <c r="H103" s="96"/>
-      <c r="I103" s="96"/>
-      <c r="J103" s="96"/>
-      <c r="K103" s="96"/>
-      <c r="L103" s="96"/>
-      <c r="M103" s="96"/>
-      <c r="N103" s="96"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
     </row>
     <row r="104" spans="6:14">
-      <c r="F104" s="96"/>
-      <c r="G104" s="96"/>
-      <c r="H104" s="96"/>
-      <c r="I104" s="96"/>
-      <c r="J104" s="96"/>
-      <c r="K104" s="96"/>
-      <c r="L104" s="96"/>
-      <c r="M104" s="96"/>
-      <c r="N104" s="96"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="67"/>
+      <c r="N104" s="67"/>
     </row>
     <row r="105" spans="6:14">
-      <c r="F105" s="96"/>
-      <c r="G105" s="96"/>
-      <c r="H105" s="96"/>
-      <c r="I105" s="96"/>
-      <c r="J105" s="96"/>
-      <c r="K105" s="96"/>
-      <c r="L105" s="96"/>
-      <c r="M105" s="96"/>
-      <c r="N105" s="96"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="67"/>
+      <c r="N105" s="67"/>
     </row>
     <row r="106" spans="6:14">
-      <c r="F106" s="96"/>
-      <c r="G106" s="96"/>
-      <c r="H106" s="96"/>
-      <c r="I106" s="96"/>
-      <c r="J106" s="96"/>
-      <c r="K106" s="96"/>
-      <c r="L106" s="96"/>
-      <c r="M106" s="96"/>
-      <c r="N106" s="96"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="67"/>
+      <c r="N106" s="67"/>
     </row>
     <row r="107" spans="6:14">
-      <c r="F107" s="96"/>
-      <c r="G107" s="96"/>
-      <c r="H107" s="96"/>
-      <c r="I107" s="96"/>
-      <c r="J107" s="96"/>
-      <c r="K107" s="96"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="96"/>
-      <c r="N107" s="96"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="67"/>
+      <c r="N107" s="67"/>
     </row>
     <row r="108" spans="6:14">
-      <c r="F108" s="96"/>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="96"/>
-      <c r="L108" s="96"/>
-      <c r="M108" s="96"/>
-      <c r="N108" s="96"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
+      <c r="L108" s="67"/>
+      <c r="M108" s="67"/>
+      <c r="N108" s="67"/>
     </row>
     <row r="109" spans="6:14">
-      <c r="F109" s="96"/>
-      <c r="G109" s="96"/>
-      <c r="H109" s="96"/>
-      <c r="I109" s="96"/>
-      <c r="J109" s="96"/>
-      <c r="K109" s="96"/>
-      <c r="L109" s="96"/>
-      <c r="M109" s="96"/>
-      <c r="N109" s="96"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
+      <c r="L109" s="67"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="67"/>
     </row>
     <row r="110" spans="6:14">
-      <c r="F110" s="96"/>
-      <c r="G110" s="96"/>
-      <c r="H110" s="96"/>
-      <c r="I110" s="96"/>
-      <c r="J110" s="96"/>
-      <c r="K110" s="96"/>
-      <c r="L110" s="96"/>
-      <c r="M110" s="96"/>
-      <c r="N110" s="96"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="67"/>
+      <c r="M110" s="67"/>
+      <c r="N110" s="67"/>
     </row>
     <row r="111" spans="6:14">
-      <c r="F111" s="96"/>
-      <c r="G111" s="96"/>
-      <c r="H111" s="96"/>
-      <c r="I111" s="96"/>
-      <c r="J111" s="96"/>
-      <c r="K111" s="96"/>
-      <c r="L111" s="96"/>
-      <c r="M111" s="96"/>
-      <c r="N111" s="96"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="67"/>
+      <c r="N111" s="67"/>
     </row>
     <row r="112" spans="6:14">
-      <c r="F112" s="96"/>
-      <c r="G112" s="96"/>
-      <c r="H112" s="96"/>
-      <c r="I112" s="96"/>
-      <c r="J112" s="96"/>
-      <c r="K112" s="96"/>
-      <c r="L112" s="96"/>
-      <c r="M112" s="96"/>
-      <c r="N112" s="96"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
+      <c r="L112" s="67"/>
+      <c r="M112" s="67"/>
+      <c r="N112" s="67"/>
     </row>
     <row r="113" spans="6:14">
-      <c r="F113" s="96"/>
-      <c r="G113" s="96"/>
-      <c r="H113" s="96"/>
-      <c r="I113" s="96"/>
-      <c r="J113" s="96"/>
-      <c r="K113" s="96"/>
-      <c r="L113" s="96"/>
-      <c r="M113" s="96"/>
-      <c r="N113" s="96"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="67"/>
     </row>
     <row r="114" spans="6:14">
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="96"/>
-      <c r="I114" s="96"/>
-      <c r="J114" s="96"/>
-      <c r="K114" s="96"/>
-      <c r="L114" s="96"/>
-      <c r="M114" s="96"/>
-      <c r="N114" s="96"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="67"/>
     </row>
     <row r="115" spans="6:14">
-      <c r="F115" s="96"/>
-      <c r="G115" s="96"/>
-      <c r="H115" s="96"/>
-      <c r="I115" s="96"/>
-      <c r="J115" s="96"/>
-      <c r="K115" s="96"/>
-      <c r="L115" s="96"/>
-      <c r="M115" s="96"/>
-      <c r="N115" s="96"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="67"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="67"/>
+      <c r="N115" s="67"/>
     </row>
     <row r="116" spans="6:14">
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="96"/>
-      <c r="J116" s="96"/>
-      <c r="K116" s="96"/>
-      <c r="L116" s="96"/>
-      <c r="M116" s="96"/>
-      <c r="N116" s="96"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="67"/>
+      <c r="L116" s="67"/>
+      <c r="M116" s="67"/>
+      <c r="N116" s="67"/>
     </row>
     <row r="117" spans="6:14">
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="96"/>
-      <c r="J117" s="96"/>
-      <c r="K117" s="96"/>
-      <c r="L117" s="96"/>
-      <c r="M117" s="96"/>
-      <c r="N117" s="96"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="67"/>
+      <c r="N117" s="67"/>
     </row>
     <row r="118" spans="6:14">
-      <c r="F118" s="96"/>
-      <c r="G118" s="96"/>
-      <c r="H118" s="96"/>
-      <c r="I118" s="96"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="96"/>
-      <c r="L118" s="96"/>
-      <c r="M118" s="96"/>
-      <c r="N118" s="96"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67"/>
+      <c r="K118" s="67"/>
+      <c r="L118" s="67"/>
+      <c r="M118" s="67"/>
+      <c r="N118" s="67"/>
     </row>
     <row r="119" spans="6:14">
-      <c r="F119" s="96"/>
-      <c r="G119" s="96"/>
-      <c r="H119" s="96"/>
-      <c r="I119" s="96"/>
-      <c r="J119" s="96"/>
-      <c r="K119" s="96"/>
-      <c r="L119" s="96"/>
-      <c r="M119" s="96"/>
-      <c r="N119" s="96"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="67"/>
+      <c r="L119" s="67"/>
+      <c r="M119" s="67"/>
+      <c r="N119" s="67"/>
     </row>
     <row r="120" spans="6:14">
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="96"/>
-      <c r="L120" s="96"/>
-      <c r="M120" s="96"/>
-      <c r="N120" s="96"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="67"/>
+      <c r="L120" s="67"/>
+      <c r="M120" s="67"/>
+      <c r="N120" s="67"/>
     </row>
     <row r="121" spans="6:14">
-      <c r="F121" s="96"/>
-      <c r="G121" s="96"/>
-      <c r="H121" s="96"/>
-      <c r="I121" s="96"/>
-      <c r="J121" s="96"/>
-      <c r="K121" s="96"/>
-      <c r="L121" s="96"/>
-      <c r="M121" s="96"/>
-      <c r="N121" s="96"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
+      <c r="L121" s="67"/>
+      <c r="M121" s="67"/>
+      <c r="N121" s="67"/>
     </row>
     <row r="122" spans="6:14">
-      <c r="F122" s="96"/>
-      <c r="G122" s="96"/>
-      <c r="H122" s="96"/>
-      <c r="I122" s="96"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="96"/>
-      <c r="L122" s="96"/>
-      <c r="M122" s="96"/>
-      <c r="N122" s="96"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="67"/>
+      <c r="N122" s="67"/>
     </row>
     <row r="123" spans="6:14">
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
-      <c r="K123" s="96"/>
-      <c r="L123" s="96"/>
-      <c r="M123" s="96"/>
-      <c r="N123" s="96"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="67"/>
+      <c r="N123" s="67"/>
     </row>
     <row r="124" spans="6:14">
-      <c r="F124" s="96"/>
-      <c r="G124" s="96"/>
-      <c r="H124" s="96"/>
-      <c r="I124" s="96"/>
-      <c r="J124" s="96"/>
-      <c r="K124" s="96"/>
-      <c r="L124" s="96"/>
-      <c r="M124" s="96"/>
-      <c r="N124" s="96"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
+      <c r="L124" s="67"/>
+      <c r="M124" s="67"/>
+      <c r="N124" s="67"/>
     </row>
     <row r="125" spans="6:14">
-      <c r="F125" s="96"/>
-      <c r="G125" s="96"/>
-      <c r="H125" s="96"/>
-      <c r="I125" s="96"/>
-      <c r="J125" s="96"/>
-      <c r="K125" s="96"/>
-      <c r="L125" s="96"/>
-      <c r="M125" s="96"/>
-      <c r="N125" s="96"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="67"/>
+      <c r="N125" s="67"/>
     </row>
     <row r="126" spans="6:14">
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="96"/>
-      <c r="N126" s="96"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
+      <c r="N126" s="67"/>
     </row>
     <row r="127" spans="6:14">
-      <c r="F127" s="96"/>
-      <c r="G127" s="96"/>
-      <c r="H127" s="96"/>
-      <c r="I127" s="96"/>
-      <c r="J127" s="96"/>
-      <c r="K127" s="96"/>
-      <c r="L127" s="96"/>
-      <c r="M127" s="96"/>
-      <c r="N127" s="96"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
+      <c r="L127" s="67"/>
+      <c r="M127" s="67"/>
+      <c r="N127" s="67"/>
     </row>
     <row r="128" spans="6:14">
-      <c r="F128" s="96"/>
-      <c r="G128" s="96"/>
-      <c r="H128" s="96"/>
-      <c r="I128" s="96"/>
-      <c r="J128" s="96"/>
-      <c r="K128" s="96"/>
-      <c r="L128" s="96"/>
-      <c r="M128" s="96"/>
-      <c r="N128" s="96"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="67"/>
+      <c r="N128" s="67"/>
     </row>
     <row r="129" spans="6:14">
-      <c r="F129" s="96"/>
-      <c r="G129" s="96"/>
-      <c r="H129" s="96"/>
-      <c r="I129" s="96"/>
-      <c r="J129" s="96"/>
-      <c r="K129" s="96"/>
-      <c r="L129" s="96"/>
-      <c r="M129" s="96"/>
-      <c r="N129" s="96"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
+      <c r="L129" s="67"/>
+      <c r="M129" s="67"/>
+      <c r="N129" s="67"/>
     </row>
     <row r="130" spans="6:14">
-      <c r="F130" s="96"/>
-      <c r="G130" s="96"/>
-      <c r="H130" s="96"/>
-      <c r="I130" s="96"/>
-      <c r="J130" s="96"/>
-      <c r="K130" s="96"/>
-      <c r="L130" s="96"/>
-      <c r="M130" s="96"/>
-      <c r="N130" s="96"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
+      <c r="L130" s="67"/>
+      <c r="M130" s="67"/>
+      <c r="N130" s="67"/>
     </row>
     <row r="131" spans="6:14">
-      <c r="F131" s="96"/>
-      <c r="G131" s="96"/>
-      <c r="H131" s="96"/>
-      <c r="I131" s="96"/>
-      <c r="J131" s="96"/>
-      <c r="K131" s="96"/>
-      <c r="L131" s="96"/>
-      <c r="M131" s="96"/>
-      <c r="N131" s="96"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
+      <c r="L131" s="67"/>
+      <c r="M131" s="67"/>
+      <c r="N131" s="67"/>
     </row>
     <row r="132" spans="6:14">
-      <c r="F132" s="96"/>
-      <c r="G132" s="96"/>
-      <c r="H132" s="96"/>
-      <c r="I132" s="96"/>
-      <c r="J132" s="96"/>
-      <c r="K132" s="96"/>
-      <c r="L132" s="96"/>
-      <c r="M132" s="96"/>
-      <c r="N132" s="96"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="67"/>
     </row>
     <row r="133" spans="6:14">
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="96"/>
-      <c r="J133" s="96"/>
-      <c r="K133" s="96"/>
-      <c r="L133" s="96"/>
-      <c r="M133" s="96"/>
-      <c r="N133" s="96"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
+      <c r="J133" s="67"/>
+      <c r="K133" s="67"/>
+      <c r="L133" s="67"/>
+      <c r="M133" s="67"/>
+      <c r="N133" s="67"/>
     </row>
     <row r="134" spans="6:14">
-      <c r="F134" s="96"/>
-      <c r="G134" s="96"/>
-      <c r="H134" s="96"/>
-      <c r="I134" s="96"/>
-      <c r="J134" s="96"/>
-      <c r="K134" s="96"/>
-      <c r="L134" s="96"/>
-      <c r="M134" s="96"/>
-      <c r="N134" s="96"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="67"/>
+      <c r="L134" s="67"/>
+      <c r="M134" s="67"/>
+      <c r="N134" s="67"/>
     </row>
     <row r="135" spans="6:14">
-      <c r="F135" s="96"/>
-      <c r="G135" s="96"/>
-      <c r="H135" s="96"/>
-      <c r="I135" s="96"/>
-      <c r="J135" s="96"/>
-      <c r="K135" s="96"/>
-      <c r="L135" s="96"/>
-      <c r="M135" s="96"/>
-      <c r="N135" s="96"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="67"/>
+      <c r="J135" s="67"/>
+      <c r="K135" s="67"/>
+      <c r="L135" s="67"/>
+      <c r="M135" s="67"/>
+      <c r="N135" s="67"/>
     </row>
     <row r="136" spans="6:14">
-      <c r="F136" s="96"/>
-      <c r="G136" s="96"/>
-      <c r="H136" s="96"/>
-      <c r="I136" s="96"/>
-      <c r="J136" s="96"/>
-      <c r="K136" s="96"/>
-      <c r="L136" s="96"/>
-      <c r="M136" s="96"/>
-      <c r="N136" s="96"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+      <c r="K136" s="67"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="67"/>
+      <c r="N136" s="67"/>
     </row>
     <row r="137" spans="6:14">
-      <c r="F137" s="96"/>
-      <c r="G137" s="96"/>
-      <c r="H137" s="96"/>
-      <c r="I137" s="96"/>
-      <c r="J137" s="96"/>
-      <c r="K137" s="96"/>
-      <c r="L137" s="96"/>
-      <c r="M137" s="96"/>
-      <c r="N137" s="96"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="67"/>
+      <c r="J137" s="67"/>
+      <c r="K137" s="67"/>
+      <c r="L137" s="67"/>
+      <c r="M137" s="67"/>
+      <c r="N137" s="67"/>
     </row>
     <row r="138" spans="6:14">
-      <c r="F138" s="96"/>
-      <c r="G138" s="96"/>
-      <c r="H138" s="96"/>
-      <c r="I138" s="96"/>
-      <c r="J138" s="96"/>
-      <c r="K138" s="96"/>
-      <c r="L138" s="96"/>
-      <c r="M138" s="96"/>
-      <c r="N138" s="96"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+      <c r="J138" s="67"/>
+      <c r="K138" s="67"/>
+      <c r="L138" s="67"/>
+      <c r="M138" s="67"/>
+      <c r="N138" s="67"/>
     </row>
     <row r="139" spans="6:14">
-      <c r="F139" s="96"/>
-      <c r="G139" s="96"/>
-      <c r="H139" s="96"/>
-      <c r="I139" s="96"/>
-      <c r="J139" s="96"/>
-      <c r="K139" s="96"/>
-      <c r="L139" s="96"/>
-      <c r="M139" s="96"/>
-      <c r="N139" s="96"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
+      <c r="L139" s="67"/>
+      <c r="M139" s="67"/>
+      <c r="N139" s="67"/>
     </row>
     <row r="140" spans="6:14">
-      <c r="F140" s="96"/>
-      <c r="G140" s="96"/>
-      <c r="H140" s="96"/>
-      <c r="I140" s="96"/>
-      <c r="J140" s="96"/>
-      <c r="K140" s="96"/>
-      <c r="L140" s="96"/>
-      <c r="M140" s="96"/>
-      <c r="N140" s="96"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
+      <c r="L140" s="67"/>
+      <c r="M140" s="67"/>
+      <c r="N140" s="67"/>
     </row>
     <row r="141" spans="6:14">
-      <c r="F141" s="96"/>
-      <c r="G141" s="96"/>
-      <c r="H141" s="96"/>
-      <c r="I141" s="96"/>
-      <c r="J141" s="96"/>
-      <c r="K141" s="96"/>
-      <c r="L141" s="96"/>
-      <c r="M141" s="96"/>
-      <c r="N141" s="96"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
+      <c r="L141" s="67"/>
+      <c r="M141" s="67"/>
+      <c r="N141" s="67"/>
     </row>
     <row r="142" spans="6:14">
-      <c r="F142" s="96"/>
-      <c r="G142" s="96"/>
-      <c r="H142" s="96"/>
-      <c r="I142" s="96"/>
-      <c r="J142" s="96"/>
-      <c r="K142" s="96"/>
-      <c r="L142" s="96"/>
-      <c r="M142" s="96"/>
-      <c r="N142" s="96"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
+      <c r="L142" s="67"/>
+      <c r="M142" s="67"/>
+      <c r="N142" s="67"/>
     </row>
     <row r="143" spans="6:14">
-      <c r="F143" s="96"/>
-      <c r="G143" s="96"/>
-      <c r="H143" s="96"/>
-      <c r="I143" s="96"/>
-      <c r="J143" s="96"/>
-      <c r="K143" s="96"/>
-      <c r="L143" s="96"/>
-      <c r="M143" s="96"/>
-      <c r="N143" s="96"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="67"/>
     </row>
     <row r="144" spans="6:14">
-      <c r="F144" s="96"/>
-      <c r="G144" s="96"/>
-      <c r="H144" s="96"/>
-      <c r="I144" s="96"/>
-      <c r="J144" s="96"/>
-      <c r="K144" s="96"/>
-      <c r="L144" s="96"/>
-      <c r="M144" s="96"/>
-      <c r="N144" s="96"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="67"/>
+      <c r="H144" s="67"/>
+      <c r="I144" s="67"/>
+      <c r="J144" s="67"/>
+      <c r="K144" s="67"/>
+      <c r="L144" s="67"/>
+      <c r="M144" s="67"/>
+      <c r="N144" s="67"/>
     </row>
     <row r="145" spans="6:14">
-      <c r="F145" s="96"/>
-      <c r="G145" s="96"/>
-      <c r="H145" s="96"/>
-      <c r="I145" s="96"/>
-      <c r="J145" s="96"/>
-      <c r="K145" s="96"/>
-      <c r="L145" s="96"/>
-      <c r="M145" s="96"/>
-      <c r="N145" s="96"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="67"/>
+      <c r="H145" s="67"/>
+      <c r="I145" s="67"/>
+      <c r="J145" s="67"/>
+      <c r="K145" s="67"/>
+      <c r="L145" s="67"/>
+      <c r="M145" s="67"/>
+      <c r="N145" s="67"/>
     </row>
     <row r="146" spans="6:14">
-      <c r="F146" s="96"/>
-      <c r="G146" s="96"/>
-      <c r="H146" s="96"/>
-      <c r="I146" s="96"/>
-      <c r="J146" s="96"/>
-      <c r="K146" s="96"/>
-      <c r="L146" s="96"/>
-      <c r="M146" s="96"/>
-      <c r="N146" s="96"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
+      <c r="J146" s="67"/>
+      <c r="K146" s="67"/>
+      <c r="L146" s="67"/>
+      <c r="M146" s="67"/>
+      <c r="N146" s="67"/>
     </row>
     <row r="147" spans="6:14">
-      <c r="F147" s="96"/>
-      <c r="G147" s="96"/>
-      <c r="H147" s="96"/>
-      <c r="I147" s="96"/>
-      <c r="J147" s="96"/>
-      <c r="K147" s="96"/>
-      <c r="L147" s="96"/>
-      <c r="M147" s="96"/>
-      <c r="N147" s="96"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
+      <c r="I147" s="67"/>
+      <c r="J147" s="67"/>
+      <c r="K147" s="67"/>
+      <c r="L147" s="67"/>
+      <c r="M147" s="67"/>
+      <c r="N147" s="67"/>
     </row>
     <row r="148" spans="6:14">
-      <c r="F148" s="96"/>
-      <c r="G148" s="96"/>
-      <c r="H148" s="96"/>
-      <c r="I148" s="96"/>
-      <c r="J148" s="96"/>
-      <c r="K148" s="96"/>
-      <c r="L148" s="96"/>
-      <c r="M148" s="96"/>
-      <c r="N148" s="96"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="67"/>
+      <c r="J148" s="67"/>
+      <c r="K148" s="67"/>
+      <c r="L148" s="67"/>
+      <c r="M148" s="67"/>
+      <c r="N148" s="67"/>
     </row>
     <row r="149" spans="6:14">
-      <c r="F149" s="96"/>
-      <c r="G149" s="96"/>
-      <c r="H149" s="96"/>
-      <c r="I149" s="96"/>
-      <c r="J149" s="96"/>
-      <c r="K149" s="96"/>
-      <c r="L149" s="96"/>
-      <c r="M149" s="96"/>
-      <c r="N149" s="96"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="67"/>
+      <c r="J149" s="67"/>
+      <c r="K149" s="67"/>
+      <c r="L149" s="67"/>
+      <c r="M149" s="67"/>
+      <c r="N149" s="67"/>
     </row>
     <row r="150" spans="6:14">
-      <c r="F150" s="96"/>
-      <c r="G150" s="96"/>
-      <c r="H150" s="96"/>
-      <c r="I150" s="96"/>
-      <c r="J150" s="96"/>
-      <c r="K150" s="96"/>
-      <c r="L150" s="96"/>
-      <c r="M150" s="96"/>
-      <c r="N150" s="96"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="67"/>
+      <c r="J150" s="67"/>
+      <c r="K150" s="67"/>
+      <c r="L150" s="67"/>
+      <c r="M150" s="67"/>
+      <c r="N150" s="67"/>
     </row>
     <row r="151" spans="6:14">
-      <c r="F151" s="96"/>
-      <c r="G151" s="96"/>
-      <c r="H151" s="96"/>
-      <c r="I151" s="96"/>
-      <c r="J151" s="96"/>
-      <c r="K151" s="96"/>
-      <c r="L151" s="96"/>
-      <c r="M151" s="96"/>
-      <c r="N151" s="96"/>
+      <c r="F151" s="67"/>
+      <c r="G151" s="67"/>
+      <c r="H151" s="67"/>
+      <c r="I151" s="67"/>
+      <c r="J151" s="67"/>
+      <c r="K151" s="67"/>
+      <c r="L151" s="67"/>
+      <c r="M151" s="67"/>
+      <c r="N151" s="67"/>
     </row>
     <row r="152" spans="6:14">
-      <c r="F152" s="96"/>
-      <c r="G152" s="96"/>
-      <c r="H152" s="96"/>
-      <c r="I152" s="96"/>
-      <c r="J152" s="96"/>
-      <c r="K152" s="96"/>
-      <c r="L152" s="96"/>
-      <c r="M152" s="96"/>
-      <c r="N152" s="96"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="67"/>
+      <c r="J152" s="67"/>
+      <c r="K152" s="67"/>
+      <c r="L152" s="67"/>
+      <c r="M152" s="67"/>
+      <c r="N152" s="67"/>
     </row>
     <row r="153" spans="6:14">
-      <c r="F153" s="96"/>
-      <c r="G153" s="96"/>
-      <c r="H153" s="96"/>
-      <c r="I153" s="96"/>
-      <c r="J153" s="96"/>
-      <c r="K153" s="96"/>
-      <c r="L153" s="96"/>
-      <c r="M153" s="96"/>
-      <c r="N153" s="96"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="67"/>
+      <c r="K153" s="67"/>
+      <c r="L153" s="67"/>
+      <c r="M153" s="67"/>
+      <c r="N153" s="67"/>
     </row>
     <row r="154" spans="6:14">
-      <c r="F154" s="96"/>
-      <c r="G154" s="96"/>
-      <c r="H154" s="96"/>
-      <c r="I154" s="96"/>
-      <c r="J154" s="96"/>
-      <c r="K154" s="96"/>
-      <c r="L154" s="96"/>
-      <c r="M154" s="96"/>
-      <c r="N154" s="96"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="67"/>
+      <c r="J154" s="67"/>
+      <c r="K154" s="67"/>
+      <c r="L154" s="67"/>
+      <c r="M154" s="67"/>
+      <c r="N154" s="67"/>
     </row>
     <row r="155" spans="6:14">
-      <c r="F155" s="96"/>
-      <c r="G155" s="96"/>
-      <c r="H155" s="96"/>
-      <c r="I155" s="96"/>
-      <c r="J155" s="96"/>
-      <c r="K155" s="96"/>
-      <c r="L155" s="96"/>
-      <c r="M155" s="96"/>
-      <c r="N155" s="96"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67"/>
+      <c r="J155" s="67"/>
+      <c r="K155" s="67"/>
+      <c r="L155" s="67"/>
+      <c r="M155" s="67"/>
+      <c r="N155" s="67"/>
     </row>
     <row r="156" spans="6:14">
-      <c r="F156" s="96"/>
-      <c r="G156" s="96"/>
-      <c r="H156" s="96"/>
-      <c r="I156" s="96"/>
-      <c r="J156" s="96"/>
-      <c r="K156" s="96"/>
-      <c r="L156" s="96"/>
-      <c r="M156" s="96"/>
-      <c r="N156" s="96"/>
+      <c r="F156" s="67"/>
+      <c r="G156" s="67"/>
+      <c r="H156" s="67"/>
+      <c r="I156" s="67"/>
+      <c r="J156" s="67"/>
+      <c r="K156" s="67"/>
+      <c r="L156" s="67"/>
+      <c r="M156" s="67"/>
+      <c r="N156" s="67"/>
     </row>
     <row r="157" spans="6:14">
-      <c r="F157" s="96"/>
-      <c r="G157" s="96"/>
-      <c r="H157" s="96"/>
-      <c r="I157" s="96"/>
-      <c r="J157" s="96"/>
-      <c r="K157" s="96"/>
-      <c r="L157" s="96"/>
-      <c r="M157" s="96"/>
-      <c r="N157" s="96"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="67"/>
+      <c r="K157" s="67"/>
+      <c r="L157" s="67"/>
+      <c r="M157" s="67"/>
+      <c r="N157" s="67"/>
     </row>
     <row r="158" spans="6:14">
-      <c r="F158" s="96"/>
-      <c r="G158" s="96"/>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="96"/>
-      <c r="K158" s="96"/>
-      <c r="L158" s="96"/>
-      <c r="M158" s="96"/>
-      <c r="N158" s="96"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="67"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="67"/>
+      <c r="J158" s="67"/>
+      <c r="K158" s="67"/>
+      <c r="L158" s="67"/>
+      <c r="M158" s="67"/>
+      <c r="N158" s="67"/>
     </row>
     <row r="159" spans="6:14">
-      <c r="F159" s="96"/>
-      <c r="G159" s="96"/>
-      <c r="H159" s="96"/>
-      <c r="I159" s="96"/>
-      <c r="J159" s="96"/>
-      <c r="K159" s="96"/>
-      <c r="L159" s="96"/>
-      <c r="M159" s="96"/>
-      <c r="N159" s="96"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="67"/>
+      <c r="L159" s="67"/>
+      <c r="M159" s="67"/>
+      <c r="N159" s="67"/>
     </row>
     <row r="160" spans="6:14">
-      <c r="F160" s="96"/>
-      <c r="G160" s="96"/>
-      <c r="H160" s="96"/>
-      <c r="I160" s="96"/>
-      <c r="J160" s="96"/>
-      <c r="K160" s="96"/>
-      <c r="L160" s="96"/>
-      <c r="M160" s="96"/>
-      <c r="N160" s="96"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
+      <c r="J160" s="67"/>
+      <c r="K160" s="67"/>
+      <c r="L160" s="67"/>
+      <c r="M160" s="67"/>
+      <c r="N160" s="67"/>
     </row>
     <row r="161" spans="6:14">
-      <c r="F161" s="96"/>
-      <c r="G161" s="96"/>
-      <c r="H161" s="96"/>
-      <c r="I161" s="96"/>
-      <c r="J161" s="96"/>
-      <c r="K161" s="96"/>
-      <c r="L161" s="96"/>
-      <c r="M161" s="96"/>
-      <c r="N161" s="96"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="67"/>
+      <c r="H161" s="67"/>
+      <c r="I161" s="67"/>
+      <c r="J161" s="67"/>
+      <c r="K161" s="67"/>
+      <c r="L161" s="67"/>
+      <c r="M161" s="67"/>
+      <c r="N161" s="67"/>
     </row>
     <row r="162" spans="6:14">
-      <c r="F162" s="96"/>
-      <c r="G162" s="96"/>
-      <c r="H162" s="96"/>
-      <c r="I162" s="96"/>
-      <c r="J162" s="96"/>
-      <c r="K162" s="96"/>
-      <c r="L162" s="96"/>
-      <c r="M162" s="96"/>
-      <c r="N162" s="96"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="67"/>
+      <c r="K162" s="67"/>
+      <c r="L162" s="67"/>
+      <c r="M162" s="67"/>
+      <c r="N162" s="67"/>
     </row>
     <row r="163" spans="6:14">
-      <c r="F163" s="96"/>
-      <c r="G163" s="96"/>
-      <c r="H163" s="96"/>
-      <c r="I163" s="96"/>
-      <c r="J163" s="96"/>
-      <c r="K163" s="96"/>
-      <c r="L163" s="96"/>
-      <c r="M163" s="96"/>
-      <c r="N163" s="96"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="67"/>
+      <c r="J163" s="67"/>
+      <c r="K163" s="67"/>
+      <c r="L163" s="67"/>
+      <c r="M163" s="67"/>
+      <c r="N163" s="67"/>
     </row>
     <row r="164" spans="6:14">
-      <c r="F164" s="96"/>
-      <c r="G164" s="96"/>
-      <c r="H164" s="96"/>
-      <c r="I164" s="96"/>
-      <c r="J164" s="96"/>
-      <c r="K164" s="96"/>
-      <c r="L164" s="96"/>
-      <c r="M164" s="96"/>
-      <c r="N164" s="96"/>
+      <c r="F164" s="67"/>
+      <c r="G164" s="67"/>
+      <c r="H164" s="67"/>
+      <c r="I164" s="67"/>
+      <c r="J164" s="67"/>
+      <c r="K164" s="67"/>
+      <c r="L164" s="67"/>
+      <c r="M164" s="67"/>
+      <c r="N164" s="67"/>
     </row>
     <row r="165" spans="6:14">
-      <c r="F165" s="96"/>
-      <c r="G165" s="96"/>
-      <c r="H165" s="96"/>
-      <c r="I165" s="96"/>
-      <c r="J165" s="96"/>
-      <c r="K165" s="96"/>
-      <c r="L165" s="96"/>
-      <c r="M165" s="96"/>
-      <c r="N165" s="96"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="67"/>
+      <c r="H165" s="67"/>
+      <c r="I165" s="67"/>
+      <c r="J165" s="67"/>
+      <c r="K165" s="67"/>
+      <c r="L165" s="67"/>
+      <c r="M165" s="67"/>
+      <c r="N165" s="67"/>
     </row>
     <row r="166" spans="6:14">
-      <c r="F166" s="96"/>
-      <c r="G166" s="96"/>
-      <c r="H166" s="96"/>
-      <c r="I166" s="96"/>
-      <c r="J166" s="96"/>
-      <c r="K166" s="96"/>
-      <c r="L166" s="96"/>
-      <c r="M166" s="96"/>
-      <c r="N166" s="96"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
+      <c r="J166" s="67"/>
+      <c r="K166" s="67"/>
+      <c r="L166" s="67"/>
+      <c r="M166" s="67"/>
+      <c r="N166" s="67"/>
     </row>
     <row r="167" spans="6:14">
-      <c r="F167" s="96"/>
-      <c r="G167" s="96"/>
-      <c r="H167" s="96"/>
-      <c r="I167" s="96"/>
-      <c r="J167" s="96"/>
-      <c r="K167" s="96"/>
-      <c r="L167" s="96"/>
-      <c r="M167" s="96"/>
-      <c r="N167" s="96"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="67"/>
+      <c r="J167" s="67"/>
+      <c r="K167" s="67"/>
+      <c r="L167" s="67"/>
+      <c r="M167" s="67"/>
+      <c r="N167" s="67"/>
     </row>
     <row r="168" spans="6:14">
-      <c r="F168" s="96"/>
-      <c r="G168" s="96"/>
-      <c r="H168" s="96"/>
-      <c r="I168" s="96"/>
-      <c r="J168" s="96"/>
-      <c r="K168" s="96"/>
-      <c r="L168" s="96"/>
-      <c r="M168" s="96"/>
-      <c r="N168" s="96"/>
+      <c r="F168" s="67"/>
+      <c r="G168" s="67"/>
+      <c r="H168" s="67"/>
+      <c r="I168" s="67"/>
+      <c r="J168" s="67"/>
+      <c r="K168" s="67"/>
+      <c r="L168" s="67"/>
+      <c r="M168" s="67"/>
+      <c r="N168" s="67"/>
     </row>
     <row r="169" spans="6:14">
-      <c r="F169" s="96"/>
-      <c r="G169" s="96"/>
-      <c r="H169" s="96"/>
-      <c r="I169" s="96"/>
-      <c r="J169" s="96"/>
-      <c r="K169" s="96"/>
-      <c r="L169" s="96"/>
-      <c r="M169" s="96"/>
-      <c r="N169" s="96"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="67"/>
+      <c r="L169" s="67"/>
+      <c r="M169" s="67"/>
+      <c r="N169" s="67"/>
     </row>
     <row r="170" spans="6:14">
-      <c r="F170" s="96"/>
-      <c r="G170" s="96"/>
-      <c r="H170" s="96"/>
-      <c r="I170" s="96"/>
-      <c r="J170" s="96"/>
-      <c r="K170" s="96"/>
-      <c r="L170" s="96"/>
-      <c r="M170" s="96"/>
-      <c r="N170" s="96"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="67"/>
+      <c r="M170" s="67"/>
+      <c r="N170" s="67"/>
     </row>
     <row r="171" spans="6:14">
-      <c r="F171" s="96"/>
-      <c r="G171" s="96"/>
-      <c r="H171" s="96"/>
-      <c r="I171" s="96"/>
-      <c r="J171" s="96"/>
-      <c r="K171" s="96"/>
-      <c r="L171" s="96"/>
-      <c r="M171" s="96"/>
-      <c r="N171" s="96"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="67"/>
+      <c r="H171" s="67"/>
+      <c r="I171" s="67"/>
+      <c r="J171" s="67"/>
+      <c r="K171" s="67"/>
+      <c r="L171" s="67"/>
+      <c r="M171" s="67"/>
+      <c r="N171" s="67"/>
     </row>
     <row r="172" spans="6:14">
-      <c r="F172" s="96"/>
-      <c r="G172" s="96"/>
-      <c r="H172" s="96"/>
-      <c r="I172" s="96"/>
-      <c r="J172" s="96"/>
-      <c r="K172" s="96"/>
-      <c r="L172" s="96"/>
-      <c r="M172" s="96"/>
-      <c r="N172" s="96"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="67"/>
+      <c r="J172" s="67"/>
+      <c r="K172" s="67"/>
+      <c r="L172" s="67"/>
+      <c r="M172" s="67"/>
+      <c r="N172" s="67"/>
     </row>
     <row r="173" spans="6:14">
-      <c r="F173" s="96"/>
-      <c r="G173" s="96"/>
-      <c r="H173" s="96"/>
-      <c r="I173" s="96"/>
-      <c r="J173" s="96"/>
-      <c r="K173" s="96"/>
-      <c r="L173" s="96"/>
-      <c r="M173" s="96"/>
-      <c r="N173" s="96"/>
+      <c r="F173" s="67"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="67"/>
+      <c r="I173" s="67"/>
+      <c r="J173" s="67"/>
+      <c r="K173" s="67"/>
+      <c r="L173" s="67"/>
+      <c r="M173" s="67"/>
+      <c r="N173" s="67"/>
     </row>
     <row r="174" spans="6:14">
-      <c r="F174" s="96"/>
-      <c r="G174" s="96"/>
-      <c r="H174" s="96"/>
-      <c r="I174" s="96"/>
-      <c r="J174" s="96"/>
-      <c r="K174" s="96"/>
-      <c r="L174" s="96"/>
-      <c r="M174" s="96"/>
-      <c r="N174" s="96"/>
+      <c r="F174" s="67"/>
+      <c r="G174" s="67"/>
+      <c r="H174" s="67"/>
+      <c r="I174" s="67"/>
+      <c r="J174" s="67"/>
+      <c r="K174" s="67"/>
+      <c r="L174" s="67"/>
+      <c r="M174" s="67"/>
+      <c r="N174" s="67"/>
     </row>
     <row r="175" spans="6:14">
-      <c r="F175" s="96"/>
-      <c r="G175" s="96"/>
-      <c r="H175" s="96"/>
-      <c r="I175" s="96"/>
-      <c r="J175" s="96"/>
-      <c r="K175" s="96"/>
-      <c r="L175" s="96"/>
-      <c r="M175" s="96"/>
-      <c r="N175" s="96"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="67"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="67"/>
+      <c r="J175" s="67"/>
+      <c r="K175" s="67"/>
+      <c r="L175" s="67"/>
+      <c r="M175" s="67"/>
+      <c r="N175" s="67"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="96"/>
-      <c r="G176" s="96"/>
-      <c r="H176" s="96"/>
-      <c r="I176" s="96"/>
-      <c r="J176" s="96"/>
-      <c r="K176" s="96"/>
-      <c r="L176" s="96"/>
-      <c r="M176" s="96"/>
-      <c r="N176" s="96"/>
+      <c r="F176" s="67"/>
+      <c r="G176" s="67"/>
+      <c r="H176" s="67"/>
+      <c r="I176" s="67"/>
+      <c r="J176" s="67"/>
+      <c r="K176" s="67"/>
+      <c r="L176" s="67"/>
+      <c r="M176" s="67"/>
+      <c r="N176" s="67"/>
     </row>
     <row r="177" spans="6:14">
-      <c r="F177" s="96"/>
-      <c r="G177" s="96"/>
-      <c r="H177" s="96"/>
-      <c r="I177" s="96"/>
-      <c r="J177" s="96"/>
-      <c r="K177" s="96"/>
-      <c r="L177" s="96"/>
-      <c r="M177" s="96"/>
-      <c r="N177" s="96"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="67"/>
+      <c r="K177" s="67"/>
+      <c r="L177" s="67"/>
+      <c r="M177" s="67"/>
+      <c r="N177" s="67"/>
     </row>
     <row r="178" spans="6:14">
-      <c r="F178" s="96"/>
-      <c r="G178" s="96"/>
-      <c r="H178" s="96"/>
-      <c r="I178" s="96"/>
-      <c r="J178" s="96"/>
-      <c r="K178" s="96"/>
-      <c r="L178" s="96"/>
-      <c r="M178" s="96"/>
-      <c r="N178" s="96"/>
+      <c r="F178" s="67"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+      <c r="I178" s="67"/>
+      <c r="J178" s="67"/>
+      <c r="K178" s="67"/>
+      <c r="L178" s="67"/>
+      <c r="M178" s="67"/>
+      <c r="N178" s="67"/>
     </row>
     <row r="179" spans="6:14">
-      <c r="F179" s="96"/>
-      <c r="G179" s="96"/>
-      <c r="H179" s="96"/>
-      <c r="I179" s="96"/>
-      <c r="J179" s="96"/>
-      <c r="K179" s="96"/>
-      <c r="L179" s="96"/>
-      <c r="M179" s="96"/>
-      <c r="N179" s="96"/>
+      <c r="F179" s="67"/>
+      <c r="G179" s="67"/>
+      <c r="H179" s="67"/>
+      <c r="I179" s="67"/>
+      <c r="J179" s="67"/>
+      <c r="K179" s="67"/>
+      <c r="L179" s="67"/>
+      <c r="M179" s="67"/>
+      <c r="N179" s="67"/>
     </row>
     <row r="180" spans="6:14">
-      <c r="F180" s="96"/>
-      <c r="G180" s="96"/>
-      <c r="H180" s="96"/>
-      <c r="I180" s="96"/>
-      <c r="J180" s="96"/>
-      <c r="K180" s="96"/>
-      <c r="L180" s="96"/>
-      <c r="M180" s="96"/>
-      <c r="N180" s="96"/>
+      <c r="F180" s="67"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="67"/>
+      <c r="J180" s="67"/>
+      <c r="K180" s="67"/>
+      <c r="L180" s="67"/>
+      <c r="M180" s="67"/>
+      <c r="N180" s="67"/>
     </row>
     <row r="181" spans="6:14">
-      <c r="F181" s="96"/>
-      <c r="G181" s="96"/>
-      <c r="H181" s="96"/>
-      <c r="I181" s="96"/>
-      <c r="J181" s="96"/>
-      <c r="K181" s="96"/>
-      <c r="L181" s="96"/>
-      <c r="M181" s="96"/>
-      <c r="N181" s="96"/>
+      <c r="F181" s="67"/>
+      <c r="G181" s="67"/>
+      <c r="H181" s="67"/>
+      <c r="I181" s="67"/>
+      <c r="J181" s="67"/>
+      <c r="K181" s="67"/>
+      <c r="L181" s="67"/>
+      <c r="M181" s="67"/>
+      <c r="N181" s="67"/>
     </row>
     <row r="182" spans="6:14">
-      <c r="F182" s="96"/>
-      <c r="G182" s="96"/>
-      <c r="H182" s="96"/>
-      <c r="I182" s="96"/>
-      <c r="J182" s="96"/>
-      <c r="K182" s="96"/>
-      <c r="L182" s="96"/>
-      <c r="M182" s="96"/>
-      <c r="N182" s="96"/>
+      <c r="F182" s="67"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+      <c r="I182" s="67"/>
+      <c r="J182" s="67"/>
+      <c r="K182" s="67"/>
+      <c r="L182" s="67"/>
+      <c r="M182" s="67"/>
+      <c r="N182" s="67"/>
     </row>
     <row r="183" spans="6:14">
-      <c r="F183" s="96"/>
-      <c r="G183" s="96"/>
-      <c r="H183" s="96"/>
-      <c r="I183" s="96"/>
-      <c r="J183" s="96"/>
-      <c r="K183" s="96"/>
-      <c r="L183" s="96"/>
-      <c r="M183" s="96"/>
-      <c r="N183" s="96"/>
+      <c r="F183" s="67"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="67"/>
+      <c r="J183" s="67"/>
+      <c r="K183" s="67"/>
+      <c r="L183" s="67"/>
+      <c r="M183" s="67"/>
+      <c r="N183" s="67"/>
     </row>
     <row r="184" spans="6:14">
-      <c r="F184" s="96"/>
-      <c r="G184" s="96"/>
-      <c r="H184" s="96"/>
-      <c r="I184" s="96"/>
-      <c r="J184" s="96"/>
-      <c r="K184" s="96"/>
-      <c r="L184" s="96"/>
-      <c r="M184" s="96"/>
-      <c r="N184" s="96"/>
+      <c r="F184" s="67"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+      <c r="I184" s="67"/>
+      <c r="J184" s="67"/>
+      <c r="K184" s="67"/>
+      <c r="L184" s="67"/>
+      <c r="M184" s="67"/>
+      <c r="N184" s="67"/>
     </row>
     <row r="185" spans="6:14">
-      <c r="F185" s="96"/>
-      <c r="G185" s="96"/>
-      <c r="H185" s="96"/>
-      <c r="I185" s="96"/>
-      <c r="J185" s="96"/>
-      <c r="K185" s="96"/>
-      <c r="L185" s="96"/>
-      <c r="M185" s="96"/>
-      <c r="N185" s="96"/>
+      <c r="F185" s="67"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+      <c r="I185" s="67"/>
+      <c r="J185" s="67"/>
+      <c r="K185" s="67"/>
+      <c r="L185" s="67"/>
+      <c r="M185" s="67"/>
+      <c r="N185" s="67"/>
     </row>
     <row r="186" spans="6:14">
-      <c r="F186" s="96"/>
-      <c r="G186" s="96"/>
-      <c r="H186" s="96"/>
-      <c r="I186" s="96"/>
-      <c r="J186" s="96"/>
-      <c r="K186" s="96"/>
-      <c r="L186" s="96"/>
-      <c r="M186" s="96"/>
-      <c r="N186" s="96"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="67"/>
+      <c r="J186" s="67"/>
+      <c r="K186" s="67"/>
+      <c r="L186" s="67"/>
+      <c r="M186" s="67"/>
+      <c r="N186" s="67"/>
     </row>
     <row r="187" spans="6:14">
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
-      <c r="H187" s="96"/>
-      <c r="I187" s="96"/>
-      <c r="J187" s="96"/>
-      <c r="K187" s="96"/>
-      <c r="L187" s="96"/>
-      <c r="M187" s="96"/>
-      <c r="N187" s="96"/>
+      <c r="F187" s="67"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="67"/>
+      <c r="I187" s="67"/>
+      <c r="J187" s="67"/>
+      <c r="K187" s="67"/>
+      <c r="L187" s="67"/>
+      <c r="M187" s="67"/>
+      <c r="N187" s="67"/>
     </row>
     <row r="188" spans="6:14">
-      <c r="F188" s="96"/>
-      <c r="G188" s="96"/>
-      <c r="H188" s="96"/>
-      <c r="I188" s="96"/>
-      <c r="J188" s="96"/>
-      <c r="K188" s="96"/>
-      <c r="L188" s="96"/>
-      <c r="M188" s="96"/>
-      <c r="N188" s="96"/>
+      <c r="F188" s="67"/>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="67"/>
+      <c r="J188" s="67"/>
+      <c r="K188" s="67"/>
+      <c r="L188" s="67"/>
+      <c r="M188" s="67"/>
+      <c r="N188" s="67"/>
     </row>
     <row r="189" spans="6:14">
-      <c r="F189" s="96"/>
-      <c r="G189" s="96"/>
-      <c r="H189" s="96"/>
-      <c r="I189" s="96"/>
-      <c r="J189" s="96"/>
-      <c r="K189" s="96"/>
-      <c r="L189" s="96"/>
-      <c r="M189" s="96"/>
-      <c r="N189" s="96"/>
+      <c r="F189" s="67"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+      <c r="I189" s="67"/>
+      <c r="J189" s="67"/>
+      <c r="K189" s="67"/>
+      <c r="L189" s="67"/>
+      <c r="M189" s="67"/>
+      <c r="N189" s="67"/>
     </row>
     <row r="190" spans="6:14">
-      <c r="F190" s="96"/>
-      <c r="G190" s="96"/>
-      <c r="H190" s="96"/>
-      <c r="I190" s="96"/>
-      <c r="J190" s="96"/>
-      <c r="K190" s="96"/>
-      <c r="L190" s="96"/>
-      <c r="M190" s="96"/>
-      <c r="N190" s="96"/>
+      <c r="F190" s="67"/>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+      <c r="I190" s="67"/>
+      <c r="J190" s="67"/>
+      <c r="K190" s="67"/>
+      <c r="L190" s="67"/>
+      <c r="M190" s="67"/>
+      <c r="N190" s="67"/>
     </row>
     <row r="191" spans="6:14">
-      <c r="F191" s="96"/>
-      <c r="G191" s="96"/>
-      <c r="H191" s="96"/>
-      <c r="I191" s="96"/>
-      <c r="J191" s="96"/>
-      <c r="K191" s="96"/>
-      <c r="L191" s="96"/>
-      <c r="M191" s="96"/>
-      <c r="N191" s="96"/>
+      <c r="F191" s="67"/>
+      <c r="G191" s="67"/>
+      <c r="H191" s="67"/>
+      <c r="I191" s="67"/>
+      <c r="J191" s="67"/>
+      <c r="K191" s="67"/>
+      <c r="L191" s="67"/>
+      <c r="M191" s="67"/>
+      <c r="N191" s="67"/>
     </row>
     <row r="192" spans="6:14">
-      <c r="F192" s="96"/>
-      <c r="G192" s="96"/>
-      <c r="H192" s="96"/>
-      <c r="I192" s="96"/>
-      <c r="J192" s="96"/>
-      <c r="K192" s="96"/>
-      <c r="L192" s="96"/>
-      <c r="M192" s="96"/>
-      <c r="N192" s="96"/>
+      <c r="F192" s="67"/>
+      <c r="G192" s="67"/>
+      <c r="H192" s="67"/>
+      <c r="I192" s="67"/>
+      <c r="J192" s="67"/>
+      <c r="K192" s="67"/>
+      <c r="L192" s="67"/>
+      <c r="M192" s="67"/>
+      <c r="N192" s="67"/>
     </row>
     <row r="193" spans="6:14">
-      <c r="F193" s="96"/>
-      <c r="G193" s="96"/>
-      <c r="H193" s="96"/>
-      <c r="I193" s="96"/>
-      <c r="J193" s="96"/>
-      <c r="K193" s="96"/>
-      <c r="L193" s="96"/>
-      <c r="M193" s="96"/>
-      <c r="N193" s="96"/>
+      <c r="F193" s="67"/>
+      <c r="G193" s="67"/>
+      <c r="H193" s="67"/>
+      <c r="I193" s="67"/>
+      <c r="J193" s="67"/>
+      <c r="K193" s="67"/>
+      <c r="L193" s="67"/>
+      <c r="M193" s="67"/>
+      <c r="N193" s="67"/>
     </row>
     <row r="194" spans="6:14">
-      <c r="F194" s="96"/>
-      <c r="G194" s="96"/>
-      <c r="H194" s="96"/>
-      <c r="I194" s="96"/>
-      <c r="J194" s="96"/>
-      <c r="K194" s="96"/>
-      <c r="L194" s="96"/>
-      <c r="M194" s="96"/>
-      <c r="N194" s="96"/>
+      <c r="F194" s="67"/>
+      <c r="G194" s="67"/>
+      <c r="H194" s="67"/>
+      <c r="I194" s="67"/>
+      <c r="J194" s="67"/>
+      <c r="K194" s="67"/>
+      <c r="L194" s="67"/>
+      <c r="M194" s="67"/>
+      <c r="N194" s="67"/>
     </row>
     <row r="195" spans="6:14">
-      <c r="F195" s="96"/>
-      <c r="G195" s="96"/>
-      <c r="H195" s="96"/>
-      <c r="I195" s="96"/>
-      <c r="J195" s="96"/>
-      <c r="K195" s="96"/>
-      <c r="L195" s="96"/>
-      <c r="M195" s="96"/>
-      <c r="N195" s="96"/>
+      <c r="F195" s="67"/>
+      <c r="G195" s="67"/>
+      <c r="H195" s="67"/>
+      <c r="I195" s="67"/>
+      <c r="J195" s="67"/>
+      <c r="K195" s="67"/>
+      <c r="L195" s="67"/>
+      <c r="M195" s="67"/>
+      <c r="N195" s="67"/>
     </row>
     <row r="196" spans="6:14">
-      <c r="F196" s="96"/>
-      <c r="G196" s="96"/>
-      <c r="H196" s="96"/>
-      <c r="I196" s="96"/>
-      <c r="J196" s="96"/>
-      <c r="K196" s="96"/>
-      <c r="L196" s="96"/>
-      <c r="M196" s="96"/>
-      <c r="N196" s="96"/>
+      <c r="F196" s="67"/>
+      <c r="G196" s="67"/>
+      <c r="H196" s="67"/>
+      <c r="I196" s="67"/>
+      <c r="J196" s="67"/>
+      <c r="K196" s="67"/>
+      <c r="L196" s="67"/>
+      <c r="M196" s="67"/>
+      <c r="N196" s="67"/>
     </row>
     <row r="197" spans="6:14">
-      <c r="F197" s="96"/>
-      <c r="G197" s="96"/>
-      <c r="H197" s="96"/>
-      <c r="I197" s="96"/>
-      <c r="J197" s="96"/>
-      <c r="K197" s="96"/>
-      <c r="L197" s="96"/>
-      <c r="M197" s="96"/>
-      <c r="N197" s="96"/>
+      <c r="F197" s="67"/>
+      <c r="G197" s="67"/>
+      <c r="H197" s="67"/>
+      <c r="I197" s="67"/>
+      <c r="J197" s="67"/>
+      <c r="K197" s="67"/>
+      <c r="L197" s="67"/>
+      <c r="M197" s="67"/>
+      <c r="N197" s="67"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="33">
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="H15:M22"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="O7:O13"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -5399,6 +5364,28 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="H15:M22"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="O7:O13"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 B18" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -6999,13 +6986,13 @@
       <c r="I43" s="4"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="56" t="s">
+      <c r="L43" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="50"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="124"/>
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
       <c r="S43" s="31"/>
@@ -7037,13 +7024,13 @@
       <c r="I44" s="4"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="57" t="s">
+      <c r="L44" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
@@ -7075,11 +7062,11 @@
       <c r="I45" s="4"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
@@ -7111,11 +7098,11 @@
       <c r="I46" s="4"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
@@ -7147,11 +7134,11 @@
       <c r="I47" s="4"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="122"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="122"/>
+      <c r="P47" s="122"/>
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
@@ -7177,11 +7164,11 @@
       <c r="I48" s="4"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="122"/>
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
@@ -7219,11 +7206,11 @@
       <c r="I49" s="4"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
@@ -7253,11 +7240,11 @@
       <c r="I50" s="4"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
@@ -7287,11 +7274,11 @@
       <c r="I51" s="4"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
@@ -7331,11 +7318,11 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
@@ -7375,11 +7362,11 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="122"/>
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
@@ -7420,11 +7407,11 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="122"/>
       <c r="Q54" s="31"/>
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
@@ -7462,11 +7449,11 @@
       <c r="I55" s="4"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
@@ -7504,11 +7491,11 @@
       <c r="I56" s="4"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
       <c r="Q56" s="31"/>
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
@@ -7544,11 +7531,11 @@
       <c r="I57" s="4"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
@@ -7586,11 +7573,11 @@
       <c r="I58" s="4"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="122"/>
+      <c r="P58" s="122"/>
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
       <c r="S58" s="31"/>
@@ -7626,11 +7613,11 @@
       <c r="I59" s="4"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
@@ -7668,11 +7655,11 @@
       <c r="I60" s="4"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
+      <c r="P60" s="122"/>
       <c r="Q60" s="31"/>
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
@@ -7710,11 +7697,11 @@
       <c r="I61" s="4"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="122"/>
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
@@ -7752,11 +7739,11 @@
       <c r="I62" s="4"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="122"/>
+      <c r="P62" s="122"/>
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
       <c r="S62" s="31"/>
@@ -7794,11 +7781,11 @@
       <c r="I63" s="4"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
+      <c r="L63" s="122"/>
+      <c r="M63" s="122"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="122"/>
+      <c r="P63" s="122"/>
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
@@ -7834,11 +7821,11 @@
         <v>202</v>
       </c>
       <c r="I64" s="26"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="122"/>
+      <c r="N64" s="122"/>
+      <c r="O64" s="122"/>
+      <c r="P64" s="122"/>
       <c r="Q64" s="31"/>
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
@@ -7874,11 +7861,11 @@
         <v>205</v>
       </c>
       <c r="I65" s="26"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
+      <c r="L65" s="122"/>
+      <c r="M65" s="122"/>
+      <c r="N65" s="122"/>
+      <c r="O65" s="122"/>
+      <c r="P65" s="122"/>
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
@@ -7914,11 +7901,11 @@
         <v>209</v>
       </c>
       <c r="I66" s="26"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
+      <c r="L66" s="122"/>
+      <c r="M66" s="122"/>
+      <c r="N66" s="122"/>
+      <c r="O66" s="122"/>
+      <c r="P66" s="122"/>
       <c r="Q66" s="31"/>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
@@ -7946,11 +7933,11 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
+      <c r="L67" s="122"/>
+      <c r="M67" s="122"/>
+      <c r="N67" s="122"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="122"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
@@ -7978,11 +7965,11 @@
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
+      <c r="L68" s="122"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="122"/>
+      <c r="O68" s="122"/>
+      <c r="P68" s="122"/>
       <c r="Q68" s="31"/>
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
@@ -8008,11 +7995,11 @@
       <c r="G69" s="26"/>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="122"/>
+      <c r="N69" s="122"/>
+      <c r="O69" s="122"/>
+      <c r="P69" s="122"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
@@ -8048,11 +8035,11 @@
         <v>197</v>
       </c>
       <c r="I70" s="26"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="122"/>
+      <c r="P70" s="122"/>
       <c r="Q70" s="31"/>
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
@@ -8088,11 +8075,11 @@
         <v>197</v>
       </c>
       <c r="I71" s="26"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="122"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="122"/>
+      <c r="P71" s="122"/>
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
@@ -8116,11 +8103,11 @@
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
+      <c r="L72" s="122"/>
+      <c r="M72" s="122"/>
+      <c r="N72" s="122"/>
+      <c r="O72" s="122"/>
+      <c r="P72" s="122"/>
       <c r="Q72" s="31"/>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
@@ -8156,11 +8143,11 @@
         <v>219</v>
       </c>
       <c r="I73" s="26"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
+      <c r="L73" s="122"/>
+      <c r="M73" s="122"/>
+      <c r="N73" s="122"/>
+      <c r="O73" s="122"/>
+      <c r="P73" s="122"/>
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
@@ -8188,11 +8175,11 @@
         <v>220</v>
       </c>
       <c r="I74" s="26"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
+      <c r="L74" s="122"/>
+      <c r="M74" s="122"/>
+      <c r="N74" s="122"/>
+      <c r="O74" s="122"/>
+      <c r="P74" s="122"/>
       <c r="Q74" s="31"/>
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
@@ -8214,11 +8201,11 @@
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
+      <c r="L75" s="122"/>
+      <c r="M75" s="122"/>
+      <c r="N75" s="122"/>
+      <c r="O75" s="122"/>
+      <c r="P75" s="122"/>
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
@@ -8240,11 +8227,11 @@
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
+      <c r="L76" s="122"/>
+      <c r="M76" s="122"/>
+      <c r="N76" s="122"/>
+      <c r="O76" s="122"/>
+      <c r="P76" s="122"/>
       <c r="Q76" s="31"/>
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
@@ -8266,11 +8253,11 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
+      <c r="L77" s="122"/>
+      <c r="M77" s="122"/>
+      <c r="N77" s="122"/>
+      <c r="O77" s="122"/>
+      <c r="P77" s="122"/>
       <c r="Q77" s="31"/>
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
@@ -8284,11 +8271,11 @@
       <c r="AA77" s="31"/>
     </row>
     <row r="78" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="52"/>
-      <c r="P78" s="52"/>
+      <c r="L78" s="122"/>
+      <c r="M78" s="122"/>
+      <c r="N78" s="122"/>
+      <c r="O78" s="122"/>
+      <c r="P78" s="122"/>
       <c r="Q78" s="31"/>
       <c r="R78" s="31"/>
       <c r="S78" s="31"/>
@@ -8302,11 +8289,11 @@
       <c r="AA78" s="31"/>
     </row>
     <row r="79" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="52"/>
+      <c r="L79" s="122"/>
+      <c r="M79" s="122"/>
+      <c r="N79" s="122"/>
+      <c r="O79" s="122"/>
+      <c r="P79" s="122"/>
       <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
@@ -8320,11 +8307,11 @@
       <c r="AA79" s="31"/>
     </row>
     <row r="80" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
+      <c r="L80" s="122"/>
+      <c r="M80" s="122"/>
+      <c r="N80" s="122"/>
+      <c r="O80" s="122"/>
+      <c r="P80" s="122"/>
       <c r="Q80" s="31"/>
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
@@ -8338,11 +8325,11 @@
       <c r="AA80" s="31"/>
     </row>
     <row r="81" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
+      <c r="L81" s="122"/>
+      <c r="M81" s="122"/>
+      <c r="N81" s="122"/>
+      <c r="O81" s="122"/>
+      <c r="P81" s="122"/>
       <c r="Q81" s="31"/>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
@@ -8356,11 +8343,11 @@
       <c r="AA81" s="31"/>
     </row>
     <row r="82" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="52"/>
-      <c r="P82" s="52"/>
+      <c r="L82" s="122"/>
+      <c r="M82" s="122"/>
+      <c r="N82" s="122"/>
+      <c r="O82" s="122"/>
+      <c r="P82" s="122"/>
       <c r="Q82" s="31"/>
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
@@ -8374,11 +8361,11 @@
       <c r="AA82" s="31"/>
     </row>
     <row r="83" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
+      <c r="L83" s="122"/>
+      <c r="M83" s="122"/>
+      <c r="N83" s="122"/>
+      <c r="O83" s="122"/>
+      <c r="P83" s="122"/>
       <c r="Q83" s="31"/>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -8392,11 +8379,11 @@
       <c r="AA83" s="31"/>
     </row>
     <row r="84" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
+      <c r="L84" s="122"/>
+      <c r="M84" s="122"/>
+      <c r="N84" s="122"/>
+      <c r="O84" s="122"/>
+      <c r="P84" s="122"/>
       <c r="Q84" s="31"/>
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
@@ -8410,11 +8397,11 @@
       <c r="AA84" s="31"/>
     </row>
     <row r="85" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
+      <c r="L85" s="122"/>
+      <c r="M85" s="122"/>
+      <c r="N85" s="122"/>
+      <c r="O85" s="122"/>
+      <c r="P85" s="122"/>
       <c r="Q85" s="31"/>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
@@ -8428,11 +8415,11 @@
       <c r="AA85" s="31"/>
     </row>
     <row r="86" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="52"/>
-      <c r="P86" s="52"/>
+      <c r="L86" s="122"/>
+      <c r="M86" s="122"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="122"/>
       <c r="Q86" s="31"/>
       <c r="R86" s="31"/>
       <c r="S86" s="31"/>
@@ -8446,11 +8433,11 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
+      <c r="L87" s="122"/>
+      <c r="M87" s="122"/>
+      <c r="N87" s="122"/>
+      <c r="O87" s="122"/>
+      <c r="P87" s="122"/>
       <c r="Q87" s="31"/>
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
@@ -8494,267 +8481,267 @@
       </c>
     </row>
     <row r="3" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
     </row>
     <row r="15" spans="2:21" ht="12.75" customHeight="1">
       <c r="B15" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16" t="s">
@@ -8769,16 +8756,16 @@
       <c r="E18" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
@@ -8793,16 +8780,16 @@
       <c r="E19" t="s">
         <v>229</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
     </row>
     <row r="20" spans="2:15">
       <c r="C20" t="s">
@@ -8814,16 +8801,16 @@
       <c r="E20" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
@@ -8835,16 +8822,16 @@
       <c r="D21" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" t="s">
@@ -8856,16 +8843,16 @@
       <c r="E22" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
@@ -8874,364 +8861,364 @@
       <c r="D23" t="s">
         <v>238</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
     </row>
     <row r="33" spans="6:15">
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
     </row>
     <row r="35" spans="6:15">
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
     </row>
     <row r="36" spans="6:15">
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
     </row>
     <row r="37" spans="6:15">
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
     </row>
     <row r="38" spans="6:15">
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
     </row>
     <row r="39" spans="6:15">
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
     </row>
     <row r="40" spans="6:15">
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
     </row>
     <row r="41" spans="6:15">
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
     </row>
     <row r="42" spans="6:15">
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
     </row>
     <row r="43" spans="6:15">
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
     </row>
     <row r="44" spans="6:15">
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
     </row>
     <row r="45" spans="6:15">
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
     </row>
     <row r="46" spans="6:15">
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
     </row>
     <row r="47" spans="6:15">
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="122"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="122"/>
     </row>
     <row r="48" spans="6:15">
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
     </row>
     <row r="49" spans="6:15">
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
     </row>
     <row r="50" spans="6:15">
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
     </row>
     <row r="51" spans="6:15">
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
     </row>
     <row r="52" spans="6:15">
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10272,7 +10259,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
@@ -10283,55 +10270,26 @@
     <col min="1" max="1" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E063387-296B-E24C-901F-0CFEFFFC214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3736C889-67F4-E54C-A582-EEFB36A42045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="426">
   <si>
     <t>Index</t>
   </si>
@@ -1421,22 +1421,49 @@
     <t>US Equity Indices.xlsx</t>
   </si>
   <si>
-    <t>Bitty &amp; GM2 fitted trends</t>
-  </si>
-  <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
     <t>Limit_StartDate</t>
   </si>
   <si>
-    <t>Global M2 (top 50) dev. from trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BTCUSD dev. from trend</t>
-  </si>
-  <si>
-    <t>SPX dev. from trend</t>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trillions of U.S $ </t>
+  </si>
+  <si>
+    <t>GDPC1</t>
+  </si>
+  <si>
+    <t>U.S Real GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trillions of U.S 2017 chained $ </t>
+  </si>
+  <si>
+    <t>A261RX1Q020SBEA</t>
+  </si>
+  <si>
+    <t>U.S Real GDI</t>
+  </si>
+  <si>
+    <t>U.S GDP and GDI</t>
+  </si>
+  <si>
+    <t>US Gross dometic product (GDP)</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+  </si>
+  <si>
+    <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+  </si>
+  <si>
+    <t>US financial conditions, employment &amp; equities.xlsx</t>
+  </si>
+  <si>
+    <t>U.S GDP and GDI.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1444,9 +1471,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1596,6 +1623,19 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1869,7 +1909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2016,10 +2056,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2107,15 +2143,130 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2153,75 +2304,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2231,50 +2314,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2663,7 +2719,7 @@
   <dimension ref="A1:AJ197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:M22"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2727,25 +2783,25 @@
       <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="134" t="s">
+      <c r="O1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137" t="s">
-        <v>413</v>
+      <c r="P1" s="90" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1">
-      <c r="A2" s="79">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>59</v>
+      <c r="B2" s="138" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>18</v>
@@ -2754,69 +2810,70 @@
         <v>70</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="H2" s="50"/>
+        <v>420</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>413</v>
+      </c>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="55"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="131">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="88">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="91"/>
+    </row>
+    <row r="3" spans="1:36" ht="18" customHeight="1">
+      <c r="A3" s="78">
         <v>2</v>
       </c>
-      <c r="O2" s="135">
-        <f>10^12</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="P2" s="138"/>
-    </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1">
-      <c r="A3" s="79">
-        <v>2</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>59</v>
+      <c r="B3" s="138" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F3" s="55" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="H3" s="50"/>
+        <v>408</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>413</v>
+      </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="55"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="138">
-        <v>41275</v>
-      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="88">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:36" ht="18" customHeight="1">
-      <c r="A4" s="79">
+      <c r="A4" s="78">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>59</v>
+      <c r="B4" s="138" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>26</v>
@@ -2825,247 +2882,267 @@
         <v>70</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="H4" s="50"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
       <c r="K4" s="55"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="138">
-        <v>39814</v>
-      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="88">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:36" ht="18" customHeight="1">
-      <c r="A5" s="79">
+      <c r="A5" s="78">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="B5" s="142" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>416</v>
+      </c>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="55"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="138"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="85">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="88">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="91"/>
     </row>
     <row r="6" spans="1:36" ht="18" customHeight="1">
-      <c r="A6" s="80">
+      <c r="A6" s="79">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="138"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="1:36" ht="18" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="102"/>
+      <c r="B7" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="116" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="101" t="s">
         <v>392</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="102" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="101" t="s">
         <v>394</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="101" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="102" t="s">
+      <c r="I7" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="K7" s="112" t="s">
+      <c r="K7" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="96" t="s">
         <v>399</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="105" t="s">
         <v>400</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="O7" s="133" t="s">
+      <c r="O7" s="97" t="s">
         <v>402</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
     </row>
     <row r="8" spans="1:36" ht="18" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
     </row>
     <row r="9" spans="1:36" ht="18" customHeight="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:36" ht="26" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="1:36" ht="16" customHeight="1">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="110" t="s">
+      <c r="D11" s="121"/>
+      <c r="E11" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
     </row>
     <row r="12" spans="1:36" ht="16" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
     </row>
     <row r="13" spans="1:36" ht="16" customHeight="1">
       <c r="A13" s="5"/>
@@ -3073,50 +3150,50 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
     </row>
     <row r="14" spans="1:36" ht="16" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="99" t="s">
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="100"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
@@ -3125,2263 +3202,2280 @@
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="121" t="s">
+      <c r="B15" s="127" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="107" t="s">
+      <c r="G15" s="113"/>
+      <c r="H15" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="64"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:36" ht="16" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="98"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="64"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="64"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="64"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1">
       <c r="A19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="81" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="64"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1">
       <c r="A21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="64"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1">
       <c r="A22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="64"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" ht="23" customHeight="1">
       <c r="A23" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="84" t="s">
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
     </row>
     <row r="24" spans="1:14" ht="19" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="84" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="73"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="73"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="73"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="73"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="73"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="73"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="73"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="73"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
     </row>
     <row r="65" spans="6:14">
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
     </row>
     <row r="66" spans="6:14">
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
     </row>
     <row r="67" spans="6:14">
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
     </row>
     <row r="68" spans="6:14">
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
     </row>
     <row r="69" spans="6:14">
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
     </row>
     <row r="70" spans="6:14">
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
     </row>
     <row r="71" spans="6:14">
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
     </row>
     <row r="72" spans="6:14">
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
     </row>
     <row r="73" spans="6:14">
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
     </row>
     <row r="74" spans="6:14">
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
     </row>
     <row r="75" spans="6:14">
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
     </row>
     <row r="76" spans="6:14">
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
     </row>
     <row r="77" spans="6:14">
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
-      <c r="M77" s="64"/>
-      <c r="N77" s="64"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
     </row>
     <row r="78" spans="6:14">
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="64"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="64"/>
-      <c r="N78" s="64"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
     </row>
     <row r="79" spans="6:14">
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="64"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
     </row>
     <row r="80" spans="6:14">
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="63"/>
+      <c r="N80" s="63"/>
     </row>
     <row r="81" spans="6:14">
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
     </row>
     <row r="82" spans="6:14">
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
-      <c r="M82" s="64"/>
-      <c r="N82" s="64"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
     </row>
     <row r="83" spans="6:14">
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="6:14">
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="64"/>
-      <c r="N84" s="64"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
     </row>
     <row r="85" spans="6:14">
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="64"/>
-      <c r="N85" s="64"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
     </row>
     <row r="86" spans="6:14">
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
     </row>
     <row r="87" spans="6:14">
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
-      <c r="N87" s="64"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
     </row>
     <row r="88" spans="6:14">
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="64"/>
-      <c r="L88" s="64"/>
-      <c r="M88" s="64"/>
-      <c r="N88" s="64"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="63"/>
+      <c r="N88" s="63"/>
     </row>
     <row r="89" spans="6:14">
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="64"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
     </row>
     <row r="90" spans="6:14">
-      <c r="F90" s="64"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="64"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
     </row>
     <row r="91" spans="6:14">
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
     </row>
     <row r="92" spans="6:14">
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
-      <c r="N92" s="64"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="63"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="63"/>
+      <c r="N92" s="63"/>
     </row>
     <row r="93" spans="6:14">
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="64"/>
-      <c r="N93" s="64"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
     </row>
     <row r="94" spans="6:14">
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="64"/>
-      <c r="N94" s="64"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="63"/>
+      <c r="L94" s="63"/>
+      <c r="M94" s="63"/>
+      <c r="N94" s="63"/>
     </row>
     <row r="95" spans="6:14">
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
+      <c r="M95" s="63"/>
+      <c r="N95" s="63"/>
     </row>
     <row r="96" spans="6:14">
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
-      <c r="N96" s="64"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="63"/>
+      <c r="L96" s="63"/>
+      <c r="M96" s="63"/>
+      <c r="N96" s="63"/>
     </row>
     <row r="97" spans="6:14">
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="64"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
     </row>
     <row r="98" spans="6:14">
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="64"/>
-      <c r="N98" s="64"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="63"/>
+      <c r="N98" s="63"/>
     </row>
     <row r="99" spans="6:14">
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="63"/>
+      <c r="N99" s="63"/>
     </row>
     <row r="100" spans="6:14">
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="64"/>
-      <c r="L100" s="64"/>
-      <c r="M100" s="64"/>
-      <c r="N100" s="64"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="63"/>
+      <c r="M100" s="63"/>
+      <c r="N100" s="63"/>
     </row>
     <row r="101" spans="6:14">
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
     </row>
     <row r="102" spans="6:14">
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="63"/>
     </row>
     <row r="103" spans="6:14">
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="63"/>
     </row>
     <row r="104" spans="6:14">
-      <c r="F104" s="64"/>
-      <c r="G104" s="64"/>
-      <c r="H104" s="64"/>
-      <c r="I104" s="64"/>
-      <c r="J104" s="64"/>
-      <c r="K104" s="64"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="64"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="63"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="63"/>
+      <c r="K104" s="63"/>
+      <c r="L104" s="63"/>
+      <c r="M104" s="63"/>
+      <c r="N104" s="63"/>
     </row>
     <row r="105" spans="6:14">
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="63"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
     </row>
     <row r="106" spans="6:14">
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="63"/>
     </row>
     <row r="107" spans="6:14">
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="63"/>
+      <c r="L107" s="63"/>
+      <c r="M107" s="63"/>
+      <c r="N107" s="63"/>
     </row>
     <row r="108" spans="6:14">
-      <c r="F108" s="64"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="63"/>
+      <c r="L108" s="63"/>
+      <c r="M108" s="63"/>
+      <c r="N108" s="63"/>
     </row>
     <row r="109" spans="6:14">
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="64"/>
-      <c r="K109" s="64"/>
-      <c r="L109" s="64"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="64"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
     </row>
     <row r="110" spans="6:14">
-      <c r="F110" s="64"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="64"/>
-      <c r="L110" s="64"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="63"/>
+      <c r="L110" s="63"/>
+      <c r="M110" s="63"/>
+      <c r="N110" s="63"/>
     </row>
     <row r="111" spans="6:14">
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="64"/>
-      <c r="L111" s="64"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="63"/>
+      <c r="L111" s="63"/>
+      <c r="M111" s="63"/>
+      <c r="N111" s="63"/>
     </row>
     <row r="112" spans="6:14">
-      <c r="F112" s="64"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="64"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+      <c r="K112" s="63"/>
+      <c r="L112" s="63"/>
+      <c r="M112" s="63"/>
+      <c r="N112" s="63"/>
     </row>
     <row r="113" spans="6:14">
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="64"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="63"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
     </row>
     <row r="114" spans="6:14">
-      <c r="F114" s="64"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="64"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="63"/>
+      <c r="M114" s="63"/>
+      <c r="N114" s="63"/>
     </row>
     <row r="115" spans="6:14">
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
-      <c r="L115" s="64"/>
-      <c r="M115" s="64"/>
-      <c r="N115" s="64"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="63"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
+      <c r="N115" s="63"/>
     </row>
     <row r="116" spans="6:14">
-      <c r="F116" s="64"/>
-      <c r="G116" s="64"/>
-      <c r="H116" s="64"/>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
-      <c r="K116" s="64"/>
-      <c r="L116" s="64"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="64"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="63"/>
+      <c r="J116" s="63"/>
+      <c r="K116" s="63"/>
+      <c r="L116" s="63"/>
+      <c r="M116" s="63"/>
+      <c r="N116" s="63"/>
     </row>
     <row r="117" spans="6:14">
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
-      <c r="K117" s="64"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="63"/>
+      <c r="K117" s="63"/>
+      <c r="L117" s="63"/>
+      <c r="M117" s="63"/>
+      <c r="N117" s="63"/>
     </row>
     <row r="118" spans="6:14">
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="64"/>
-      <c r="L118" s="64"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="64"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="63"/>
+      <c r="L118" s="63"/>
+      <c r="M118" s="63"/>
+      <c r="N118" s="63"/>
     </row>
     <row r="119" spans="6:14">
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
-      <c r="H119" s="64"/>
-      <c r="I119" s="64"/>
-      <c r="J119" s="64"/>
-      <c r="K119" s="64"/>
-      <c r="L119" s="64"/>
-      <c r="M119" s="64"/>
-      <c r="N119" s="64"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="63"/>
+      <c r="I119" s="63"/>
+      <c r="J119" s="63"/>
+      <c r="K119" s="63"/>
+      <c r="L119" s="63"/>
+      <c r="M119" s="63"/>
+      <c r="N119" s="63"/>
     </row>
     <row r="120" spans="6:14">
-      <c r="F120" s="64"/>
-      <c r="G120" s="64"/>
-      <c r="H120" s="64"/>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
-      <c r="K120" s="64"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="64"/>
+      <c r="F120" s="63"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="63"/>
+      <c r="I120" s="63"/>
+      <c r="J120" s="63"/>
+      <c r="K120" s="63"/>
+      <c r="L120" s="63"/>
+      <c r="M120" s="63"/>
+      <c r="N120" s="63"/>
     </row>
     <row r="121" spans="6:14">
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
-      <c r="I121" s="64"/>
-      <c r="J121" s="64"/>
-      <c r="K121" s="64"/>
-      <c r="L121" s="64"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="64"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="63"/>
+      <c r="K121" s="63"/>
+      <c r="L121" s="63"/>
+      <c r="M121" s="63"/>
+      <c r="N121" s="63"/>
     </row>
     <row r="122" spans="6:14">
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="64"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
+      <c r="L122" s="63"/>
+      <c r="M122" s="63"/>
+      <c r="N122" s="63"/>
     </row>
     <row r="123" spans="6:14">
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
-      <c r="J123" s="64"/>
-      <c r="K123" s="64"/>
-      <c r="L123" s="64"/>
-      <c r="M123" s="64"/>
-      <c r="N123" s="64"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="63"/>
+      <c r="I123" s="63"/>
+      <c r="J123" s="63"/>
+      <c r="K123" s="63"/>
+      <c r="L123" s="63"/>
+      <c r="M123" s="63"/>
+      <c r="N123" s="63"/>
     </row>
     <row r="124" spans="6:14">
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
-      <c r="L124" s="64"/>
-      <c r="M124" s="64"/>
-      <c r="N124" s="64"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
+      <c r="L124" s="63"/>
+      <c r="M124" s="63"/>
+      <c r="N124" s="63"/>
     </row>
     <row r="125" spans="6:14">
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
-      <c r="I125" s="64"/>
-      <c r="J125" s="64"/>
-      <c r="K125" s="64"/>
-      <c r="L125" s="64"/>
-      <c r="M125" s="64"/>
-      <c r="N125" s="64"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="63"/>
+      <c r="I125" s="63"/>
+      <c r="J125" s="63"/>
+      <c r="K125" s="63"/>
+      <c r="L125" s="63"/>
+      <c r="M125" s="63"/>
+      <c r="N125" s="63"/>
     </row>
     <row r="126" spans="6:14">
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
-      <c r="L126" s="64"/>
-      <c r="M126" s="64"/>
-      <c r="N126" s="64"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
+      <c r="L126" s="63"/>
+      <c r="M126" s="63"/>
+      <c r="N126" s="63"/>
     </row>
     <row r="127" spans="6:14">
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="64"/>
-      <c r="J127" s="64"/>
-      <c r="K127" s="64"/>
-      <c r="L127" s="64"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="64"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="63"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="63"/>
+      <c r="K127" s="63"/>
+      <c r="L127" s="63"/>
+      <c r="M127" s="63"/>
+      <c r="N127" s="63"/>
     </row>
     <row r="128" spans="6:14">
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="64"/>
-      <c r="J128" s="64"/>
-      <c r="K128" s="64"/>
-      <c r="L128" s="64"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="64"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
+      <c r="H128" s="63"/>
+      <c r="I128" s="63"/>
+      <c r="J128" s="63"/>
+      <c r="K128" s="63"/>
+      <c r="L128" s="63"/>
+      <c r="M128" s="63"/>
+      <c r="N128" s="63"/>
     </row>
     <row r="129" spans="6:14">
-      <c r="F129" s="64"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="64"/>
-      <c r="J129" s="64"/>
-      <c r="K129" s="64"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="64"/>
-      <c r="N129" s="64"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="63"/>
+      <c r="I129" s="63"/>
+      <c r="J129" s="63"/>
+      <c r="K129" s="63"/>
+      <c r="L129" s="63"/>
+      <c r="M129" s="63"/>
+      <c r="N129" s="63"/>
     </row>
     <row r="130" spans="6:14">
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="64"/>
-      <c r="J130" s="64"/>
-      <c r="K130" s="64"/>
-      <c r="L130" s="64"/>
-      <c r="M130" s="64"/>
-      <c r="N130" s="64"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="63"/>
+      <c r="L130" s="63"/>
+      <c r="M130" s="63"/>
+      <c r="N130" s="63"/>
     </row>
     <row r="131" spans="6:14">
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="64"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="64"/>
-      <c r="N131" s="64"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="63"/>
+      <c r="L131" s="63"/>
+      <c r="M131" s="63"/>
+      <c r="N131" s="63"/>
     </row>
     <row r="132" spans="6:14">
-      <c r="F132" s="64"/>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="64"/>
-      <c r="J132" s="64"/>
-      <c r="K132" s="64"/>
-      <c r="L132" s="64"/>
-      <c r="M132" s="64"/>
-      <c r="N132" s="64"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="63"/>
+      <c r="L132" s="63"/>
+      <c r="M132" s="63"/>
+      <c r="N132" s="63"/>
     </row>
     <row r="133" spans="6:14">
-      <c r="F133" s="64"/>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="64"/>
-      <c r="J133" s="64"/>
-      <c r="K133" s="64"/>
-      <c r="L133" s="64"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="64"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="63"/>
+      <c r="I133" s="63"/>
+      <c r="J133" s="63"/>
+      <c r="K133" s="63"/>
+      <c r="L133" s="63"/>
+      <c r="M133" s="63"/>
+      <c r="N133" s="63"/>
     </row>
     <row r="134" spans="6:14">
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="64"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="63"/>
+      <c r="H134" s="63"/>
+      <c r="I134" s="63"/>
+      <c r="J134" s="63"/>
+      <c r="K134" s="63"/>
+      <c r="L134" s="63"/>
+      <c r="M134" s="63"/>
+      <c r="N134" s="63"/>
     </row>
     <row r="135" spans="6:14">
-      <c r="F135" s="64"/>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
-      <c r="I135" s="64"/>
-      <c r="J135" s="64"/>
-      <c r="K135" s="64"/>
-      <c r="L135" s="64"/>
-      <c r="M135" s="64"/>
-      <c r="N135" s="64"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="63"/>
+      <c r="H135" s="63"/>
+      <c r="I135" s="63"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="63"/>
+      <c r="L135" s="63"/>
+      <c r="M135" s="63"/>
+      <c r="N135" s="63"/>
     </row>
     <row r="136" spans="6:14">
-      <c r="F136" s="64"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="64"/>
-      <c r="K136" s="64"/>
-      <c r="L136" s="64"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="64"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="63"/>
+      <c r="L136" s="63"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="63"/>
     </row>
     <row r="137" spans="6:14">
-      <c r="F137" s="64"/>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
-      <c r="I137" s="64"/>
-      <c r="J137" s="64"/>
-      <c r="K137" s="64"/>
-      <c r="L137" s="64"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="64"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
+      <c r="H137" s="63"/>
+      <c r="I137" s="63"/>
+      <c r="J137" s="63"/>
+      <c r="K137" s="63"/>
+      <c r="L137" s="63"/>
+      <c r="M137" s="63"/>
+      <c r="N137" s="63"/>
     </row>
     <row r="138" spans="6:14">
-      <c r="F138" s="64"/>
-      <c r="G138" s="64"/>
-      <c r="H138" s="64"/>
-      <c r="I138" s="64"/>
-      <c r="J138" s="64"/>
-      <c r="K138" s="64"/>
-      <c r="L138" s="64"/>
-      <c r="M138" s="64"/>
-      <c r="N138" s="64"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="63"/>
+      <c r="M138" s="63"/>
+      <c r="N138" s="63"/>
     </row>
     <row r="139" spans="6:14">
-      <c r="F139" s="64"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="64"/>
-      <c r="L139" s="64"/>
-      <c r="M139" s="64"/>
-      <c r="N139" s="64"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="63"/>
+      <c r="H139" s="63"/>
+      <c r="I139" s="63"/>
+      <c r="J139" s="63"/>
+      <c r="K139" s="63"/>
+      <c r="L139" s="63"/>
+      <c r="M139" s="63"/>
+      <c r="N139" s="63"/>
     </row>
     <row r="140" spans="6:14">
-      <c r="F140" s="64"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="64"/>
-      <c r="J140" s="64"/>
-      <c r="K140" s="64"/>
-      <c r="L140" s="64"/>
-      <c r="M140" s="64"/>
-      <c r="N140" s="64"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="63"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="63"/>
+      <c r="L140" s="63"/>
+      <c r="M140" s="63"/>
+      <c r="N140" s="63"/>
     </row>
     <row r="141" spans="6:14">
-      <c r="F141" s="64"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="64"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="64"/>
-      <c r="N141" s="64"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="63"/>
+      <c r="H141" s="63"/>
+      <c r="I141" s="63"/>
+      <c r="J141" s="63"/>
+      <c r="K141" s="63"/>
+      <c r="L141" s="63"/>
+      <c r="M141" s="63"/>
+      <c r="N141" s="63"/>
     </row>
     <row r="142" spans="6:14">
-      <c r="F142" s="64"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="64"/>
-      <c r="J142" s="64"/>
-      <c r="K142" s="64"/>
-      <c r="L142" s="64"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="64"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="63"/>
+      <c r="H142" s="63"/>
+      <c r="I142" s="63"/>
+      <c r="J142" s="63"/>
+      <c r="K142" s="63"/>
+      <c r="L142" s="63"/>
+      <c r="M142" s="63"/>
+      <c r="N142" s="63"/>
     </row>
     <row r="143" spans="6:14">
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="64"/>
-      <c r="L143" s="64"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="64"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
+      <c r="H143" s="63"/>
+      <c r="I143" s="63"/>
+      <c r="J143" s="63"/>
+      <c r="K143" s="63"/>
+      <c r="L143" s="63"/>
+      <c r="M143" s="63"/>
+      <c r="N143" s="63"/>
     </row>
     <row r="144" spans="6:14">
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="64"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="64"/>
-      <c r="L144" s="64"/>
-      <c r="M144" s="64"/>
-      <c r="N144" s="64"/>
+      <c r="F144" s="63"/>
+      <c r="G144" s="63"/>
+      <c r="H144" s="63"/>
+      <c r="I144" s="63"/>
+      <c r="J144" s="63"/>
+      <c r="K144" s="63"/>
+      <c r="L144" s="63"/>
+      <c r="M144" s="63"/>
+      <c r="N144" s="63"/>
     </row>
     <row r="145" spans="6:14">
-      <c r="F145" s="64"/>
-      <c r="G145" s="64"/>
-      <c r="H145" s="64"/>
-      <c r="I145" s="64"/>
-      <c r="J145" s="64"/>
-      <c r="K145" s="64"/>
-      <c r="L145" s="64"/>
-      <c r="M145" s="64"/>
-      <c r="N145" s="64"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="63"/>
+      <c r="K145" s="63"/>
+      <c r="L145" s="63"/>
+      <c r="M145" s="63"/>
+      <c r="N145" s="63"/>
     </row>
     <row r="146" spans="6:14">
-      <c r="F146" s="64"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="64"/>
-      <c r="J146" s="64"/>
-      <c r="K146" s="64"/>
-      <c r="L146" s="64"/>
-      <c r="M146" s="64"/>
-      <c r="N146" s="64"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="63"/>
+      <c r="J146" s="63"/>
+      <c r="K146" s="63"/>
+      <c r="L146" s="63"/>
+      <c r="M146" s="63"/>
+      <c r="N146" s="63"/>
     </row>
     <row r="147" spans="6:14">
-      <c r="F147" s="64"/>
-      <c r="G147" s="64"/>
-      <c r="H147" s="64"/>
-      <c r="I147" s="64"/>
-      <c r="J147" s="64"/>
-      <c r="K147" s="64"/>
-      <c r="L147" s="64"/>
-      <c r="M147" s="64"/>
-      <c r="N147" s="64"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="63"/>
+      <c r="H147" s="63"/>
+      <c r="I147" s="63"/>
+      <c r="J147" s="63"/>
+      <c r="K147" s="63"/>
+      <c r="L147" s="63"/>
+      <c r="M147" s="63"/>
+      <c r="N147" s="63"/>
     </row>
     <row r="148" spans="6:14">
-      <c r="F148" s="64"/>
-      <c r="G148" s="64"/>
-      <c r="H148" s="64"/>
-      <c r="I148" s="64"/>
-      <c r="J148" s="64"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
-      <c r="M148" s="64"/>
-      <c r="N148" s="64"/>
+      <c r="F148" s="63"/>
+      <c r="G148" s="63"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="63"/>
+      <c r="J148" s="63"/>
+      <c r="K148" s="63"/>
+      <c r="L148" s="63"/>
+      <c r="M148" s="63"/>
+      <c r="N148" s="63"/>
     </row>
     <row r="149" spans="6:14">
-      <c r="F149" s="64"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="64"/>
-      <c r="K149" s="64"/>
-      <c r="L149" s="64"/>
-      <c r="M149" s="64"/>
-      <c r="N149" s="64"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="63"/>
+      <c r="K149" s="63"/>
+      <c r="L149" s="63"/>
+      <c r="M149" s="63"/>
+      <c r="N149" s="63"/>
     </row>
     <row r="150" spans="6:14">
-      <c r="F150" s="64"/>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="64"/>
-      <c r="J150" s="64"/>
-      <c r="K150" s="64"/>
-      <c r="L150" s="64"/>
-      <c r="M150" s="64"/>
-      <c r="N150" s="64"/>
+      <c r="F150" s="63"/>
+      <c r="G150" s="63"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="63"/>
+      <c r="J150" s="63"/>
+      <c r="K150" s="63"/>
+      <c r="L150" s="63"/>
+      <c r="M150" s="63"/>
+      <c r="N150" s="63"/>
     </row>
     <row r="151" spans="6:14">
-      <c r="F151" s="64"/>
-      <c r="G151" s="64"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="64"/>
-      <c r="J151" s="64"/>
-      <c r="K151" s="64"/>
-      <c r="L151" s="64"/>
-      <c r="M151" s="64"/>
-      <c r="N151" s="64"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="63"/>
+      <c r="K151" s="63"/>
+      <c r="L151" s="63"/>
+      <c r="M151" s="63"/>
+      <c r="N151" s="63"/>
     </row>
     <row r="152" spans="6:14">
-      <c r="F152" s="64"/>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="64"/>
-      <c r="J152" s="64"/>
-      <c r="K152" s="64"/>
-      <c r="L152" s="64"/>
-      <c r="M152" s="64"/>
-      <c r="N152" s="64"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="63"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="63"/>
+      <c r="K152" s="63"/>
+      <c r="L152" s="63"/>
+      <c r="M152" s="63"/>
+      <c r="N152" s="63"/>
     </row>
     <row r="153" spans="6:14">
-      <c r="F153" s="64"/>
-      <c r="G153" s="64"/>
-      <c r="H153" s="64"/>
-      <c r="I153" s="64"/>
-      <c r="J153" s="64"/>
-      <c r="K153" s="64"/>
-      <c r="L153" s="64"/>
-      <c r="M153" s="64"/>
-      <c r="N153" s="64"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="63"/>
+      <c r="H153" s="63"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="63"/>
+      <c r="K153" s="63"/>
+      <c r="L153" s="63"/>
+      <c r="M153" s="63"/>
+      <c r="N153" s="63"/>
     </row>
     <row r="154" spans="6:14">
-      <c r="F154" s="64"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="64"/>
-      <c r="L154" s="64"/>
-      <c r="M154" s="64"/>
-      <c r="N154" s="64"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="63"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="63"/>
+      <c r="K154" s="63"/>
+      <c r="L154" s="63"/>
+      <c r="M154" s="63"/>
+      <c r="N154" s="63"/>
     </row>
     <row r="155" spans="6:14">
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="64"/>
-      <c r="J155" s="64"/>
-      <c r="K155" s="64"/>
-      <c r="L155" s="64"/>
-      <c r="M155" s="64"/>
-      <c r="N155" s="64"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+      <c r="M155" s="63"/>
+      <c r="N155" s="63"/>
     </row>
     <row r="156" spans="6:14">
-      <c r="F156" s="64"/>
-      <c r="G156" s="64"/>
-      <c r="H156" s="64"/>
-      <c r="I156" s="64"/>
-      <c r="J156" s="64"/>
-      <c r="K156" s="64"/>
-      <c r="L156" s="64"/>
-      <c r="M156" s="64"/>
-      <c r="N156" s="64"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="63"/>
+      <c r="H156" s="63"/>
+      <c r="I156" s="63"/>
+      <c r="J156" s="63"/>
+      <c r="K156" s="63"/>
+      <c r="L156" s="63"/>
+      <c r="M156" s="63"/>
+      <c r="N156" s="63"/>
     </row>
     <row r="157" spans="6:14">
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
-      <c r="J157" s="64"/>
-      <c r="K157" s="64"/>
-      <c r="L157" s="64"/>
-      <c r="M157" s="64"/>
-      <c r="N157" s="64"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="63"/>
+      <c r="H157" s="63"/>
+      <c r="I157" s="63"/>
+      <c r="J157" s="63"/>
+      <c r="K157" s="63"/>
+      <c r="L157" s="63"/>
+      <c r="M157" s="63"/>
+      <c r="N157" s="63"/>
     </row>
     <row r="158" spans="6:14">
-      <c r="F158" s="64"/>
-      <c r="G158" s="64"/>
-      <c r="H158" s="64"/>
-      <c r="I158" s="64"/>
-      <c r="J158" s="64"/>
-      <c r="K158" s="64"/>
-      <c r="L158" s="64"/>
-      <c r="M158" s="64"/>
-      <c r="N158" s="64"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="63"/>
+      <c r="H158" s="63"/>
+      <c r="I158" s="63"/>
+      <c r="J158" s="63"/>
+      <c r="K158" s="63"/>
+      <c r="L158" s="63"/>
+      <c r="M158" s="63"/>
+      <c r="N158" s="63"/>
     </row>
     <row r="159" spans="6:14">
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="64"/>
-      <c r="J159" s="64"/>
-      <c r="K159" s="64"/>
-      <c r="L159" s="64"/>
-      <c r="M159" s="64"/>
-      <c r="N159" s="64"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="63"/>
+      <c r="H159" s="63"/>
+      <c r="I159" s="63"/>
+      <c r="J159" s="63"/>
+      <c r="K159" s="63"/>
+      <c r="L159" s="63"/>
+      <c r="M159" s="63"/>
+      <c r="N159" s="63"/>
     </row>
     <row r="160" spans="6:14">
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
-      <c r="H160" s="64"/>
-      <c r="I160" s="64"/>
-      <c r="J160" s="64"/>
-      <c r="K160" s="64"/>
-      <c r="L160" s="64"/>
-      <c r="M160" s="64"/>
-      <c r="N160" s="64"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="63"/>
+      <c r="H160" s="63"/>
+      <c r="I160" s="63"/>
+      <c r="J160" s="63"/>
+      <c r="K160" s="63"/>
+      <c r="L160" s="63"/>
+      <c r="M160" s="63"/>
+      <c r="N160" s="63"/>
     </row>
     <row r="161" spans="6:14">
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
-      <c r="I161" s="64"/>
-      <c r="J161" s="64"/>
-      <c r="K161" s="64"/>
-      <c r="L161" s="64"/>
-      <c r="M161" s="64"/>
-      <c r="N161" s="64"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="63"/>
+      <c r="I161" s="63"/>
+      <c r="J161" s="63"/>
+      <c r="K161" s="63"/>
+      <c r="L161" s="63"/>
+      <c r="M161" s="63"/>
+      <c r="N161" s="63"/>
     </row>
     <row r="162" spans="6:14">
-      <c r="F162" s="64"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="64"/>
-      <c r="I162" s="64"/>
-      <c r="J162" s="64"/>
-      <c r="K162" s="64"/>
-      <c r="L162" s="64"/>
-      <c r="M162" s="64"/>
-      <c r="N162" s="64"/>
+      <c r="F162" s="63"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="63"/>
+      <c r="I162" s="63"/>
+      <c r="J162" s="63"/>
+      <c r="K162" s="63"/>
+      <c r="L162" s="63"/>
+      <c r="M162" s="63"/>
+      <c r="N162" s="63"/>
     </row>
     <row r="163" spans="6:14">
-      <c r="F163" s="64"/>
-      <c r="G163" s="64"/>
-      <c r="H163" s="64"/>
-      <c r="I163" s="64"/>
-      <c r="J163" s="64"/>
-      <c r="K163" s="64"/>
-      <c r="L163" s="64"/>
-      <c r="M163" s="64"/>
-      <c r="N163" s="64"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="63"/>
+      <c r="H163" s="63"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="63"/>
+      <c r="K163" s="63"/>
+      <c r="L163" s="63"/>
+      <c r="M163" s="63"/>
+      <c r="N163" s="63"/>
     </row>
     <row r="164" spans="6:14">
-      <c r="F164" s="64"/>
-      <c r="G164" s="64"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="64"/>
-      <c r="J164" s="64"/>
-      <c r="K164" s="64"/>
-      <c r="L164" s="64"/>
-      <c r="M164" s="64"/>
-      <c r="N164" s="64"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="63"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="63"/>
+      <c r="J164" s="63"/>
+      <c r="K164" s="63"/>
+      <c r="L164" s="63"/>
+      <c r="M164" s="63"/>
+      <c r="N164" s="63"/>
     </row>
     <row r="165" spans="6:14">
-      <c r="F165" s="64"/>
-      <c r="G165" s="64"/>
-      <c r="H165" s="64"/>
-      <c r="I165" s="64"/>
-      <c r="J165" s="64"/>
-      <c r="K165" s="64"/>
-      <c r="L165" s="64"/>
-      <c r="M165" s="64"/>
-      <c r="N165" s="64"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="63"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="63"/>
+      <c r="K165" s="63"/>
+      <c r="L165" s="63"/>
+      <c r="M165" s="63"/>
+      <c r="N165" s="63"/>
     </row>
     <row r="166" spans="6:14">
-      <c r="F166" s="64"/>
-      <c r="G166" s="64"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="64"/>
-      <c r="J166" s="64"/>
-      <c r="K166" s="64"/>
-      <c r="L166" s="64"/>
-      <c r="M166" s="64"/>
-      <c r="N166" s="64"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="63"/>
+      <c r="H166" s="63"/>
+      <c r="I166" s="63"/>
+      <c r="J166" s="63"/>
+      <c r="K166" s="63"/>
+      <c r="L166" s="63"/>
+      <c r="M166" s="63"/>
+      <c r="N166" s="63"/>
     </row>
     <row r="167" spans="6:14">
-      <c r="F167" s="64"/>
-      <c r="G167" s="64"/>
-      <c r="H167" s="64"/>
-      <c r="I167" s="64"/>
-      <c r="J167" s="64"/>
-      <c r="K167" s="64"/>
-      <c r="L167" s="64"/>
-      <c r="M167" s="64"/>
-      <c r="N167" s="64"/>
+      <c r="F167" s="63"/>
+      <c r="G167" s="63"/>
+      <c r="H167" s="63"/>
+      <c r="I167" s="63"/>
+      <c r="J167" s="63"/>
+      <c r="K167" s="63"/>
+      <c r="L167" s="63"/>
+      <c r="M167" s="63"/>
+      <c r="N167" s="63"/>
     </row>
     <row r="168" spans="6:14">
-      <c r="F168" s="64"/>
-      <c r="G168" s="64"/>
-      <c r="H168" s="64"/>
-      <c r="I168" s="64"/>
-      <c r="J168" s="64"/>
-      <c r="K168" s="64"/>
-      <c r="L168" s="64"/>
-      <c r="M168" s="64"/>
-      <c r="N168" s="64"/>
+      <c r="F168" s="63"/>
+      <c r="G168" s="63"/>
+      <c r="H168" s="63"/>
+      <c r="I168" s="63"/>
+      <c r="J168" s="63"/>
+      <c r="K168" s="63"/>
+      <c r="L168" s="63"/>
+      <c r="M168" s="63"/>
+      <c r="N168" s="63"/>
     </row>
     <row r="169" spans="6:14">
-      <c r="F169" s="64"/>
-      <c r="G169" s="64"/>
-      <c r="H169" s="64"/>
-      <c r="I169" s="64"/>
-      <c r="J169" s="64"/>
-      <c r="K169" s="64"/>
-      <c r="L169" s="64"/>
-      <c r="M169" s="64"/>
-      <c r="N169" s="64"/>
+      <c r="F169" s="63"/>
+      <c r="G169" s="63"/>
+      <c r="H169" s="63"/>
+      <c r="I169" s="63"/>
+      <c r="J169" s="63"/>
+      <c r="K169" s="63"/>
+      <c r="L169" s="63"/>
+      <c r="M169" s="63"/>
+      <c r="N169" s="63"/>
     </row>
     <row r="170" spans="6:14">
-      <c r="F170" s="64"/>
-      <c r="G170" s="64"/>
-      <c r="H170" s="64"/>
-      <c r="I170" s="64"/>
-      <c r="J170" s="64"/>
-      <c r="K170" s="64"/>
-      <c r="L170" s="64"/>
-      <c r="M170" s="64"/>
-      <c r="N170" s="64"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="63"/>
+      <c r="H170" s="63"/>
+      <c r="I170" s="63"/>
+      <c r="J170" s="63"/>
+      <c r="K170" s="63"/>
+      <c r="L170" s="63"/>
+      <c r="M170" s="63"/>
+      <c r="N170" s="63"/>
     </row>
     <row r="171" spans="6:14">
-      <c r="F171" s="64"/>
-      <c r="G171" s="64"/>
-      <c r="H171" s="64"/>
-      <c r="I171" s="64"/>
-      <c r="J171" s="64"/>
-      <c r="K171" s="64"/>
-      <c r="L171" s="64"/>
-      <c r="M171" s="64"/>
-      <c r="N171" s="64"/>
+      <c r="F171" s="63"/>
+      <c r="G171" s="63"/>
+      <c r="H171" s="63"/>
+      <c r="I171" s="63"/>
+      <c r="J171" s="63"/>
+      <c r="K171" s="63"/>
+      <c r="L171" s="63"/>
+      <c r="M171" s="63"/>
+      <c r="N171" s="63"/>
     </row>
     <row r="172" spans="6:14">
-      <c r="F172" s="64"/>
-      <c r="G172" s="64"/>
-      <c r="H172" s="64"/>
-      <c r="I172" s="64"/>
-      <c r="J172" s="64"/>
-      <c r="K172" s="64"/>
-      <c r="L172" s="64"/>
-      <c r="M172" s="64"/>
-      <c r="N172" s="64"/>
+      <c r="F172" s="63"/>
+      <c r="G172" s="63"/>
+      <c r="H172" s="63"/>
+      <c r="I172" s="63"/>
+      <c r="J172" s="63"/>
+      <c r="K172" s="63"/>
+      <c r="L172" s="63"/>
+      <c r="M172" s="63"/>
+      <c r="N172" s="63"/>
     </row>
     <row r="173" spans="6:14">
-      <c r="F173" s="64"/>
-      <c r="G173" s="64"/>
-      <c r="H173" s="64"/>
-      <c r="I173" s="64"/>
-      <c r="J173" s="64"/>
-      <c r="K173" s="64"/>
-      <c r="L173" s="64"/>
-      <c r="M173" s="64"/>
-      <c r="N173" s="64"/>
+      <c r="F173" s="63"/>
+      <c r="G173" s="63"/>
+      <c r="H173" s="63"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="63"/>
+      <c r="L173" s="63"/>
+      <c r="M173" s="63"/>
+      <c r="N173" s="63"/>
     </row>
     <row r="174" spans="6:14">
-      <c r="F174" s="64"/>
-      <c r="G174" s="64"/>
-      <c r="H174" s="64"/>
-      <c r="I174" s="64"/>
-      <c r="J174" s="64"/>
-      <c r="K174" s="64"/>
-      <c r="L174" s="64"/>
-      <c r="M174" s="64"/>
-      <c r="N174" s="64"/>
+      <c r="F174" s="63"/>
+      <c r="G174" s="63"/>
+      <c r="H174" s="63"/>
+      <c r="I174" s="63"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="63"/>
+      <c r="L174" s="63"/>
+      <c r="M174" s="63"/>
+      <c r="N174" s="63"/>
     </row>
     <row r="175" spans="6:14">
-      <c r="F175" s="64"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="64"/>
-      <c r="I175" s="64"/>
-      <c r="J175" s="64"/>
-      <c r="K175" s="64"/>
-      <c r="L175" s="64"/>
-      <c r="M175" s="64"/>
-      <c r="N175" s="64"/>
+      <c r="F175" s="63"/>
+      <c r="G175" s="63"/>
+      <c r="H175" s="63"/>
+      <c r="I175" s="63"/>
+      <c r="J175" s="63"/>
+      <c r="K175" s="63"/>
+      <c r="L175" s="63"/>
+      <c r="M175" s="63"/>
+      <c r="N175" s="63"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="64"/>
-      <c r="G176" s="64"/>
-      <c r="H176" s="64"/>
-      <c r="I176" s="64"/>
-      <c r="J176" s="64"/>
-      <c r="K176" s="64"/>
-      <c r="L176" s="64"/>
-      <c r="M176" s="64"/>
-      <c r="N176" s="64"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="63"/>
+      <c r="H176" s="63"/>
+      <c r="I176" s="63"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="63"/>
+      <c r="L176" s="63"/>
+      <c r="M176" s="63"/>
+      <c r="N176" s="63"/>
     </row>
     <row r="177" spans="6:14">
-      <c r="F177" s="64"/>
-      <c r="G177" s="64"/>
-      <c r="H177" s="64"/>
-      <c r="I177" s="64"/>
-      <c r="J177" s="64"/>
-      <c r="K177" s="64"/>
-      <c r="L177" s="64"/>
-      <c r="M177" s="64"/>
-      <c r="N177" s="64"/>
+      <c r="F177" s="63"/>
+      <c r="G177" s="63"/>
+      <c r="H177" s="63"/>
+      <c r="I177" s="63"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="63"/>
+      <c r="L177" s="63"/>
+      <c r="M177" s="63"/>
+      <c r="N177" s="63"/>
     </row>
     <row r="178" spans="6:14">
-      <c r="F178" s="64"/>
-      <c r="G178" s="64"/>
-      <c r="H178" s="64"/>
-      <c r="I178" s="64"/>
-      <c r="J178" s="64"/>
-      <c r="K178" s="64"/>
-      <c r="L178" s="64"/>
-      <c r="M178" s="64"/>
-      <c r="N178" s="64"/>
+      <c r="F178" s="63"/>
+      <c r="G178" s="63"/>
+      <c r="H178" s="63"/>
+      <c r="I178" s="63"/>
+      <c r="J178" s="63"/>
+      <c r="K178" s="63"/>
+      <c r="L178" s="63"/>
+      <c r="M178" s="63"/>
+      <c r="N178" s="63"/>
     </row>
     <row r="179" spans="6:14">
-      <c r="F179" s="64"/>
-      <c r="G179" s="64"/>
-      <c r="H179" s="64"/>
-      <c r="I179" s="64"/>
-      <c r="J179" s="64"/>
-      <c r="K179" s="64"/>
-      <c r="L179" s="64"/>
-      <c r="M179" s="64"/>
-      <c r="N179" s="64"/>
+      <c r="F179" s="63"/>
+      <c r="G179" s="63"/>
+      <c r="H179" s="63"/>
+      <c r="I179" s="63"/>
+      <c r="J179" s="63"/>
+      <c r="K179" s="63"/>
+      <c r="L179" s="63"/>
+      <c r="M179" s="63"/>
+      <c r="N179" s="63"/>
     </row>
     <row r="180" spans="6:14">
-      <c r="F180" s="64"/>
-      <c r="G180" s="64"/>
-      <c r="H180" s="64"/>
-      <c r="I180" s="64"/>
-      <c r="J180" s="64"/>
-      <c r="K180" s="64"/>
-      <c r="L180" s="64"/>
-      <c r="M180" s="64"/>
-      <c r="N180" s="64"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
+      <c r="K180" s="63"/>
+      <c r="L180" s="63"/>
+      <c r="M180" s="63"/>
+      <c r="N180" s="63"/>
     </row>
     <row r="181" spans="6:14">
-      <c r="F181" s="64"/>
-      <c r="G181" s="64"/>
-      <c r="H181" s="64"/>
-      <c r="I181" s="64"/>
-      <c r="J181" s="64"/>
-      <c r="K181" s="64"/>
-      <c r="L181" s="64"/>
-      <c r="M181" s="64"/>
-      <c r="N181" s="64"/>
+      <c r="F181" s="63"/>
+      <c r="G181" s="63"/>
+      <c r="H181" s="63"/>
+      <c r="I181" s="63"/>
+      <c r="J181" s="63"/>
+      <c r="K181" s="63"/>
+      <c r="L181" s="63"/>
+      <c r="M181" s="63"/>
+      <c r="N181" s="63"/>
     </row>
     <row r="182" spans="6:14">
-      <c r="F182" s="64"/>
-      <c r="G182" s="64"/>
-      <c r="H182" s="64"/>
-      <c r="I182" s="64"/>
-      <c r="J182" s="64"/>
-      <c r="K182" s="64"/>
-      <c r="L182" s="64"/>
-      <c r="M182" s="64"/>
-      <c r="N182" s="64"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="63"/>
+      <c r="H182" s="63"/>
+      <c r="I182" s="63"/>
+      <c r="J182" s="63"/>
+      <c r="K182" s="63"/>
+      <c r="L182" s="63"/>
+      <c r="M182" s="63"/>
+      <c r="N182" s="63"/>
     </row>
     <row r="183" spans="6:14">
-      <c r="F183" s="64"/>
-      <c r="G183" s="64"/>
-      <c r="H183" s="64"/>
-      <c r="I183" s="64"/>
-      <c r="J183" s="64"/>
-      <c r="K183" s="64"/>
-      <c r="L183" s="64"/>
-      <c r="M183" s="64"/>
-      <c r="N183" s="64"/>
+      <c r="F183" s="63"/>
+      <c r="G183" s="63"/>
+      <c r="H183" s="63"/>
+      <c r="I183" s="63"/>
+      <c r="J183" s="63"/>
+      <c r="K183" s="63"/>
+      <c r="L183" s="63"/>
+      <c r="M183" s="63"/>
+      <c r="N183" s="63"/>
     </row>
     <row r="184" spans="6:14">
-      <c r="F184" s="64"/>
-      <c r="G184" s="64"/>
-      <c r="H184" s="64"/>
-      <c r="I184" s="64"/>
-      <c r="J184" s="64"/>
-      <c r="K184" s="64"/>
-      <c r="L184" s="64"/>
-      <c r="M184" s="64"/>
-      <c r="N184" s="64"/>
+      <c r="F184" s="63"/>
+      <c r="G184" s="63"/>
+      <c r="H184" s="63"/>
+      <c r="I184" s="63"/>
+      <c r="J184" s="63"/>
+      <c r="K184" s="63"/>
+      <c r="L184" s="63"/>
+      <c r="M184" s="63"/>
+      <c r="N184" s="63"/>
     </row>
     <row r="185" spans="6:14">
-      <c r="F185" s="64"/>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="64"/>
-      <c r="J185" s="64"/>
-      <c r="K185" s="64"/>
-      <c r="L185" s="64"/>
-      <c r="M185" s="64"/>
-      <c r="N185" s="64"/>
+      <c r="F185" s="63"/>
+      <c r="G185" s="63"/>
+      <c r="H185" s="63"/>
+      <c r="I185" s="63"/>
+      <c r="J185" s="63"/>
+      <c r="K185" s="63"/>
+      <c r="L185" s="63"/>
+      <c r="M185" s="63"/>
+      <c r="N185" s="63"/>
     </row>
     <row r="186" spans="6:14">
-      <c r="F186" s="64"/>
-      <c r="G186" s="64"/>
-      <c r="H186" s="64"/>
-      <c r="I186" s="64"/>
-      <c r="J186" s="64"/>
-      <c r="K186" s="64"/>
-      <c r="L186" s="64"/>
-      <c r="M186" s="64"/>
-      <c r="N186" s="64"/>
+      <c r="F186" s="63"/>
+      <c r="G186" s="63"/>
+      <c r="H186" s="63"/>
+      <c r="I186" s="63"/>
+      <c r="J186" s="63"/>
+      <c r="K186" s="63"/>
+      <c r="L186" s="63"/>
+      <c r="M186" s="63"/>
+      <c r="N186" s="63"/>
     </row>
     <row r="187" spans="6:14">
-      <c r="F187" s="64"/>
-      <c r="G187" s="64"/>
-      <c r="H187" s="64"/>
-      <c r="I187" s="64"/>
-      <c r="J187" s="64"/>
-      <c r="K187" s="64"/>
-      <c r="L187" s="64"/>
-      <c r="M187" s="64"/>
-      <c r="N187" s="64"/>
+      <c r="F187" s="63"/>
+      <c r="G187" s="63"/>
+      <c r="H187" s="63"/>
+      <c r="I187" s="63"/>
+      <c r="J187" s="63"/>
+      <c r="K187" s="63"/>
+      <c r="L187" s="63"/>
+      <c r="M187" s="63"/>
+      <c r="N187" s="63"/>
     </row>
     <row r="188" spans="6:14">
-      <c r="F188" s="64"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="64"/>
-      <c r="I188" s="64"/>
-      <c r="J188" s="64"/>
-      <c r="K188" s="64"/>
-      <c r="L188" s="64"/>
-      <c r="M188" s="64"/>
-      <c r="N188" s="64"/>
+      <c r="F188" s="63"/>
+      <c r="G188" s="63"/>
+      <c r="H188" s="63"/>
+      <c r="I188" s="63"/>
+      <c r="J188" s="63"/>
+      <c r="K188" s="63"/>
+      <c r="L188" s="63"/>
+      <c r="M188" s="63"/>
+      <c r="N188" s="63"/>
     </row>
     <row r="189" spans="6:14">
-      <c r="F189" s="64"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="64"/>
-      <c r="I189" s="64"/>
-      <c r="J189" s="64"/>
-      <c r="K189" s="64"/>
-      <c r="L189" s="64"/>
-      <c r="M189" s="64"/>
-      <c r="N189" s="64"/>
+      <c r="F189" s="63"/>
+      <c r="G189" s="63"/>
+      <c r="H189" s="63"/>
+      <c r="I189" s="63"/>
+      <c r="J189" s="63"/>
+      <c r="K189" s="63"/>
+      <c r="L189" s="63"/>
+      <c r="M189" s="63"/>
+      <c r="N189" s="63"/>
     </row>
     <row r="190" spans="6:14">
-      <c r="F190" s="64"/>
-      <c r="G190" s="64"/>
-      <c r="H190" s="64"/>
-      <c r="I190" s="64"/>
-      <c r="J190" s="64"/>
-      <c r="K190" s="64"/>
-      <c r="L190" s="64"/>
-      <c r="M190" s="64"/>
-      <c r="N190" s="64"/>
+      <c r="F190" s="63"/>
+      <c r="G190" s="63"/>
+      <c r="H190" s="63"/>
+      <c r="I190" s="63"/>
+      <c r="J190" s="63"/>
+      <c r="K190" s="63"/>
+      <c r="L190" s="63"/>
+      <c r="M190" s="63"/>
+      <c r="N190" s="63"/>
     </row>
     <row r="191" spans="6:14">
-      <c r="F191" s="64"/>
-      <c r="G191" s="64"/>
-      <c r="H191" s="64"/>
-      <c r="I191" s="64"/>
-      <c r="J191" s="64"/>
-      <c r="K191" s="64"/>
-      <c r="L191" s="64"/>
-      <c r="M191" s="64"/>
-      <c r="N191" s="64"/>
+      <c r="F191" s="63"/>
+      <c r="G191" s="63"/>
+      <c r="H191" s="63"/>
+      <c r="I191" s="63"/>
+      <c r="J191" s="63"/>
+      <c r="K191" s="63"/>
+      <c r="L191" s="63"/>
+      <c r="M191" s="63"/>
+      <c r="N191" s="63"/>
     </row>
     <row r="192" spans="6:14">
-      <c r="F192" s="64"/>
-      <c r="G192" s="64"/>
-      <c r="H192" s="64"/>
-      <c r="I192" s="64"/>
-      <c r="J192" s="64"/>
-      <c r="K192" s="64"/>
-      <c r="L192" s="64"/>
-      <c r="M192" s="64"/>
-      <c r="N192" s="64"/>
+      <c r="F192" s="63"/>
+      <c r="G192" s="63"/>
+      <c r="H192" s="63"/>
+      <c r="I192" s="63"/>
+      <c r="J192" s="63"/>
+      <c r="K192" s="63"/>
+      <c r="L192" s="63"/>
+      <c r="M192" s="63"/>
+      <c r="N192" s="63"/>
     </row>
     <row r="193" spans="6:14">
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-      <c r="H193" s="64"/>
-      <c r="I193" s="64"/>
-      <c r="J193" s="64"/>
-      <c r="K193" s="64"/>
-      <c r="L193" s="64"/>
-      <c r="M193" s="64"/>
-      <c r="N193" s="64"/>
+      <c r="F193" s="63"/>
+      <c r="G193" s="63"/>
+      <c r="H193" s="63"/>
+      <c r="I193" s="63"/>
+      <c r="J193" s="63"/>
+      <c r="K193" s="63"/>
+      <c r="L193" s="63"/>
+      <c r="M193" s="63"/>
+      <c r="N193" s="63"/>
     </row>
     <row r="194" spans="6:14">
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
-      <c r="J194" s="64"/>
-      <c r="K194" s="64"/>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
-      <c r="N194" s="64"/>
+      <c r="F194" s="63"/>
+      <c r="G194" s="63"/>
+      <c r="H194" s="63"/>
+      <c r="I194" s="63"/>
+      <c r="J194" s="63"/>
+      <c r="K194" s="63"/>
+      <c r="L194" s="63"/>
+      <c r="M194" s="63"/>
+      <c r="N194" s="63"/>
     </row>
     <row r="195" spans="6:14">
-      <c r="F195" s="64"/>
-      <c r="G195" s="64"/>
-      <c r="H195" s="64"/>
-      <c r="I195" s="64"/>
-      <c r="J195" s="64"/>
-      <c r="K195" s="64"/>
-      <c r="L195" s="64"/>
-      <c r="M195" s="64"/>
-      <c r="N195" s="64"/>
+      <c r="F195" s="63"/>
+      <c r="G195" s="63"/>
+      <c r="H195" s="63"/>
+      <c r="I195" s="63"/>
+      <c r="J195" s="63"/>
+      <c r="K195" s="63"/>
+      <c r="L195" s="63"/>
+      <c r="M195" s="63"/>
+      <c r="N195" s="63"/>
     </row>
     <row r="196" spans="6:14">
-      <c r="F196" s="64"/>
-      <c r="G196" s="64"/>
-      <c r="H196" s="64"/>
-      <c r="I196" s="64"/>
-      <c r="J196" s="64"/>
-      <c r="K196" s="64"/>
-      <c r="L196" s="64"/>
-      <c r="M196" s="64"/>
-      <c r="N196" s="64"/>
+      <c r="F196" s="63"/>
+      <c r="G196" s="63"/>
+      <c r="H196" s="63"/>
+      <c r="I196" s="63"/>
+      <c r="J196" s="63"/>
+      <c r="K196" s="63"/>
+      <c r="L196" s="63"/>
+      <c r="M196" s="63"/>
+      <c r="N196" s="63"/>
     </row>
     <row r="197" spans="6:14">
-      <c r="F197" s="64"/>
-      <c r="G197" s="64"/>
-      <c r="H197" s="64"/>
-      <c r="I197" s="64"/>
-      <c r="J197" s="64"/>
-      <c r="K197" s="64"/>
-      <c r="L197" s="64"/>
-      <c r="M197" s="64"/>
-      <c r="N197" s="64"/>
+      <c r="F197" s="63"/>
+      <c r="G197" s="63"/>
+      <c r="H197" s="63"/>
+      <c r="I197" s="63"/>
+      <c r="J197" s="63"/>
+      <c r="K197" s="63"/>
+      <c r="L197" s="63"/>
+      <c r="M197" s="63"/>
+      <c r="N197" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="33">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="N7:N10"/>
     <mergeCell ref="H15:M22"/>
     <mergeCell ref="L7:L12"/>
@@ -5398,23 +5492,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 B18" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5431,12 +5508,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62007DAF-58E6-7F48-B224-D1E35787C5A6}">
-          <x14:formula1>
-            <xm:f>TemplateList!$A$2:$A$10000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B23:E23</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41F083E3-1F5B-3948-8927-751348AA5D5A}">
           <x14:formula1>
             <xm:f>DropDownValues!$K$3:$K$4</xm:f>
@@ -5473,6 +5544,12 @@
           </x14:formula1>
           <xm:sqref>K2:K6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62007DAF-58E6-7F48-B224-D1E35787C5A6}">
+          <x14:formula1>
+            <xm:f>TemplateList!$A$2:$A$10000</xm:f>
+          </x14:formula1>
+          <xm:sqref>B23:E23</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -5497,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:G21"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -7015,13 +7092,13 @@
       <c r="I43" s="4"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="123" t="s">
+      <c r="L43" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="98"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="133"/>
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
       <c r="S43" s="31"/>
@@ -7053,13 +7130,13 @@
       <c r="I44" s="4"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="124" t="s">
+      <c r="L44" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="131"/>
+      <c r="P44" s="131"/>
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
@@ -7091,11 +7168,11 @@
       <c r="I45" s="4"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
+      <c r="P45" s="131"/>
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
@@ -7127,11 +7204,11 @@
       <c r="I46" s="4"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="131"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
@@ -7163,11 +7240,11 @@
       <c r="I47" s="4"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
@@ -7193,11 +7270,11 @@
       <c r="I48" s="4"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
@@ -7235,11 +7312,11 @@
       <c r="I49" s="4"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
@@ -7269,11 +7346,11 @@
       <c r="I50" s="4"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="131"/>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
@@ -7303,11 +7380,11 @@
       <c r="I51" s="4"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="131"/>
+      <c r="P51" s="131"/>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
@@ -7347,11 +7424,11 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="131"/>
+      <c r="P52" s="131"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
@@ -7391,11 +7468,11 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="131"/>
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
@@ -7436,11 +7513,11 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="96"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="131"/>
       <c r="Q54" s="31"/>
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
@@ -7478,11 +7555,11 @@
       <c r="I55" s="4"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
@@ -7520,11 +7597,11 @@
       <c r="I56" s="4"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
       <c r="Q56" s="31"/>
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
@@ -7560,11 +7637,11 @@
       <c r="I57" s="4"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="131"/>
+      <c r="P57" s="131"/>
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
@@ -7602,11 +7679,11 @@
       <c r="I58" s="4"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="131"/>
+      <c r="P58" s="131"/>
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
       <c r="S58" s="31"/>
@@ -7642,11 +7719,11 @@
       <c r="I59" s="4"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="131"/>
+      <c r="P59" s="131"/>
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
@@ -7684,11 +7761,11 @@
       <c r="I60" s="4"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="131"/>
+      <c r="P60" s="131"/>
       <c r="Q60" s="31"/>
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
@@ -7726,11 +7803,11 @@
       <c r="I61" s="4"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
+      <c r="O61" s="131"/>
+      <c r="P61" s="131"/>
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
@@ -7768,11 +7845,11 @@
       <c r="I62" s="4"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="96"/>
+      <c r="L62" s="131"/>
+      <c r="M62" s="131"/>
+      <c r="N62" s="131"/>
+      <c r="O62" s="131"/>
+      <c r="P62" s="131"/>
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
       <c r="S62" s="31"/>
@@ -7810,11 +7887,11 @@
       <c r="I63" s="4"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="131"/>
+      <c r="P63" s="131"/>
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
@@ -7850,11 +7927,11 @@
         <v>201</v>
       </c>
       <c r="I64" s="26"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="96"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="131"/>
+      <c r="O64" s="131"/>
+      <c r="P64" s="131"/>
       <c r="Q64" s="31"/>
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
@@ -7890,11 +7967,11 @@
         <v>204</v>
       </c>
       <c r="I65" s="26"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="131"/>
+      <c r="P65" s="131"/>
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
@@ -7930,11 +8007,11 @@
         <v>208</v>
       </c>
       <c r="I66" s="26"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="96"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="131"/>
+      <c r="O66" s="131"/>
+      <c r="P66" s="131"/>
       <c r="Q66" s="31"/>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
@@ -7962,11 +8039,11 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
+      <c r="L67" s="131"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
+      <c r="O67" s="131"/>
+      <c r="P67" s="131"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
@@ -7994,11 +8071,11 @@
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="96"/>
-      <c r="O68" s="96"/>
-      <c r="P68" s="96"/>
+      <c r="L68" s="131"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="131"/>
+      <c r="O68" s="131"/>
+      <c r="P68" s="131"/>
       <c r="Q68" s="31"/>
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
@@ -8024,11 +8101,11 @@
       <c r="G69" s="26"/>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="131"/>
+      <c r="O69" s="131"/>
+      <c r="P69" s="131"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
@@ -8064,11 +8141,11 @@
         <v>196</v>
       </c>
       <c r="I70" s="26"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="96"/>
-      <c r="N70" s="96"/>
-      <c r="O70" s="96"/>
-      <c r="P70" s="96"/>
+      <c r="L70" s="131"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="131"/>
+      <c r="O70" s="131"/>
+      <c r="P70" s="131"/>
       <c r="Q70" s="31"/>
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
@@ -8104,11 +8181,11 @@
         <v>196</v>
       </c>
       <c r="I71" s="26"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="131"/>
+      <c r="P71" s="131"/>
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
@@ -8132,11 +8209,11 @@
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="96"/>
-      <c r="O72" s="96"/>
-      <c r="P72" s="96"/>
+      <c r="L72" s="131"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="131"/>
+      <c r="P72" s="131"/>
       <c r="Q72" s="31"/>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
@@ -8172,11 +8249,11 @@
         <v>218</v>
       </c>
       <c r="I73" s="26"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
+      <c r="L73" s="131"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
+      <c r="O73" s="131"/>
+      <c r="P73" s="131"/>
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
@@ -8204,11 +8281,11 @@
         <v>219</v>
       </c>
       <c r="I74" s="26"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
+      <c r="L74" s="131"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="131"/>
+      <c r="P74" s="131"/>
       <c r="Q74" s="31"/>
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
@@ -8225,28 +8302,28 @@
       <c r="B75" s="51" t="s">
         <v>405</v>
       </c>
-      <c r="C75" s="126" t="s">
+      <c r="C75" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="127" t="s">
+      <c r="D75" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="128" t="s">
+      <c r="E75" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="128" t="s">
+      <c r="F75" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="129" t="s">
+      <c r="G75" s="83" t="s">
         <v>406</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
+      <c r="L75" s="131"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="131"/>
+      <c r="P75" s="131"/>
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
@@ -8280,11 +8357,11 @@
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
-      <c r="L76" s="96"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="96"/>
-      <c r="O76" s="96"/>
-      <c r="P76" s="96"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
+      <c r="O76" s="131"/>
+      <c r="P76" s="131"/>
       <c r="Q76" s="31"/>
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
@@ -8306,11 +8383,11 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="131"/>
+      <c r="P77" s="131"/>
       <c r="Q77" s="31"/>
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
@@ -8324,11 +8401,11 @@
       <c r="AA77" s="31"/>
     </row>
     <row r="78" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
+      <c r="L78" s="131"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="131"/>
+      <c r="O78" s="131"/>
+      <c r="P78" s="131"/>
       <c r="Q78" s="31"/>
       <c r="R78" s="31"/>
       <c r="S78" s="31"/>
@@ -8342,11 +8419,11 @@
       <c r="AA78" s="31"/>
     </row>
     <row r="79" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="131"/>
       <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
@@ -8360,11 +8437,11 @@
       <c r="AA79" s="31"/>
     </row>
     <row r="80" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="96"/>
-      <c r="O80" s="96"/>
-      <c r="P80" s="96"/>
+      <c r="L80" s="131"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="131"/>
+      <c r="O80" s="131"/>
+      <c r="P80" s="131"/>
       <c r="Q80" s="31"/>
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
@@ -8378,11 +8455,11 @@
       <c r="AA80" s="31"/>
     </row>
     <row r="81" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="131"/>
+      <c r="P81" s="131"/>
       <c r="Q81" s="31"/>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
@@ -8396,11 +8473,11 @@
       <c r="AA81" s="31"/>
     </row>
     <row r="82" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L82" s="96"/>
-      <c r="M82" s="96"/>
-      <c r="N82" s="96"/>
-      <c r="O82" s="96"/>
-      <c r="P82" s="96"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
+      <c r="O82" s="131"/>
+      <c r="P82" s="131"/>
       <c r="Q82" s="31"/>
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
@@ -8414,11 +8491,11 @@
       <c r="AA82" s="31"/>
     </row>
     <row r="83" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
-      <c r="P83" s="96"/>
+      <c r="L83" s="131"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
+      <c r="O83" s="131"/>
+      <c r="P83" s="131"/>
       <c r="Q83" s="31"/>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -8432,11 +8509,11 @@
       <c r="AA83" s="31"/>
     </row>
     <row r="84" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L84" s="96"/>
-      <c r="M84" s="96"/>
-      <c r="N84" s="96"/>
-      <c r="O84" s="96"/>
-      <c r="P84" s="96"/>
+      <c r="L84" s="131"/>
+      <c r="M84" s="131"/>
+      <c r="N84" s="131"/>
+      <c r="O84" s="131"/>
+      <c r="P84" s="131"/>
       <c r="Q84" s="31"/>
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
@@ -8450,11 +8527,11 @@
       <c r="AA84" s="31"/>
     </row>
     <row r="85" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L85" s="96"/>
-      <c r="M85" s="96"/>
-      <c r="N85" s="96"/>
-      <c r="O85" s="96"/>
-      <c r="P85" s="96"/>
+      <c r="L85" s="131"/>
+      <c r="M85" s="131"/>
+      <c r="N85" s="131"/>
+      <c r="O85" s="131"/>
+      <c r="P85" s="131"/>
       <c r="Q85" s="31"/>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
@@ -8468,11 +8545,11 @@
       <c r="AA85" s="31"/>
     </row>
     <row r="86" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L86" s="96"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="96"/>
-      <c r="O86" s="96"/>
-      <c r="P86" s="96"/>
+      <c r="L86" s="131"/>
+      <c r="M86" s="131"/>
+      <c r="N86" s="131"/>
+      <c r="O86" s="131"/>
+      <c r="P86" s="131"/>
       <c r="Q86" s="31"/>
       <c r="R86" s="31"/>
       <c r="S86" s="31"/>
@@ -8486,11 +8563,11 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="12:27" ht="12.75" customHeight="1">
-      <c r="L87" s="96"/>
-      <c r="M87" s="96"/>
-      <c r="N87" s="96"/>
-      <c r="O87" s="96"/>
-      <c r="P87" s="96"/>
+      <c r="L87" s="131"/>
+      <c r="M87" s="131"/>
+      <c r="N87" s="131"/>
+      <c r="O87" s="131"/>
+      <c r="P87" s="131"/>
       <c r="Q87" s="31"/>
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
@@ -8564,267 +8641,267 @@
       </c>
     </row>
     <row r="3" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
     </row>
     <row r="15" spans="2:21" ht="12.75" customHeight="1">
       <c r="B15" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16" t="s">
@@ -8839,16 +8916,16 @@
       <c r="E18" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
@@ -8863,16 +8940,16 @@
       <c r="E19" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
     </row>
     <row r="20" spans="2:15">
       <c r="C20" t="s">
@@ -8884,16 +8961,16 @@
       <c r="E20" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
@@ -8905,16 +8982,16 @@
       <c r="D21" t="s">
         <v>233</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" t="s">
@@ -8926,16 +9003,16 @@
       <c r="E22" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
@@ -8944,364 +9021,364 @@
       <c r="D23" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
     </row>
     <row r="33" spans="6:15">
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
     </row>
     <row r="35" spans="6:15">
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
     </row>
     <row r="36" spans="6:15">
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
     </row>
     <row r="37" spans="6:15">
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
     </row>
     <row r="38" spans="6:15">
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
     </row>
     <row r="39" spans="6:15">
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
     </row>
     <row r="40" spans="6:15">
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
     </row>
     <row r="41" spans="6:15">
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
     </row>
     <row r="42" spans="6:15">
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
     </row>
     <row r="43" spans="6:15">
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
     </row>
     <row r="44" spans="6:15">
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="131"/>
     </row>
     <row r="45" spans="6:15">
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
     </row>
     <row r="46" spans="6:15">
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="131"/>
     </row>
     <row r="47" spans="6:15">
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
     </row>
     <row r="48" spans="6:15">
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
     </row>
     <row r="49" spans="6:15">
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
     </row>
     <row r="50" spans="6:15">
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="131"/>
     </row>
     <row r="51" spans="6:15">
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="131"/>
     </row>
     <row r="52" spans="6:15">
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10342,10 +10419,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10366,21 +10443,41 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>410</v>
       </c>
     </row>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ADDF09-F811-CB4A-9389-68FB39E17556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33506D-C71F-654F-AE71-70717387A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter_Input" sheetId="1" r:id="rId1"/>
-    <sheet name="How_to_use" sheetId="3" r:id="rId2"/>
-    <sheet name="TickerList" sheetId="4" r:id="rId3"/>
-    <sheet name="Notes" sheetId="5" r:id="rId4"/>
-    <sheet name="DropDownValues" sheetId="6" r:id="rId5"/>
-    <sheet name="TemplateList" sheetId="2" r:id="rId6"/>
+    <sheet name="TickerList" sheetId="4" r:id="rId2"/>
+    <sheet name="Notes" sheetId="5" r:id="rId3"/>
+    <sheet name="DropDownValues" sheetId="6" r:id="rId4"/>
+    <sheet name="TemplateList" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="447">
   <si>
     <t>Index</t>
   </si>
@@ -185,9 +184,6 @@
   </si>
   <si>
     <t>Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>China M2 proxies?.xlsx</t>
@@ -1439,9 +1435,6 @@
     <t>U.S Real GDI</t>
   </si>
   <si>
-    <t>U.S GDP and GDI</t>
-  </si>
-  <si>
     <t>US Gross dometic product (GDP)</t>
   </si>
   <si>
@@ -1464,6 +1457,75 @@
   </si>
   <si>
     <t>You can paste your FRED API key here (make free account to get): https://fredaccount.stlouisfed.org/apikeys, leave blank to load key from API_keys.json</t>
+  </si>
+  <si>
+    <t>TTLCONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S Total construction spending (nominal) </t>
+  </si>
+  <si>
+    <t>Millions of U.S $</t>
+  </si>
+  <si>
+    <t>SHOW/HIDE</t>
+  </si>
+  <si>
+    <t>Show/HIDE</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>H41RESPPALDKNWW</t>
+  </si>
+  <si>
+    <t>Bank term funding program (BTFP)</t>
+  </si>
+  <si>
+    <t>CE16OV</t>
+  </si>
+  <si>
+    <t>Employment level (establishment survey)</t>
+  </si>
+  <si>
+    <t>Millions of non-rekt persons</t>
+  </si>
+  <si>
+    <t>TOTBKCR</t>
+  </si>
+  <si>
+    <t>Bank credit and M2 U.S</t>
+  </si>
+  <si>
+    <t>M2 money supply U.S YoY</t>
+  </si>
+  <si>
+    <t>Bank credit, all commercial banks YoY</t>
+  </si>
+  <si>
+    <t>.DS_Store</t>
+  </si>
+  <si>
+    <t>Bank credit and M2 U.S.xlsx</t>
+  </si>
+  <si>
+    <t>Total construction spending in the U.S, nominal and real.xlsx</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+  </si>
+  <si>
+    <t>Personal savings U.S (BEA).xlsx</t>
+  </si>
+  <si>
+    <t>Real Incomes U.S (BEA).xlsx</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1644,6 +1706,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2061,10 +2130,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2200,17 +2265,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,7 +2324,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2283,6 +2354,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -2291,6 +2366,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2329,6 +2407,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2337,21 +2418,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2737,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2757,6 +2823,7 @@
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="20.33203125" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" customHeight="1">
@@ -2802,21 +2869,24 @@
       <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>409</v>
+      <c r="P1" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1">
-      <c r="A2" s="77">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -2826,69 +2896,75 @@
         <v>18</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>418</v>
+        <v>191</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>411</v>
+        <v>193</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
       <c r="K2" s="54"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="87">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="O2" s="86">
         <v>1000</v>
       </c>
-      <c r="P2" s="90"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="95" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="3" spans="1:36" ht="18" customHeight="1">
-      <c r="A3" s="77">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>411</v>
+        <v>134</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="54"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="87">
-        <v>1000</v>
-      </c>
-      <c r="P3" s="90"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="95" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="18" customHeight="1">
-      <c r="A4" s="77">
+      <c r="A4" s="76">
         <v>3</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -2898,270 +2974,277 @@
         <v>26</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>413</v>
+        <v>211</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
       <c r="K4" s="54"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="87">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="O4" s="86">
         <v>1000</v>
       </c>
-      <c r="P4" s="90"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="95" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="18" customHeight="1">
-      <c r="A5" s="77">
+      <c r="A5" s="76">
         <v>4</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>414</v>
+        <v>134</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="54"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="84">
-        <v>2.5</v>
-      </c>
-      <c r="O5" s="87">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="90"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="95" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="18" customHeight="1">
-      <c r="A6" s="78">
+      <c r="A6" s="77">
         <v>5</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="95" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="18" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="120" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="D7" s="119" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="E7" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="F7" s="118" t="s">
         <v>390</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="G7" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="H7" s="119" t="s">
         <v>392</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="I7" s="119" t="s">
         <v>393</v>
       </c>
-      <c r="I7" s="116" t="s">
+      <c r="J7" s="119" t="s">
         <v>394</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="K7" s="132" t="s">
         <v>395</v>
       </c>
-      <c r="K7" s="127" t="s">
+      <c r="L7" s="127" t="s">
         <v>396</v>
       </c>
-      <c r="L7" s="123" t="s">
+      <c r="M7" s="134" t="s">
         <v>397</v>
       </c>
-      <c r="M7" s="129" t="s">
+      <c r="N7" s="122" t="s">
         <v>398</v>
       </c>
-      <c r="N7" s="119" t="s">
+      <c r="O7" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="O7" s="124" t="s">
-        <v>400</v>
-      </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
     </row>
     <row r="8" spans="1:36" ht="18" customHeight="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
     </row>
     <row r="9" spans="1:36" ht="18" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
     </row>
     <row r="10" spans="1:36" ht="26" customHeight="1">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
     </row>
     <row r="11" spans="1:36" ht="16" customHeight="1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>419</v>
+      <c r="B11" s="73" t="s">
+        <v>417</v>
       </c>
       <c r="C11" s="100" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="101"/>
-      <c r="E11" s="125" t="s">
-        <v>386</v>
-      </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
+      <c r="E11" s="130" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
     </row>
     <row r="12" spans="1:36" ht="16" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="103"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
     </row>
     <row r="13" spans="1:36" ht="16" customHeight="1">
       <c r="A13" s="5"/>
@@ -3169,34 +3252,34 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
     </row>
     <row r="14" spans="1:36" ht="16" customHeight="1">
       <c r="A14" s="43" t="s">
@@ -3205,51 +3288,51 @@
       <c r="B14" s="104"/>
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="143" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146" t="s">
-        <v>424</v>
-      </c>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
+      <c r="E14" s="114" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="117" t="s">
+        <v>422</v>
+      </c>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
     </row>
     <row r="15" spans="1:36" ht="16" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
       <c r="E15" s="109"/>
-      <c r="F15" s="136" t="s">
+      <c r="F15" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="137"/>
-      <c r="H15" s="121" t="s">
-        <v>401</v>
-      </c>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="62"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="61"/>
     </row>
     <row r="16" spans="1:36" ht="16" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="112" t="s">
@@ -3259,13 +3342,13 @@
       <c r="E16" s="97"/>
       <c r="F16" s="113"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="62"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="61"/>
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1">
       <c r="A17" s="110" t="s">
@@ -3277,41 +3360,41 @@
       <c r="E17" s="111"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="62"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="143" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="97"/>
       <c r="E18" s="97"/>
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="62"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1">
       <c r="A19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="96" t="s">
         <v>41</v>
       </c>
@@ -3319,19 +3402,19 @@
       <c r="E19" s="97"/>
       <c r="F19" s="97"/>
       <c r="G19" s="97"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="62"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="61"/>
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1">
       <c r="A20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="96" t="s">
         <v>43</v>
       </c>
@@ -3339,19 +3422,19 @@
       <c r="E20" s="97"/>
       <c r="F20" s="97"/>
       <c r="G20" s="97"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="62"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="61"/>
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="98" t="s">
@@ -3361,48 +3444,48 @@
       <c r="E21" s="97"/>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="62"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="61"/>
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1">
       <c r="A22" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="62"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="61"/>
     </row>
     <row r="23" spans="1:14" ht="23" customHeight="1">
       <c r="A23" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
+      <c r="B23" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
       <c r="F23" s="99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
@@ -3413,13 +3496,13 @@
       <c r="M23" s="99"/>
     </row>
     <row r="24" spans="1:14" ht="19" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="99" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G24" s="99"/>
       <c r="H24" s="99"/>
@@ -3430,2054 +3513,2052 @@
       <c r="M24" s="99"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="71"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="71"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="71"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="71"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="71"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="71"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="71"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="71"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
     </row>
     <row r="65" spans="6:14">
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
     </row>
     <row r="66" spans="6:14">
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
     </row>
     <row r="67" spans="6:14">
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
     </row>
     <row r="68" spans="6:14">
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
     </row>
     <row r="69" spans="6:14">
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
     </row>
     <row r="70" spans="6:14">
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
     </row>
     <row r="71" spans="6:14">
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
     </row>
     <row r="72" spans="6:14">
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
     </row>
     <row r="73" spans="6:14">
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
     </row>
     <row r="74" spans="6:14">
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
     </row>
     <row r="75" spans="6:14">
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
     </row>
     <row r="76" spans="6:14">
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
     </row>
     <row r="77" spans="6:14">
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
     </row>
     <row r="78" spans="6:14">
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
     </row>
     <row r="79" spans="6:14">
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
     </row>
     <row r="80" spans="6:14">
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
     </row>
     <row r="81" spans="6:14">
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
     </row>
     <row r="82" spans="6:14">
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
     </row>
     <row r="83" spans="6:14">
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
     </row>
     <row r="84" spans="6:14">
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
     </row>
     <row r="85" spans="6:14">
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
     </row>
     <row r="86" spans="6:14">
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="6:14">
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
     </row>
     <row r="88" spans="6:14">
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="62"/>
-      <c r="N88" s="62"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
     </row>
     <row r="89" spans="6:14">
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="62"/>
-      <c r="K89" s="62"/>
-      <c r="L89" s="62"/>
-      <c r="M89" s="62"/>
-      <c r="N89" s="62"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
     </row>
     <row r="90" spans="6:14">
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
-      <c r="N90" s="62"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
     </row>
     <row r="91" spans="6:14">
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="62"/>
-      <c r="M91" s="62"/>
-      <c r="N91" s="62"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
     </row>
     <row r="92" spans="6:14">
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
-      <c r="L92" s="62"/>
-      <c r="M92" s="62"/>
-      <c r="N92" s="62"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
     </row>
     <row r="93" spans="6:14">
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="62"/>
-      <c r="N93" s="62"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
     </row>
     <row r="94" spans="6:14">
-      <c r="F94" s="62"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="62"/>
-      <c r="N94" s="62"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
     </row>
     <row r="95" spans="6:14">
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="62"/>
-      <c r="M95" s="62"/>
-      <c r="N95" s="62"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="61"/>
     </row>
     <row r="96" spans="6:14">
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="62"/>
-      <c r="N96" s="62"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="61"/>
+      <c r="N96" s="61"/>
     </row>
     <row r="97" spans="6:14">
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62"/>
-      <c r="N97" s="62"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
     </row>
     <row r="98" spans="6:14">
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="62"/>
-      <c r="N98" s="62"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
     </row>
     <row r="99" spans="6:14">
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
-      <c r="N99" s="62"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
     </row>
     <row r="100" spans="6:14">
-      <c r="F100" s="62"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="62"/>
-      <c r="L100" s="62"/>
-      <c r="M100" s="62"/>
-      <c r="N100" s="62"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
+      <c r="N100" s="61"/>
     </row>
     <row r="101" spans="6:14">
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="62"/>
-      <c r="N101" s="62"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
     </row>
     <row r="102" spans="6:14">
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="61"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
+      <c r="N102" s="61"/>
     </row>
     <row r="103" spans="6:14">
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="61"/>
     </row>
     <row r="104" spans="6:14">
-      <c r="F104" s="62"/>
-      <c r="G104" s="62"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="62"/>
-      <c r="N104" s="62"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
+      <c r="N104" s="61"/>
     </row>
     <row r="105" spans="6:14">
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="62"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="62"/>
-      <c r="N105" s="62"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
+      <c r="N105" s="61"/>
     </row>
     <row r="106" spans="6:14">
-      <c r="F106" s="62"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="62"/>
-      <c r="J106" s="62"/>
-      <c r="K106" s="62"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="62"/>
-      <c r="N106" s="62"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="61"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="61"/>
+      <c r="N106" s="61"/>
     </row>
     <row r="107" spans="6:14">
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="62"/>
-      <c r="L107" s="62"/>
-      <c r="M107" s="62"/>
-      <c r="N107" s="62"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="61"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="61"/>
+      <c r="N107" s="61"/>
     </row>
     <row r="108" spans="6:14">
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="62"/>
-      <c r="I108" s="62"/>
-      <c r="J108" s="62"/>
-      <c r="K108" s="62"/>
-      <c r="L108" s="62"/>
-      <c r="M108" s="62"/>
-      <c r="N108" s="62"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
     </row>
     <row r="109" spans="6:14">
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="61"/>
     </row>
     <row r="110" spans="6:14">
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
-      <c r="L110" s="62"/>
-      <c r="M110" s="62"/>
-      <c r="N110" s="62"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
+      <c r="N110" s="61"/>
     </row>
     <row r="111" spans="6:14">
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="62"/>
-      <c r="N111" s="62"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
     </row>
     <row r="112" spans="6:14">
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="62"/>
-      <c r="K112" s="62"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="62"/>
-      <c r="N112" s="62"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="61"/>
+      <c r="N112" s="61"/>
     </row>
     <row r="113" spans="6:14">
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="62"/>
-      <c r="N113" s="62"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="61"/>
+      <c r="N113" s="61"/>
     </row>
     <row r="114" spans="6:14">
-      <c r="F114" s="62"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62"/>
-      <c r="K114" s="62"/>
-      <c r="L114" s="62"/>
-      <c r="M114" s="62"/>
-      <c r="N114" s="62"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="61"/>
     </row>
     <row r="115" spans="6:14">
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="62"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="62"/>
-      <c r="N115" s="62"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
+      <c r="N115" s="61"/>
     </row>
     <row r="116" spans="6:14">
-      <c r="F116" s="62"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="62"/>
-      <c r="I116" s="62"/>
-      <c r="J116" s="62"/>
-      <c r="K116" s="62"/>
-      <c r="L116" s="62"/>
-      <c r="M116" s="62"/>
-      <c r="N116" s="62"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="61"/>
+      <c r="L116" s="61"/>
+      <c r="M116" s="61"/>
+      <c r="N116" s="61"/>
     </row>
     <row r="117" spans="6:14">
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="62"/>
-      <c r="L117" s="62"/>
-      <c r="M117" s="62"/>
-      <c r="N117" s="62"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="61"/>
+      <c r="N117" s="61"/>
     </row>
     <row r="118" spans="6:14">
-      <c r="F118" s="62"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="62"/>
-      <c r="L118" s="62"/>
-      <c r="M118" s="62"/>
-      <c r="N118" s="62"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="61"/>
+      <c r="K118" s="61"/>
+      <c r="L118" s="61"/>
+      <c r="M118" s="61"/>
+      <c r="N118" s="61"/>
     </row>
     <row r="119" spans="6:14">
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
-      <c r="L119" s="62"/>
-      <c r="M119" s="62"/>
-      <c r="N119" s="62"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="61"/>
+      <c r="L119" s="61"/>
+      <c r="M119" s="61"/>
+      <c r="N119" s="61"/>
     </row>
     <row r="120" spans="6:14">
-      <c r="F120" s="62"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="62"/>
-      <c r="I120" s="62"/>
-      <c r="J120" s="62"/>
-      <c r="K120" s="62"/>
-      <c r="L120" s="62"/>
-      <c r="M120" s="62"/>
-      <c r="N120" s="62"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="61"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="61"/>
+      <c r="K120" s="61"/>
+      <c r="L120" s="61"/>
+      <c r="M120" s="61"/>
+      <c r="N120" s="61"/>
     </row>
     <row r="121" spans="6:14">
-      <c r="F121" s="62"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="62"/>
-      <c r="I121" s="62"/>
-      <c r="J121" s="62"/>
-      <c r="K121" s="62"/>
-      <c r="L121" s="62"/>
-      <c r="M121" s="62"/>
-      <c r="N121" s="62"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="61"/>
+      <c r="N121" s="61"/>
     </row>
     <row r="122" spans="6:14">
-      <c r="F122" s="62"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="62"/>
-      <c r="L122" s="62"/>
-      <c r="M122" s="62"/>
-      <c r="N122" s="62"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="61"/>
+      <c r="L122" s="61"/>
+      <c r="M122" s="61"/>
+      <c r="N122" s="61"/>
     </row>
     <row r="123" spans="6:14">
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="62"/>
-      <c r="L123" s="62"/>
-      <c r="M123" s="62"/>
-      <c r="N123" s="62"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="61"/>
+      <c r="N123" s="61"/>
     </row>
     <row r="124" spans="6:14">
-      <c r="F124" s="62"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="62"/>
-      <c r="L124" s="62"/>
-      <c r="M124" s="62"/>
-      <c r="N124" s="62"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="61"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="61"/>
+      <c r="L124" s="61"/>
+      <c r="M124" s="61"/>
+      <c r="N124" s="61"/>
     </row>
     <row r="125" spans="6:14">
-      <c r="F125" s="62"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="62"/>
-      <c r="L125" s="62"/>
-      <c r="M125" s="62"/>
-      <c r="N125" s="62"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
+      <c r="L125" s="61"/>
+      <c r="M125" s="61"/>
+      <c r="N125" s="61"/>
     </row>
     <row r="126" spans="6:14">
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
-      <c r="N126" s="62"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="61"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
+      <c r="N126" s="61"/>
     </row>
     <row r="127" spans="6:14">
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
-      <c r="N127" s="62"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="61"/>
+      <c r="L127" s="61"/>
+      <c r="M127" s="61"/>
+      <c r="N127" s="61"/>
     </row>
     <row r="128" spans="6:14">
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-      <c r="L128" s="62"/>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="61"/>
+      <c r="L128" s="61"/>
+      <c r="M128" s="61"/>
+      <c r="N128" s="61"/>
     </row>
     <row r="129" spans="6:14">
-      <c r="F129" s="62"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-      <c r="L129" s="62"/>
-      <c r="M129" s="62"/>
-      <c r="N129" s="62"/>
+      <c r="F129" s="61"/>
+      <c r="G129" s="61"/>
+      <c r="H129" s="61"/>
+      <c r="I129" s="61"/>
+      <c r="J129" s="61"/>
+      <c r="K129" s="61"/>
+      <c r="L129" s="61"/>
+      <c r="M129" s="61"/>
+      <c r="N129" s="61"/>
     </row>
     <row r="130" spans="6:14">
-      <c r="F130" s="62"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
-      <c r="L130" s="62"/>
-      <c r="M130" s="62"/>
-      <c r="N130" s="62"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="61"/>
+      <c r="H130" s="61"/>
+      <c r="I130" s="61"/>
+      <c r="J130" s="61"/>
+      <c r="K130" s="61"/>
+      <c r="L130" s="61"/>
+      <c r="M130" s="61"/>
+      <c r="N130" s="61"/>
     </row>
     <row r="131" spans="6:14">
-      <c r="F131" s="62"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="62"/>
-      <c r="I131" s="62"/>
-      <c r="J131" s="62"/>
-      <c r="K131" s="62"/>
-      <c r="L131" s="62"/>
-      <c r="M131" s="62"/>
-      <c r="N131" s="62"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="61"/>
+      <c r="K131" s="61"/>
+      <c r="L131" s="61"/>
+      <c r="M131" s="61"/>
+      <c r="N131" s="61"/>
     </row>
     <row r="132" spans="6:14">
-      <c r="F132" s="62"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="62"/>
-      <c r="J132" s="62"/>
-      <c r="K132" s="62"/>
-      <c r="L132" s="62"/>
-      <c r="M132" s="62"/>
-      <c r="N132" s="62"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="61"/>
     </row>
     <row r="133" spans="6:14">
-      <c r="F133" s="62"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="62"/>
-      <c r="I133" s="62"/>
-      <c r="J133" s="62"/>
-      <c r="K133" s="62"/>
-      <c r="L133" s="62"/>
-      <c r="M133" s="62"/>
-      <c r="N133" s="62"/>
+      <c r="F133" s="61"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="61"/>
+      <c r="I133" s="61"/>
+      <c r="J133" s="61"/>
+      <c r="K133" s="61"/>
+      <c r="L133" s="61"/>
+      <c r="M133" s="61"/>
+      <c r="N133" s="61"/>
     </row>
     <row r="134" spans="6:14">
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="62"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="62"/>
-      <c r="L134" s="62"/>
-      <c r="M134" s="62"/>
-      <c r="N134" s="62"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="61"/>
+      <c r="J134" s="61"/>
+      <c r="K134" s="61"/>
+      <c r="L134" s="61"/>
+      <c r="M134" s="61"/>
+      <c r="N134" s="61"/>
     </row>
     <row r="135" spans="6:14">
-      <c r="F135" s="62"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="62"/>
-      <c r="I135" s="62"/>
-      <c r="J135" s="62"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="62"/>
-      <c r="M135" s="62"/>
-      <c r="N135" s="62"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="61"/>
+      <c r="K135" s="61"/>
+      <c r="L135" s="61"/>
+      <c r="M135" s="61"/>
+      <c r="N135" s="61"/>
     </row>
     <row r="136" spans="6:14">
-      <c r="F136" s="62"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="62"/>
-      <c r="I136" s="62"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="62"/>
-      <c r="L136" s="62"/>
-      <c r="M136" s="62"/>
-      <c r="N136" s="62"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="61"/>
+      <c r="I136" s="61"/>
+      <c r="J136" s="61"/>
+      <c r="K136" s="61"/>
+      <c r="L136" s="61"/>
+      <c r="M136" s="61"/>
+      <c r="N136" s="61"/>
     </row>
     <row r="137" spans="6:14">
-      <c r="F137" s="62"/>
-      <c r="G137" s="62"/>
-      <c r="H137" s="62"/>
-      <c r="I137" s="62"/>
-      <c r="J137" s="62"/>
-      <c r="K137" s="62"/>
-      <c r="L137" s="62"/>
-      <c r="M137" s="62"/>
-      <c r="N137" s="62"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="61"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="61"/>
+      <c r="L137" s="61"/>
+      <c r="M137" s="61"/>
+      <c r="N137" s="61"/>
     </row>
     <row r="138" spans="6:14">
-      <c r="F138" s="62"/>
-      <c r="G138" s="62"/>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
-      <c r="J138" s="62"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="62"/>
-      <c r="M138" s="62"/>
-      <c r="N138" s="62"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="61"/>
+      <c r="H138" s="61"/>
+      <c r="I138" s="61"/>
+      <c r="J138" s="61"/>
+      <c r="K138" s="61"/>
+      <c r="L138" s="61"/>
+      <c r="M138" s="61"/>
+      <c r="N138" s="61"/>
     </row>
     <row r="139" spans="6:14">
-      <c r="F139" s="62"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="62"/>
-      <c r="J139" s="62"/>
-      <c r="K139" s="62"/>
-      <c r="L139" s="62"/>
-      <c r="M139" s="62"/>
-      <c r="N139" s="62"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="61"/>
+      <c r="L139" s="61"/>
+      <c r="M139" s="61"/>
+      <c r="N139" s="61"/>
     </row>
     <row r="140" spans="6:14">
-      <c r="F140" s="62"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="62"/>
-      <c r="I140" s="62"/>
-      <c r="J140" s="62"/>
-      <c r="K140" s="62"/>
-      <c r="L140" s="62"/>
-      <c r="M140" s="62"/>
-      <c r="N140" s="62"/>
+      <c r="F140" s="61"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="61"/>
+      <c r="I140" s="61"/>
+      <c r="J140" s="61"/>
+      <c r="K140" s="61"/>
+      <c r="L140" s="61"/>
+      <c r="M140" s="61"/>
+      <c r="N140" s="61"/>
     </row>
     <row r="141" spans="6:14">
-      <c r="F141" s="62"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
-      <c r="M141" s="62"/>
-      <c r="N141" s="62"/>
+      <c r="F141" s="61"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="61"/>
+      <c r="I141" s="61"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="61"/>
+      <c r="L141" s="61"/>
+      <c r="M141" s="61"/>
+      <c r="N141" s="61"/>
     </row>
     <row r="142" spans="6:14">
-      <c r="F142" s="62"/>
-      <c r="G142" s="62"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="62"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="62"/>
-      <c r="L142" s="62"/>
-      <c r="M142" s="62"/>
-      <c r="N142" s="62"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="61"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="61"/>
+      <c r="L142" s="61"/>
+      <c r="M142" s="61"/>
+      <c r="N142" s="61"/>
     </row>
     <row r="143" spans="6:14">
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="62"/>
-      <c r="J143" s="62"/>
-      <c r="K143" s="62"/>
-      <c r="L143" s="62"/>
-      <c r="M143" s="62"/>
-      <c r="N143" s="62"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="61"/>
     </row>
     <row r="144" spans="6:14">
-      <c r="F144" s="62"/>
-      <c r="G144" s="62"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="62"/>
-      <c r="J144" s="62"/>
-      <c r="K144" s="62"/>
-      <c r="L144" s="62"/>
-      <c r="M144" s="62"/>
-      <c r="N144" s="62"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="61"/>
+      <c r="L144" s="61"/>
+      <c r="M144" s="61"/>
+      <c r="N144" s="61"/>
     </row>
     <row r="145" spans="6:14">
-      <c r="F145" s="62"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="62"/>
-      <c r="I145" s="62"/>
-      <c r="J145" s="62"/>
-      <c r="K145" s="62"/>
-      <c r="L145" s="62"/>
-      <c r="M145" s="62"/>
-      <c r="N145" s="62"/>
+      <c r="F145" s="61"/>
+      <c r="G145" s="61"/>
+      <c r="H145" s="61"/>
+      <c r="I145" s="61"/>
+      <c r="J145" s="61"/>
+      <c r="K145" s="61"/>
+      <c r="L145" s="61"/>
+      <c r="M145" s="61"/>
+      <c r="N145" s="61"/>
     </row>
     <row r="146" spans="6:14">
-      <c r="F146" s="62"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="62"/>
-      <c r="J146" s="62"/>
-      <c r="K146" s="62"/>
-      <c r="L146" s="62"/>
-      <c r="M146" s="62"/>
-      <c r="N146" s="62"/>
+      <c r="F146" s="61"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="61"/>
+      <c r="J146" s="61"/>
+      <c r="K146" s="61"/>
+      <c r="L146" s="61"/>
+      <c r="M146" s="61"/>
+      <c r="N146" s="61"/>
     </row>
     <row r="147" spans="6:14">
-      <c r="F147" s="62"/>
-      <c r="G147" s="62"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="62"/>
-      <c r="J147" s="62"/>
-      <c r="K147" s="62"/>
-      <c r="L147" s="62"/>
-      <c r="M147" s="62"/>
-      <c r="N147" s="62"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="61"/>
+      <c r="L147" s="61"/>
+      <c r="M147" s="61"/>
+      <c r="N147" s="61"/>
     </row>
     <row r="148" spans="6:14">
-      <c r="F148" s="62"/>
-      <c r="G148" s="62"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="62"/>
-      <c r="J148" s="62"/>
-      <c r="K148" s="62"/>
-      <c r="L148" s="62"/>
-      <c r="M148" s="62"/>
-      <c r="N148" s="62"/>
+      <c r="F148" s="61"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="61"/>
+      <c r="I148" s="61"/>
+      <c r="J148" s="61"/>
+      <c r="K148" s="61"/>
+      <c r="L148" s="61"/>
+      <c r="M148" s="61"/>
+      <c r="N148" s="61"/>
     </row>
     <row r="149" spans="6:14">
-      <c r="F149" s="62"/>
-      <c r="G149" s="62"/>
-      <c r="H149" s="62"/>
-      <c r="I149" s="62"/>
-      <c r="J149" s="62"/>
-      <c r="K149" s="62"/>
-      <c r="L149" s="62"/>
-      <c r="M149" s="62"/>
-      <c r="N149" s="62"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="61"/>
+      <c r="H149" s="61"/>
+      <c r="I149" s="61"/>
+      <c r="J149" s="61"/>
+      <c r="K149" s="61"/>
+      <c r="L149" s="61"/>
+      <c r="M149" s="61"/>
+      <c r="N149" s="61"/>
     </row>
     <row r="150" spans="6:14">
-      <c r="F150" s="62"/>
-      <c r="G150" s="62"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
-      <c r="J150" s="62"/>
-      <c r="K150" s="62"/>
-      <c r="L150" s="62"/>
-      <c r="M150" s="62"/>
-      <c r="N150" s="62"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="61"/>
+      <c r="J150" s="61"/>
+      <c r="K150" s="61"/>
+      <c r="L150" s="61"/>
+      <c r="M150" s="61"/>
+      <c r="N150" s="61"/>
     </row>
     <row r="151" spans="6:14">
-      <c r="F151" s="62"/>
-      <c r="G151" s="62"/>
-      <c r="H151" s="62"/>
-      <c r="I151" s="62"/>
-      <c r="J151" s="62"/>
-      <c r="K151" s="62"/>
-      <c r="L151" s="62"/>
-      <c r="M151" s="62"/>
-      <c r="N151" s="62"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="61"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="61"/>
+      <c r="K151" s="61"/>
+      <c r="L151" s="61"/>
+      <c r="M151" s="61"/>
+      <c r="N151" s="61"/>
     </row>
     <row r="152" spans="6:14">
-      <c r="F152" s="62"/>
-      <c r="G152" s="62"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
-      <c r="J152" s="62"/>
-      <c r="K152" s="62"/>
-      <c r="L152" s="62"/>
-      <c r="M152" s="62"/>
-      <c r="N152" s="62"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="61"/>
+      <c r="H152" s="61"/>
+      <c r="I152" s="61"/>
+      <c r="J152" s="61"/>
+      <c r="K152" s="61"/>
+      <c r="L152" s="61"/>
+      <c r="M152" s="61"/>
+      <c r="N152" s="61"/>
     </row>
     <row r="153" spans="6:14">
-      <c r="F153" s="62"/>
-      <c r="G153" s="62"/>
-      <c r="H153" s="62"/>
-      <c r="I153" s="62"/>
-      <c r="J153" s="62"/>
-      <c r="K153" s="62"/>
-      <c r="L153" s="62"/>
-      <c r="M153" s="62"/>
-      <c r="N153" s="62"/>
+      <c r="F153" s="61"/>
+      <c r="G153" s="61"/>
+      <c r="H153" s="61"/>
+      <c r="I153" s="61"/>
+      <c r="J153" s="61"/>
+      <c r="K153" s="61"/>
+      <c r="L153" s="61"/>
+      <c r="M153" s="61"/>
+      <c r="N153" s="61"/>
     </row>
     <row r="154" spans="6:14">
-      <c r="F154" s="62"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="62"/>
-      <c r="I154" s="62"/>
-      <c r="J154" s="62"/>
-      <c r="K154" s="62"/>
-      <c r="L154" s="62"/>
-      <c r="M154" s="62"/>
-      <c r="N154" s="62"/>
+      <c r="F154" s="61"/>
+      <c r="G154" s="61"/>
+      <c r="H154" s="61"/>
+      <c r="I154" s="61"/>
+      <c r="J154" s="61"/>
+      <c r="K154" s="61"/>
+      <c r="L154" s="61"/>
+      <c r="M154" s="61"/>
+      <c r="N154" s="61"/>
     </row>
     <row r="155" spans="6:14">
-      <c r="F155" s="62"/>
-      <c r="G155" s="62"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="62"/>
-      <c r="J155" s="62"/>
-      <c r="K155" s="62"/>
-      <c r="L155" s="62"/>
-      <c r="M155" s="62"/>
-      <c r="N155" s="62"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="61"/>
+      <c r="H155" s="61"/>
+      <c r="I155" s="61"/>
+      <c r="J155" s="61"/>
+      <c r="K155" s="61"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="61"/>
+      <c r="N155" s="61"/>
     </row>
     <row r="156" spans="6:14">
-      <c r="F156" s="62"/>
-      <c r="G156" s="62"/>
-      <c r="H156" s="62"/>
-      <c r="I156" s="62"/>
-      <c r="J156" s="62"/>
-      <c r="K156" s="62"/>
-      <c r="L156" s="62"/>
-      <c r="M156" s="62"/>
-      <c r="N156" s="62"/>
+      <c r="F156" s="61"/>
+      <c r="G156" s="61"/>
+      <c r="H156" s="61"/>
+      <c r="I156" s="61"/>
+      <c r="J156" s="61"/>
+      <c r="K156" s="61"/>
+      <c r="L156" s="61"/>
+      <c r="M156" s="61"/>
+      <c r="N156" s="61"/>
     </row>
     <row r="157" spans="6:14">
-      <c r="F157" s="62"/>
-      <c r="G157" s="62"/>
-      <c r="H157" s="62"/>
-      <c r="I157" s="62"/>
-      <c r="J157" s="62"/>
-      <c r="K157" s="62"/>
-      <c r="L157" s="62"/>
-      <c r="M157" s="62"/>
-      <c r="N157" s="62"/>
+      <c r="F157" s="61"/>
+      <c r="G157" s="61"/>
+      <c r="H157" s="61"/>
+      <c r="I157" s="61"/>
+      <c r="J157" s="61"/>
+      <c r="K157" s="61"/>
+      <c r="L157" s="61"/>
+      <c r="M157" s="61"/>
+      <c r="N157" s="61"/>
     </row>
     <row r="158" spans="6:14">
-      <c r="F158" s="62"/>
-      <c r="G158" s="62"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="62"/>
-      <c r="J158" s="62"/>
-      <c r="K158" s="62"/>
-      <c r="L158" s="62"/>
-      <c r="M158" s="62"/>
-      <c r="N158" s="62"/>
+      <c r="F158" s="61"/>
+      <c r="G158" s="61"/>
+      <c r="H158" s="61"/>
+      <c r="I158" s="61"/>
+      <c r="J158" s="61"/>
+      <c r="K158" s="61"/>
+      <c r="L158" s="61"/>
+      <c r="M158" s="61"/>
+      <c r="N158" s="61"/>
     </row>
     <row r="159" spans="6:14">
-      <c r="F159" s="62"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="62"/>
-      <c r="J159" s="62"/>
-      <c r="K159" s="62"/>
-      <c r="L159" s="62"/>
-      <c r="M159" s="62"/>
-      <c r="N159" s="62"/>
+      <c r="F159" s="61"/>
+      <c r="G159" s="61"/>
+      <c r="H159" s="61"/>
+      <c r="I159" s="61"/>
+      <c r="J159" s="61"/>
+      <c r="K159" s="61"/>
+      <c r="L159" s="61"/>
+      <c r="M159" s="61"/>
+      <c r="N159" s="61"/>
     </row>
     <row r="160" spans="6:14">
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="62"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="62"/>
-      <c r="L160" s="62"/>
-      <c r="M160" s="62"/>
-      <c r="N160" s="62"/>
+      <c r="F160" s="61"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="61"/>
+      <c r="I160" s="61"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="61"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="61"/>
+      <c r="N160" s="61"/>
     </row>
     <row r="161" spans="6:14">
-      <c r="F161" s="62"/>
-      <c r="G161" s="62"/>
-      <c r="H161" s="62"/>
-      <c r="I161" s="62"/>
-      <c r="J161" s="62"/>
-      <c r="K161" s="62"/>
-      <c r="L161" s="62"/>
-      <c r="M161" s="62"/>
-      <c r="N161" s="62"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="61"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="61"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="61"/>
+      <c r="L161" s="61"/>
+      <c r="M161" s="61"/>
+      <c r="N161" s="61"/>
     </row>
     <row r="162" spans="6:14">
-      <c r="F162" s="62"/>
-      <c r="G162" s="62"/>
-      <c r="H162" s="62"/>
-      <c r="I162" s="62"/>
-      <c r="J162" s="62"/>
-      <c r="K162" s="62"/>
-      <c r="L162" s="62"/>
-      <c r="M162" s="62"/>
-      <c r="N162" s="62"/>
+      <c r="F162" s="61"/>
+      <c r="G162" s="61"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="61"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="61"/>
+      <c r="L162" s="61"/>
+      <c r="M162" s="61"/>
+      <c r="N162" s="61"/>
     </row>
     <row r="163" spans="6:14">
-      <c r="F163" s="62"/>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
-      <c r="L163" s="62"/>
-      <c r="M163" s="62"/>
-      <c r="N163" s="62"/>
+      <c r="F163" s="61"/>
+      <c r="G163" s="61"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="61"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="61"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="61"/>
     </row>
     <row r="164" spans="6:14">
-      <c r="F164" s="62"/>
-      <c r="G164" s="62"/>
-      <c r="H164" s="62"/>
-      <c r="I164" s="62"/>
-      <c r="J164" s="62"/>
-      <c r="K164" s="62"/>
-      <c r="L164" s="62"/>
-      <c r="M164" s="62"/>
-      <c r="N164" s="62"/>
+      <c r="F164" s="61"/>
+      <c r="G164" s="61"/>
+      <c r="H164" s="61"/>
+      <c r="I164" s="61"/>
+      <c r="J164" s="61"/>
+      <c r="K164" s="61"/>
+      <c r="L164" s="61"/>
+      <c r="M164" s="61"/>
+      <c r="N164" s="61"/>
     </row>
     <row r="165" spans="6:14">
-      <c r="F165" s="62"/>
-      <c r="G165" s="62"/>
-      <c r="H165" s="62"/>
-      <c r="I165" s="62"/>
-      <c r="J165" s="62"/>
-      <c r="K165" s="62"/>
-      <c r="L165" s="62"/>
-      <c r="M165" s="62"/>
-      <c r="N165" s="62"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="61"/>
+      <c r="J165" s="61"/>
+      <c r="K165" s="61"/>
+      <c r="L165" s="61"/>
+      <c r="M165" s="61"/>
+      <c r="N165" s="61"/>
     </row>
     <row r="166" spans="6:14">
-      <c r="F166" s="62"/>
-      <c r="G166" s="62"/>
-      <c r="H166" s="62"/>
-      <c r="I166" s="62"/>
-      <c r="J166" s="62"/>
-      <c r="K166" s="62"/>
-      <c r="L166" s="62"/>
-      <c r="M166" s="62"/>
-      <c r="N166" s="62"/>
+      <c r="F166" s="61"/>
+      <c r="G166" s="61"/>
+      <c r="H166" s="61"/>
+      <c r="I166" s="61"/>
+      <c r="J166" s="61"/>
+      <c r="K166" s="61"/>
+      <c r="L166" s="61"/>
+      <c r="M166" s="61"/>
+      <c r="N166" s="61"/>
     </row>
     <row r="167" spans="6:14">
-      <c r="F167" s="62"/>
-      <c r="G167" s="62"/>
-      <c r="H167" s="62"/>
-      <c r="I167" s="62"/>
-      <c r="J167" s="62"/>
-      <c r="K167" s="62"/>
-      <c r="L167" s="62"/>
-      <c r="M167" s="62"/>
-      <c r="N167" s="62"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="61"/>
+      <c r="N167" s="61"/>
     </row>
     <row r="168" spans="6:14">
-      <c r="F168" s="62"/>
-      <c r="G168" s="62"/>
-      <c r="H168" s="62"/>
-      <c r="I168" s="62"/>
-      <c r="J168" s="62"/>
-      <c r="K168" s="62"/>
-      <c r="L168" s="62"/>
-      <c r="M168" s="62"/>
-      <c r="N168" s="62"/>
+      <c r="F168" s="61"/>
+      <c r="G168" s="61"/>
+      <c r="H168" s="61"/>
+      <c r="I168" s="61"/>
+      <c r="J168" s="61"/>
+      <c r="K168" s="61"/>
+      <c r="L168" s="61"/>
+      <c r="M168" s="61"/>
+      <c r="N168" s="61"/>
     </row>
     <row r="169" spans="6:14">
-      <c r="F169" s="62"/>
-      <c r="G169" s="62"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
-      <c r="J169" s="62"/>
-      <c r="K169" s="62"/>
-      <c r="L169" s="62"/>
-      <c r="M169" s="62"/>
-      <c r="N169" s="62"/>
+      <c r="F169" s="61"/>
+      <c r="G169" s="61"/>
+      <c r="H169" s="61"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="61"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
     </row>
     <row r="170" spans="6:14">
-      <c r="F170" s="62"/>
-      <c r="G170" s="62"/>
-      <c r="H170" s="62"/>
-      <c r="I170" s="62"/>
-      <c r="J170" s="62"/>
-      <c r="K170" s="62"/>
-      <c r="L170" s="62"/>
-      <c r="M170" s="62"/>
-      <c r="N170" s="62"/>
+      <c r="F170" s="61"/>
+      <c r="G170" s="61"/>
+      <c r="H170" s="61"/>
+      <c r="I170" s="61"/>
+      <c r="J170" s="61"/>
+      <c r="K170" s="61"/>
+      <c r="L170" s="61"/>
+      <c r="M170" s="61"/>
+      <c r="N170" s="61"/>
     </row>
     <row r="171" spans="6:14">
-      <c r="F171" s="62"/>
-      <c r="G171" s="62"/>
-      <c r="H171" s="62"/>
-      <c r="I171" s="62"/>
-      <c r="J171" s="62"/>
-      <c r="K171" s="62"/>
-      <c r="L171" s="62"/>
-      <c r="M171" s="62"/>
-      <c r="N171" s="62"/>
+      <c r="F171" s="61"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="61"/>
+      <c r="I171" s="61"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="61"/>
+      <c r="L171" s="61"/>
+      <c r="M171" s="61"/>
+      <c r="N171" s="61"/>
     </row>
     <row r="172" spans="6:14">
-      <c r="F172" s="62"/>
-      <c r="G172" s="62"/>
-      <c r="H172" s="62"/>
-      <c r="I172" s="62"/>
-      <c r="J172" s="62"/>
-      <c r="K172" s="62"/>
-      <c r="L172" s="62"/>
-      <c r="M172" s="62"/>
-      <c r="N172" s="62"/>
+      <c r="F172" s="61"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="61"/>
+      <c r="L172" s="61"/>
+      <c r="M172" s="61"/>
+      <c r="N172" s="61"/>
     </row>
     <row r="173" spans="6:14">
-      <c r="F173" s="62"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="62"/>
-      <c r="I173" s="62"/>
-      <c r="J173" s="62"/>
-      <c r="K173" s="62"/>
-      <c r="L173" s="62"/>
-      <c r="M173" s="62"/>
-      <c r="N173" s="62"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="61"/>
+      <c r="H173" s="61"/>
+      <c r="I173" s="61"/>
+      <c r="J173" s="61"/>
+      <c r="K173" s="61"/>
+      <c r="L173" s="61"/>
+      <c r="M173" s="61"/>
+      <c r="N173" s="61"/>
     </row>
     <row r="174" spans="6:14">
-      <c r="F174" s="62"/>
-      <c r="G174" s="62"/>
-      <c r="H174" s="62"/>
-      <c r="I174" s="62"/>
-      <c r="J174" s="62"/>
-      <c r="K174" s="62"/>
-      <c r="L174" s="62"/>
-      <c r="M174" s="62"/>
-      <c r="N174" s="62"/>
+      <c r="F174" s="61"/>
+      <c r="G174" s="61"/>
+      <c r="H174" s="61"/>
+      <c r="I174" s="61"/>
+      <c r="J174" s="61"/>
+      <c r="K174" s="61"/>
+      <c r="L174" s="61"/>
+      <c r="M174" s="61"/>
+      <c r="N174" s="61"/>
     </row>
     <row r="175" spans="6:14">
-      <c r="F175" s="62"/>
-      <c r="G175" s="62"/>
-      <c r="H175" s="62"/>
-      <c r="I175" s="62"/>
-      <c r="J175" s="62"/>
-      <c r="K175" s="62"/>
-      <c r="L175" s="62"/>
-      <c r="M175" s="62"/>
-      <c r="N175" s="62"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="61"/>
+      <c r="L175" s="61"/>
+      <c r="M175" s="61"/>
+      <c r="N175" s="61"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="62"/>
-      <c r="G176" s="62"/>
-      <c r="H176" s="62"/>
-      <c r="I176" s="62"/>
-      <c r="J176" s="62"/>
-      <c r="K176" s="62"/>
-      <c r="L176" s="62"/>
-      <c r="M176" s="62"/>
-      <c r="N176" s="62"/>
+      <c r="F176" s="61"/>
+      <c r="G176" s="61"/>
+      <c r="H176" s="61"/>
+      <c r="I176" s="61"/>
+      <c r="J176" s="61"/>
+      <c r="K176" s="61"/>
+      <c r="L176" s="61"/>
+      <c r="M176" s="61"/>
+      <c r="N176" s="61"/>
     </row>
     <row r="177" spans="6:14">
-      <c r="F177" s="62"/>
-      <c r="G177" s="62"/>
-      <c r="H177" s="62"/>
-      <c r="I177" s="62"/>
-      <c r="J177" s="62"/>
-      <c r="K177" s="62"/>
-      <c r="L177" s="62"/>
-      <c r="M177" s="62"/>
-      <c r="N177" s="62"/>
+      <c r="F177" s="61"/>
+      <c r="G177" s="61"/>
+      <c r="H177" s="61"/>
+      <c r="I177" s="61"/>
+      <c r="J177" s="61"/>
+      <c r="K177" s="61"/>
+      <c r="L177" s="61"/>
+      <c r="M177" s="61"/>
+      <c r="N177" s="61"/>
     </row>
     <row r="178" spans="6:14">
-      <c r="F178" s="62"/>
-      <c r="G178" s="62"/>
-      <c r="H178" s="62"/>
-      <c r="I178" s="62"/>
-      <c r="J178" s="62"/>
-      <c r="K178" s="62"/>
-      <c r="L178" s="62"/>
-      <c r="M178" s="62"/>
-      <c r="N178" s="62"/>
+      <c r="F178" s="61"/>
+      <c r="G178" s="61"/>
+      <c r="H178" s="61"/>
+      <c r="I178" s="61"/>
+      <c r="J178" s="61"/>
+      <c r="K178" s="61"/>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
+      <c r="N178" s="61"/>
     </row>
     <row r="179" spans="6:14">
-      <c r="F179" s="62"/>
-      <c r="G179" s="62"/>
-      <c r="H179" s="62"/>
-      <c r="I179" s="62"/>
-      <c r="J179" s="62"/>
-      <c r="K179" s="62"/>
-      <c r="L179" s="62"/>
-      <c r="M179" s="62"/>
-      <c r="N179" s="62"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="61"/>
+      <c r="H179" s="61"/>
+      <c r="I179" s="61"/>
+      <c r="J179" s="61"/>
+      <c r="K179" s="61"/>
+      <c r="L179" s="61"/>
+      <c r="M179" s="61"/>
+      <c r="N179" s="61"/>
     </row>
     <row r="180" spans="6:14">
-      <c r="F180" s="62"/>
-      <c r="G180" s="62"/>
-      <c r="H180" s="62"/>
-      <c r="I180" s="62"/>
-      <c r="J180" s="62"/>
-      <c r="K180" s="62"/>
-      <c r="L180" s="62"/>
-      <c r="M180" s="62"/>
-      <c r="N180" s="62"/>
+      <c r="F180" s="61"/>
+      <c r="G180" s="61"/>
+      <c r="H180" s="61"/>
+      <c r="I180" s="61"/>
+      <c r="J180" s="61"/>
+      <c r="K180" s="61"/>
+      <c r="L180" s="61"/>
+      <c r="M180" s="61"/>
+      <c r="N180" s="61"/>
     </row>
     <row r="181" spans="6:14">
-      <c r="F181" s="62"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="62"/>
-      <c r="I181" s="62"/>
-      <c r="J181" s="62"/>
-      <c r="K181" s="62"/>
-      <c r="L181" s="62"/>
-      <c r="M181" s="62"/>
-      <c r="N181" s="62"/>
+      <c r="F181" s="61"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61"/>
+      <c r="I181" s="61"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="61"/>
+      <c r="L181" s="61"/>
+      <c r="M181" s="61"/>
+      <c r="N181" s="61"/>
     </row>
     <row r="182" spans="6:14">
-      <c r="F182" s="62"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="62"/>
-      <c r="I182" s="62"/>
-      <c r="J182" s="62"/>
-      <c r="K182" s="62"/>
-      <c r="L182" s="62"/>
-      <c r="M182" s="62"/>
-      <c r="N182" s="62"/>
+      <c r="F182" s="61"/>
+      <c r="G182" s="61"/>
+      <c r="H182" s="61"/>
+      <c r="I182" s="61"/>
+      <c r="J182" s="61"/>
+      <c r="K182" s="61"/>
+      <c r="L182" s="61"/>
+      <c r="M182" s="61"/>
+      <c r="N182" s="61"/>
     </row>
     <row r="183" spans="6:14">
-      <c r="F183" s="62"/>
-      <c r="G183" s="62"/>
-      <c r="H183" s="62"/>
-      <c r="I183" s="62"/>
-      <c r="J183" s="62"/>
-      <c r="K183" s="62"/>
-      <c r="L183" s="62"/>
-      <c r="M183" s="62"/>
-      <c r="N183" s="62"/>
+      <c r="F183" s="61"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="61"/>
+      <c r="I183" s="61"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="61"/>
+      <c r="L183" s="61"/>
+      <c r="M183" s="61"/>
+      <c r="N183" s="61"/>
     </row>
     <row r="184" spans="6:14">
-      <c r="F184" s="62"/>
-      <c r="G184" s="62"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="62"/>
-      <c r="J184" s="62"/>
-      <c r="K184" s="62"/>
-      <c r="L184" s="62"/>
-      <c r="M184" s="62"/>
-      <c r="N184" s="62"/>
+      <c r="F184" s="61"/>
+      <c r="G184" s="61"/>
+      <c r="H184" s="61"/>
+      <c r="I184" s="61"/>
+      <c r="J184" s="61"/>
+      <c r="K184" s="61"/>
+      <c r="L184" s="61"/>
+      <c r="M184" s="61"/>
+      <c r="N184" s="61"/>
     </row>
     <row r="185" spans="6:14">
-      <c r="F185" s="62"/>
-      <c r="G185" s="62"/>
-      <c r="H185" s="62"/>
-      <c r="I185" s="62"/>
-      <c r="J185" s="62"/>
-      <c r="K185" s="62"/>
-      <c r="L185" s="62"/>
-      <c r="M185" s="62"/>
-      <c r="N185" s="62"/>
+      <c r="F185" s="61"/>
+      <c r="G185" s="61"/>
+      <c r="H185" s="61"/>
+      <c r="I185" s="61"/>
+      <c r="J185" s="61"/>
+      <c r="K185" s="61"/>
+      <c r="L185" s="61"/>
+      <c r="M185" s="61"/>
+      <c r="N185" s="61"/>
     </row>
     <row r="186" spans="6:14">
-      <c r="F186" s="62"/>
-      <c r="G186" s="62"/>
-      <c r="H186" s="62"/>
-      <c r="I186" s="62"/>
-      <c r="J186" s="62"/>
-      <c r="K186" s="62"/>
-      <c r="L186" s="62"/>
-      <c r="M186" s="62"/>
-      <c r="N186" s="62"/>
+      <c r="F186" s="61"/>
+      <c r="G186" s="61"/>
+      <c r="H186" s="61"/>
+      <c r="I186" s="61"/>
+      <c r="J186" s="61"/>
+      <c r="K186" s="61"/>
+      <c r="L186" s="61"/>
+      <c r="M186" s="61"/>
+      <c r="N186" s="61"/>
     </row>
     <row r="187" spans="6:14">
-      <c r="F187" s="62"/>
-      <c r="G187" s="62"/>
-      <c r="H187" s="62"/>
-      <c r="I187" s="62"/>
-      <c r="J187" s="62"/>
-      <c r="K187" s="62"/>
-      <c r="L187" s="62"/>
-      <c r="M187" s="62"/>
-      <c r="N187" s="62"/>
+      <c r="F187" s="61"/>
+      <c r="G187" s="61"/>
+      <c r="H187" s="61"/>
+      <c r="I187" s="61"/>
+      <c r="J187" s="61"/>
+      <c r="K187" s="61"/>
+      <c r="L187" s="61"/>
+      <c r="M187" s="61"/>
+      <c r="N187" s="61"/>
     </row>
     <row r="188" spans="6:14">
-      <c r="F188" s="62"/>
-      <c r="G188" s="62"/>
-      <c r="H188" s="62"/>
-      <c r="I188" s="62"/>
-      <c r="J188" s="62"/>
-      <c r="K188" s="62"/>
-      <c r="L188" s="62"/>
-      <c r="M188" s="62"/>
-      <c r="N188" s="62"/>
+      <c r="F188" s="61"/>
+      <c r="G188" s="61"/>
+      <c r="H188" s="61"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="61"/>
+      <c r="L188" s="61"/>
+      <c r="M188" s="61"/>
+      <c r="N188" s="61"/>
     </row>
     <row r="189" spans="6:14">
-      <c r="F189" s="62"/>
-      <c r="G189" s="62"/>
-      <c r="H189" s="62"/>
-      <c r="I189" s="62"/>
-      <c r="J189" s="62"/>
-      <c r="K189" s="62"/>
-      <c r="L189" s="62"/>
-      <c r="M189" s="62"/>
-      <c r="N189" s="62"/>
+      <c r="F189" s="61"/>
+      <c r="G189" s="61"/>
+      <c r="H189" s="61"/>
+      <c r="I189" s="61"/>
+      <c r="J189" s="61"/>
+      <c r="K189" s="61"/>
+      <c r="L189" s="61"/>
+      <c r="M189" s="61"/>
+      <c r="N189" s="61"/>
     </row>
     <row r="190" spans="6:14">
-      <c r="F190" s="62"/>
-      <c r="G190" s="62"/>
-      <c r="H190" s="62"/>
-      <c r="I190" s="62"/>
-      <c r="J190" s="62"/>
-      <c r="K190" s="62"/>
-      <c r="L190" s="62"/>
-      <c r="M190" s="62"/>
-      <c r="N190" s="62"/>
+      <c r="F190" s="61"/>
+      <c r="G190" s="61"/>
+      <c r="H190" s="61"/>
+      <c r="I190" s="61"/>
+      <c r="J190" s="61"/>
+      <c r="K190" s="61"/>
+      <c r="L190" s="61"/>
+      <c r="M190" s="61"/>
+      <c r="N190" s="61"/>
     </row>
     <row r="191" spans="6:14">
-      <c r="F191" s="62"/>
-      <c r="G191" s="62"/>
-      <c r="H191" s="62"/>
-      <c r="I191" s="62"/>
-      <c r="J191" s="62"/>
-      <c r="K191" s="62"/>
-      <c r="L191" s="62"/>
-      <c r="M191" s="62"/>
-      <c r="N191" s="62"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="61"/>
+      <c r="H191" s="61"/>
+      <c r="I191" s="61"/>
+      <c r="J191" s="61"/>
+      <c r="K191" s="61"/>
+      <c r="L191" s="61"/>
+      <c r="M191" s="61"/>
+      <c r="N191" s="61"/>
     </row>
     <row r="192" spans="6:14">
-      <c r="F192" s="62"/>
-      <c r="G192" s="62"/>
-      <c r="H192" s="62"/>
-      <c r="I192" s="62"/>
-      <c r="J192" s="62"/>
-      <c r="K192" s="62"/>
-      <c r="L192" s="62"/>
-      <c r="M192" s="62"/>
-      <c r="N192" s="62"/>
+      <c r="F192" s="61"/>
+      <c r="G192" s="61"/>
+      <c r="H192" s="61"/>
+      <c r="I192" s="61"/>
+      <c r="J192" s="61"/>
+      <c r="K192" s="61"/>
+      <c r="L192" s="61"/>
+      <c r="M192" s="61"/>
+      <c r="N192" s="61"/>
     </row>
     <row r="193" spans="6:14">
-      <c r="F193" s="62"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="62"/>
-      <c r="I193" s="62"/>
-      <c r="J193" s="62"/>
-      <c r="K193" s="62"/>
-      <c r="L193" s="62"/>
-      <c r="M193" s="62"/>
-      <c r="N193" s="62"/>
+      <c r="F193" s="61"/>
+      <c r="G193" s="61"/>
+      <c r="H193" s="61"/>
+      <c r="I193" s="61"/>
+      <c r="J193" s="61"/>
+      <c r="K193" s="61"/>
+      <c r="L193" s="61"/>
+      <c r="M193" s="61"/>
+      <c r="N193" s="61"/>
     </row>
     <row r="194" spans="6:14">
-      <c r="F194" s="62"/>
-      <c r="G194" s="62"/>
-      <c r="H194" s="62"/>
-      <c r="I194" s="62"/>
-      <c r="J194" s="62"/>
-      <c r="K194" s="62"/>
-      <c r="L194" s="62"/>
-      <c r="M194" s="62"/>
-      <c r="N194" s="62"/>
+      <c r="F194" s="61"/>
+      <c r="G194" s="61"/>
+      <c r="H194" s="61"/>
+      <c r="I194" s="61"/>
+      <c r="J194" s="61"/>
+      <c r="K194" s="61"/>
+      <c r="L194" s="61"/>
+      <c r="M194" s="61"/>
+      <c r="N194" s="61"/>
     </row>
     <row r="195" spans="6:14">
-      <c r="F195" s="62"/>
-      <c r="G195" s="62"/>
-      <c r="H195" s="62"/>
-      <c r="I195" s="62"/>
-      <c r="J195" s="62"/>
-      <c r="K195" s="62"/>
-      <c r="L195" s="62"/>
-      <c r="M195" s="62"/>
-      <c r="N195" s="62"/>
+      <c r="F195" s="61"/>
+      <c r="G195" s="61"/>
+      <c r="H195" s="61"/>
+      <c r="I195" s="61"/>
+      <c r="J195" s="61"/>
+      <c r="K195" s="61"/>
+      <c r="L195" s="61"/>
+      <c r="M195" s="61"/>
+      <c r="N195" s="61"/>
     </row>
     <row r="196" spans="6:14">
-      <c r="F196" s="62"/>
-      <c r="G196" s="62"/>
-      <c r="H196" s="62"/>
-      <c r="I196" s="62"/>
-      <c r="J196" s="62"/>
-      <c r="K196" s="62"/>
-      <c r="L196" s="62"/>
-      <c r="M196" s="62"/>
-      <c r="N196" s="62"/>
+      <c r="F196" s="61"/>
+      <c r="G196" s="61"/>
+      <c r="H196" s="61"/>
+      <c r="I196" s="61"/>
+      <c r="J196" s="61"/>
+      <c r="K196" s="61"/>
+      <c r="L196" s="61"/>
+      <c r="M196" s="61"/>
+      <c r="N196" s="61"/>
     </row>
     <row r="197" spans="6:14">
-      <c r="F197" s="62"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="62"/>
-      <c r="I197" s="62"/>
-      <c r="J197" s="62"/>
-      <c r="K197" s="62"/>
-      <c r="L197" s="62"/>
-      <c r="M197" s="62"/>
-      <c r="N197" s="62"/>
+      <c r="F197" s="61"/>
+      <c r="G197" s="61"/>
+      <c r="H197" s="61"/>
+      <c r="I197" s="61"/>
+      <c r="J197" s="61"/>
+      <c r="K197" s="61"/>
+      <c r="L197" s="61"/>
+      <c r="M197" s="61"/>
+      <c r="N197" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -5531,42 +5612,48 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41F083E3-1F5B-3948-8927-751348AA5D5A}">
           <x14:formula1>
-            <xm:f>DropDownValues!$K$3:$K$4</xm:f>
+            <xm:f>DropDownValues!$L$3:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>B21:B22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC89A5EB-1ECF-9546-8335-C4DB99F5A606}">
           <x14:formula1>
-            <xm:f>DropDownValues!$C$2:$C$40</xm:f>
+            <xm:f>DropDownValues!$D$2:$D$40</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08D2D373-2A47-C547-A7FD-7FB28A1209EE}">
           <x14:formula1>
-            <xm:f>DropDownValues!$D$2:$D$13</xm:f>
+            <xm:f>DropDownValues!$E$2:$E$13</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC0AB711-E2EE-3C4E-B4A7-136E06D984E9}">
           <x14:formula1>
-            <xm:f>DropDownValues!$E$2:$E$150</xm:f>
+            <xm:f>DropDownValues!$F$2:$F$150</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5948E2A-4556-1841-B6B5-BDF9036F49E1}">
           <x14:formula1>
-            <xm:f>DropDownValues!$G$2:$G$4</xm:f>
+            <xm:f>DropDownValues!$H$2:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F798170-505E-A145-B4F2-D3E922E3702A}">
           <x14:formula1>
-            <xm:f>DropDownValues!$K$2:$K$4</xm:f>
+            <xm:f>DropDownValues!$L$2:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13A5309C-EE8F-1A45-A4B4-9EF515EDC355}">
+          <x14:formula1>
+            <xm:f>DropDownValues!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62007DAF-58E6-7F48-B224-D1E35787C5A6}">
           <x14:formula1>
@@ -5581,25 +5668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:G76"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -5618,7 +5691,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5628,7 +5701,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
@@ -5665,7 +5738,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="21"/>
@@ -5677,31 +5750,31 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="K3" s="13"/>
       <c r="L3" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -5713,13 +5786,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>19</v>
@@ -5731,10 +5804,10 @@
       <c r="I4" s="25"/>
       <c r="K4" s="12"/>
       <c r="L4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -5743,31 +5816,31 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="K5" s="12"/>
       <c r="L5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -5776,13 +5849,13 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="B6" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>26</v>
@@ -5791,7 +5864,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -5800,7 +5873,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -5809,13 +5882,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>23</v>
@@ -5824,16 +5897,16 @@
         <v>19</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="K7" s="6"/>
       <c r="L7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -5842,69 +5915,69 @@
     </row>
     <row r="8" spans="1:18" ht="14" customHeight="1">
       <c r="B8" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="L8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="L9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
@@ -5913,7 +5986,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="4" t="s">
@@ -5921,86 +5994,86 @@
       </c>
       <c r="J10" s="6"/>
       <c r="L10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="12"/>
       <c r="L11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="12"/>
       <c r="L12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
@@ -6008,45 +6081,45 @@
       </c>
       <c r="J13" s="12"/>
       <c r="L13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="L14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -6055,63 +6128,63 @@
       <c r="I15" s="4"/>
       <c r="J15" s="6"/>
       <c r="L15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:27">
       <c r="B17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="28" t="s">
@@ -6119,62 +6192,62 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:27">
       <c r="B18" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:27">
       <c r="B19" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="4" t="s">
@@ -6187,13 +6260,13 @@
     </row>
     <row r="20" spans="2:27" ht="12.75" customHeight="1">
       <c r="B20" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>23</v>
@@ -6202,15 +6275,15 @@
         <v>19</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="L20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="29"/>
@@ -6239,13 +6312,13 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="L21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="30"/>
@@ -6265,7 +6338,7 @@
     </row>
     <row r="22" spans="2:27" ht="12.75" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -6274,13 +6347,13 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="6"/>
       <c r="L22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="30"/>
@@ -6300,30 +6373,30 @@
     </row>
     <row r="23" spans="2:27" ht="12.75" customHeight="1">
       <c r="B23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="6"/>
       <c r="L23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="30"/>
@@ -6343,30 +6416,30 @@
     </row>
     <row r="24" spans="2:27" ht="12.75" customHeight="1">
       <c r="B24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="6"/>
       <c r="L24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="30"/>
@@ -6386,31 +6459,31 @@
     </row>
     <row r="25" spans="2:27" ht="12.75" customHeight="1">
       <c r="B25" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>139</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="30"/>
@@ -6430,31 +6503,31 @@
     </row>
     <row r="26" spans="2:27" ht="12.75" customHeight="1">
       <c r="B26" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="30"/>
@@ -6474,29 +6547,29 @@
     </row>
     <row r="27" spans="2:27" ht="12.75" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="6"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="30"/>
@@ -6516,10 +6589,10 @@
     </row>
     <row r="28" spans="2:27" ht="12.75" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>17</v>
@@ -6531,7 +6604,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -6540,7 +6613,7 @@
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="30"/>
@@ -6560,27 +6633,27 @@
     </row>
     <row r="29" spans="2:27" ht="12.75" customHeight="1">
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="L29" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="30"/>
@@ -6600,10 +6673,10 @@
     </row>
     <row r="30" spans="2:27" ht="12.75" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>17</v>
@@ -6612,10 +6685,10 @@
         <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
@@ -6624,7 +6697,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="30"/>
@@ -6644,29 +6717,29 @@
     </row>
     <row r="31" spans="2:27" ht="12.75" customHeight="1">
       <c r="B31" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="27"/>
       <c r="J31" s="28"/>
       <c r="K31" s="32"/>
       <c r="L31" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="30"/>
@@ -6686,7 +6759,7 @@
     </row>
     <row r="32" spans="2:27" ht="12.75" customHeight="1">
       <c r="B32" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -6698,7 +6771,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="22"/>
       <c r="L32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="30"/>
@@ -6718,7 +6791,7 @@
     </row>
     <row r="33" spans="2:27" ht="12.75" customHeight="1">
       <c r="B33" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>16</v>
@@ -6727,22 +6800,22 @@
         <v>17</v>
       </c>
       <c r="E33" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>159</v>
-      </c>
       <c r="H33" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
       <c r="L33" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="30"/>
@@ -6762,31 +6835,31 @@
     </row>
     <row r="34" spans="2:27" ht="12.75" customHeight="1">
       <c r="B34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="30"/>
@@ -6806,29 +6879,29 @@
     </row>
     <row r="35" spans="2:27" ht="12.75" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="6"/>
       <c r="L35" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="30"/>
@@ -6848,31 +6921,31 @@
     </row>
     <row r="36" spans="2:27" ht="12.75" customHeight="1">
       <c r="B36" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>68</v>
-      </c>
       <c r="G36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="6"/>
       <c r="L36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="30"/>
@@ -6892,10 +6965,10 @@
     </row>
     <row r="37" spans="2:27" ht="12.75" customHeight="1">
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>17</v>
@@ -6907,16 +6980,16 @@
         <v>19</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="30"/>
@@ -6936,10 +7009,10 @@
     </row>
     <row r="38" spans="2:27" ht="12.75" customHeight="1">
       <c r="B38" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>17</v>
@@ -6951,16 +7024,16 @@
         <v>19</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="30"/>
@@ -6980,7 +7053,7 @@
     </row>
     <row r="39" spans="2:27" ht="12.75" customHeight="1">
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>16</v>
@@ -6989,14 +7062,14 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="30"/>
@@ -7021,7 +7094,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="4"/>
@@ -7045,7 +7118,7 @@
     </row>
     <row r="41" spans="2:27" ht="12.75" customHeight="1">
       <c r="B41" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>16</v>
@@ -7076,7 +7149,7 @@
     </row>
     <row r="42" spans="2:27" ht="12.75" customHeight="1">
       <c r="B42" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -7105,7 +7178,7 @@
     </row>
     <row r="43" spans="2:27" ht="27.75" customHeight="1">
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -7116,8 +7189,8 @@
       <c r="I43" s="4"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="138" t="s">
-        <v>181</v>
+      <c r="L43" s="144" t="s">
+        <v>180</v>
       </c>
       <c r="M43" s="97"/>
       <c r="N43" s="97"/>
@@ -7137,25 +7210,25 @@
     </row>
     <row r="44" spans="2:27" ht="12.75" customHeight="1">
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="139" t="s">
-        <v>183</v>
+      <c r="L44" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="M44" s="111"/>
       <c r="N44" s="111"/>
@@ -7175,19 +7248,19 @@
     </row>
     <row r="45" spans="2:27" ht="12.75" customHeight="1">
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="6"/>
@@ -7217,13 +7290,13 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="6"/>
@@ -7247,19 +7320,19 @@
     </row>
     <row r="47" spans="2:27" ht="12.75" customHeight="1">
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="6"/>
@@ -7283,7 +7356,7 @@
     </row>
     <row r="48" spans="2:27" ht="12.75" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -7313,25 +7386,25 @@
     </row>
     <row r="49" spans="2:27" ht="12.75" customHeight="1">
       <c r="B49" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="6"/>
@@ -7355,7 +7428,7 @@
     </row>
     <row r="50" spans="2:27" ht="12.75" customHeight="1">
       <c r="B50" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>16</v>
@@ -7364,7 +7437,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -7389,7 +7462,7 @@
     </row>
     <row r="51" spans="2:27" ht="12.75" customHeight="1">
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>16</v>
@@ -7398,7 +7471,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -7423,10 +7496,10 @@
     </row>
     <row r="52" spans="2:27" ht="12.75" customHeight="1">
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>17</v>
@@ -7435,13 +7508,13 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="I52" s="4">
         <v>1000</v>
@@ -7467,25 +7540,25 @@
     </row>
     <row r="53" spans="2:27" ht="12.75" customHeight="1">
       <c r="B53" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I53" s="4">
         <v>1000</v>
@@ -7511,10 +7584,10 @@
     </row>
     <row r="54" spans="2:27" ht="12.75" customHeight="1">
       <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>17</v>
@@ -7523,13 +7596,13 @@
         <v>23</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I54" s="4">
         <f>10^12</f>
@@ -7556,10 +7629,10 @@
     </row>
     <row r="55" spans="2:27" ht="12.75" customHeight="1">
       <c r="B55" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>17</v>
@@ -7568,13 +7641,13 @@
         <v>26</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="6"/>
@@ -7598,25 +7671,25 @@
     </row>
     <row r="56" spans="2:27" ht="12.75" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="6"/>
@@ -7640,22 +7713,22 @@
     </row>
     <row r="57" spans="2:27" ht="12.75" customHeight="1">
       <c r="B57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -7680,25 +7753,25 @@
     </row>
     <row r="58" spans="2:27" ht="12.75" customHeight="1">
       <c r="B58" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="6"/>
@@ -7722,22 +7795,22 @@
     </row>
     <row r="59" spans="2:27" ht="12.75" customHeight="1">
       <c r="B59" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -7762,25 +7835,25 @@
     </row>
     <row r="60" spans="2:27" ht="12.75" customHeight="1">
       <c r="B60" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="H60" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="6"/>
@@ -7804,25 +7877,25 @@
     </row>
     <row r="61" spans="2:27" ht="12.75" customHeight="1">
       <c r="B61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="6"/>
@@ -7846,25 +7919,25 @@
     </row>
     <row r="62" spans="2:27" ht="12.75" customHeight="1">
       <c r="B62" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="6"/>
@@ -7888,10 +7961,10 @@
     </row>
     <row r="63" spans="2:27" ht="12.75" customHeight="1">
       <c r="B63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>17</v>
@@ -7900,13 +7973,13 @@
         <v>18</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="6"/>
@@ -7930,25 +8003,25 @@
     </row>
     <row r="64" spans="2:27" ht="12.75" customHeight="1">
       <c r="B64" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G64" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>198</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>199</v>
       </c>
       <c r="I64" s="25"/>
       <c r="L64" s="111"/>
@@ -7970,25 +8043,25 @@
     </row>
     <row r="65" spans="2:27" ht="12.75" customHeight="1">
       <c r="B65" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" s="25" t="s">
+      <c r="H65" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="I65" s="25"/>
       <c r="L65" s="111"/>
@@ -8010,10 +8083,10 @@
     </row>
     <row r="66" spans="2:27" ht="12.75" customHeight="1">
       <c r="B66" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>203</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>204</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>17</v>
@@ -8022,13 +8095,13 @@
         <v>18</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="I66" s="25"/>
       <c r="L66" s="111"/>
@@ -8050,16 +8123,16 @@
     </row>
     <row r="67" spans="2:27" ht="12.75" customHeight="1">
       <c r="B67" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
@@ -8082,16 +8155,16 @@
     </row>
     <row r="68" spans="2:27" ht="12.75" customHeight="1">
       <c r="B68" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
@@ -8114,10 +8187,10 @@
     </row>
     <row r="69" spans="2:27" ht="12.75" customHeight="1">
       <c r="B69" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
@@ -8144,7 +8217,7 @@
     </row>
     <row r="70" spans="2:27" ht="12.75" customHeight="1">
       <c r="B70" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>16</v>
@@ -8156,13 +8229,13 @@
         <v>18</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I70" s="25"/>
       <c r="L70" s="111"/>
@@ -8184,7 +8257,7 @@
     </row>
     <row r="71" spans="2:27" ht="12.75" customHeight="1">
       <c r="B71" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>16</v>
@@ -8196,13 +8269,13 @@
         <v>26</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I71" s="25"/>
       <c r="L71" s="111"/>
@@ -8224,7 +8297,7 @@
     </row>
     <row r="72" spans="2:27" ht="12.75" customHeight="1">
       <c r="B72" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -8252,10 +8325,10 @@
     </row>
     <row r="73" spans="2:27" ht="12.75" customHeight="1">
       <c r="B73" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>17</v>
@@ -8264,13 +8337,13 @@
         <v>18</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G73" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="I73" s="25"/>
       <c r="L73" s="111"/>
@@ -8302,7 +8375,7 @@
         <v>24</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I74" s="25"/>
       <c r="L74" s="111"/>
@@ -8324,22 +8397,22 @@
     </row>
     <row r="75" spans="2:27" ht="12.75" customHeight="1">
       <c r="B75" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" s="81" t="s">
         <v>403</v>
-      </c>
-      <c r="C75" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" s="82" t="s">
-        <v>404</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -8362,7 +8435,7 @@
     </row>
     <row r="76" spans="2:27" ht="12.75" customHeight="1">
       <c r="B76" s="49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>16</v>
@@ -8371,13 +8444,13 @@
         <v>17</v>
       </c>
       <c r="E76" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G76" s="49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -8399,13 +8472,27 @@
       <c r="AA76" s="30"/>
     </row>
     <row r="77" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="B77" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>410</v>
+      </c>
       <c r="I77" s="22"/>
       <c r="L77" s="111"/>
       <c r="M77" s="111"/>
@@ -8425,6 +8512,27 @@
       <c r="AA77" s="30"/>
     </row>
     <row r="78" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B78" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="L78" s="111"/>
       <c r="M78" s="111"/>
       <c r="N78" s="111"/>
@@ -8443,6 +8551,27 @@
       <c r="AA78" s="30"/>
     </row>
     <row r="79" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B79" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="L79" s="111"/>
       <c r="M79" s="111"/>
       <c r="N79" s="111"/>
@@ -8461,6 +8590,27 @@
       <c r="AA79" s="30"/>
     </row>
     <row r="80" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B80" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="L80" s="111"/>
       <c r="M80" s="111"/>
       <c r="N80" s="111"/>
@@ -8478,7 +8628,28 @@
       <c r="Z80" s="30"/>
       <c r="AA80" s="30"/>
     </row>
-    <row r="81" spans="12:27" ht="12.75" customHeight="1">
+    <row r="81" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B81" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="L81" s="111"/>
       <c r="M81" s="111"/>
       <c r="N81" s="111"/>
@@ -8496,7 +8667,22 @@
       <c r="Z81" s="30"/>
       <c r="AA81" s="30"/>
     </row>
-    <row r="82" spans="12:27" ht="12.75" customHeight="1">
+    <row r="82" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B82" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="L82" s="111"/>
       <c r="M82" s="111"/>
       <c r="N82" s="111"/>
@@ -8514,7 +8700,28 @@
       <c r="Z82" s="30"/>
       <c r="AA82" s="30"/>
     </row>
-    <row r="83" spans="12:27" ht="12.75" customHeight="1">
+    <row r="83" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B83" t="s">
+        <v>433</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" t="s">
+        <v>434</v>
+      </c>
+      <c r="H83" t="s">
+        <v>435</v>
+      </c>
       <c r="L83" s="111"/>
       <c r="M83" s="111"/>
       <c r="N83" s="111"/>
@@ -8532,7 +8739,28 @@
       <c r="Z83" s="30"/>
       <c r="AA83" s="30"/>
     </row>
-    <row r="84" spans="12:27" ht="12.75" customHeight="1">
+    <row r="84" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B84" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="C84" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="49" t="s">
+        <v>193</v>
+      </c>
       <c r="L84" s="111"/>
       <c r="M84" s="111"/>
       <c r="N84" s="111"/>
@@ -8550,7 +8778,7 @@
       <c r="Z84" s="30"/>
       <c r="AA84" s="30"/>
     </row>
-    <row r="85" spans="12:27" ht="12.75" customHeight="1">
+    <row r="85" spans="2:27" ht="12.75" customHeight="1">
       <c r="L85" s="111"/>
       <c r="M85" s="111"/>
       <c r="N85" s="111"/>
@@ -8568,7 +8796,7 @@
       <c r="Z85" s="30"/>
       <c r="AA85" s="30"/>
     </row>
-    <row r="86" spans="12:27" ht="12.75" customHeight="1">
+    <row r="86" spans="2:27" ht="12.75" customHeight="1">
       <c r="L86" s="111"/>
       <c r="M86" s="111"/>
       <c r="N86" s="111"/>
@@ -8586,7 +8814,7 @@
       <c r="Z86" s="30"/>
       <c r="AA86" s="30"/>
     </row>
-    <row r="87" spans="12:27" ht="12.75" customHeight="1">
+    <row r="87" spans="2:27" ht="12.75" customHeight="1">
       <c r="L87" s="111"/>
       <c r="M87" s="111"/>
       <c r="N87" s="111"/>
@@ -8616,27 +8844,27 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D14DB09-FB87-514D-8584-7DF697DDF9F5}">
           <x14:formula1>
-            <xm:f>DropDownValues!$G$2:$G$4</xm:f>
+            <xm:f>DropDownValues!$H$2:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F76</xm:sqref>
+          <xm:sqref>F76 F84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51ED90B6-BEC8-1941-8E7F-21CA79B8D90D}">
           <x14:formula1>
-            <xm:f>DropDownValues!$E$2:$E$150</xm:f>
+            <xm:f>DropDownValues!$F$2:$F$150</xm:f>
           </x14:formula1>
-          <xm:sqref>E76</xm:sqref>
+          <xm:sqref>E76 E84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4E90504-7BB7-D34B-A766-EAD3380192F8}">
           <x14:formula1>
-            <xm:f>DropDownValues!$D$2:$D$13</xm:f>
+            <xm:f>DropDownValues!$E$2:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D76</xm:sqref>
+          <xm:sqref>D76 D84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A18230-2D97-C34F-AB0F-50E3E3784A85}">
           <x14:formula1>
-            <xm:f>DropDownValues!$C$2:$C$40</xm:f>
+            <xm:f>DropDownValues!$D$2:$D$40</xm:f>
           </x14:formula1>
-          <xm:sqref>C76</xm:sqref>
+          <xm:sqref>C76 C84</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8644,7 +8872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:U52"/>
   <sheetViews>
@@ -8661,12 +8889,12 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B3" s="146" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B3" s="140" t="s">
-        <v>219</v>
       </c>
       <c r="C3" s="111"/>
       <c r="D3" s="111"/>
@@ -8888,10 +9116,10 @@
     </row>
     <row r="15" spans="2:21" ht="12.75" customHeight="1">
       <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="145" t="s">
         <v>220</v>
-      </c>
-      <c r="F15" s="139" t="s">
-        <v>221</v>
       </c>
       <c r="G15" s="111"/>
       <c r="H15" s="111"/>
@@ -8929,16 +9157,16 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="111"/>
       <c r="G18" s="111"/>
@@ -8953,16 +9181,16 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" t="s">
         <v>225</v>
-      </c>
-      <c r="E19" t="s">
-        <v>226</v>
       </c>
       <c r="F19" s="111"/>
       <c r="G19" s="111"/>
@@ -8977,13 +9205,13 @@
     </row>
     <row r="20" spans="2:15">
       <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s">
         <v>227</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>228</v>
-      </c>
-      <c r="E20" t="s">
-        <v>229</v>
       </c>
       <c r="F20" s="111"/>
       <c r="G20" s="111"/>
@@ -8998,13 +9226,13 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" s="111"/>
       <c r="G21" s="111"/>
@@ -9022,10 +9250,10 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" t="s">
         <v>232</v>
-      </c>
-      <c r="E22" t="s">
-        <v>233</v>
       </c>
       <c r="F22" s="111"/>
       <c r="G22" s="111"/>
@@ -9040,10 +9268,10 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
         <v>234</v>
-      </c>
-      <c r="D23" t="s">
-        <v>235</v>
       </c>
       <c r="F23" s="111"/>
       <c r="G23" s="111"/>
@@ -9414,1025 +9642,1034 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D7" sqref="D7:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="21"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="27"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="33">
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="F5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="33">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="33">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="37" t="s">
+      <c r="F6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="33">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="33">
-        <v>5</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="21" t="s">
+      <c r="F7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="C8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="C9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="C10" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="C12" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="F41" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="F42" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="F43" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="F44" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6">
+      <c r="F45" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="F46" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="F47" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="F48" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="C16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="E41" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="E42" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="E43" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="E44" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="E45" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="E46" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="E47" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="E48" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="4" t="s">
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="4" t="s">
+    <row r="99" spans="6:6">
+      <c r="F99" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="4" t="s">
+    <row r="100" spans="6:6">
+      <c r="F100" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="4" t="s">
+    <row r="101" spans="6:6">
+      <c r="F101" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="4" t="s">
+    <row r="102" spans="6:6">
+      <c r="F102" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="4" t="s">
+    <row r="103" spans="6:6">
+      <c r="F103" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="4" t="s">
+    <row r="104" spans="6:6">
+      <c r="F104" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="4" t="s">
+    <row r="105" spans="6:6">
+      <c r="F105" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="4" t="s">
+    <row r="106" spans="6:6">
+      <c r="F106" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="4" t="s">
+    <row r="107" spans="6:6">
+      <c r="F107" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="4" t="s">
+    <row r="108" spans="6:6">
+      <c r="F108" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="4" t="s">
+    <row r="109" spans="6:6">
+      <c r="F109" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="4" t="s">
+    <row r="110" spans="6:6">
+      <c r="F110" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="4" t="s">
+    <row r="112" spans="6:6">
+      <c r="F112" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="4" t="s">
+    <row r="113" spans="6:6">
+      <c r="F113" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="4" t="s">
+    <row r="114" spans="6:6">
+      <c r="F114" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="4" t="s">
+    <row r="115" spans="6:6">
+      <c r="F115" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="5:5">
-      <c r="E115" s="4" t="s">
+    <row r="116" spans="6:6">
+      <c r="F116" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="4" t="s">
+    <row r="117" spans="6:6">
+      <c r="F117" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="4" t="s">
+    <row r="118" spans="6:6">
+      <c r="F118" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="4" t="s">
+    <row r="119" spans="6:6">
+      <c r="F119" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="4" t="s">
+    <row r="120" spans="6:6">
+      <c r="F120" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="4" t="s">
+    <row r="121" spans="6:6">
+      <c r="F121" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="4" t="s">
+    <row r="122" spans="6:6">
+      <c r="F122" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="4" t="s">
+    <row r="123" spans="6:6">
+      <c r="F123" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="4" t="s">
+    <row r="124" spans="6:6">
+      <c r="F124" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="4" t="s">
+    <row r="125" spans="6:6">
+      <c r="F125" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="4" t="s">
+    <row r="126" spans="6:6">
+      <c r="F126" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="4" t="s">
+    <row r="127" spans="6:6">
+      <c r="F127" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="4" t="s">
+    <row r="128" spans="6:6">
+      <c r="F128" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="4" t="s">
+    <row r="129" spans="6:6">
+      <c r="F129" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="4" t="s">
+    <row r="130" spans="6:6">
+      <c r="F130" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="4" t="s">
+    <row r="131" spans="6:6">
+      <c r="F131" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="4" t="s">
+    <row r="132" spans="6:6">
+      <c r="F132" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="4" t="s">
+    <row r="133" spans="6:6">
+      <c r="F133" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="5:5">
-      <c r="E133" s="4" t="s">
+    <row r="134" spans="6:6">
+      <c r="F134" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="4" t="s">
+    <row r="135" spans="6:6">
+      <c r="F135" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="5:5">
-      <c r="E135" s="4" t="s">
+    <row r="136" spans="6:6">
+      <c r="F136" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="136" spans="5:5">
-      <c r="E136" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5">
-      <c r="E137" s="4" t="s">
+    <row r="138" spans="6:6">
+      <c r="F138" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="5:5">
-      <c r="E138" s="4" t="s">
+    <row r="139" spans="6:6">
+      <c r="F139" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="5:5">
-      <c r="E139" s="4" t="s">
+    <row r="140" spans="6:6">
+      <c r="F140" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="140" spans="5:5">
-      <c r="E140" s="4" t="s">
+    <row r="141" spans="6:6">
+      <c r="F141" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="4" t="s">
+    <row r="142" spans="6:6">
+      <c r="F142" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="142" spans="5:5">
-      <c r="E142" s="4" t="s">
+    <row r="143" spans="6:6">
+      <c r="F143" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="143" spans="5:5">
-      <c r="E143" s="4" t="s">
+    <row r="144" spans="6:6">
+      <c r="F144" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="4" t="s">
+    <row r="145" spans="6:6">
+      <c r="F145" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="4" t="s">
+    <row r="146" spans="6:6">
+      <c r="F146" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="4" t="s">
+    <row r="147" spans="6:6">
+      <c r="F147" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="4" t="s">
+    <row r="148" spans="6:6">
+      <c r="F148" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="4" t="s">
+    <row r="149" spans="6:6">
+      <c r="F149" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5">
-      <c r="E150" s="4" t="s">
-        <v>80</v>
+    <row r="150" spans="6:6">
+      <c r="F150" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -10441,12 +10678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10456,53 +10693,88 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33506D-C71F-654F-AE71-70717387A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BFACA-B237-BD42-A6F8-5F22B5B87716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter_Input" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="448">
   <si>
     <t>Index</t>
   </si>
@@ -1438,9 +1438,6 @@
     <t>US Gross dometic product (GDP)</t>
   </si>
   <si>
-    <t>1990-01-01</t>
-  </si>
-  <si>
     <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
   </si>
   <si>
@@ -1498,15 +1495,6 @@
     <t>TOTBKCR</t>
   </si>
   <si>
-    <t>Bank credit and M2 U.S</t>
-  </si>
-  <si>
-    <t>M2 money supply U.S YoY</t>
-  </si>
-  <si>
-    <t>Bank credit, all commercial banks YoY</t>
-  </si>
-  <si>
     <t>.DS_Store</t>
   </si>
   <si>
@@ -1526,6 +1514,21 @@
   </si>
   <si>
     <t>Real Incomes U.S (BEA).xlsx</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>GDP_PriceDeflator</t>
+  </si>
+  <si>
+    <t>Price deflator (GDP)</t>
+  </si>
+  <si>
+    <t>a.u</t>
+  </si>
+  <si>
+    <t>Price deflator for Gross Domestic Product</t>
   </si>
 </sst>
 </file>
@@ -2803,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2876,7 +2879,7 @@
         <v>408</v>
       </c>
       <c r="Q1" s="93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1">
@@ -2884,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="E2" s="54" t="s">
         <v>18</v>
@@ -2899,52 +2902,34 @@
         <v>67</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>191</v>
+        <v>445</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>193</v>
+        <v>446</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
       <c r="K2" s="54"/>
       <c r="L2" s="74"/>
       <c r="M2" s="74"/>
-      <c r="N2" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="O2" s="86">
-        <v>1000</v>
-      </c>
+      <c r="N2" s="83"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="18" customHeight="1">
       <c r="A3" s="76">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>134</v>
-      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="54"/>
@@ -2954,75 +2939,43 @@
       <c r="O3" s="86"/>
       <c r="P3" s="89"/>
       <c r="Q3" s="95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="18" customHeight="1">
       <c r="A4" s="76">
         <v>3</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>193</v>
-      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
       <c r="K4" s="54"/>
       <c r="L4" s="74"/>
       <c r="M4" s="74"/>
-      <c r="N4" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="O4" s="86">
-        <v>1000</v>
-      </c>
+      <c r="N4" s="83"/>
+      <c r="O4" s="86"/>
       <c r="P4" s="89"/>
       <c r="Q4" s="95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="18" customHeight="1">
       <c r="A5" s="76">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>134</v>
-      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="54"/>
@@ -3032,7 +2985,7 @@
       <c r="O5" s="86"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="18" customHeight="1">
@@ -3055,7 +3008,7 @@
       <c r="O6" s="87"/>
       <c r="P6" s="89"/>
       <c r="Q6" s="95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="18" customHeight="1">
@@ -3167,7 +3120,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C11" s="100" t="s">
         <v>28</v>
@@ -3289,13 +3242,13 @@
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
       <c r="E14" s="114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="115"/>
       <c r="G14" s="115"/>
       <c r="H14" s="116"/>
       <c r="I14" s="117" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J14" s="117"/>
       <c r="K14" s="117"/>
@@ -3309,7 +3262,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
@@ -3435,7 +3388,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C21" s="98" t="s">
         <v>45</v>
@@ -3479,7 +3432,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="C23" s="139"/>
       <c r="D23" s="139"/>
@@ -5671,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:H84"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -8630,7 +8583,7 @@
     </row>
     <row r="81" spans="2:27" ht="12.75" customHeight="1">
       <c r="B81" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>16</v>
@@ -8645,10 +8598,10 @@
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="L81" s="111"/>
       <c r="M81" s="111"/>
@@ -8669,7 +8622,7 @@
     </row>
     <row r="82" spans="2:27" ht="12.75" customHeight="1">
       <c r="B82" s="94" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>16</v>
@@ -8678,10 +8631,10 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L82" s="111"/>
       <c r="M82" s="111"/>
@@ -8702,7 +8655,7 @@
     </row>
     <row r="83" spans="2:27" ht="12.75" customHeight="1">
       <c r="B83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -8717,10 +8670,10 @@
         <v>67</v>
       </c>
       <c r="G83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H83" t="s">
         <v>434</v>
-      </c>
-      <c r="H83" t="s">
-        <v>435</v>
       </c>
       <c r="L83" s="111"/>
       <c r="M83" s="111"/>
@@ -8741,7 +8694,7 @@
     </row>
     <row r="84" spans="2:27" ht="12.75" customHeight="1">
       <c r="B84" s="92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C84" s="91" t="s">
         <v>16</v>
@@ -9666,7 +9619,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -9704,7 +9657,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>235</v>
@@ -9722,7 +9675,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="33">
         <v>1</v>
@@ -10682,7 +10635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -10704,17 +10657,17 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10724,7 +10677,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10734,37 +10687,37 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="449">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">M2SL</t>
   </si>
   <si>
-    <t xml:space="preserve">fred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unaltered</t>
+    <t xml:space="preserve">load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year on year % change</t>
   </si>
   <si>
     <t xml:space="preserve">black</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">log</t>
   </si>
   <si>
-    <t xml:space="preserve">M2 USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trillions of U.S $</t>
+    <t xml:space="preserve">M2 YoY % change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YoY % change</t>
   </si>
   <si>
     <t xml:space="preserve">Show</t>
@@ -104,34 +104,26 @@
     <t xml:space="preserve">CPIAUCSL</t>
   </si>
   <si>
-    <t xml:space="preserve">orangered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer Price Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index: 1982-84 = 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% dev. from fit. trend, Exponential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2, dev. From constant growth trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev. From trend (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPI, dev. From constant growth trend</t>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CPI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">YoY % change</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ticker indicates the data to pull  
@@ -232,7 +224,7 @@
     <t xml:space="preserve">StartDate</t>
   </si>
   <si>
-    <t xml:space="preserve">1996-01-01</t>
+    <t xml:space="preserve">1959-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be YYYY-MM-DD format. </t>
@@ -464,6 +456,9 @@
     <t xml:space="preserve">normal</t>
   </si>
   <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chicago Fed National financial conditions Index</t>
   </si>
   <si>
@@ -491,15 +486,18 @@
     <t xml:space="preserve">RESPPNTNWW</t>
   </si>
   <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fed Bal. Sheet: QE part</t>
   </si>
   <si>
+    <t xml:space="preserve">fred</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRED - Federal reserve Economic Database. You must have your API key in the cell. </t>
   </si>
   <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
     <t xml:space="preserve">M2 money stock</t>
   </si>
   <si>
@@ -557,6 +555,9 @@
     <t xml:space="preserve">iex</t>
   </si>
   <si>
+    <t xml:space="preserve">orangered</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bitcoin (YoY)</t>
   </si>
   <si>
@@ -668,15 +669,9 @@
     <t xml:space="preserve">nasdaq</t>
   </si>
   <si>
-    <t xml:space="preserve">Year on year % change</t>
-  </si>
-  <si>
     <t xml:space="preserve">US CPI</t>
   </si>
   <si>
-    <t xml:space="preserve">YoY % change</t>
-  </si>
-  <si>
     <t xml:space="preserve">quandl</t>
   </si>
   <si>
@@ -702,6 +697,9 @@
   </si>
   <si>
     <t xml:space="preserve">MOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unaltered</t>
   </si>
   <si>
     <t xml:space="preserve">darkgreen</t>
@@ -859,6 +857,9 @@
     <t xml:space="preserve">M2 money supply (U.S)</t>
   </si>
   <si>
+    <t xml:space="preserve">Trillions of U.S $</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top50GM2</t>
   </si>
   <si>
@@ -1101,6 +1102,9 @@
   </si>
   <si>
     <t xml:space="preserve">bisque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% dev. from fit. trend, Exponential</t>
   </si>
   <si>
     <t xml:space="preserve">% dev. from fit. trend, ExpLog</t>
@@ -1939,6 +1943,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1958,10 +1966,6 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2427,10 +2431,10 @@
   <dimension ref="A1:AJ197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
@@ -2524,21 +2528,21 @@
       <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13" t="n">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="n">
         <f aca="false">10^3</f>
         <v>1000</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2564,18 +2568,18 @@
       <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2583,36 +2587,22 @@
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2620,36 +2610,22 @@
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2671,54 +2647,54 @@
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16" t="s">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="K7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="L7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="M7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="N7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="O7" s="31" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
@@ -2782,17 +2758,17 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
@@ -2826,11 +2802,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
@@ -2901,19 +2877,19 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="46" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
       <c r="I14" s="46" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
@@ -2924,20 +2900,20 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
       <c r="F15" s="48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G15" s="48"/>
       <c r="H15" s="49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
@@ -2948,13 +2924,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -2970,7 +2946,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -2988,13 +2964,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -3010,11 +2986,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="57" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -3030,11 +3006,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="57" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -3050,13 +3026,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="58" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -3072,13 +3048,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="61" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
@@ -3094,16 +3070,16 @@
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="64" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
       <c r="F23" s="66" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -3120,7 +3096,7 @@
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
       <c r="F24" s="66" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
@@ -5274,7 +5250,7 @@
       <selection pane="topLeft" activeCell="L44" activeCellId="0" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
@@ -5290,7 +5266,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="74" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -5300,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="77" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N1" s="78"/>
       <c r="O1" s="78"/>
@@ -5337,7 +5313,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K2" s="81"/>
       <c r="L2" s="82"/>
@@ -5349,31 +5325,31 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="82" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G3" s="82" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="K3" s="81"/>
       <c r="L3" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
@@ -5382,31 +5358,31 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="82" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
       <c r="K4" s="87"/>
       <c r="L4" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M4" s="83" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
@@ -5415,31 +5391,31 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="88" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F5" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="K5" s="87"/>
       <c r="L5" s="82" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M5" s="83" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O5" s="83"/>
       <c r="P5" s="83"/>
@@ -5448,31 +5424,31 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="86"/>
       <c r="K6" s="87"/>
       <c r="L6" s="82" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O6" s="83"/>
       <c r="P6" s="83"/>
@@ -5484,28 +5460,28 @@
         <v>17</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H7" s="86"/>
       <c r="I7" s="86"/>
       <c r="K7" s="89"/>
       <c r="L7" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O7" s="83"/>
       <c r="P7" s="83"/>
@@ -5514,211 +5490,211 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="90" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G8" s="90" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
       <c r="L8" s="82" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M8" s="83" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="82" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
       <c r="L9" s="82" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="88" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E10" s="88" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="88" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J10" s="89"/>
       <c r="L10" s="88" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="88" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F11" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="82"/>
       <c r="J11" s="87"/>
       <c r="L11" s="88" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M11" s="83"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="88" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H12" s="91"/>
       <c r="I12" s="82" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J12" s="87"/>
       <c r="L12" s="88" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M12" s="83"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="88" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="82" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J13" s="87"/>
       <c r="L13" s="88" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M13" s="83"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="88" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F14" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
       <c r="L14" s="88" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M14" s="83"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="88" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E15" s="88"/>
       <c r="F15" s="88"/>
@@ -5727,83 +5703,83 @@
       <c r="I15" s="88"/>
       <c r="J15" s="89"/>
       <c r="L15" s="88" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="82" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F16" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I16" s="91"/>
       <c r="J16" s="92" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L16" s="88" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="82" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F17" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H17" s="82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I17" s="86"/>
       <c r="J17" s="92" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K17" s="75"/>
       <c r="L17" s="88" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M17" s="83"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="82" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>20</v>
@@ -5812,77 +5788,77 @@
         <v>21</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H18" s="82" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I18" s="91"/>
       <c r="J18" s="88" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L18" s="88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M18" s="83"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="82" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I19" s="86"/>
       <c r="J19" s="88" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L19" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="M19" s="83"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
       <c r="L20" s="88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M20" s="83"/>
       <c r="N20" s="93"/>
@@ -5902,22 +5878,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="82" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
       <c r="G21" s="82" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H21" s="82"/>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
       <c r="L21" s="88" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M21" s="83"/>
       <c r="N21" s="94"/>
@@ -5937,22 +5913,22 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="88" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D22" s="88"/>
       <c r="E22" s="88"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
       <c r="J22" s="89"/>
       <c r="L22" s="88" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M22" s="83"/>
       <c r="N22" s="94"/>
@@ -5972,30 +5948,30 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I23" s="88"/>
       <c r="J23" s="89"/>
       <c r="L23" s="88" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M23" s="83"/>
       <c r="N23" s="94"/>
@@ -6018,27 +5994,27 @@
         <v>25</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I24" s="88"/>
       <c r="J24" s="89"/>
       <c r="L24" s="88" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M24" s="83"/>
       <c r="N24" s="94"/>
@@ -6058,13 +6034,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="82" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E25" s="82" t="s">
         <v>20</v>
@@ -6073,16 +6049,16 @@
         <v>21</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I25" s="88"/>
       <c r="J25" s="89"/>
       <c r="K25" s="89"/>
       <c r="L25" s="88" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M25" s="83"/>
       <c r="N25" s="94"/>
@@ -6102,31 +6078,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="82" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F26" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I26" s="88"/>
       <c r="J26" s="89"/>
       <c r="K26" s="87"/>
       <c r="L26" s="88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M26" s="83"/>
       <c r="N26" s="94"/>
@@ -6146,29 +6122,29 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="95" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F27" s="97" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G27" s="95" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
       <c r="J27" s="89"/>
       <c r="K27" s="87"/>
       <c r="L27" s="88" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M27" s="83"/>
       <c r="N27" s="94"/>
@@ -6188,22 +6164,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="88" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H28" s="82"/>
       <c r="I28" s="82"/>
@@ -6212,7 +6188,7 @@
       </c>
       <c r="K28" s="87"/>
       <c r="L28" s="88" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M28" s="83"/>
       <c r="N28" s="94"/>
@@ -6232,27 +6208,27 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="88" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H29" s="86"/>
       <c r="I29" s="86"/>
       <c r="L29" s="88" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M29" s="83"/>
       <c r="N29" s="94"/>
@@ -6272,13 +6248,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="88" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D30" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E30" s="88" t="s">
         <v>20</v>
@@ -6287,16 +6263,16 @@
         <v>21</v>
       </c>
       <c r="G30" s="88" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H30" s="88"/>
       <c r="I30" s="88" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J30" s="89"/>
       <c r="K30" s="89"/>
       <c r="L30" s="88" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M30" s="83"/>
       <c r="N30" s="94"/>
@@ -6316,29 +6292,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="82" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F31" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H31" s="82"/>
       <c r="I31" s="91"/>
       <c r="J31" s="92"/>
       <c r="K31" s="98"/>
       <c r="L31" s="88" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M31" s="83"/>
       <c r="N31" s="94"/>
@@ -6358,7 +6334,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="82" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C32" s="82"/>
       <c r="D32" s="82"/>
@@ -6370,7 +6346,7 @@
       <c r="J32" s="92"/>
       <c r="K32" s="83"/>
       <c r="L32" s="88" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M32" s="83"/>
       <c r="N32" s="94"/>
@@ -6390,31 +6366,31 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="82" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F33" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H33" s="82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I33" s="91"/>
       <c r="J33" s="88"/>
       <c r="K33" s="89"/>
       <c r="L33" s="88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M33" s="83"/>
       <c r="N33" s="94"/>
@@ -6434,31 +6410,31 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="82" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F34" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="82" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H34" s="82" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I34" s="86"/>
       <c r="J34" s="88"/>
       <c r="K34" s="89"/>
       <c r="L34" s="88" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M34" s="83"/>
       <c r="N34" s="94"/>
@@ -6478,29 +6454,29 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F35" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H35" s="82"/>
       <c r="I35" s="82"/>
       <c r="J35" s="82"/>
       <c r="K35" s="89"/>
       <c r="L35" s="88" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M35" s="83"/>
       <c r="N35" s="94"/>
@@ -6520,31 +6496,31 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="82" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F36" s="82" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
       <c r="K36" s="89"/>
       <c r="L36" s="88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M36" s="83"/>
       <c r="N36" s="94"/>
@@ -6564,31 +6540,31 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="88" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D37" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E37" s="88" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F37" s="88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G37" s="88" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H37" s="88" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I37" s="88"/>
       <c r="J37" s="89"/>
       <c r="K37" s="89"/>
       <c r="L37" s="88" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M37" s="83"/>
       <c r="N37" s="94"/>
@@ -6608,31 +6584,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="82" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H38" s="82" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I38" s="88"/>
       <c r="J38" s="89"/>
       <c r="K38" s="89"/>
       <c r="L38" s="88" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M38" s="83"/>
       <c r="N38" s="94"/>
@@ -6652,23 +6628,23 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="88" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D39" s="88"/>
       <c r="E39" s="88"/>
       <c r="F39" s="88"/>
       <c r="G39" s="88" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H39" s="88"/>
       <c r="I39" s="88"/>
       <c r="J39" s="89"/>
       <c r="K39" s="89"/>
       <c r="L39" s="88" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M39" s="83"/>
       <c r="N39" s="94"/>
@@ -6693,7 +6669,7 @@
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H40" s="82"/>
       <c r="I40" s="88"/>
@@ -6717,10 +6693,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="82" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D41" s="82"/>
       <c r="E41" s="82"/>
@@ -6748,7 +6724,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="88" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
@@ -6777,7 +6753,7 @@
     </row>
     <row r="43" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="88" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C43" s="88"/>
       <c r="D43" s="88"/>
@@ -6789,7 +6765,7 @@
       <c r="J43" s="89"/>
       <c r="K43" s="89"/>
       <c r="L43" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M43" s="99"/>
       <c r="N43" s="99"/>
@@ -6809,7 +6785,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="88" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C44" s="88"/>
       <c r="D44" s="88"/>
@@ -6818,16 +6794,16 @@
         <v>21</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I44" s="88"/>
       <c r="J44" s="89"/>
       <c r="K44" s="89"/>
       <c r="L44" s="100" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M44" s="100"/>
       <c r="N44" s="100"/>
@@ -6847,7 +6823,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="88" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45" s="88"/>
       <c r="D45" s="88"/>
@@ -6856,10 +6832,10 @@
         <v>21</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I45" s="88"/>
       <c r="J45" s="89"/>
@@ -6883,7 +6859,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="88" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
@@ -6892,10 +6868,10 @@
         <v>21</v>
       </c>
       <c r="G46" s="88" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I46" s="88"/>
       <c r="J46" s="89"/>
@@ -6919,7 +6895,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="88" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C47" s="88"/>
       <c r="D47" s="88"/>
@@ -6928,10 +6904,10 @@
         <v>21</v>
       </c>
       <c r="G47" s="88" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I47" s="88"/>
       <c r="J47" s="89"/>
@@ -6955,7 +6931,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="88" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C48" s="88"/>
       <c r="D48" s="88"/>
@@ -6985,25 +6961,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="88" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C49" s="88" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D49" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E49" s="88" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F49" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="88" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H49" s="88" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I49" s="88"/>
       <c r="J49" s="89"/>
@@ -7027,16 +7003,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C50" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="88"/>
       <c r="F50" s="88"/>
       <c r="G50" s="88" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H50" s="88"/>
       <c r="I50" s="88"/>
@@ -7061,16 +7037,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="88" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D51" s="88"/>
       <c r="E51" s="88"/>
       <c r="F51" s="88"/>
       <c r="G51" s="88" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H51" s="88"/>
       <c r="I51" s="88"/>
@@ -7098,10 +7074,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D52" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E52" s="88" t="s">
         <v>20</v>
@@ -7110,10 +7086,10 @@
         <v>21</v>
       </c>
       <c r="G52" s="88" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I52" s="88" t="n">
         <v>1000</v>
@@ -7139,25 +7115,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C53" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D53" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E53" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F53" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="88" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I53" s="88" t="n">
         <v>1000</v>
@@ -7183,25 +7159,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="88" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D54" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E54" s="88" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F54" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="88" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I54" s="88" t="n">
         <f aca="false">10^12</f>
@@ -7228,25 +7204,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="88" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C55" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D55" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E55" s="88" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F55" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="88" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I55" s="88"/>
       <c r="J55" s="89"/>
@@ -7270,13 +7246,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C56" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D56" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E56" s="88" t="s">
         <v>20</v>
@@ -7285,10 +7261,10 @@
         <v>21</v>
       </c>
       <c r="G56" s="88" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H56" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I56" s="88"/>
       <c r="J56" s="89"/>
@@ -7312,22 +7288,22 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="88" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C57" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D57" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E57" s="88" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F57" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="88" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H57" s="88"/>
       <c r="I57" s="88"/>
@@ -7352,25 +7328,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="88" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E58" s="88" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F58" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="88" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H58" s="88" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I58" s="88"/>
       <c r="J58" s="89"/>
@@ -7394,22 +7370,22 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="88" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F59" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="88" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H59" s="88"/>
       <c r="I59" s="88"/>
@@ -7434,25 +7410,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F60" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="88" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I60" s="88"/>
       <c r="J60" s="89"/>
@@ -7476,25 +7452,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="88" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F61" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="88" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H61" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I61" s="88"/>
       <c r="J61" s="89"/>
@@ -7518,25 +7494,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="88" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C62" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D62" s="88" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E62" s="88" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F62" s="88" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="88" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H62" s="88" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I62" s="88"/>
       <c r="J62" s="89"/>
@@ -7560,13 +7536,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="88" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C63" s="88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E63" s="88" t="s">
         <v>20</v>
@@ -7575,10 +7551,10 @@
         <v>21</v>
       </c>
       <c r="G63" s="88" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H63" s="88" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I63" s="88"/>
       <c r="J63" s="89"/>
@@ -7602,25 +7578,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="86" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C64" s="86" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D64" s="86" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E64" s="86" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F64" s="86" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="86" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H64" s="86" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I64" s="86"/>
       <c r="L64" s="100"/>
@@ -7642,25 +7618,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="86" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C65" s="86" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D65" s="86" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E65" s="86" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F65" s="86" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="86" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H65" s="86" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I65" s="86"/>
       <c r="L65" s="100"/>
@@ -7682,13 +7658,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="86" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C66" s="86" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D66" s="86" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E66" s="86" t="s">
         <v>20</v>
@@ -7697,10 +7673,10 @@
         <v>21</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H66" s="86" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I66" s="86"/>
       <c r="L66" s="100"/>
@@ -7722,16 +7698,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="86" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C67" s="86" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D67" s="86"/>
       <c r="E67" s="86"/>
       <c r="F67" s="86"/>
       <c r="G67" s="86" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H67" s="86"/>
       <c r="I67" s="86"/>
@@ -7754,16 +7730,16 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="101" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C68" s="86" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D68" s="86"/>
       <c r="E68" s="86"/>
       <c r="F68" s="86"/>
       <c r="G68" s="86" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H68" s="86"/>
       <c r="I68" s="86"/>
@@ -7786,10 +7762,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="101" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C69" s="86" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D69" s="86"/>
       <c r="E69" s="86"/>
@@ -7819,10 +7795,10 @@
         <v>17</v>
       </c>
       <c r="C70" s="86" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D70" s="86" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E70" s="86" t="s">
         <v>20</v>
@@ -7831,10 +7807,10 @@
         <v>21</v>
       </c>
       <c r="G70" s="86" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H70" s="86" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I70" s="86"/>
       <c r="L70" s="100"/>
@@ -7856,25 +7832,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="86" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C71" s="86" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D71" s="86" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E71" s="86" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F71" s="86" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="86" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H71" s="86" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I71" s="86"/>
       <c r="L71" s="100"/>
@@ -7896,7 +7872,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="86" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
@@ -7924,13 +7900,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="86" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C73" s="86" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D73" s="86" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E73" s="86" t="s">
         <v>20</v>
@@ -7939,10 +7915,10 @@
         <v>21</v>
       </c>
       <c r="G73" s="86" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H73" s="86" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I73" s="86"/>
       <c r="L73" s="100"/>
@@ -7964,17 +7940,17 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="86" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C74" s="86"/>
       <c r="D74" s="86"/>
       <c r="E74" s="86"/>
       <c r="F74" s="86"/>
       <c r="G74" s="86" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H74" s="86" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I74" s="86"/>
       <c r="L74" s="100"/>
@@ -7996,22 +7972,22 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="102" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C75" s="103" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D75" s="104" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E75" s="104" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F75" s="104" t="s">
         <v>21</v>
       </c>
       <c r="G75" s="105" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
@@ -8034,22 +8010,22 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H76" s="83"/>
       <c r="I76" s="83"/>
@@ -8072,13 +8048,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D77" s="92" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E77" s="92" t="s">
         <v>20</v>
@@ -8087,10 +8063,10 @@
         <v>21</v>
       </c>
       <c r="G77" s="92" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H77" s="92" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I77" s="83"/>
       <c r="L77" s="100"/>
@@ -8112,25 +8088,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="89" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C78" s="89" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D78" s="89" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E78" s="89" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F78" s="89" t="s">
         <v>21</v>
       </c>
       <c r="G78" s="89" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H78" s="89" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L78" s="100"/>
       <c r="M78" s="100"/>
@@ -8151,25 +8127,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="89" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C79" s="89" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D79" s="89" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E79" s="89" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F79" s="89" t="s">
         <v>21</v>
       </c>
       <c r="G79" s="89" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H79" s="89" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L79" s="100"/>
       <c r="M79" s="100"/>
@@ -8190,25 +8166,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="89" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C80" s="89" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D80" s="89" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E80" s="89" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F80" s="89" t="s">
         <v>21</v>
       </c>
       <c r="G80" s="89" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H80" s="89" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L80" s="100"/>
       <c r="M80" s="100"/>
@@ -8229,25 +8205,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="89" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C81" s="89" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D81" s="89" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E81" s="89" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F81" s="89" t="s">
         <v>21</v>
       </c>
       <c r="G81" s="89" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H81" s="89" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L81" s="100"/>
       <c r="M81" s="100"/>
@@ -8268,19 +8244,19 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="106" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C82" s="89" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="89"/>
       <c r="F82" s="89"/>
       <c r="G82" s="89" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H82" s="89" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L82" s="100"/>
       <c r="M82" s="100"/>
@@ -8301,25 +8277,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L83" s="100"/>
       <c r="M83" s="100"/>
@@ -8340,25 +8316,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="L84" s="100"/>
       <c r="M84" s="100"/>
@@ -8379,33 +8355,33 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
       <c r="K85" s="10"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="13" t="n">
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="100" t="n">
         <f aca="false">10^3</f>
         <v>1000</v>
       </c>
@@ -8522,7 +8498,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43"/>
@@ -8531,12 +8507,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="75" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="107" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
@@ -8758,10 +8734,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F15" s="100" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -8799,16 +8775,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="75" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C18" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F18" s="100"/>
       <c r="G18" s="100"/>
@@ -8823,16 +8799,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F19" s="100"/>
       <c r="G19" s="100"/>
@@ -8847,13 +8823,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F20" s="100"/>
       <c r="G20" s="100"/>
@@ -8868,13 +8844,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F21" s="100"/>
       <c r="G21" s="100"/>
@@ -8889,13 +8865,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100"/>
@@ -8910,10 +8886,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F23" s="100"/>
       <c r="G23" s="100"/>
@@ -9300,7 +9276,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.83"/>
@@ -9308,7 +9284,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.5"/>
@@ -9316,7 +9292,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B1" s="76" t="s">
         <v>0</v>
@@ -9334,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>5</v>
@@ -9349,7 +9325,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,7 +9333,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C2" s="109"/>
       <c r="D2" s="82"/>
@@ -9372,32 +9348,32 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B3" s="108" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G3" s="110"/>
       <c r="H3" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I3" s="82"/>
       <c r="J3" s="111"/>
       <c r="K3" s="91"/>
       <c r="L3" s="82" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,16 +9381,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G4" s="110"/>
       <c r="H4" s="82" t="s">
@@ -9424,7 +9400,7 @@
       <c r="J4" s="111"/>
       <c r="K4" s="91"/>
       <c r="L4" s="82" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9433,13 +9409,13 @@
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="82" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E5" s="112" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G5" s="110"/>
       <c r="H5" s="82"/>
@@ -9454,13 +9430,13 @@
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="82" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E6" s="112" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G6" s="110"/>
       <c r="H6" s="82"/>
@@ -9475,13 +9451,13 @@
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="82" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E7" s="112" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G7" s="110"/>
       <c r="H7" s="82"/>
@@ -9492,21 +9468,21 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="82" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="F9" s="88" t="s">
         <v>20</v>
@@ -9514,812 +9490,812 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="82" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="88" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F11" s="88" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="88" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="88" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="88" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="88" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="88" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="88" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="88" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="88" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="88" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="88" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="88" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="88" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F25" s="88" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="88" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F26" s="88" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="88" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="88" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="88" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F30" s="88" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="88" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F31" s="88" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="88" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F34" s="88" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="88" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F35" s="88" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="88" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F37" s="88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="88" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F38" s="88" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="88" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F39" s="88" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="88" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="88" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="88" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="88" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="88" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="88" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="88" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="88" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="88" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="88" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="88" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="88" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F52" s="88" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F53" s="88" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F54" s="88" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F55" s="88" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="88" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="88" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="88" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="88" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="88" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="88" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="88" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="88" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="88" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="88" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="88" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="88" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="88" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="88" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="88" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="88" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="88" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="88" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="88" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="88" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="88" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="88" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="88" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="88" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="88" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="88" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="88" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="88" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="88" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="88" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="88" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="88" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F94" s="88" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="88" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="88" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="88" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="88" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="88" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F100" s="88" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="88" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="88" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="88" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="88" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="88" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="88" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="88" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="88" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="88" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="88" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="88" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F112" s="88" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="88" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="88" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="88" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F116" s="88" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F117" s="88" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="88" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="88" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="88" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="88" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="88" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F123" s="88" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="88" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="88" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="88" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="88" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F128" s="88" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F129" s="88" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F131" s="88" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F132" s="88" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F133" s="88" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F134" s="88" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F135" s="88" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F136" s="88" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F137" s="88" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F138" s="88" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F139" s="88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F140" s="88" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F141" s="88" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F142" s="88" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F143" s="88" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F144" s="88" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F145" s="88" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F146" s="88" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F147" s="88" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="88" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F149" s="88" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F150" s="88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -10344,95 +10320,95 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="113" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C2F02-851A-FD4D-B6DB-AD137BA14BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044C5E5-FC80-4D47-9707-91C2D9191BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="486">
   <si>
     <t>Index</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Limit_StartDate</t>
-  </si>
-  <si>
-    <t>SHOW/HIDE</t>
   </si>
   <si>
     <t>M2SL</t>
@@ -1365,9 +1362,6 @@
     <t>US Equity Indices.xlsx</t>
   </si>
   <si>
-    <t>1940-01-01</t>
-  </si>
-  <si>
     <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
   </si>
   <si>
@@ -1382,14 +1376,6 @@
   <si>
     <t>All except 'Unaltered' transform the
 data in some way. Take rate of change with differing periods or fit a curve and plot the % deviation from that trend etc.</t>
-  </si>
-  <si>
-    <t>Choose whther to show or 
-hide the trace on the chart.
-One may choose to hide a 
-trace if you want to import
-data for it and then plot only 
-a deriv</t>
   </si>
   <si>
     <t xml:space="preserve">Currently unused
@@ -1425,19 +1411,10 @@
     <t>China domestic credit &amp; M2.xlsx</t>
   </si>
   <si>
-    <t>US M2</t>
-  </si>
-  <si>
     <t>Exponential, 1995-01-01, 2020-01-01</t>
   </si>
   <si>
-    <t>US GDP</t>
-  </si>
-  <si>
     <t>Linear, 1995-01-01, 2020-01-01</t>
-  </si>
-  <si>
-    <t>US GDI</t>
   </si>
   <si>
     <t>Chart has 5 traces max. Index 6 - 10 are all optional  parameters for traces 1 - 5.</t>
@@ -1445,12 +1422,6 @@
   <si>
     <t>Chart has 5 traces as a maximum (Index 1 -5).
  Index 6 - 10 are all optional  parameters for traces 1 - 5.</t>
-  </si>
-  <si>
-    <t>XAUUSD,OANDA</t>
-  </si>
-  <si>
-    <t>Gold</t>
   </si>
   <si>
     <t>Integer here 
@@ -1580,7 +1551,91 @@
     <t>GLOBAL PARAMETERS BELOW. THESE AFFECT ALL TRACES. PARAMETERS ABOVE ARE ALL CHART TRACE SPECIFIC</t>
   </si>
   <si>
-    <t>M2 &amp; CPI Trends</t>
+    <t>SPX/M2</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>ratio (a.u)</t>
+  </si>
+  <si>
+    <t>MAXIMUM OF FIVE AXIS PER CHART. YOU CAN DOWNLOAD MORE SERIES BUT MUST COMBINE TO AXIS OR CALCULATE SPREAD</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>ax1</t>
+  </si>
+  <si>
+    <t>ax2</t>
+  </si>
+  <si>
+    <t>ax3</t>
+  </si>
+  <si>
+    <t>ax4</t>
+  </si>
+  <si>
+    <t>ax5</t>
+  </si>
+  <si>
+    <t>Plot_Axis</t>
+  </si>
+  <si>
+    <t>do not plot</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Index (2013 = 100)</t>
+  </si>
+  <si>
+    <t>S &amp; P 500 in real terms</t>
+  </si>
+  <si>
+    <t>Dolllar dollar bill yo</t>
+  </si>
+  <si>
+    <t>Big rektums</t>
+  </si>
+  <si>
+    <t>SPX/CPI</t>
+  </si>
+  <si>
+    <t>U.S M2 Monetary aggregate</t>
+  </si>
+  <si>
+    <t>Rate of cunts what lost jobs, got rekt</t>
+  </si>
+  <si>
+    <t>Gross domestic income (GDI)</t>
+  </si>
+  <si>
+    <t>Still rekt cunts after some time.</t>
+  </si>
+  <si>
+    <t>TLAACBW027SBOG</t>
+  </si>
+  <si>
+    <t>Dunno what did shit id…</t>
+  </si>
+  <si>
+    <t>Dunno bro….............</t>
+  </si>
+  <si>
+    <t>a.u</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>U.S Consumer price index (CPI)</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1646,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1715,8 +1770,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1816,6 +1877,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,7 +2050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2217,6 +2284,204 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2225,27 +2490,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2255,50 +2499,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2307,136 +2510,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2840,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ198"/>
+  <dimension ref="A1:AJ209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2867,7 +2940,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="70" t="s">
@@ -2892,1047 +2965,1108 @@
         <v>7</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="J1" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1">
-      <c r="A2" s="141">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
       <c r="B2" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="18" customHeight="1">
+      <c r="A3" s="81">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="18" customHeight="1">
+      <c r="A4" s="81">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>471</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="18" customHeight="1">
+      <c r="A5" s="81">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="18" customHeight="1">
+      <c r="A6" s="82">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="18" customHeight="1">
+      <c r="A7" s="81">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="18" customHeight="1">
+      <c r="A8" s="82">
+        <v>7</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>478</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="18" customHeight="1">
+      <c r="A9" s="81">
+        <v>8</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="18" customHeight="1">
+      <c r="A10" s="82">
+        <v>9</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="J10" s="76"/>
+    </row>
+    <row r="11" spans="1:36" ht="18" customHeight="1">
+      <c r="A11" s="81">
+        <v>10</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:36" ht="18" customHeight="1">
+      <c r="A12" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>469</v>
+      </c>
+      <c r="J12" s="107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="18" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:36" ht="18" customHeight="1">
+      <c r="A14" s="103"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:36" ht="25.5" customHeight="1">
+      <c r="A15" s="103"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="109"/>
+    </row>
+    <row r="16" spans="1:36" ht="21" customHeight="1">
+      <c r="A16" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A17" s="84">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>50</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A18" s="84">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="8">
+        <v>34700</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A19" s="84">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A20" s="84">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A21" s="84">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A22" s="84">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A23" s="84">
         <v>17</v>
       </c>
-      <c r="C2" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="74" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A24" s="84">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A25" s="84">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A26" s="84">
         <v>20</v>
       </c>
-      <c r="F2" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="75" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A27" s="129" t="s">
         <v>446</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1">
-      <c r="A3" s="141">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1">
-      <c r="A4" s="141">
-        <v>3</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="75" t="s">
+      <c r="B27" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="G27" s="89" t="s">
         <v>448</v>
       </c>
-      <c r="H4" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1">
-      <c r="A5" s="141">
-        <v>4</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>450</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1">
-      <c r="A6" s="142">
-        <v>5</v>
-      </c>
-      <c r="B6" s="72" t="s">
+      <c r="H27" s="127" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>454</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="18" customHeight="1">
-      <c r="A7" s="143" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>460</v>
-      </c>
-      <c r="D7" s="84" t="s">
+      <c r="I27" s="105" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>459</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="95" t="s">
+      <c r="J27" s="105" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A28" s="129"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+    </row>
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A29" s="129"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+    </row>
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A30" s="129"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A31" s="129"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A32" s="129"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+    </row>
+    <row r="33" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A33" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+    </row>
+    <row r="34" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A34" s="134"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="136"/>
+    </row>
+    <row r="35" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A35" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="93"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+    </row>
+    <row r="37" spans="1:13" ht="16">
+      <c r="A37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="97"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" ht="16">
+      <c r="A38" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="115" t="s">
         <v>435</v>
       </c>
-      <c r="J7" s="100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1">
-      <c r="A8" s="144"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="1:36" ht="18" customHeight="1">
-      <c r="A9" s="144"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A10" s="144"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" spans="1:36" ht="21" customHeight="1">
-      <c r="A11" s="145" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>442</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-    </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A12" s="146">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A13" s="146">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A14" s="146">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A15" s="146">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A16" s="146">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="128" t="s">
-        <v>452</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="130" t="s">
-        <v>458</v>
-      </c>
-      <c r="E17" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="132" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" s="133" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="134" t="s">
-        <v>461</v>
-      </c>
-      <c r="I17" s="130" t="s">
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:13" ht="20" customHeight="1">
+      <c r="A39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="133"/>
+      <c r="H39" s="113" t="s">
         <v>437</v>
       </c>
-      <c r="J17" s="130" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-    </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="124" t="s">
-        <v>464</v>
-      </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-    </row>
-    <row r="26" spans="1:13" ht="16">
-      <c r="A26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" ht="16">
-      <c r="A27" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="111" t="s">
-        <v>438</v>
-      </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" spans="1:13" ht="20" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="89" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="120" t="s">
-        <v>440</v>
-      </c>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="127" t="s">
-        <v>463</v>
-      </c>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-    </row>
-    <row r="30" spans="1:13" ht="13" customHeight="1">
-      <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="115"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-    </row>
-    <row r="32" spans="1:13" ht="13" customHeight="1">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-    </row>
-    <row r="33" spans="1:14" ht="18">
-      <c r="A33" s="122" t="s">
-        <v>462</v>
-      </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-    </row>
-    <row r="34" spans="1:14" ht="16">
-      <c r="A34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-    </row>
-    <row r="35" spans="1:14" ht="16">
-      <c r="A35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-    </row>
-    <row r="36" spans="1:14" ht="16">
-      <c r="A36" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-    </row>
-    <row r="37" spans="1:14" ht="13" customHeight="1">
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-    </row>
-    <row r="38" spans="1:14" ht="25" customHeight="1">
-      <c r="A38" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-    </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="A39" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
       <c r="K39" s="64"/>
       <c r="L39" s="64"/>
       <c r="M39" s="64"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1">
-      <c r="A40" s="20" t="s">
-        <v>52</v>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
+        <v>40</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="112" t="s">
+        <v>455</v>
+      </c>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
       <c r="K40" s="64"/>
       <c r="L40" s="64"/>
       <c r="M40" s="64"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" ht="13" customHeight="1">
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
+    </row>
+    <row r="41" spans="1:13" ht="13" customHeight="1">
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
       <c r="K41" s="64"/>
       <c r="L41" s="64"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" ht="20">
-      <c r="A42" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>430</v>
-      </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="13" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" ht="13" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+    </row>
+    <row r="43" spans="1:13" ht="13" customHeight="1">
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+    </row>
+    <row r="44" spans="1:13" ht="18">
+      <c r="A44" s="122" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+    </row>
+    <row r="45" spans="1:13" ht="16">
+      <c r="A45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+    </row>
+    <row r="46" spans="1:13" ht="16">
+      <c r="A46" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+    </row>
+    <row r="47" spans="1:13" ht="16">
+      <c r="A47" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+    </row>
+    <row r="48" spans="1:13" ht="13" customHeight="1">
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+    </row>
+    <row r="49" spans="1:14" ht="25" customHeight="1">
+      <c r="A49" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="1:14" ht="16">
+      <c r="A50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" ht="13" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
+    <row r="51" spans="1:14" ht="18" customHeight="1">
+      <c r="A51" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" ht="13" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" ht="13" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+    <row r="53" spans="1:14" ht="20">
+      <c r="A53" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="143" t="s">
+        <v>428</v>
+      </c>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="141" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" ht="13" customHeight="1">
+    <row r="54" spans="1:14">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" ht="13" customHeight="1">
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" ht="13" customHeight="1">
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="142"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142"/>
+      <c r="J55" s="142"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -3944,34 +4078,46 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:14">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14">
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+    <row r="60" spans="1:14" ht="13" customHeight="1">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -3979,10 +4125,15 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14">
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+    <row r="61" spans="1:14" ht="13" customHeight="1">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -3990,10 +4141,15 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14">
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+    <row r="62" spans="1:14" ht="13" customHeight="1">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4001,10 +4157,15 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14">
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+    <row r="63" spans="1:14" ht="13" customHeight="1">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4012,21 +4173,31 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14">
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+    <row r="64" spans="1:14" ht="13" customHeight="1">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="6:14">
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+    <row r="65" spans="1:14" ht="13" customHeight="1">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4034,10 +4205,13 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="6:14">
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+    <row r="66" spans="1:14" ht="13" customHeight="1">
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -4045,10 +4219,13 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="6:14">
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+    <row r="67" spans="1:14" ht="13" customHeight="1">
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -4056,7 +4233,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
-    <row r="68" spans="6:14">
+    <row r="68" spans="1:14">
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -4067,18 +4244,21 @@
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
-    <row r="69" spans="6:14">
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
+    <row r="69" spans="1:14">
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="6:14">
+    <row r="70" spans="1:14">
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -4089,7 +4269,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="6:14">
+    <row r="71" spans="1:14">
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -4100,7 +4280,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="6:14">
+    <row r="72" spans="1:14">
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -4111,7 +4291,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="6:14">
+    <row r="73" spans="1:14">
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -4122,7 +4302,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="6:14">
+    <row r="74" spans="1:14">
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -4133,7 +4313,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="6:14">
+    <row r="75" spans="1:14">
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -4144,7 +4324,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="6:14">
+    <row r="76" spans="1:14">
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -4155,7 +4335,7 @@
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="6:14">
+    <row r="77" spans="1:14">
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -4166,7 +4346,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="6:14">
+    <row r="78" spans="1:14">
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -4177,7 +4357,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="6:14">
+    <row r="79" spans="1:14">
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -4188,7 +4368,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="6:14">
+    <row r="80" spans="1:14">
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -5497,56 +5677,177 @@
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
     </row>
+    <row r="199" spans="6:14">
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="13"/>
+      <c r="L199" s="13"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="13"/>
+    </row>
+    <row r="200" spans="6:14">
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="13"/>
+      <c r="N200" s="13"/>
+    </row>
+    <row r="201" spans="6:14">
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="13"/>
+      <c r="L201" s="13"/>
+      <c r="M201" s="13"/>
+      <c r="N201" s="13"/>
+    </row>
+    <row r="202" spans="6:14">
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
+      <c r="K202" s="13"/>
+      <c r="L202" s="13"/>
+      <c r="M202" s="13"/>
+      <c r="N202" s="13"/>
+    </row>
+    <row r="203" spans="6:14">
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="13"/>
+      <c r="L203" s="13"/>
+      <c r="M203" s="13"/>
+      <c r="N203" s="13"/>
+    </row>
+    <row r="204" spans="6:14">
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="13"/>
+      <c r="L204" s="13"/>
+      <c r="M204" s="13"/>
+      <c r="N204" s="13"/>
+    </row>
+    <row r="205" spans="6:14">
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="13"/>
+    </row>
+    <row r="206" spans="6:14">
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="13"/>
+    </row>
+    <row r="207" spans="6:14">
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="13"/>
+    </row>
+    <row r="208" spans="6:14">
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="13"/>
+      <c r="L208" s="13"/>
+      <c r="M208" s="13"/>
+      <c r="N208" s="13"/>
+    </row>
+    <row r="209" spans="6:14">
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="13"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dCJncEaDukUbfGhnFREFdLUMl8cVnH8gVwTJ4FVTk7qOaIsDuKLEqlHrrVSPwRGRX1RkiI7rUUoHlruRz75EIw==" saltValue="kJWlPXK7Ci7r0j9tV/tesw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="44">
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E25:J26"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="H29:J41"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="F42:J45"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="C40:G40"/>
+  <mergeCells count="45">
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="F53:J56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H40:J52"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E38:J38"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A30:G32"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A41:G43"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5567,7 +5868,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>C2:C11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -5576,7 +5877,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -5585,7 +5886,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E6</xm:sqref>
+          <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -5594,7 +5895,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F6</xm:sqref>
+          <xm:sqref>F2:F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -5603,16 +5904,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>J2:J6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>I2:I6</xm:sqref>
+          <xm:sqref>J2:J11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -5621,7 +5913,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B39:B40</xm:sqref>
+          <xm:sqref>B50:B51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -5630,7 +5922,13 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B42:E42</xm:sqref>
+          <xm:sqref>B53:E53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBB94EE7-2925-6140-A3CB-0782501AEC05}">
+          <x14:formula1>
+            <xm:f>DropDownValues!$G$2:$G$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5642,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -5662,7 +5960,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -5672,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
@@ -5709,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="31"/>
@@ -5721,31 +6019,31 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>64</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
@@ -5754,31 +6052,31 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="F4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="K4" s="36"/>
       <c r="L4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>71</v>
       </c>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
@@ -5787,31 +6085,31 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="K5" s="36"/>
       <c r="L5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
@@ -5820,31 +6118,31 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="B6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="F6" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
       <c r="K6" s="36"/>
       <c r="L6" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
@@ -5853,31 +6151,31 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="K7" s="38"/>
       <c r="L7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>83</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
@@ -5886,211 +6184,211 @@
     </row>
     <row r="8" spans="1:18" ht="13.5" customHeight="1">
       <c r="B8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>86</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="L8" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="L9" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>94</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="38"/>
       <c r="L10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="36"/>
       <c r="L11" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>100</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>101</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="36"/>
       <c r="L12" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="36"/>
       <c r="L13" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>108</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="L14" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -6099,162 +6397,162 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
       <c r="L15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>112</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:27">
       <c r="B17" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>116</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="2:27">
       <c r="B18" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>119</v>
-      </c>
       <c r="H18" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="2:27">
       <c r="B19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="H19" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="2:27" ht="12.75" customHeight="1">
       <c r="B20" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="31" t="s">
+      <c r="H20" s="31" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="L20" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="42"/>
@@ -6274,22 +6572,22 @@
     </row>
     <row r="21" spans="2:27" ht="12.75" customHeight="1">
       <c r="B21" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="L21" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="43"/>
@@ -6309,22 +6607,22 @@
     </row>
     <row r="22" spans="2:27" ht="12.75" customHeight="1">
       <c r="B22" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38"/>
       <c r="L22" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="43"/>
@@ -6344,30 +6642,30 @@
     </row>
     <row r="23" spans="2:27" ht="12.75" customHeight="1">
       <c r="B23" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="31" t="s">
+      <c r="H23" s="31" t="s">
         <v>135</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>136</v>
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
       <c r="L23" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="43"/>
@@ -6387,30 +6685,30 @@
     </row>
     <row r="24" spans="2:27" ht="12.75" customHeight="1">
       <c r="B24" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>63</v>
-      </c>
       <c r="G24" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="38"/>
       <c r="L24" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="43"/>
@@ -6430,31 +6728,31 @@
     </row>
     <row r="25" spans="2:27" ht="12.75" customHeight="1">
       <c r="B25" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="31" t="s">
+      <c r="H25" s="31" t="s">
         <v>141</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="43"/>
@@ -6474,31 +6772,31 @@
     </row>
     <row r="26" spans="2:27" ht="12.75" customHeight="1">
       <c r="B26" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>145</v>
-      </c>
       <c r="H26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="38"/>
       <c r="K26" s="36"/>
       <c r="L26" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="43"/>
@@ -6518,29 +6816,29 @@
     </row>
     <row r="27" spans="2:27" ht="12.75" customHeight="1">
       <c r="B27" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="46" t="s">
+      <c r="E27" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="46" t="s">
-        <v>149</v>
-      </c>
       <c r="F27" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
       <c r="K27" s="36"/>
       <c r="L27" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="43"/>
@@ -6560,22 +6858,22 @@
     </row>
     <row r="28" spans="2:27" ht="12.75" customHeight="1">
       <c r="B28" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
@@ -6584,7 +6882,7 @@
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="43"/>
@@ -6604,27 +6902,27 @@
     </row>
     <row r="29" spans="2:27" ht="12.75" customHeight="1">
       <c r="B29" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>153</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>154</v>
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="L29" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="43"/>
@@ -6644,31 +6942,31 @@
     </row>
     <row r="30" spans="2:27" ht="12.75" customHeight="1">
       <c r="B30" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="37" t="s">
-        <v>21</v>
-      </c>
       <c r="G30" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="43"/>
@@ -6688,29 +6986,29 @@
     </row>
     <row r="31" spans="2:27" ht="12.75" customHeight="1">
       <c r="B31" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="40"/>
       <c r="J31" s="41"/>
       <c r="K31" s="47"/>
       <c r="L31" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M31" s="32"/>
       <c r="N31" s="43"/>
@@ -6730,7 +7028,7 @@
     </row>
     <row r="32" spans="2:27" ht="12.75" customHeight="1">
       <c r="B32" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -6742,7 +7040,7 @@
       <c r="J32" s="41"/>
       <c r="K32" s="32"/>
       <c r="L32" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="43"/>
@@ -6762,31 +7060,31 @@
     </row>
     <row r="33" spans="2:27" ht="12.75" customHeight="1">
       <c r="B33" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="31" t="s">
+      <c r="F33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="H33" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I33" s="40"/>
       <c r="J33" s="37"/>
       <c r="K33" s="38"/>
       <c r="L33" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M33" s="32"/>
       <c r="N33" s="43"/>
@@ -6806,31 +7104,31 @@
     </row>
     <row r="34" spans="2:27" ht="12.75" customHeight="1">
       <c r="B34" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>60</v>
-      </c>
       <c r="D34" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>166</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="37"/>
       <c r="K34" s="38"/>
       <c r="L34" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="43"/>
@@ -6850,29 +7148,29 @@
     </row>
     <row r="35" spans="2:27" ht="12.75" customHeight="1">
       <c r="B35" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
       <c r="K35" s="38"/>
       <c r="L35" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M35" s="32"/>
       <c r="N35" s="43"/>
@@ -6892,31 +7190,31 @@
     </row>
     <row r="36" spans="2:27" ht="12.75" customHeight="1">
       <c r="B36" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="31" t="s">
+      <c r="H36" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
       <c r="K36" s="38"/>
       <c r="L36" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M36" s="32"/>
       <c r="N36" s="43"/>
@@ -6936,31 +7234,31 @@
     </row>
     <row r="37" spans="2:27" ht="12.75" customHeight="1">
       <c r="B37" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="37" t="s">
         <v>174</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>175</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M37" s="32"/>
       <c r="N37" s="43"/>
@@ -6980,31 +7278,31 @@
     </row>
     <row r="38" spans="2:27" ht="12.75" customHeight="1">
       <c r="B38" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>178</v>
-      </c>
       <c r="H38" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="43"/>
@@ -7024,23 +7322,23 @@
     </row>
     <row r="39" spans="2:27" ht="12.75" customHeight="1">
       <c r="B39" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="43"/>
@@ -7065,7 +7363,7 @@
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
       <c r="G40" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="31"/>
       <c r="I40" s="37"/>
@@ -7089,10 +7387,10 @@
     </row>
     <row r="41" spans="2:27" ht="12.75" customHeight="1">
       <c r="B41" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
@@ -7120,7 +7418,7 @@
     </row>
     <row r="42" spans="2:27" ht="12.75" customHeight="1">
       <c r="B42" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -7149,7 +7447,7 @@
     </row>
     <row r="43" spans="2:27" ht="27.75" customHeight="1">
       <c r="B43" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -7160,13 +7458,13 @@
       <c r="I43" s="37"/>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
-      <c r="L43" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="103"/>
-      <c r="P43" s="103"/>
+      <c r="L43" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="146"/>
+      <c r="N43" s="146"/>
+      <c r="O43" s="146"/>
+      <c r="P43" s="146"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
       <c r="S43" s="43"/>
@@ -7181,30 +7479,30 @@
     </row>
     <row r="44" spans="2:27" ht="12.75" customHeight="1">
       <c r="B44" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="I44" s="37"/>
       <c r="J44" s="38"/>
       <c r="K44" s="38"/>
-      <c r="L44" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="104"/>
+      <c r="L44" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
       <c r="S44" s="43"/>
@@ -7219,28 +7517,28 @@
     </row>
     <row r="45" spans="2:27" ht="12.75" customHeight="1">
       <c r="B45" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I45" s="37"/>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
       <c r="Q45" s="43"/>
       <c r="R45" s="43"/>
       <c r="S45" s="43"/>
@@ -7255,28 +7553,28 @@
     </row>
     <row r="46" spans="2:27" ht="12.75" customHeight="1">
       <c r="B46" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I46" s="37"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
       <c r="Q46" s="43"/>
       <c r="R46" s="43"/>
       <c r="S46" s="43"/>
@@ -7291,28 +7589,28 @@
     </row>
     <row r="47" spans="2:27" ht="12.75" customHeight="1">
       <c r="B47" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="104"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
       <c r="S47" s="43"/>
@@ -7327,7 +7625,7 @@
     </row>
     <row r="48" spans="2:27" ht="12.75" customHeight="1">
       <c r="B48" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -7338,11 +7636,11 @@
       <c r="I48" s="37"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
       <c r="Q48" s="43"/>
       <c r="R48" s="43"/>
       <c r="S48" s="43"/>
@@ -7357,34 +7655,34 @@
     </row>
     <row r="49" spans="2:27" ht="12.75" customHeight="1">
       <c r="B49" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="37" t="s">
+      <c r="H49" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>191</v>
       </c>
       <c r="I49" s="37"/>
       <c r="J49" s="38"/>
       <c r="K49" s="38"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
       <c r="S49" s="43"/>
@@ -7399,26 +7697,26 @@
     </row>
     <row r="50" spans="2:27" ht="12.75" customHeight="1">
       <c r="B50" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
       <c r="Q50" s="43"/>
       <c r="R50" s="43"/>
       <c r="S50" s="43"/>
@@ -7433,26 +7731,26 @@
     </row>
     <row r="51" spans="2:27" ht="12.75" customHeight="1">
       <c r="B51" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="104"/>
-      <c r="N51" s="104"/>
-      <c r="O51" s="104"/>
-      <c r="P51" s="104"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="147"/>
       <c r="Q51" s="43"/>
       <c r="R51" s="43"/>
       <c r="S51" s="43"/>
@@ -7467,36 +7765,36 @@
     </row>
     <row r="52" spans="2:27" ht="12.75" customHeight="1">
       <c r="B52" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="37" t="s">
-        <v>21</v>
-      </c>
       <c r="G52" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="37" t="s">
         <v>196</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>197</v>
       </c>
       <c r="I52" s="37">
         <v>1000</v>
       </c>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="104"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
-      <c r="P52" s="104"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="147"/>
+      <c r="P52" s="147"/>
       <c r="Q52" s="43"/>
       <c r="R52" s="43"/>
       <c r="S52" s="43"/>
@@ -7511,36 +7809,36 @@
     </row>
     <row r="53" spans="2:27" ht="12.75" customHeight="1">
       <c r="B53" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>193</v>
-      </c>
       <c r="H53" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I53" s="37">
         <v>1000</v>
       </c>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="104"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="147"/>
+      <c r="N53" s="147"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="147"/>
       <c r="Q53" s="43"/>
       <c r="R53" s="43"/>
       <c r="S53" s="43"/>
@@ -7555,25 +7853,25 @@
     </row>
     <row r="54" spans="2:27" ht="12.75" customHeight="1">
       <c r="B54" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="37" t="s">
-        <v>60</v>
-      </c>
       <c r="D54" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I54" s="37">
         <f>10^12</f>
@@ -7581,11 +7879,11 @@
       </c>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="104"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="104"/>
+      <c r="L54" s="147"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="147"/>
+      <c r="O54" s="147"/>
+      <c r="P54" s="147"/>
       <c r="Q54" s="43"/>
       <c r="R54" s="43"/>
       <c r="S54" s="43"/>
@@ -7600,34 +7898,34 @@
     </row>
     <row r="55" spans="2:27" ht="12.75" customHeight="1">
       <c r="B55" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>90</v>
-      </c>
       <c r="H55" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I55" s="37"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="147"/>
+      <c r="N55" s="147"/>
+      <c r="O55" s="147"/>
+      <c r="P55" s="147"/>
       <c r="Q55" s="43"/>
       <c r="R55" s="43"/>
       <c r="S55" s="43"/>
@@ -7642,34 +7940,34 @@
     </row>
     <row r="56" spans="2:27" ht="12.75" customHeight="1">
       <c r="B56" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>193</v>
-      </c>
       <c r="H56" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I56" s="37"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
       <c r="Q56" s="43"/>
       <c r="R56" s="43"/>
       <c r="S56" s="43"/>
@@ -7684,32 +7982,32 @@
     </row>
     <row r="57" spans="2:27" ht="12.75" customHeight="1">
       <c r="B57" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="104"/>
-      <c r="O57" s="104"/>
-      <c r="P57" s="104"/>
+      <c r="L57" s="147"/>
+      <c r="M57" s="147"/>
+      <c r="N57" s="147"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="147"/>
       <c r="Q57" s="43"/>
       <c r="R57" s="43"/>
       <c r="S57" s="43"/>
@@ -7724,34 +8022,34 @@
     </row>
     <row r="58" spans="2:27" ht="12.75" customHeight="1">
       <c r="B58" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>90</v>
-      </c>
       <c r="H58" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I58" s="37"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="104"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="104"/>
-      <c r="P58" s="104"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
       <c r="Q58" s="43"/>
       <c r="R58" s="43"/>
       <c r="S58" s="43"/>
@@ -7766,32 +8064,32 @@
     </row>
     <row r="59" spans="2:27" ht="12.75" customHeight="1">
       <c r="B59" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>199</v>
       </c>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="104"/>
-      <c r="N59" s="104"/>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="147"/>
+      <c r="N59" s="147"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
       <c r="Q59" s="43"/>
       <c r="R59" s="43"/>
       <c r="S59" s="43"/>
@@ -7806,34 +8104,34 @@
     </row>
     <row r="60" spans="2:27" ht="12.75" customHeight="1">
       <c r="B60" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>193</v>
-      </c>
       <c r="H60" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I60" s="37"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
-      <c r="L60" s="104"/>
-      <c r="M60" s="104"/>
-      <c r="N60" s="104"/>
-      <c r="O60" s="104"/>
-      <c r="P60" s="104"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="147"/>
+      <c r="N60" s="147"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="147"/>
       <c r="Q60" s="43"/>
       <c r="R60" s="43"/>
       <c r="S60" s="43"/>
@@ -7848,34 +8146,34 @@
     </row>
     <row r="61" spans="2:27" ht="12.75" customHeight="1">
       <c r="B61" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>60</v>
-      </c>
       <c r="D61" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I61" s="37"/>
       <c r="J61" s="38"/>
       <c r="K61" s="38"/>
-      <c r="L61" s="104"/>
-      <c r="M61" s="104"/>
-      <c r="N61" s="104"/>
-      <c r="O61" s="104"/>
-      <c r="P61" s="104"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="147"/>
+      <c r="P61" s="147"/>
       <c r="Q61" s="43"/>
       <c r="R61" s="43"/>
       <c r="S61" s="43"/>
@@ -7890,34 +8188,34 @@
     </row>
     <row r="62" spans="2:27" ht="12.75" customHeight="1">
       <c r="B62" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I62" s="37"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="104"/>
-      <c r="P62" s="104"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="147"/>
+      <c r="P62" s="147"/>
       <c r="Q62" s="43"/>
       <c r="R62" s="43"/>
       <c r="S62" s="43"/>
@@ -7932,34 +8230,34 @@
     </row>
     <row r="63" spans="2:27" ht="12.75" customHeight="1">
       <c r="B63" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="37" t="s">
-        <v>21</v>
-      </c>
       <c r="G63" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I63" s="37"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
       <c r="Q63" s="43"/>
       <c r="R63" s="43"/>
       <c r="S63" s="43"/>
@@ -7974,32 +8272,32 @@
     </row>
     <row r="64" spans="2:27" ht="12.75" customHeight="1">
       <c r="B64" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="H64" s="35" t="s">
-        <v>202</v>
-      </c>
       <c r="I64" s="35"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="104"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="147"/>
+      <c r="P64" s="147"/>
       <c r="Q64" s="43"/>
       <c r="R64" s="43"/>
       <c r="S64" s="43"/>
@@ -8014,32 +8312,32 @@
     </row>
     <row r="65" spans="2:27" ht="12.75" customHeight="1">
       <c r="B65" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E65" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="35" t="s">
+      <c r="H65" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H65" s="35" t="s">
-        <v>205</v>
-      </c>
       <c r="I65" s="35"/>
-      <c r="L65" s="104"/>
-      <c r="M65" s="104"/>
-      <c r="N65" s="104"/>
-      <c r="O65" s="104"/>
-      <c r="P65" s="104"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
+      <c r="N65" s="147"/>
+      <c r="O65" s="147"/>
+      <c r="P65" s="147"/>
       <c r="Q65" s="43"/>
       <c r="R65" s="43"/>
       <c r="S65" s="43"/>
@@ -8054,32 +8352,32 @@
     </row>
     <row r="66" spans="2:27" ht="12.75" customHeight="1">
       <c r="B66" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="D66" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="35" t="s">
+      <c r="H66" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="H66" s="35" t="s">
-        <v>209</v>
-      </c>
       <c r="I66" s="35"/>
-      <c r="L66" s="104"/>
-      <c r="M66" s="104"/>
-      <c r="N66" s="104"/>
-      <c r="O66" s="104"/>
-      <c r="P66" s="104"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="147"/>
+      <c r="P66" s="147"/>
       <c r="Q66" s="43"/>
       <c r="R66" s="43"/>
       <c r="S66" s="43"/>
@@ -8094,24 +8392,24 @@
     </row>
     <row r="67" spans="2:27" ht="12.75" customHeight="1">
       <c r="B67" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104"/>
-      <c r="P67" s="104"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
+      <c r="N67" s="147"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="147"/>
       <c r="Q67" s="43"/>
       <c r="R67" s="43"/>
       <c r="S67" s="43"/>
@@ -8126,24 +8424,24 @@
     </row>
     <row r="68" spans="2:27" ht="12.75" customHeight="1">
       <c r="B68" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
       <c r="G68" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="104"/>
-      <c r="O68" s="104"/>
-      <c r="P68" s="104"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="147"/>
       <c r="Q68" s="43"/>
       <c r="R68" s="43"/>
       <c r="S68" s="43"/>
@@ -8158,10 +8456,10 @@
     </row>
     <row r="69" spans="2:27" ht="12.75" customHeight="1">
       <c r="B69" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -8169,11 +8467,11 @@
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
-      <c r="L69" s="104"/>
-      <c r="M69" s="104"/>
-      <c r="N69" s="104"/>
-      <c r="O69" s="104"/>
-      <c r="P69" s="104"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="147"/>
+      <c r="N69" s="147"/>
+      <c r="O69" s="147"/>
+      <c r="P69" s="147"/>
       <c r="Q69" s="43"/>
       <c r="R69" s="43"/>
       <c r="S69" s="43"/>
@@ -8188,32 +8486,32 @@
     </row>
     <row r="70" spans="2:27" ht="12.75" customHeight="1">
       <c r="B70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>18</v>
-      </c>
       <c r="D70" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="35" t="s">
-        <v>21</v>
-      </c>
       <c r="G70" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I70" s="35"/>
-      <c r="L70" s="104"/>
-      <c r="M70" s="104"/>
-      <c r="N70" s="104"/>
-      <c r="O70" s="104"/>
-      <c r="P70" s="104"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
+      <c r="O70" s="147"/>
+      <c r="P70" s="147"/>
       <c r="Q70" s="43"/>
       <c r="R70" s="43"/>
       <c r="S70" s="43"/>
@@ -8228,32 +8526,32 @@
     </row>
     <row r="71" spans="2:27" ht="12.75" customHeight="1">
       <c r="B71" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>193</v>
-      </c>
       <c r="H71" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I71" s="35"/>
-      <c r="L71" s="104"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="104"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="104"/>
+      <c r="L71" s="147"/>
+      <c r="M71" s="147"/>
+      <c r="N71" s="147"/>
+      <c r="O71" s="147"/>
+      <c r="P71" s="147"/>
       <c r="Q71" s="43"/>
       <c r="R71" s="43"/>
       <c r="S71" s="43"/>
@@ -8268,7 +8566,7 @@
     </row>
     <row r="72" spans="2:27" ht="12.75" customHeight="1">
       <c r="B72" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
@@ -8277,11 +8575,11 @@
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104"/>
-      <c r="N72" s="104"/>
-      <c r="O72" s="104"/>
-      <c r="P72" s="104"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="147"/>
+      <c r="N72" s="147"/>
+      <c r="O72" s="147"/>
+      <c r="P72" s="147"/>
       <c r="Q72" s="43"/>
       <c r="R72" s="43"/>
       <c r="S72" s="43"/>
@@ -8296,32 +8594,32 @@
     </row>
     <row r="73" spans="2:27" ht="12.75" customHeight="1">
       <c r="B73" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="35" t="s">
+      <c r="H73" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="H73" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="I73" s="35"/>
-      <c r="L73" s="104"/>
-      <c r="M73" s="104"/>
-      <c r="N73" s="104"/>
-      <c r="O73" s="104"/>
-      <c r="P73" s="104"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="147"/>
+      <c r="N73" s="147"/>
+      <c r="O73" s="147"/>
+      <c r="P73" s="147"/>
       <c r="Q73" s="43"/>
       <c r="R73" s="43"/>
       <c r="S73" s="43"/>
@@ -8336,24 +8634,24 @@
     </row>
     <row r="74" spans="2:27" ht="12.75" customHeight="1">
       <c r="B74" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
       <c r="G74" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H74" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="H74" s="35" t="s">
-        <v>222</v>
-      </c>
       <c r="I74" s="35"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="104"/>
-      <c r="N74" s="104"/>
-      <c r="O74" s="104"/>
-      <c r="P74" s="104"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="147"/>
+      <c r="N74" s="147"/>
+      <c r="O74" s="147"/>
+      <c r="P74" s="147"/>
       <c r="Q74" s="43"/>
       <c r="R74" s="43"/>
       <c r="S74" s="43"/>
@@ -8368,30 +8666,30 @@
     </row>
     <row r="75" spans="2:27" ht="12.75" customHeight="1">
       <c r="B75" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="52" t="s">
         <v>223</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>224</v>
       </c>
       <c r="H75" s="32"/>
       <c r="I75" s="32"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="104"/>
-      <c r="O75" s="104"/>
-      <c r="P75" s="104"/>
+      <c r="L75" s="147"/>
+      <c r="M75" s="147"/>
+      <c r="N75" s="147"/>
+      <c r="O75" s="147"/>
+      <c r="P75" s="147"/>
       <c r="Q75" s="43"/>
       <c r="R75" s="43"/>
       <c r="S75" s="43"/>
@@ -8406,30 +8704,30 @@
     </row>
     <row r="76" spans="2:27" ht="12.75" customHeight="1">
       <c r="B76" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="H76" s="32"/>
       <c r="I76" s="32"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="104"/>
-      <c r="N76" s="104"/>
-      <c r="O76" s="104"/>
-      <c r="P76" s="104"/>
+      <c r="L76" s="147"/>
+      <c r="M76" s="147"/>
+      <c r="N76" s="147"/>
+      <c r="O76" s="147"/>
+      <c r="P76" s="147"/>
       <c r="Q76" s="43"/>
       <c r="R76" s="43"/>
       <c r="S76" s="43"/>
@@ -8444,32 +8742,32 @@
     </row>
     <row r="77" spans="2:27" ht="12.75" customHeight="1">
       <c r="B77" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="41" t="s">
+      <c r="H77" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="H77" s="41" t="s">
-        <v>229</v>
-      </c>
       <c r="I77" s="32"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="104"/>
-      <c r="N77" s="104"/>
-      <c r="O77" s="104"/>
-      <c r="P77" s="104"/>
+      <c r="L77" s="147"/>
+      <c r="M77" s="147"/>
+      <c r="N77" s="147"/>
+      <c r="O77" s="147"/>
+      <c r="P77" s="147"/>
       <c r="Q77" s="43"/>
       <c r="R77" s="43"/>
       <c r="S77" s="43"/>
@@ -8484,31 +8782,31 @@
     </row>
     <row r="78" spans="2:27" ht="12.75" customHeight="1">
       <c r="B78" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="38" t="s">
-        <v>226</v>
-      </c>
       <c r="H78" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="L78" s="104"/>
-      <c r="M78" s="104"/>
-      <c r="N78" s="104"/>
-      <c r="O78" s="104"/>
-      <c r="P78" s="104"/>
+        <v>228</v>
+      </c>
+      <c r="L78" s="147"/>
+      <c r="M78" s="147"/>
+      <c r="N78" s="147"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="147"/>
       <c r="Q78" s="43"/>
       <c r="R78" s="43"/>
       <c r="S78" s="43"/>
@@ -8523,31 +8821,31 @@
     </row>
     <row r="79" spans="2:27" ht="12.75" customHeight="1">
       <c r="B79" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="38" t="s">
+      <c r="H79" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="H79" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="L79" s="104"/>
-      <c r="M79" s="104"/>
-      <c r="N79" s="104"/>
-      <c r="O79" s="104"/>
-      <c r="P79" s="104"/>
+      <c r="L79" s="147"/>
+      <c r="M79" s="147"/>
+      <c r="N79" s="147"/>
+      <c r="O79" s="147"/>
+      <c r="P79" s="147"/>
       <c r="Q79" s="43"/>
       <c r="R79" s="43"/>
       <c r="S79" s="43"/>
@@ -8562,31 +8860,31 @@
     </row>
     <row r="80" spans="2:27" ht="12.75" customHeight="1">
       <c r="B80" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="C80" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>234</v>
-      </c>
       <c r="H80" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="L80" s="104"/>
-      <c r="M80" s="104"/>
-      <c r="N80" s="104"/>
-      <c r="O80" s="104"/>
-      <c r="P80" s="104"/>
+        <v>231</v>
+      </c>
+      <c r="L80" s="147"/>
+      <c r="M80" s="147"/>
+      <c r="N80" s="147"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
       <c r="Q80" s="43"/>
       <c r="R80" s="43"/>
       <c r="S80" s="43"/>
@@ -8601,31 +8899,31 @@
     </row>
     <row r="81" spans="2:27" ht="12.75" customHeight="1">
       <c r="B81" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="38" t="s">
+      <c r="H81" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="H81" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="L81" s="104"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="104"/>
-      <c r="O81" s="104"/>
-      <c r="P81" s="104"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="147"/>
+      <c r="N81" s="147"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="147"/>
       <c r="Q81" s="43"/>
       <c r="R81" s="43"/>
       <c r="S81" s="43"/>
@@ -8640,25 +8938,25 @@
     </row>
     <row r="82" spans="2:27" ht="12.75" customHeight="1">
       <c r="B82" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="L82" s="104"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="104"/>
-      <c r="O82" s="104"/>
-      <c r="P82" s="104"/>
+        <v>236</v>
+      </c>
+      <c r="L82" s="147"/>
+      <c r="M82" s="147"/>
+      <c r="N82" s="147"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="147"/>
       <c r="Q82" s="43"/>
       <c r="R82" s="43"/>
       <c r="S82" s="43"/>
@@ -8673,31 +8971,31 @@
     </row>
     <row r="83" spans="2:27" ht="12.75" customHeight="1">
       <c r="B83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
         <v>240</v>
       </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>241</v>
       </c>
-      <c r="H83" t="s">
-        <v>242</v>
-      </c>
-      <c r="L83" s="104"/>
-      <c r="M83" s="104"/>
-      <c r="N83" s="104"/>
-      <c r="O83" s="104"/>
-      <c r="P83" s="104"/>
+      <c r="L83" s="147"/>
+      <c r="M83" s="147"/>
+      <c r="N83" s="147"/>
+      <c r="O83" s="147"/>
+      <c r="P83" s="147"/>
       <c r="Q83" s="43"/>
       <c r="R83" s="43"/>
       <c r="S83" s="43"/>
@@ -8712,31 +9010,31 @@
     </row>
     <row r="84" spans="2:27" ht="12.75" customHeight="1">
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L84" s="104"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104"/>
-      <c r="O84" s="104"/>
-      <c r="P84" s="104"/>
+        <v>196</v>
+      </c>
+      <c r="L84" s="147"/>
+      <c r="M84" s="147"/>
+      <c r="N84" s="147"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="147"/>
       <c r="Q84" s="43"/>
       <c r="R84" s="43"/>
       <c r="S84" s="43"/>
@@ -8751,37 +9049,37 @@
     </row>
     <row r="85" spans="2:27" ht="12.75" customHeight="1">
       <c r="B85" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
-      <c r="N85" s="104"/>
-      <c r="O85" s="104">
+      <c r="L85" s="147"/>
+      <c r="M85" s="147"/>
+      <c r="N85" s="147"/>
+      <c r="O85" s="147">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="P85" s="104"/>
+      <c r="P85" s="147"/>
       <c r="Q85" s="43"/>
       <c r="R85" s="43"/>
       <c r="S85" s="43"/>
@@ -8795,11 +9093,11 @@
       <c r="AA85" s="43"/>
     </row>
     <row r="86" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L86" s="104"/>
-      <c r="M86" s="104"/>
-      <c r="N86" s="104"/>
-      <c r="O86" s="104"/>
-      <c r="P86" s="104"/>
+      <c r="L86" s="147"/>
+      <c r="M86" s="147"/>
+      <c r="N86" s="147"/>
+      <c r="O86" s="147"/>
+      <c r="P86" s="147"/>
       <c r="Q86" s="43"/>
       <c r="R86" s="43"/>
       <c r="S86" s="43"/>
@@ -8813,11 +9111,11 @@
       <c r="AA86" s="43"/>
     </row>
     <row r="87" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L87" s="104"/>
-      <c r="M87" s="104"/>
-      <c r="N87" s="104"/>
-      <c r="O87" s="104"/>
-      <c r="P87" s="104"/>
+      <c r="L87" s="147"/>
+      <c r="M87" s="147"/>
+      <c r="N87" s="147"/>
+      <c r="O87" s="147"/>
+      <c r="P87" s="147"/>
       <c r="Q87" s="43"/>
       <c r="R87" s="43"/>
       <c r="S87" s="43"/>
@@ -8908,754 +9206,754 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B3" s="148" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B3" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
     </row>
     <row r="15" spans="2:21" ht="12.75" customHeight="1">
       <c r="B15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="F15" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>253</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>254</v>
       </c>
-      <c r="E19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
     </row>
     <row r="20" spans="2:15">
       <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" t="s">
         <v>256</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>257</v>
       </c>
-      <c r="E20" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
         <v>259</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" t="s">
         <v>261</v>
       </c>
-      <c r="E22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
         <v>263</v>
       </c>
-      <c r="D23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
     </row>
     <row r="33" spans="5:15">
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
     </row>
     <row r="34" spans="5:15">
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
     </row>
     <row r="35" spans="5:15">
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
     </row>
     <row r="36" spans="5:15" ht="14">
       <c r="E36" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
+        <v>443</v>
+      </c>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
     </row>
     <row r="37" spans="5:15" ht="14">
       <c r="E37" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
+        <v>444</v>
+      </c>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="147"/>
     </row>
     <row r="38" spans="5:15">
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
     </row>
     <row r="39" spans="5:15">
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
     </row>
     <row r="40" spans="5:15">
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
     </row>
     <row r="41" spans="5:15">
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
     </row>
     <row r="42" spans="5:15">
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
     </row>
     <row r="43" spans="5:15">
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="104"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="147"/>
     </row>
     <row r="44" spans="5:15">
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
     </row>
     <row r="45" spans="5:15">
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
     </row>
     <row r="46" spans="5:15">
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
     </row>
     <row r="47" spans="5:15">
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
     </row>
     <row r="48" spans="5:15">
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
     </row>
     <row r="49" spans="6:15">
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="147"/>
     </row>
     <row r="50" spans="6:15">
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
     </row>
     <row r="51" spans="6:15">
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="104"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="104"/>
-      <c r="N51" s="104"/>
-      <c r="O51" s="104"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
     </row>
     <row r="52" spans="6:15">
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="104"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9672,7 +9970,7 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -9691,7 +9989,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -9709,30 +10007,24 @@
         <v>4</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>251</v>
+        <v>462</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="31"/>
@@ -9747,32 +10039,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="54">
         <v>1</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="56"/>
+        <v>267</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>470</v>
+      </c>
       <c r="H3" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="57"/>
       <c r="K3" s="40"/>
       <c r="L3" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9780,26 +10074,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="56"/>
+        <v>268</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="H4" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="57"/>
       <c r="K4" s="40"/>
       <c r="L4" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9808,15 +10104,17 @@
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="31" t="s">
+        <v>463</v>
+      </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="57"/>
@@ -9829,15 +10127,17 @@
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>464</v>
+      </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="57"/>
@@ -9850,15 +10150,17 @@
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>465</v>
+      </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="57"/>
@@ -9867,834 +10169,840 @@
     </row>
     <row r="8" spans="1:12">
       <c r="D8" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="D10" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>278</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="D11" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="D12" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>282</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="D13" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>284</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="D14" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="D15" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="D16" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:6">
       <c r="D30" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="4:6">
       <c r="D31" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="4:6">
       <c r="D33" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>303</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="4:6">
       <c r="D35" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="4:6">
       <c r="D36" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="4:6">
       <c r="D37" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="4:6">
       <c r="D39" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="F41" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="4:6">
       <c r="F42" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="4:6">
       <c r="F43" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="4:6">
       <c r="F44" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="4:6">
       <c r="F45" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="4:6">
       <c r="F46" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="4:6">
       <c r="F47" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="4:6">
       <c r="F48" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="6:6">
       <c r="F140" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" s="37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="6:6">
       <c r="F145" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" s="37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -10718,103 +11026,103 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044C5E5-FC80-4D47-9707-91C2D9191BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C51AA7-6411-EA40-98C3-05BFA9EACD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="477">
   <si>
     <t>Index</t>
   </si>
@@ -1599,37 +1599,10 @@
     <t>S &amp; P 500 in real terms</t>
   </si>
   <si>
-    <t>Dolllar dollar bill yo</t>
-  </si>
-  <si>
-    <t>Big rektums</t>
-  </si>
-  <si>
     <t>SPX/CPI</t>
   </si>
   <si>
     <t>U.S M2 Monetary aggregate</t>
-  </si>
-  <si>
-    <t>Rate of cunts what lost jobs, got rekt</t>
-  </si>
-  <si>
-    <t>Gross domestic income (GDI)</t>
-  </si>
-  <si>
-    <t>Still rekt cunts after some time.</t>
-  </si>
-  <si>
-    <t>TLAACBW027SBOG</t>
-  </si>
-  <si>
-    <t>Dunno what did shit id…</t>
-  </si>
-  <si>
-    <t>Dunno bro….............</t>
-  </si>
-  <si>
-    <t>a.u</t>
   </si>
   <si>
     <t>1990-01-01</t>
@@ -2315,29 +2288,125 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2364,21 +2433,21 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2388,119 +2457,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2916,7 +2889,7 @@
   <dimension ref="A1:AJ209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2982,7 +2955,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>19</v>
@@ -2991,7 +2964,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H2" s="75" t="s">
         <v>196</v>
@@ -3012,7 +2985,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>99</v>
@@ -3042,7 +3015,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>282</v>
@@ -3051,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H4" s="75" t="s">
         <v>471</v>
@@ -3088,9 +3061,7 @@
       <c r="H5" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="I5" s="78" t="s">
-        <v>469</v>
-      </c>
+      <c r="I5" s="78"/>
       <c r="J5" s="74" t="s">
         <v>43</v>
       </c>
@@ -3115,14 +3086,12 @@
         <v>20</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H6" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="I6" s="78" t="s">
-        <v>469</v>
-      </c>
+      <c r="I6" s="78"/>
       <c r="J6" s="76" t="s">
         <v>43</v>
       </c>
@@ -3131,215 +3100,139 @@
       <c r="A7" s="81">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>477</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>469</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>43</v>
-      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:36" ht="18" customHeight="1">
       <c r="A8" s="82">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>478</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>469</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>43</v>
-      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:36" ht="18" customHeight="1">
       <c r="A9" s="81">
         <v>8</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>474</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>469</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>43</v>
-      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:36" ht="18" customHeight="1">
       <c r="A10" s="82">
         <v>9</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>480</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>147</v>
-      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
-      <c r="G10" s="75" t="s">
-        <v>481</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>483</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>469</v>
-      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:36" ht="18" customHeight="1">
       <c r="A11" s="81">
         <v>10</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
-      <c r="G11" s="75" t="s">
-        <v>482</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>483</v>
-      </c>
-      <c r="I11" s="85" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:36" ht="18" customHeight="1">
+      <c r="A12" s="133" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H12" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="142" t="s">
         <v>469</v>
       </c>
-      <c r="J11" s="76"/>
-    </row>
-    <row r="12" spans="1:36" ht="18" customHeight="1">
-      <c r="A12" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>449</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>432</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>451</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="90" t="s">
-        <v>469</v>
-      </c>
-      <c r="J12" s="107" t="s">
+      <c r="J12" s="137" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="108"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:36" ht="18" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="108"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="138"/>
     </row>
     <row r="15" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="109"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:36" ht="21" customHeight="1">
       <c r="A16" s="83" t="s">
@@ -3438,9 +3331,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="8">
-        <v>34700</v>
-      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -3579,170 +3470,170 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="123" t="s">
         <v>446</v>
       </c>
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="100" t="s">
         <v>450</v>
       </c>
-      <c r="E27" s="137" t="s">
+      <c r="E27" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="140" t="s">
         <v>447</v>
       </c>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="141" t="s">
         <v>448</v>
       </c>
-      <c r="H27" s="127" t="s">
+      <c r="H27" s="121" t="s">
         <v>453</v>
       </c>
-      <c r="I27" s="105" t="s">
+      <c r="I27" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="J27" s="105" t="s">
+      <c r="J27" s="100" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A28" s="129"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A29" s="129"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A30" s="129"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A31" s="129"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A32" s="129"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
     </row>
     <row r="34" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A34" s="134"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="136"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="99"/>
     </row>
     <row r="35" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="125" t="s">
         <v>456</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C36" s="93" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:13" ht="16">
       <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
@@ -3750,17 +3641,17 @@
       <c r="A38" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="115" t="s">
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="110" t="s">
         <v>435</v>
       </c>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
       <c r="K38" s="65"/>
       <c r="L38" s="65"/>
     </row>
@@ -3768,21 +3659,21 @@
       <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="93" t="s">
         <v>472</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132" t="s">
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="113" t="s">
+      <c r="G39" s="96"/>
+      <c r="H39" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="64"/>
       <c r="L39" s="64"/>
       <c r="M39" s="64"/>
@@ -3794,80 +3685,80 @@
       <c r="B40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="63"/>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="107" t="s">
         <v>455</v>
       </c>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
       <c r="K40" s="64"/>
       <c r="L40" s="64"/>
       <c r="M40" s="64"/>
     </row>
     <row r="41" spans="1:13" ht="13" customHeight="1">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
       <c r="K41" s="64"/>
       <c r="L41" s="64"/>
       <c r="M41" s="64"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
       <c r="K42" s="64"/>
       <c r="L42" s="64"/>
       <c r="M42" s="64"/>
     </row>
     <row r="43" spans="1:13" ht="13" customHeight="1">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
       <c r="K43" s="64"/>
       <c r="L43" s="64"/>
       <c r="M43" s="64"/>
     </row>
     <row r="44" spans="1:13" ht="18">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="117" t="s">
         <v>454</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
       <c r="K44" s="64"/>
       <c r="L44" s="64"/>
       <c r="M44" s="64"/>
@@ -3879,16 +3770,16 @@
       <c r="B45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C45" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
       <c r="K45" s="64"/>
       <c r="L45" s="64"/>
       <c r="M45" s="64"/>
@@ -3898,16 +3789,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="19"/>
-      <c r="C46" s="119" t="s">
+      <c r="C46" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
       <c r="K46" s="64"/>
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
@@ -3917,41 +3808,41 @@
         <v>47</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
       <c r="K47" s="64"/>
       <c r="L47" s="64"/>
       <c r="M47" s="64"/>
     </row>
     <row r="48" spans="1:13" ht="13" customHeight="1">
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
     <row r="49" spans="1:14" ht="25" customHeight="1">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="105" t="s">
         <v>436</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
@@ -3963,16 +3854,16 @@
       <c r="B50" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
@@ -3985,25 +3876,25 @@
       <c r="B51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="145" t="s">
+      <c r="C51" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
       <c r="K51" s="64"/>
       <c r="L51" s="64"/>
       <c r="M51" s="64"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" ht="13" customHeight="1">
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
       <c r="K52" s="64"/>
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
@@ -4013,19 +3904,19 @@
       <c r="A53" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="141" t="s">
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
       <c r="K53" s="66"/>
       <c r="L53" s="66"/>
       <c r="M53" s="66"/>
@@ -4037,28 +3928,28 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
       <c r="K54" s="66"/>
       <c r="L54" s="66"/>
       <c r="M54" s="66"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14">
@@ -4176,14 +4067,14 @@
     <row r="64" spans="1:14" ht="13" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
@@ -4245,14 +4136,14 @@
       <c r="N68" s="13"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="140"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
@@ -5800,16 +5691,18 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="F53:J56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="A49:G49"/>
     <mergeCell ref="H40:J52"/>
     <mergeCell ref="H39:J39"/>
@@ -5826,25 +5719,23 @@
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E36:J37"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
     <mergeCell ref="I27:I33"/>
     <mergeCell ref="J27:J33"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="I12:I15"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="F53:J56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="C51:G51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B45" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB1A88-348E-F545-B1E1-6D8BAC85583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA8EA2-6C6A-184F-A6EB-2CB6C29C3F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2594,7 +2594,7 @@
   <dimension ref="A1:AJ209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2657,7 +2657,7 @@
         <v>469</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
@@ -2685,7 +2685,7 @@
         <v>468</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>12</v>
@@ -2713,7 +2713,7 @@
         <v>476</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA8EA2-6C6A-184F-A6EB-2CB6C29C3F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9A856-9EA5-5445-885C-3799C9669F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="480">
   <si>
     <t>Index</t>
   </si>
@@ -1613,10 +1613,16 @@
     <t>Interest Paid on home loans in Australia</t>
   </si>
   <si>
-    <t>A2422351V</t>
-  </si>
-  <si>
     <t>Consumption of Fixed Capital (Aus)</t>
+  </si>
+  <si>
+    <t>A130118747J</t>
+  </si>
+  <si>
+    <t>A3605929A</t>
+  </si>
+  <si>
+    <t>Rent price expenditures..</t>
   </si>
 </sst>
 </file>
@@ -2221,6 +2227,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2233,9 +2308,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2255,69 +2327,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2326,9 +2335,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2594,7 +2600,7 @@
   <dimension ref="A1:AJ209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -2685,7 +2691,7 @@
         <v>468</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>467</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>12</v>
@@ -2710,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>467</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
@@ -2725,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>473</v>
@@ -2737,13 +2743,27 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>473</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="9"/>
     </row>
@@ -2832,72 +2852,72 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:36" ht="18" customHeight="1">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="88" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="90"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:36" ht="18" customHeight="1">
-      <c r="A14" s="115"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="90"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="90"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:36" ht="21" customHeight="1">
       <c r="A16" s="18" t="s">
@@ -3129,136 +3149,136 @@
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="109" t="s">
+      <c r="E27" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="109" t="s">
+      <c r="H27" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="110" t="s">
+      <c r="J27" s="91" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A29" s="112"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
     </row>
     <row r="34" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
     </row>
     <row r="35" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
@@ -3267,32 +3287,32 @@
       <c r="B36" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
     </row>
     <row r="37" spans="1:13" ht="16">
       <c r="A37" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="31"/>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
     </row>
@@ -3300,17 +3320,17 @@
       <c r="A38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98" t="s">
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
@@ -3318,21 +3338,21 @@
       <c r="A39" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="100"/>
-      <c r="H39" s="101" t="s">
+      <c r="G39" s="106"/>
+      <c r="H39" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
@@ -3344,80 +3364,80 @@
       <c r="B40" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="90" t="s">
+      <c r="H40" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:13" ht="18">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
@@ -3429,16 +3449,16 @@
       <c r="B45" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
@@ -3448,16 +3468,16 @@
         <v>74</v>
       </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="94" t="s">
+      <c r="C46" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
@@ -3467,41 +3487,41 @@
         <v>76</v>
       </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1">
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
@@ -3513,16 +3533,16 @@
       <c r="B50" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
@@ -3535,25 +3555,25 @@
       <c r="B51" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="20"/>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
@@ -3563,19 +3583,19 @@
       <c r="A53" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="87" t="s">
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
@@ -3587,28 +3607,28 @@
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
       <c r="N56" s="20"/>
     </row>
     <row r="57" spans="1:14">
@@ -3726,14 +3746,14 @@
     <row r="64" spans="1:14" ht="12.75" customHeight="1">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
@@ -3795,14 +3815,14 @@
       <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
@@ -5350,37 +5370,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="J27:J33"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="F53:J56"/>
     <mergeCell ref="C64:J64"/>
@@ -5395,6 +5384,37 @@
     <mergeCell ref="A49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B45" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -7011,13 +7031,13 @@
       <c r="I43" s="15"/>
       <c r="J43" s="62"/>
       <c r="K43" s="62"/>
-      <c r="L43" s="117" t="s">
+      <c r="L43" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
       <c r="S43" s="66"/>
@@ -7049,13 +7069,13 @@
       <c r="I44" s="15"/>
       <c r="J44" s="62"/>
       <c r="K44" s="62"/>
-      <c r="L44" s="118" t="s">
+      <c r="L44" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
       <c r="Q44" s="66"/>
       <c r="R44" s="66"/>
       <c r="S44" s="66"/>
@@ -7087,11 +7107,11 @@
       <c r="I45" s="15"/>
       <c r="J45" s="62"/>
       <c r="K45" s="62"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
       <c r="S45" s="66"/>
@@ -7123,11 +7143,11 @@
       <c r="I46" s="15"/>
       <c r="J46" s="62"/>
       <c r="K46" s="62"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
       <c r="S46" s="66"/>
@@ -7159,11 +7179,11 @@
       <c r="I47" s="15"/>
       <c r="J47" s="62"/>
       <c r="K47" s="62"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
       <c r="S47" s="66"/>
@@ -7189,11 +7209,11 @@
       <c r="I48" s="15"/>
       <c r="J48" s="62"/>
       <c r="K48" s="62"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="119"/>
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
       <c r="S48" s="66"/>
@@ -7231,11 +7251,11 @@
       <c r="I49" s="15"/>
       <c r="J49" s="62"/>
       <c r="K49" s="62"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="119"/>
+      <c r="P49" s="119"/>
       <c r="Q49" s="66"/>
       <c r="R49" s="66"/>
       <c r="S49" s="66"/>
@@ -7265,11 +7285,11 @@
       <c r="I50" s="15"/>
       <c r="J50" s="62"/>
       <c r="K50" s="62"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
       <c r="S50" s="66"/>
@@ -7299,11 +7319,11 @@
       <c r="I51" s="15"/>
       <c r="J51" s="62"/>
       <c r="K51" s="62"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
       <c r="S51" s="66"/>
@@ -7343,11 +7363,11 @@
       </c>
       <c r="J52" s="62"/>
       <c r="K52" s="62"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="119"/>
       <c r="Q52" s="66"/>
       <c r="R52" s="66"/>
       <c r="S52" s="66"/>
@@ -7387,11 +7407,11 @@
       </c>
       <c r="J53" s="62"/>
       <c r="K53" s="62"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
       <c r="Q53" s="66"/>
       <c r="R53" s="66"/>
       <c r="S53" s="66"/>
@@ -7432,11 +7452,11 @@
       </c>
       <c r="J54" s="62"/>
       <c r="K54" s="62"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="119"/>
       <c r="Q54" s="66"/>
       <c r="R54" s="66"/>
       <c r="S54" s="66"/>
@@ -7474,11 +7494,11 @@
       <c r="I55" s="15"/>
       <c r="J55" s="62"/>
       <c r="K55" s="62"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
       <c r="Q55" s="66"/>
       <c r="R55" s="66"/>
       <c r="S55" s="66"/>
@@ -7516,11 +7536,11 @@
       <c r="I56" s="15"/>
       <c r="J56" s="62"/>
       <c r="K56" s="62"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
       <c r="Q56" s="66"/>
       <c r="R56" s="66"/>
       <c r="S56" s="66"/>
@@ -7556,11 +7576,11 @@
       <c r="I57" s="15"/>
       <c r="J57" s="62"/>
       <c r="K57" s="62"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="119"/>
+      <c r="N57" s="119"/>
+      <c r="O57" s="119"/>
+      <c r="P57" s="119"/>
       <c r="Q57" s="66"/>
       <c r="R57" s="66"/>
       <c r="S57" s="66"/>
@@ -7598,11 +7618,11 @@
       <c r="I58" s="15"/>
       <c r="J58" s="62"/>
       <c r="K58" s="62"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="119"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="119"/>
       <c r="Q58" s="66"/>
       <c r="R58" s="66"/>
       <c r="S58" s="66"/>
@@ -7638,11 +7658,11 @@
       <c r="I59" s="15"/>
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="119"/>
+      <c r="P59" s="119"/>
       <c r="Q59" s="66"/>
       <c r="R59" s="66"/>
       <c r="S59" s="66"/>
@@ -7680,11 +7700,11 @@
       <c r="I60" s="15"/>
       <c r="J60" s="62"/>
       <c r="K60" s="62"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
       <c r="Q60" s="66"/>
       <c r="R60" s="66"/>
       <c r="S60" s="66"/>
@@ -7722,11 +7742,11 @@
       <c r="I61" s="15"/>
       <c r="J61" s="62"/>
       <c r="K61" s="62"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
       <c r="Q61" s="66"/>
       <c r="R61" s="66"/>
       <c r="S61" s="66"/>
@@ -7764,11 +7784,11 @@
       <c r="I62" s="15"/>
       <c r="J62" s="62"/>
       <c r="K62" s="62"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="119"/>
+      <c r="N62" s="119"/>
+      <c r="O62" s="119"/>
+      <c r="P62" s="119"/>
       <c r="Q62" s="66"/>
       <c r="R62" s="66"/>
       <c r="S62" s="66"/>
@@ -7806,11 +7826,11 @@
       <c r="I63" s="15"/>
       <c r="J63" s="62"/>
       <c r="K63" s="62"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="118"/>
-      <c r="O63" s="118"/>
-      <c r="P63" s="118"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
       <c r="Q63" s="66"/>
       <c r="R63" s="66"/>
       <c r="S63" s="66"/>
@@ -7846,11 +7866,11 @@
         <v>227</v>
       </c>
       <c r="I64" s="60"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="119"/>
+      <c r="O64" s="119"/>
+      <c r="P64" s="119"/>
       <c r="Q64" s="66"/>
       <c r="R64" s="66"/>
       <c r="S64" s="66"/>
@@ -7886,11 +7906,11 @@
         <v>230</v>
       </c>
       <c r="I65" s="60"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="119"/>
+      <c r="P65" s="119"/>
       <c r="Q65" s="66"/>
       <c r="R65" s="66"/>
       <c r="S65" s="66"/>
@@ -7926,11 +7946,11 @@
         <v>234</v>
       </c>
       <c r="I66" s="60"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="118"/>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
-      <c r="P66" s="118"/>
+      <c r="L66" s="119"/>
+      <c r="M66" s="119"/>
+      <c r="N66" s="119"/>
+      <c r="O66" s="119"/>
+      <c r="P66" s="119"/>
       <c r="Q66" s="66"/>
       <c r="R66" s="66"/>
       <c r="S66" s="66"/>
@@ -7958,11 +7978,11 @@
       </c>
       <c r="H67" s="60"/>
       <c r="I67" s="60"/>
-      <c r="L67" s="118"/>
-      <c r="M67" s="118"/>
-      <c r="N67" s="118"/>
-      <c r="O67" s="118"/>
-      <c r="P67" s="118"/>
+      <c r="L67" s="119"/>
+      <c r="M67" s="119"/>
+      <c r="N67" s="119"/>
+      <c r="O67" s="119"/>
+      <c r="P67" s="119"/>
       <c r="Q67" s="66"/>
       <c r="R67" s="66"/>
       <c r="S67" s="66"/>
@@ -7990,11 +8010,11 @@
       </c>
       <c r="H68" s="60"/>
       <c r="I68" s="60"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="118"/>
-      <c r="N68" s="118"/>
-      <c r="O68" s="118"/>
-      <c r="P68" s="118"/>
+      <c r="L68" s="119"/>
+      <c r="M68" s="119"/>
+      <c r="N68" s="119"/>
+      <c r="O68" s="119"/>
+      <c r="P68" s="119"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="66"/>
       <c r="S68" s="66"/>
@@ -8020,11 +8040,11 @@
       <c r="G69" s="60"/>
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
-      <c r="P69" s="118"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="119"/>
+      <c r="P69" s="119"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="66"/>
       <c r="S69" s="66"/>
@@ -8060,11 +8080,11 @@
         <v>15</v>
       </c>
       <c r="I70" s="60"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
+      <c r="L70" s="119"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="119"/>
+      <c r="O70" s="119"/>
+      <c r="P70" s="119"/>
       <c r="Q70" s="66"/>
       <c r="R70" s="66"/>
       <c r="S70" s="66"/>
@@ -8100,11 +8120,11 @@
         <v>15</v>
       </c>
       <c r="I71" s="60"/>
-      <c r="L71" s="118"/>
-      <c r="M71" s="118"/>
-      <c r="N71" s="118"/>
-      <c r="O71" s="118"/>
-      <c r="P71" s="118"/>
+      <c r="L71" s="119"/>
+      <c r="M71" s="119"/>
+      <c r="N71" s="119"/>
+      <c r="O71" s="119"/>
+      <c r="P71" s="119"/>
       <c r="Q71" s="66"/>
       <c r="R71" s="66"/>
       <c r="S71" s="66"/>
@@ -8128,11 +8148,11 @@
       <c r="G72" s="60"/>
       <c r="H72" s="60"/>
       <c r="I72" s="60"/>
-      <c r="L72" s="118"/>
-      <c r="M72" s="118"/>
-      <c r="N72" s="118"/>
-      <c r="O72" s="118"/>
-      <c r="P72" s="118"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="119"/>
+      <c r="P72" s="119"/>
       <c r="Q72" s="66"/>
       <c r="R72" s="66"/>
       <c r="S72" s="66"/>
@@ -8168,11 +8188,11 @@
         <v>244</v>
       </c>
       <c r="I73" s="60"/>
-      <c r="L73" s="118"/>
-      <c r="M73" s="118"/>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
-      <c r="P73" s="118"/>
+      <c r="L73" s="119"/>
+      <c r="M73" s="119"/>
+      <c r="N73" s="119"/>
+      <c r="O73" s="119"/>
+      <c r="P73" s="119"/>
       <c r="Q73" s="66"/>
       <c r="R73" s="66"/>
       <c r="S73" s="66"/>
@@ -8200,11 +8220,11 @@
         <v>247</v>
       </c>
       <c r="I74" s="60"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="118"/>
-      <c r="N74" s="118"/>
-      <c r="O74" s="118"/>
-      <c r="P74" s="118"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="119"/>
+      <c r="O74" s="119"/>
+      <c r="P74" s="119"/>
       <c r="Q74" s="66"/>
       <c r="R74" s="66"/>
       <c r="S74" s="66"/>
@@ -8238,11 +8258,11 @@
       </c>
       <c r="H75" s="57"/>
       <c r="I75" s="57"/>
-      <c r="L75" s="118"/>
-      <c r="M75" s="118"/>
-      <c r="N75" s="118"/>
-      <c r="O75" s="118"/>
-      <c r="P75" s="118"/>
+      <c r="L75" s="119"/>
+      <c r="M75" s="119"/>
+      <c r="N75" s="119"/>
+      <c r="O75" s="119"/>
+      <c r="P75" s="119"/>
       <c r="Q75" s="66"/>
       <c r="R75" s="66"/>
       <c r="S75" s="66"/>
@@ -8276,11 +8296,11 @@
       </c>
       <c r="H76" s="57"/>
       <c r="I76" s="57"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="118"/>
-      <c r="N76" s="118"/>
-      <c r="O76" s="118"/>
-      <c r="P76" s="118"/>
+      <c r="L76" s="119"/>
+      <c r="M76" s="119"/>
+      <c r="N76" s="119"/>
+      <c r="O76" s="119"/>
+      <c r="P76" s="119"/>
       <c r="Q76" s="66"/>
       <c r="R76" s="66"/>
       <c r="S76" s="66"/>
@@ -8316,11 +8336,11 @@
         <v>254</v>
       </c>
       <c r="I77" s="57"/>
-      <c r="L77" s="118"/>
-      <c r="M77" s="118"/>
-      <c r="N77" s="118"/>
-      <c r="O77" s="118"/>
-      <c r="P77" s="118"/>
+      <c r="L77" s="119"/>
+      <c r="M77" s="119"/>
+      <c r="N77" s="119"/>
+      <c r="O77" s="119"/>
+      <c r="P77" s="119"/>
       <c r="Q77" s="66"/>
       <c r="R77" s="66"/>
       <c r="S77" s="66"/>
@@ -8355,11 +8375,11 @@
       <c r="H78" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="118"/>
-      <c r="P78" s="118"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="119"/>
+      <c r="P78" s="119"/>
       <c r="Q78" s="66"/>
       <c r="R78" s="66"/>
       <c r="S78" s="66"/>
@@ -8394,11 +8414,11 @@
       <c r="H79" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="L79" s="118"/>
-      <c r="M79" s="118"/>
-      <c r="N79" s="118"/>
-      <c r="O79" s="118"/>
-      <c r="P79" s="118"/>
+      <c r="L79" s="119"/>
+      <c r="M79" s="119"/>
+      <c r="N79" s="119"/>
+      <c r="O79" s="119"/>
+      <c r="P79" s="119"/>
       <c r="Q79" s="66"/>
       <c r="R79" s="66"/>
       <c r="S79" s="66"/>
@@ -8433,11 +8453,11 @@
       <c r="H80" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="L80" s="118"/>
-      <c r="M80" s="118"/>
-      <c r="N80" s="118"/>
-      <c r="O80" s="118"/>
-      <c r="P80" s="118"/>
+      <c r="L80" s="119"/>
+      <c r="M80" s="119"/>
+      <c r="N80" s="119"/>
+      <c r="O80" s="119"/>
+      <c r="P80" s="119"/>
       <c r="Q80" s="66"/>
       <c r="R80" s="66"/>
       <c r="S80" s="66"/>
@@ -8472,11 +8492,11 @@
       <c r="H81" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
+      <c r="L81" s="119"/>
+      <c r="M81" s="119"/>
+      <c r="N81" s="119"/>
+      <c r="O81" s="119"/>
+      <c r="P81" s="119"/>
       <c r="Q81" s="66"/>
       <c r="R81" s="66"/>
       <c r="S81" s="66"/>
@@ -8505,11 +8525,11 @@
       <c r="H82" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="L82" s="118"/>
-      <c r="M82" s="118"/>
-      <c r="N82" s="118"/>
-      <c r="O82" s="118"/>
-      <c r="P82" s="118"/>
+      <c r="L82" s="119"/>
+      <c r="M82" s="119"/>
+      <c r="N82" s="119"/>
+      <c r="O82" s="119"/>
+      <c r="P82" s="119"/>
       <c r="Q82" s="66"/>
       <c r="R82" s="66"/>
       <c r="S82" s="66"/>
@@ -8544,11 +8564,11 @@
       <c r="H83" t="s">
         <v>267</v>
       </c>
-      <c r="L83" s="118"/>
-      <c r="M83" s="118"/>
-      <c r="N83" s="118"/>
-      <c r="O83" s="118"/>
-      <c r="P83" s="118"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="119"/>
+      <c r="N83" s="119"/>
+      <c r="O83" s="119"/>
+      <c r="P83" s="119"/>
       <c r="Q83" s="66"/>
       <c r="R83" s="66"/>
       <c r="S83" s="66"/>
@@ -8583,11 +8603,11 @@
       <c r="H84" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="118"/>
-      <c r="M84" s="118"/>
-      <c r="N84" s="118"/>
-      <c r="O84" s="118"/>
-      <c r="P84" s="118"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="119"/>
+      <c r="N84" s="119"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="119"/>
       <c r="Q84" s="66"/>
       <c r="R84" s="66"/>
       <c r="S84" s="66"/>
@@ -8625,14 +8645,14 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="77"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
-      <c r="N85" s="118"/>
-      <c r="O85" s="118">
+      <c r="L85" s="119"/>
+      <c r="M85" s="119"/>
+      <c r="N85" s="119"/>
+      <c r="O85" s="119">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="P85" s="118"/>
+      <c r="P85" s="119"/>
       <c r="Q85" s="66"/>
       <c r="R85" s="66"/>
       <c r="S85" s="66"/>
@@ -8646,11 +8666,11 @@
       <c r="AA85" s="66"/>
     </row>
     <row r="86" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L86" s="118"/>
-      <c r="M86" s="118"/>
-      <c r="N86" s="118"/>
-      <c r="O86" s="118"/>
-      <c r="P86" s="118"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="119"/>
+      <c r="N86" s="119"/>
+      <c r="O86" s="119"/>
+      <c r="P86" s="119"/>
       <c r="Q86" s="66"/>
       <c r="R86" s="66"/>
       <c r="S86" s="66"/>
@@ -8664,11 +8684,11 @@
       <c r="AA86" s="66"/>
     </row>
     <row r="87" spans="2:27" ht="12.75" customHeight="1">
-      <c r="L87" s="118"/>
-      <c r="M87" s="118"/>
-      <c r="N87" s="118"/>
-      <c r="O87" s="118"/>
-      <c r="P87" s="118"/>
+      <c r="L87" s="119"/>
+      <c r="M87" s="119"/>
+      <c r="N87" s="119"/>
+      <c r="O87" s="119"/>
+      <c r="P87" s="119"/>
       <c r="Q87" s="66"/>
       <c r="R87" s="66"/>
       <c r="S87" s="66"/>
@@ -8763,267 +8783,267 @@
       </c>
     </row>
     <row r="3" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
     </row>
     <row r="15" spans="2:21" ht="12.75" customHeight="1">
       <c r="B15" t="s">
         <v>273</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="49" t="s">
@@ -9038,16 +9058,16 @@
       <c r="E18" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
@@ -9062,16 +9082,16 @@
       <c r="E19" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
     </row>
     <row r="20" spans="2:15">
       <c r="C20" t="s">
@@ -9083,16 +9103,16 @@
       <c r="E20" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
@@ -9104,16 +9124,16 @@
       <c r="D21" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" t="s">
@@ -9125,16 +9145,16 @@
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
@@ -9143,370 +9163,370 @@
       <c r="D23" t="s">
         <v>289</v>
       </c>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
     </row>
     <row r="33" spans="5:15">
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
     </row>
     <row r="34" spans="5:15">
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
     </row>
     <row r="35" spans="5:15">
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
     </row>
     <row r="36" spans="5:15" ht="14">
       <c r="E36" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
     </row>
     <row r="37" spans="5:15" ht="14">
       <c r="E37" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
     </row>
     <row r="38" spans="5:15">
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
     </row>
     <row r="39" spans="5:15">
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="118"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
     </row>
     <row r="40" spans="5:15">
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
     </row>
     <row r="41" spans="5:15">
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="119"/>
     </row>
     <row r="42" spans="5:15">
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
     </row>
     <row r="43" spans="5:15">
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="119"/>
     </row>
     <row r="44" spans="5:15">
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
     </row>
     <row r="45" spans="5:15">
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
     </row>
     <row r="46" spans="5:15">
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
     </row>
     <row r="47" spans="5:15">
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
     </row>
     <row r="48" spans="5:15">
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
     </row>
     <row r="49" spans="6:15">
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="119"/>
     </row>
     <row r="50" spans="6:15">
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
     </row>
     <row r="51" spans="6:15">
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
     </row>
     <row r="52" spans="6:15">
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9760,7 +9780,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="86" t="s">
         <v>467</v>
       </c>
       <c r="E11" s="15" t="s">

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Code\Bootleg_Macro\Macro_Chartist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9A856-9EA5-5445-885C-3799C9669F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182363F5-EE49-4CCF-B11C-A1F8135935BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter_Input" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="TemplateList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="472">
   <si>
     <t>Index</t>
   </si>
@@ -1589,40 +1590,16 @@
     <t>abs</t>
   </si>
   <si>
-    <t>A2422352W</t>
-  </si>
-  <si>
-    <t>QAUN368BIS</t>
-  </si>
-  <si>
-    <t>Average Property Prices in Australia (YoY % chage)</t>
-  </si>
-  <si>
-    <t>YoY % chage</t>
-  </si>
-  <si>
-    <t>Interest Payable on Home Loans (Aus)</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>1960-01-01</t>
-  </si>
-  <si>
-    <t>Interest Paid on home loans in Australia</t>
-  </si>
-  <si>
-    <t>Consumption of Fixed Capital (Aus)</t>
-  </si>
-  <si>
-    <t>A130118747J</t>
-  </si>
-  <si>
-    <t>A3605929A</t>
-  </si>
-  <si>
-    <t>Rent price expenditures..</t>
+    <t>Global M2 (Top 50)</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth</t>
+  </si>
+  <si>
+    <t>YoY % change (numbers not right here but shape unchanged)</t>
+  </si>
+  <si>
+    <t>2011-06-01</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2599,31 +2576,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="8" width="44" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" customHeight="1">
+    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,46 +2632,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1">
+    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>469</v>
+        <v>223</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>471</v>
+        <v>165</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1">
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>468</v>
+        <v>239</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>18</v>
@@ -2703,71 +2682,45 @@
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>472</v>
+        <v>124</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1">
+      <c r="J3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>473</v>
-      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1">
+    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>473</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="11"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1">
+    <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2781,7 +2734,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:36" ht="18" customHeight="1">
+    <row r="7" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2795,7 +2748,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1">
+    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2809,7 +2762,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:36" ht="18" customHeight="1">
+    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2823,7 +2776,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:36" ht="18" customHeight="1">
+    <row r="10" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2837,7 +2790,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:36" ht="18" customHeight="1">
+    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2851,7 +2804,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:36" ht="18" customHeight="1">
+    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
         <v>27</v>
       </c>
@@ -2883,7 +2836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="18" customHeight="1">
+    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87"/>
       <c r="B13" s="88"/>
       <c r="C13" s="89"/>
@@ -2895,7 +2848,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="88"/>
     </row>
-    <row r="14" spans="1:36" ht="18" customHeight="1">
+    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="87"/>
       <c r="B14" s="88"/>
       <c r="C14" s="89"/>
@@ -2907,7 +2860,7 @@
       <c r="I14" s="91"/>
       <c r="J14" s="88"/>
     </row>
-    <row r="15" spans="1:36" ht="25.5" customHeight="1">
+    <row r="15" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87"/>
       <c r="B15" s="88"/>
       <c r="C15" s="89"/>
@@ -2919,7 +2872,7 @@
       <c r="I15" s="91"/>
       <c r="J15" s="88"/>
     </row>
-    <row r="16" spans="1:36" ht="21" customHeight="1">
+    <row r="16" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2970,7 +2923,7 @@
       <c r="AI16" s="20"/>
       <c r="AJ16" s="20"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>11</v>
       </c>
@@ -2980,7 +2933,10 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="23">
+        <f>10^12</f>
+        <v>1000000000000</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="R17" s="20"/>
@@ -3003,7 +2959,7 @@
       <c r="AI17" s="20"/>
       <c r="AJ17" s="20"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>12</v>
       </c>
@@ -3036,7 +2992,7 @@
       <c r="AI18" s="20"/>
       <c r="AJ18" s="20"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>13</v>
       </c>
@@ -3050,7 +3006,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>14</v>
       </c>
@@ -3064,7 +3020,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>15</v>
       </c>
@@ -3078,7 +3034,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>16</v>
       </c>
@@ -3092,7 +3048,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>17</v>
       </c>
@@ -3106,7 +3062,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>18</v>
       </c>
@@ -3120,7 +3076,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>19</v>
       </c>
@@ -3134,7 +3090,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>20</v>
       </c>
@@ -3148,7 +3104,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="96" t="s">
         <v>47</v>
       </c>
@@ -3180,7 +3136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="96"/>
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
@@ -3192,7 +3148,7 @@
       <c r="I28" s="91"/>
       <c r="J28" s="91"/>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
@@ -3204,7 +3160,7 @@
       <c r="I29" s="91"/>
       <c r="J29" s="91"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="96"/>
       <c r="B30" s="97"/>
       <c r="C30" s="97"/>
@@ -3216,7 +3172,7 @@
       <c r="I30" s="91"/>
       <c r="J30" s="91"/>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96"/>
       <c r="B31" s="97"/>
       <c r="C31" s="97"/>
@@ -3228,7 +3184,7 @@
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -3240,7 +3196,7 @@
       <c r="I32" s="91"/>
       <c r="J32" s="91"/>
     </row>
-    <row r="33" spans="1:13" ht="22.5" customHeight="1">
+    <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
         <v>57</v>
       </c>
@@ -3254,7 +3210,7 @@
       <c r="I33" s="91"/>
       <c r="J33" s="91"/>
     </row>
-    <row r="34" spans="1:13" ht="22.5" customHeight="1">
+    <row r="34" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98"/>
       <c r="B34" s="98"/>
       <c r="C34" s="98"/>
@@ -3266,7 +3222,7 @@
       <c r="I34" s="98"/>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="1:13" ht="22.5" customHeight="1">
+    <row r="35" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
         <v>58</v>
       </c>
@@ -3280,12 +3236,12 @@
       <c r="I35" s="99"/>
       <c r="J35" s="99"/>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C36" s="100" t="s">
         <v>60</v>
@@ -3298,7 +3254,7 @@
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
     </row>
-    <row r="37" spans="1:13" ht="16">
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>61</v>
       </c>
@@ -3316,7 +3272,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
     </row>
-    <row r="38" spans="1:13" ht="16">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>63</v>
       </c>
@@ -3334,12 +3290,12 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C39" s="105"/>
       <c r="D39" s="105"/>
@@ -3357,7 +3313,7 @@
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>68</v>
       </c>
@@ -3380,7 +3336,7 @@
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
     </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="112"/>
       <c r="B41" s="112"/>
       <c r="C41" s="112"/>
@@ -3395,7 +3351,7 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="112"/>
       <c r="B42" s="112"/>
       <c r="C42" s="112"/>
@@ -3410,7 +3366,7 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
     </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1">
+    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="112"/>
       <c r="B43" s="112"/>
       <c r="C43" s="112"/>
@@ -3425,7 +3381,7 @@
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
     </row>
-    <row r="44" spans="1:13" ht="18">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="113" t="s">
         <v>71</v>
       </c>
@@ -3442,7 +3398,7 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
     </row>
-    <row r="45" spans="1:13" ht="16">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>72</v>
       </c>
@@ -3463,7 +3419,7 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
     </row>
-    <row r="46" spans="1:13" ht="16">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>74</v>
       </c>
@@ -3482,7 +3438,7 @@
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:13" ht="16">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>76</v>
       </c>
@@ -3501,7 +3457,7 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H48" s="88"/>
       <c r="I48" s="88"/>
       <c r="J48" s="88"/>
@@ -3509,7 +3465,7 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
     </row>
-    <row r="49" spans="1:14" ht="24.75" customHeight="1">
+    <row r="49" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="116" t="s">
         <v>78</v>
       </c>
@@ -3526,7 +3482,7 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
     </row>
-    <row r="50" spans="1:14" ht="16">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>79</v>
       </c>
@@ -3548,7 +3504,7 @@
       <c r="M50" s="34"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -3570,7 +3526,7 @@
       <c r="M51" s="34"/>
       <c r="N51" s="20"/>
     </row>
-    <row r="52" spans="1:14" ht="12.75" customHeight="1">
+    <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H52" s="88"/>
       <c r="I52" s="88"/>
       <c r="J52" s="88"/>
@@ -3579,12 +3535,12 @@
       <c r="M52" s="34"/>
       <c r="N52" s="20"/>
     </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1">
+    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="108" t="s">
-        <v>84</v>
+        <v>462</v>
       </c>
       <c r="C53" s="108"/>
       <c r="D53" s="108"/>
@@ -3601,7 +3557,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="20"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3616,14 +3572,14 @@
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F55" s="109"/>
       <c r="G55" s="109"/>
       <c r="H55" s="109"/>
       <c r="I55" s="109"/>
       <c r="J55" s="109"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F56" s="109"/>
       <c r="G56" s="109"/>
       <c r="H56" s="109"/>
@@ -3631,7 +3587,7 @@
       <c r="J56" s="109"/>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3647,7 +3603,7 @@
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3663,7 +3619,7 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3679,7 +3635,7 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" ht="12.75" customHeight="1">
+    <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="46"/>
@@ -3695,7 +3651,7 @@
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" ht="12.75" customHeight="1">
+    <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="46"/>
@@ -3711,7 +3667,7 @@
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" ht="12.75" customHeight="1">
+    <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="46"/>
@@ -3727,7 +3683,7 @@
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" ht="12.75" customHeight="1">
+    <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="46"/>
@@ -3743,7 +3699,7 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" ht="12.75" customHeight="1">
+    <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="110"/>
@@ -3759,7 +3715,7 @@
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="1:14" ht="12.75" customHeight="1">
+    <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="46"/>
@@ -3775,7 +3731,7 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" ht="12.75" customHeight="1">
+    <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="46"/>
       <c r="D66" s="46"/>
       <c r="E66" s="46"/>
@@ -3789,7 +3745,7 @@
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" ht="12.75" customHeight="1">
+    <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="46"/>
       <c r="D67" s="46"/>
       <c r="E67" s="46"/>
@@ -3803,7 +3759,7 @@
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -3814,7 +3770,7 @@
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C69" s="110"/>
       <c r="D69" s="110"/>
       <c r="E69" s="110"/>
@@ -3828,7 +3784,7 @@
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -3839,7 +3795,7 @@
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
@@ -3850,7 +3806,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -3861,7 +3817,7 @@
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -3872,7 +3828,7 @@
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -3883,7 +3839,7 @@
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
@@ -3894,7 +3850,7 @@
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -3905,7 +3861,7 @@
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -3916,7 +3872,7 @@
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
@@ -3927,7 +3883,7 @@
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
@@ -3938,7 +3894,7 @@
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -3949,7 +3905,7 @@
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="6:14">
+    <row r="81" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -3960,7 +3916,7 @@
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
     </row>
-    <row r="82" spans="6:14">
+    <row r="82" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
@@ -3971,7 +3927,7 @@
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="6:14">
+    <row r="83" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -3982,7 +3938,7 @@
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="6:14">
+    <row r="84" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
@@ -3993,7 +3949,7 @@
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
     </row>
-    <row r="85" spans="6:14">
+    <row r="85" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -4004,7 +3960,7 @@
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="6:14">
+    <row r="86" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
@@ -4015,7 +3971,7 @@
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
     </row>
-    <row r="87" spans="6:14">
+    <row r="87" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
@@ -4026,7 +3982,7 @@
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
     </row>
-    <row r="88" spans="6:14">
+    <row r="88" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
@@ -4037,7 +3993,7 @@
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
     </row>
-    <row r="89" spans="6:14">
+    <row r="89" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -4048,7 +4004,7 @@
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
     </row>
-    <row r="90" spans="6:14">
+    <row r="90" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
@@ -4059,7 +4015,7 @@
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="6:14">
+    <row r="91" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
@@ -4070,7 +4026,7 @@
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
     </row>
-    <row r="92" spans="6:14">
+    <row r="92" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
@@ -4081,7 +4037,7 @@
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
     </row>
-    <row r="93" spans="6:14">
+    <row r="93" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
@@ -4092,7 +4048,7 @@
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="6:14">
+    <row r="94" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
@@ -4103,7 +4059,7 @@
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
     </row>
-    <row r="95" spans="6:14">
+    <row r="95" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
@@ -4114,7 +4070,7 @@
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
     </row>
-    <row r="96" spans="6:14">
+    <row r="96" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
@@ -4125,7 +4081,7 @@
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
     </row>
-    <row r="97" spans="6:14">
+    <row r="97" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -4136,7 +4092,7 @@
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="6:14">
+    <row r="98" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
@@ -4147,7 +4103,7 @@
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="6:14">
+    <row r="99" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -4158,7 +4114,7 @@
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="6:14">
+    <row r="100" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -4169,7 +4125,7 @@
       <c r="M100" s="20"/>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="6:14">
+    <row r="101" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -4180,7 +4136,7 @@
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="6:14">
+    <row r="102" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
@@ -4191,7 +4147,7 @@
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="6:14">
+    <row r="103" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -4202,7 +4158,7 @@
       <c r="M103" s="20"/>
       <c r="N103" s="20"/>
     </row>
-    <row r="104" spans="6:14">
+    <row r="104" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
@@ -4213,7 +4169,7 @@
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
     </row>
-    <row r="105" spans="6:14">
+    <row r="105" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -4224,7 +4180,7 @@
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
     </row>
-    <row r="106" spans="6:14">
+    <row r="106" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -4235,7 +4191,7 @@
       <c r="M106" s="20"/>
       <c r="N106" s="20"/>
     </row>
-    <row r="107" spans="6:14">
+    <row r="107" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
@@ -4246,7 +4202,7 @@
       <c r="M107" s="20"/>
       <c r="N107" s="20"/>
     </row>
-    <row r="108" spans="6:14">
+    <row r="108" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -4257,7 +4213,7 @@
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
     </row>
-    <row r="109" spans="6:14">
+    <row r="109" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
@@ -4268,7 +4224,7 @@
       <c r="M109" s="20"/>
       <c r="N109" s="20"/>
     </row>
-    <row r="110" spans="6:14">
+    <row r="110" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -4279,7 +4235,7 @@
       <c r="M110" s="20"/>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="6:14">
+    <row r="111" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
@@ -4290,7 +4246,7 @@
       <c r="M111" s="20"/>
       <c r="N111" s="20"/>
     </row>
-    <row r="112" spans="6:14">
+    <row r="112" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -4301,7 +4257,7 @@
       <c r="M112" s="20"/>
       <c r="N112" s="20"/>
     </row>
-    <row r="113" spans="6:14">
+    <row r="113" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
@@ -4312,7 +4268,7 @@
       <c r="M113" s="20"/>
       <c r="N113" s="20"/>
     </row>
-    <row r="114" spans="6:14">
+    <row r="114" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -4323,7 +4279,7 @@
       <c r="M114" s="20"/>
       <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="6:14">
+    <row r="115" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
@@ -4334,7 +4290,7 @@
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
     </row>
-    <row r="116" spans="6:14">
+    <row r="116" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -4345,7 +4301,7 @@
       <c r="M116" s="20"/>
       <c r="N116" s="20"/>
     </row>
-    <row r="117" spans="6:14">
+    <row r="117" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
@@ -4356,7 +4312,7 @@
       <c r="M117" s="20"/>
       <c r="N117" s="20"/>
     </row>
-    <row r="118" spans="6:14">
+    <row r="118" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
@@ -4367,7 +4323,7 @@
       <c r="M118" s="20"/>
       <c r="N118" s="20"/>
     </row>
-    <row r="119" spans="6:14">
+    <row r="119" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -4378,7 +4334,7 @@
       <c r="M119" s="20"/>
       <c r="N119" s="20"/>
     </row>
-    <row r="120" spans="6:14">
+    <row r="120" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
@@ -4389,7 +4345,7 @@
       <c r="M120" s="20"/>
       <c r="N120" s="20"/>
     </row>
-    <row r="121" spans="6:14">
+    <row r="121" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -4400,7 +4356,7 @@
       <c r="M121" s="20"/>
       <c r="N121" s="20"/>
     </row>
-    <row r="122" spans="6:14">
+    <row r="122" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
@@ -4411,7 +4367,7 @@
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
     </row>
-    <row r="123" spans="6:14">
+    <row r="123" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -4422,7 +4378,7 @@
       <c r="M123" s="20"/>
       <c r="N123" s="20"/>
     </row>
-    <row r="124" spans="6:14">
+    <row r="124" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
@@ -4433,7 +4389,7 @@
       <c r="M124" s="20"/>
       <c r="N124" s="20"/>
     </row>
-    <row r="125" spans="6:14">
+    <row r="125" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -4444,7 +4400,7 @@
       <c r="M125" s="20"/>
       <c r="N125" s="20"/>
     </row>
-    <row r="126" spans="6:14">
+    <row r="126" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
@@ -4455,7 +4411,7 @@
       <c r="M126" s="20"/>
       <c r="N126" s="20"/>
     </row>
-    <row r="127" spans="6:14">
+    <row r="127" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -4466,7 +4422,7 @@
       <c r="M127" s="20"/>
       <c r="N127" s="20"/>
     </row>
-    <row r="128" spans="6:14">
+    <row r="128" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -4477,7 +4433,7 @@
       <c r="M128" s="20"/>
       <c r="N128" s="20"/>
     </row>
-    <row r="129" spans="6:14">
+    <row r="129" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
@@ -4488,7 +4444,7 @@
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
     </row>
-    <row r="130" spans="6:14">
+    <row r="130" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
@@ -4499,7 +4455,7 @@
       <c r="M130" s="20"/>
       <c r="N130" s="20"/>
     </row>
-    <row r="131" spans="6:14">
+    <row r="131" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
@@ -4510,7 +4466,7 @@
       <c r="M131" s="20"/>
       <c r="N131" s="20"/>
     </row>
-    <row r="132" spans="6:14">
+    <row r="132" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -4521,7 +4477,7 @@
       <c r="M132" s="20"/>
       <c r="N132" s="20"/>
     </row>
-    <row r="133" spans="6:14">
+    <row r="133" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
@@ -4532,7 +4488,7 @@
       <c r="M133" s="20"/>
       <c r="N133" s="20"/>
     </row>
-    <row r="134" spans="6:14">
+    <row r="134" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
@@ -4543,7 +4499,7 @@
       <c r="M134" s="20"/>
       <c r="N134" s="20"/>
     </row>
-    <row r="135" spans="6:14">
+    <row r="135" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -4554,7 +4510,7 @@
       <c r="M135" s="20"/>
       <c r="N135" s="20"/>
     </row>
-    <row r="136" spans="6:14">
+    <row r="136" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
@@ -4565,7 +4521,7 @@
       <c r="M136" s="20"/>
       <c r="N136" s="20"/>
     </row>
-    <row r="137" spans="6:14">
+    <row r="137" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
@@ -4576,7 +4532,7 @@
       <c r="M137" s="20"/>
       <c r="N137" s="20"/>
     </row>
-    <row r="138" spans="6:14">
+    <row r="138" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -4587,7 +4543,7 @@
       <c r="M138" s="20"/>
       <c r="N138" s="20"/>
     </row>
-    <row r="139" spans="6:14">
+    <row r="139" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
@@ -4598,7 +4554,7 @@
       <c r="M139" s="20"/>
       <c r="N139" s="20"/>
     </row>
-    <row r="140" spans="6:14">
+    <row r="140" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -4609,7 +4565,7 @@
       <c r="M140" s="20"/>
       <c r="N140" s="20"/>
     </row>
-    <row r="141" spans="6:14">
+    <row r="141" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
@@ -4620,7 +4576,7 @@
       <c r="M141" s="20"/>
       <c r="N141" s="20"/>
     </row>
-    <row r="142" spans="6:14">
+    <row r="142" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
@@ -4631,7 +4587,7 @@
       <c r="M142" s="20"/>
       <c r="N142" s="20"/>
     </row>
-    <row r="143" spans="6:14">
+    <row r="143" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -4642,7 +4598,7 @@
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
     </row>
-    <row r="144" spans="6:14">
+    <row r="144" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
@@ -4653,7 +4609,7 @@
       <c r="M144" s="20"/>
       <c r="N144" s="20"/>
     </row>
-    <row r="145" spans="6:14">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -4664,7 +4620,7 @@
       <c r="M145" s="20"/>
       <c r="N145" s="20"/>
     </row>
-    <row r="146" spans="6:14">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
@@ -4675,7 +4631,7 @@
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
     </row>
-    <row r="147" spans="6:14">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -4686,7 +4642,7 @@
       <c r="M147" s="20"/>
       <c r="N147" s="20"/>
     </row>
-    <row r="148" spans="6:14">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
@@ -4697,7 +4653,7 @@
       <c r="M148" s="20"/>
       <c r="N148" s="20"/>
     </row>
-    <row r="149" spans="6:14">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
@@ -4708,7 +4664,7 @@
       <c r="M149" s="20"/>
       <c r="N149" s="20"/>
     </row>
-    <row r="150" spans="6:14">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
@@ -4719,7 +4675,7 @@
       <c r="M150" s="20"/>
       <c r="N150" s="20"/>
     </row>
-    <row r="151" spans="6:14">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
@@ -4730,7 +4686,7 @@
       <c r="M151" s="20"/>
       <c r="N151" s="20"/>
     </row>
-    <row r="152" spans="6:14">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -4741,7 +4697,7 @@
       <c r="M152" s="20"/>
       <c r="N152" s="20"/>
     </row>
-    <row r="153" spans="6:14">
+    <row r="153" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
@@ -4752,7 +4708,7 @@
       <c r="M153" s="20"/>
       <c r="N153" s="20"/>
     </row>
-    <row r="154" spans="6:14">
+    <row r="154" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
@@ -4763,7 +4719,7 @@
       <c r="M154" s="20"/>
       <c r="N154" s="20"/>
     </row>
-    <row r="155" spans="6:14">
+    <row r="155" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -4774,7 +4730,7 @@
       <c r="M155" s="20"/>
       <c r="N155" s="20"/>
     </row>
-    <row r="156" spans="6:14">
+    <row r="156" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
@@ -4785,7 +4741,7 @@
       <c r="M156" s="20"/>
       <c r="N156" s="20"/>
     </row>
-    <row r="157" spans="6:14">
+    <row r="157" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
@@ -4796,7 +4752,7 @@
       <c r="M157" s="20"/>
       <c r="N157" s="20"/>
     </row>
-    <row r="158" spans="6:14">
+    <row r="158" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
@@ -4807,7 +4763,7 @@
       <c r="M158" s="20"/>
       <c r="N158" s="20"/>
     </row>
-    <row r="159" spans="6:14">
+    <row r="159" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
@@ -4818,7 +4774,7 @@
       <c r="M159" s="20"/>
       <c r="N159" s="20"/>
     </row>
-    <row r="160" spans="6:14">
+    <row r="160" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
@@ -4829,7 +4785,7 @@
       <c r="M160" s="20"/>
       <c r="N160" s="20"/>
     </row>
-    <row r="161" spans="6:14">
+    <row r="161" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
@@ -4840,7 +4796,7 @@
       <c r="M161" s="20"/>
       <c r="N161" s="20"/>
     </row>
-    <row r="162" spans="6:14">
+    <row r="162" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
@@ -4851,7 +4807,7 @@
       <c r="M162" s="20"/>
       <c r="N162" s="20"/>
     </row>
-    <row r="163" spans="6:14">
+    <row r="163" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
@@ -4862,7 +4818,7 @@
       <c r="M163" s="20"/>
       <c r="N163" s="20"/>
     </row>
-    <row r="164" spans="6:14">
+    <row r="164" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
@@ -4873,7 +4829,7 @@
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
     </row>
-    <row r="165" spans="6:14">
+    <row r="165" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -4884,7 +4840,7 @@
       <c r="M165" s="20"/>
       <c r="N165" s="20"/>
     </row>
-    <row r="166" spans="6:14">
+    <row r="166" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
@@ -4895,7 +4851,7 @@
       <c r="M166" s="20"/>
       <c r="N166" s="20"/>
     </row>
-    <row r="167" spans="6:14">
+    <row r="167" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
@@ -4906,7 +4862,7 @@
       <c r="M167" s="20"/>
       <c r="N167" s="20"/>
     </row>
-    <row r="168" spans="6:14">
+    <row r="168" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
@@ -4917,7 +4873,7 @@
       <c r="M168" s="20"/>
       <c r="N168" s="20"/>
     </row>
-    <row r="169" spans="6:14">
+    <row r="169" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
@@ -4928,7 +4884,7 @@
       <c r="M169" s="20"/>
       <c r="N169" s="20"/>
     </row>
-    <row r="170" spans="6:14">
+    <row r="170" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
@@ -4939,7 +4895,7 @@
       <c r="M170" s="20"/>
       <c r="N170" s="20"/>
     </row>
-    <row r="171" spans="6:14">
+    <row r="171" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
       <c r="H171" s="20"/>
@@ -4950,7 +4906,7 @@
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
     </row>
-    <row r="172" spans="6:14">
+    <row r="172" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
@@ -4961,7 +4917,7 @@
       <c r="M172" s="20"/>
       <c r="N172" s="20"/>
     </row>
-    <row r="173" spans="6:14">
+    <row r="173" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
       <c r="H173" s="20"/>
@@ -4972,7 +4928,7 @@
       <c r="M173" s="20"/>
       <c r="N173" s="20"/>
     </row>
-    <row r="174" spans="6:14">
+    <row r="174" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
       <c r="H174" s="20"/>
@@ -4983,7 +4939,7 @@
       <c r="M174" s="20"/>
       <c r="N174" s="20"/>
     </row>
-    <row r="175" spans="6:14">
+    <row r="175" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
       <c r="H175" s="20"/>
@@ -4994,7 +4950,7 @@
       <c r="M175" s="20"/>
       <c r="N175" s="20"/>
     </row>
-    <row r="176" spans="6:14">
+    <row r="176" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
@@ -5005,7 +4961,7 @@
       <c r="M176" s="20"/>
       <c r="N176" s="20"/>
     </row>
-    <row r="177" spans="6:14">
+    <row r="177" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
       <c r="H177" s="20"/>
@@ -5016,7 +4972,7 @@
       <c r="M177" s="20"/>
       <c r="N177" s="20"/>
     </row>
-    <row r="178" spans="6:14">
+    <row r="178" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
       <c r="H178" s="20"/>
@@ -5027,7 +4983,7 @@
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
     </row>
-    <row r="179" spans="6:14">
+    <row r="179" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
       <c r="H179" s="20"/>
@@ -5038,7 +4994,7 @@
       <c r="M179" s="20"/>
       <c r="N179" s="20"/>
     </row>
-    <row r="180" spans="6:14">
+    <row r="180" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
       <c r="H180" s="20"/>
@@ -5049,7 +5005,7 @@
       <c r="M180" s="20"/>
       <c r="N180" s="20"/>
     </row>
-    <row r="181" spans="6:14">
+    <row r="181" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="20"/>
@@ -5060,7 +5016,7 @@
       <c r="M181" s="20"/>
       <c r="N181" s="20"/>
     </row>
-    <row r="182" spans="6:14">
+    <row r="182" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
@@ -5071,7 +5027,7 @@
       <c r="M182" s="20"/>
       <c r="N182" s="20"/>
     </row>
-    <row r="183" spans="6:14">
+    <row r="183" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" s="20"/>
@@ -5082,7 +5038,7 @@
       <c r="M183" s="20"/>
       <c r="N183" s="20"/>
     </row>
-    <row r="184" spans="6:14">
+    <row r="184" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
       <c r="H184" s="20"/>
@@ -5093,7 +5049,7 @@
       <c r="M184" s="20"/>
       <c r="N184" s="20"/>
     </row>
-    <row r="185" spans="6:14">
+    <row r="185" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
       <c r="H185" s="20"/>
@@ -5104,7 +5060,7 @@
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
     </row>
-    <row r="186" spans="6:14">
+    <row r="186" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
       <c r="H186" s="20"/>
@@ -5115,7 +5071,7 @@
       <c r="M186" s="20"/>
       <c r="N186" s="20"/>
     </row>
-    <row r="187" spans="6:14">
+    <row r="187" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="20"/>
@@ -5126,7 +5082,7 @@
       <c r="M187" s="20"/>
       <c r="N187" s="20"/>
     </row>
-    <row r="188" spans="6:14">
+    <row r="188" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
       <c r="H188" s="20"/>
@@ -5137,7 +5093,7 @@
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
     </row>
-    <row r="189" spans="6:14">
+    <row r="189" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -5148,7 +5104,7 @@
       <c r="M189" s="20"/>
       <c r="N189" s="20"/>
     </row>
-    <row r="190" spans="6:14">
+    <row r="190" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
       <c r="H190" s="20"/>
@@ -5159,7 +5115,7 @@
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
     </row>
-    <row r="191" spans="6:14">
+    <row r="191" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
@@ -5170,7 +5126,7 @@
       <c r="M191" s="20"/>
       <c r="N191" s="20"/>
     </row>
-    <row r="192" spans="6:14">
+    <row r="192" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
@@ -5181,7 +5137,7 @@
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
     </row>
-    <row r="193" spans="6:14">
+    <row r="193" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
       <c r="H193" s="20"/>
@@ -5192,7 +5148,7 @@
       <c r="M193" s="20"/>
       <c r="N193" s="20"/>
     </row>
-    <row r="194" spans="6:14">
+    <row r="194" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -5203,7 +5159,7 @@
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
     </row>
-    <row r="195" spans="6:14">
+    <row r="195" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="20"/>
@@ -5214,7 +5170,7 @@
       <c r="M195" s="20"/>
       <c r="N195" s="20"/>
     </row>
-    <row r="196" spans="6:14">
+    <row r="196" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
       <c r="H196" s="20"/>
@@ -5225,7 +5181,7 @@
       <c r="M196" s="20"/>
       <c r="N196" s="20"/>
     </row>
-    <row r="197" spans="6:14">
+    <row r="197" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
       <c r="H197" s="20"/>
@@ -5236,7 +5192,7 @@
       <c r="M197" s="20"/>
       <c r="N197" s="20"/>
     </row>
-    <row r="198" spans="6:14">
+    <row r="198" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
       <c r="H198" s="20"/>
@@ -5247,7 +5203,7 @@
       <c r="M198" s="20"/>
       <c r="N198" s="20"/>
     </row>
-    <row r="199" spans="6:14">
+    <row r="199" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
       <c r="H199" s="20"/>
@@ -5258,7 +5214,7 @@
       <c r="M199" s="20"/>
       <c r="N199" s="20"/>
     </row>
-    <row r="200" spans="6:14">
+    <row r="200" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
       <c r="H200" s="20"/>
@@ -5269,7 +5225,7 @@
       <c r="M200" s="20"/>
       <c r="N200" s="20"/>
     </row>
-    <row r="201" spans="6:14">
+    <row r="201" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
       <c r="H201" s="20"/>
@@ -5280,7 +5236,7 @@
       <c r="M201" s="20"/>
       <c r="N201" s="20"/>
     </row>
-    <row r="202" spans="6:14">
+    <row r="202" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
       <c r="H202" s="20"/>
@@ -5291,7 +5247,7 @@
       <c r="M202" s="20"/>
       <c r="N202" s="20"/>
     </row>
-    <row r="203" spans="6:14">
+    <row r="203" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
       <c r="H203" s="20"/>
@@ -5302,7 +5258,7 @@
       <c r="M203" s="20"/>
       <c r="N203" s="20"/>
     </row>
-    <row r="204" spans="6:14">
+    <row r="204" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
       <c r="H204" s="20"/>
@@ -5313,7 +5269,7 @@
       <c r="M204" s="20"/>
       <c r="N204" s="20"/>
     </row>
-    <row r="205" spans="6:14">
+    <row r="205" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
       <c r="H205" s="20"/>
@@ -5324,7 +5280,7 @@
       <c r="M205" s="20"/>
       <c r="N205" s="20"/>
     </row>
-    <row r="206" spans="6:14">
+    <row r="206" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
       <c r="H206" s="20"/>
@@ -5335,7 +5291,7 @@
       <c r="M206" s="20"/>
       <c r="N206" s="20"/>
     </row>
-    <row r="207" spans="6:14">
+    <row r="207" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
@@ -5346,7 +5302,7 @@
       <c r="M207" s="20"/>
       <c r="N207" s="20"/>
     </row>
-    <row r="208" spans="6:14">
+    <row r="208" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
@@ -5357,7 +5313,7 @@
       <c r="M208" s="20"/>
       <c r="N208" s="20"/>
     </row>
-    <row r="209" spans="6:14">
+    <row r="209" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
       <c r="H209" s="20"/>
@@ -5517,21 +5473,21 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
-    <col min="9" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="9" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
     <col min="13" max="13" width="119" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D1" s="48" t="s">
         <v>86</v>
       </c>
@@ -5551,7 +5507,7 @@
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5546,7 @@
       <c r="Q2" s="58"/>
       <c r="R2" s="59"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="56" t="s">
         <v>89</v>
       </c>
@@ -5623,7 +5579,7 @@
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
         <v>96</v>
       </c>
@@ -5656,7 +5612,7 @@
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>101</v>
       </c>
@@ -5689,7 +5645,7 @@
       <c r="Q5" s="57"/>
       <c r="R5" s="57"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>105</v>
       </c>
@@ -5722,7 +5678,7 @@
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
@@ -5755,7 +5711,7 @@
       <c r="Q7" s="57"/>
       <c r="R7" s="57"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
         <v>112</v>
       </c>
@@ -5783,7 +5739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
         <v>17</v>
       </c>
@@ -5811,7 +5767,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>119</v>
       </c>
@@ -5842,7 +5798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>123</v>
       </c>
@@ -5869,7 +5825,7 @@
       </c>
       <c r="M11" s="57"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
@@ -5898,7 +5854,7 @@
       </c>
       <c r="M12" s="57"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>129</v>
       </c>
@@ -5927,7 +5883,7 @@
       </c>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>132</v>
       </c>
@@ -5953,7 +5909,7 @@
       </c>
       <c r="M14" s="57"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>134</v>
       </c>
@@ -5973,7 +5929,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
         <v>101</v>
       </c>
@@ -6006,7 +5962,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
         <v>140</v>
       </c>
@@ -6038,7 +5994,7 @@
       </c>
       <c r="M17" s="57"/>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
         <v>143</v>
       </c>
@@ -6069,7 +6025,7 @@
       </c>
       <c r="M18" s="57"/>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
         <v>146</v>
       </c>
@@ -6100,7 +6056,7 @@
       </c>
       <c r="M19" s="57"/>
     </row>
-    <row r="20" spans="2:27" ht="12.75" customHeight="1">
+    <row r="20" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
         <v>149</v>
       </c>
@@ -6143,7 +6099,7 @@
       <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
     </row>
-    <row r="21" spans="2:27" ht="12.75" customHeight="1">
+    <row r="21" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="56" t="s">
         <v>153</v>
       </c>
@@ -6178,7 +6134,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
     </row>
-    <row r="22" spans="2:27" ht="12.75" customHeight="1">
+    <row r="22" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>156</v>
       </c>
@@ -6213,7 +6169,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
     </row>
-    <row r="23" spans="2:27" ht="12.75" customHeight="1">
+    <row r="23" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
         <v>159</v>
       </c>
@@ -6256,7 +6212,7 @@
       <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
     </row>
-    <row r="24" spans="2:27" ht="12.75" customHeight="1">
+    <row r="24" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
@@ -6299,7 +6255,7 @@
       <c r="Z24" s="66"/>
       <c r="AA24" s="66"/>
     </row>
-    <row r="25" spans="2:27" ht="12.75" customHeight="1">
+    <row r="25" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="56" t="s">
         <v>167</v>
       </c>
@@ -6343,7 +6299,7 @@
       <c r="Z25" s="66"/>
       <c r="AA25" s="66"/>
     </row>
-    <row r="26" spans="2:27" ht="12.75" customHeight="1">
+    <row r="26" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="56" t="s">
         <v>171</v>
       </c>
@@ -6387,7 +6343,7 @@
       <c r="Z26" s="66"/>
       <c r="AA26" s="66"/>
     </row>
-    <row r="27" spans="2:27" ht="12.75" customHeight="1">
+    <row r="27" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="67" t="s">
         <v>174</v>
       </c>
@@ -6429,7 +6385,7 @@
       <c r="Z27" s="66"/>
       <c r="AA27" s="66"/>
     </row>
-    <row r="28" spans="2:27" ht="12.75" customHeight="1">
+    <row r="28" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>167</v>
       </c>
@@ -6473,7 +6429,7 @@
       <c r="Z28" s="66"/>
       <c r="AA28" s="66"/>
     </row>
-    <row r="29" spans="2:27" ht="12.75" customHeight="1">
+    <row r="29" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
         <v>179</v>
       </c>
@@ -6513,7 +6469,7 @@
       <c r="Z29" s="66"/>
       <c r="AA29" s="66"/>
     </row>
-    <row r="30" spans="2:27" ht="12.75" customHeight="1">
+    <row r="30" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>182</v>
       </c>
@@ -6557,7 +6513,7 @@
       <c r="Z30" s="66"/>
       <c r="AA30" s="66"/>
     </row>
-    <row r="31" spans="2:27" ht="12.75" customHeight="1">
+    <row r="31" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="56" t="s">
         <v>140</v>
       </c>
@@ -6599,7 +6555,7 @@
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
     </row>
-    <row r="32" spans="2:27" ht="12.75" customHeight="1">
+    <row r="32" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="56" t="s">
         <v>185</v>
       </c>
@@ -6631,7 +6587,7 @@
       <c r="Z32" s="66"/>
       <c r="AA32" s="66"/>
     </row>
-    <row r="33" spans="2:27" ht="12.75" customHeight="1">
+    <row r="33" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>187</v>
       </c>
@@ -6675,7 +6631,7 @@
       <c r="Z33" s="66"/>
       <c r="AA33" s="66"/>
     </row>
-    <row r="34" spans="2:27" ht="12.75" customHeight="1">
+    <row r="34" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="56" t="s">
         <v>89</v>
       </c>
@@ -6719,7 +6675,7 @@
       <c r="Z34" s="66"/>
       <c r="AA34" s="66"/>
     </row>
-    <row r="35" spans="2:27" ht="12.75" customHeight="1">
+    <row r="35" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="56" t="s">
         <v>134</v>
       </c>
@@ -6761,7 +6717,7 @@
       <c r="Z35" s="66"/>
       <c r="AA35" s="66"/>
     </row>
-    <row r="36" spans="2:27" ht="12.75" customHeight="1">
+    <row r="36" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="56" t="s">
         <v>196</v>
       </c>
@@ -6805,7 +6761,7 @@
       <c r="Z36" s="66"/>
       <c r="AA36" s="66"/>
     </row>
-    <row r="37" spans="2:27" ht="12.75" customHeight="1">
+    <row r="37" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
         <v>179</v>
       </c>
@@ -6849,7 +6805,7 @@
       <c r="Z37" s="66"/>
       <c r="AA37" s="66"/>
     </row>
-    <row r="38" spans="2:27" ht="12.75" customHeight="1">
+    <row r="38" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="56" t="s">
         <v>203</v>
       </c>
@@ -6893,7 +6849,7 @@
       <c r="Z38" s="66"/>
       <c r="AA38" s="66"/>
     </row>
-    <row r="39" spans="2:27" ht="12.75" customHeight="1">
+    <row r="39" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
         <v>206</v>
       </c>
@@ -6929,7 +6885,7 @@
       <c r="Z39" s="66"/>
       <c r="AA39" s="66"/>
     </row>
-    <row r="40" spans="2:27" ht="12.75" customHeight="1">
+    <row r="40" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -6958,7 +6914,7 @@
       <c r="Z40" s="66"/>
       <c r="AA40" s="66"/>
     </row>
-    <row r="41" spans="2:27" ht="12.75" customHeight="1">
+    <row r="41" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="56" t="s">
         <v>89</v>
       </c>
@@ -6989,7 +6945,7 @@
       <c r="Z41" s="66"/>
       <c r="AA41" s="66"/>
     </row>
-    <row r="42" spans="2:27" ht="12.75" customHeight="1">
+    <row r="42" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
         <v>134</v>
       </c>
@@ -7018,7 +6974,7 @@
       <c r="Z42" s="66"/>
       <c r="AA42" s="66"/>
     </row>
-    <row r="43" spans="2:27" ht="27.75" customHeight="1">
+    <row r="43" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>196</v>
       </c>
@@ -7050,7 +7006,7 @@
       <c r="Z43" s="66"/>
       <c r="AA43" s="66"/>
     </row>
-    <row r="44" spans="2:27" ht="12.75" customHeight="1">
+    <row r="44" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
         <v>211</v>
       </c>
@@ -7088,7 +7044,7 @@
       <c r="Z44" s="66"/>
       <c r="AA44" s="66"/>
     </row>
-    <row r="45" spans="2:27" ht="12.75" customHeight="1">
+    <row r="45" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
         <v>89</v>
       </c>
@@ -7124,7 +7080,7 @@
       <c r="Z45" s="66"/>
       <c r="AA45" s="66"/>
     </row>
-    <row r="46" spans="2:27" ht="12.75" customHeight="1">
+    <row r="46" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
         <v>153</v>
       </c>
@@ -7160,7 +7116,7 @@
       <c r="Z46" s="66"/>
       <c r="AA46" s="66"/>
     </row>
-    <row r="47" spans="2:27" ht="12.75" customHeight="1">
+    <row r="47" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
         <v>156</v>
       </c>
@@ -7196,7 +7152,7 @@
       <c r="Z47" s="66"/>
       <c r="AA47" s="66"/>
     </row>
-    <row r="48" spans="2:27" ht="12.75" customHeight="1">
+    <row r="48" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
@@ -7226,7 +7182,7 @@
       <c r="Z48" s="66"/>
       <c r="AA48" s="66"/>
     </row>
-    <row r="49" spans="2:27" ht="12.75" customHeight="1">
+    <row r="49" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="15" t="s">
         <v>215</v>
       </c>
@@ -7268,7 +7224,7 @@
       <c r="Z49" s="66"/>
       <c r="AA49" s="66"/>
     </row>
-    <row r="50" spans="2:27" ht="12.75" customHeight="1">
+    <row r="50" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
         <v>218</v>
       </c>
@@ -7302,7 +7258,7 @@
       <c r="Z50" s="66"/>
       <c r="AA50" s="66"/>
     </row>
-    <row r="51" spans="2:27" ht="12.75" customHeight="1">
+    <row r="51" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
         <v>220</v>
       </c>
@@ -7336,7 +7292,7 @@
       <c r="Z51" s="66"/>
       <c r="AA51" s="66"/>
     </row>
-    <row r="52" spans="2:27" ht="12.75" customHeight="1">
+    <row r="52" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
@@ -7380,7 +7336,7 @@
       <c r="Z52" s="66"/>
       <c r="AA52" s="66"/>
     </row>
-    <row r="53" spans="2:27" ht="12.75" customHeight="1">
+    <row r="53" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
         <v>218</v>
       </c>
@@ -7424,7 +7380,7 @@
       <c r="Z53" s="66"/>
       <c r="AA53" s="66"/>
     </row>
-    <row r="54" spans="2:27" ht="12.75" customHeight="1">
+    <row r="54" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="15" t="s">
         <v>89</v>
       </c>
@@ -7469,7 +7425,7 @@
       <c r="Z54" s="66"/>
       <c r="AA54" s="66"/>
     </row>
-    <row r="55" spans="2:27" ht="12.75" customHeight="1">
+    <row r="55" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>17</v>
       </c>
@@ -7511,7 +7467,7 @@
       <c r="Z55" s="66"/>
       <c r="AA55" s="66"/>
     </row>
-    <row r="56" spans="2:27" ht="12.75" customHeight="1">
+    <row r="56" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
         <v>218</v>
       </c>
@@ -7553,7 +7509,7 @@
       <c r="Z56" s="66"/>
       <c r="AA56" s="66"/>
     </row>
-    <row r="57" spans="2:27" ht="12.75" customHeight="1">
+    <row r="57" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
         <v>140</v>
       </c>
@@ -7593,7 +7549,7 @@
       <c r="Z57" s="66"/>
       <c r="AA57" s="66"/>
     </row>
-    <row r="58" spans="2:27" ht="12.75" customHeight="1">
+    <row r="58" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
         <v>17</v>
       </c>
@@ -7635,7 +7591,7 @@
       <c r="Z58" s="66"/>
       <c r="AA58" s="66"/>
     </row>
-    <row r="59" spans="2:27" ht="12.75" customHeight="1">
+    <row r="59" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>223</v>
       </c>
@@ -7675,7 +7631,7 @@
       <c r="Z59" s="66"/>
       <c r="AA59" s="66"/>
     </row>
-    <row r="60" spans="2:27" ht="12.75" customHeight="1">
+    <row r="60" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
         <v>218</v>
       </c>
@@ -7717,7 +7673,7 @@
       <c r="Z60" s="66"/>
       <c r="AA60" s="66"/>
     </row>
-    <row r="61" spans="2:27" ht="12.75" customHeight="1">
+    <row r="61" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="15" t="s">
         <v>89</v>
       </c>
@@ -7759,7 +7715,7 @@
       <c r="Z61" s="66"/>
       <c r="AA61" s="66"/>
     </row>
-    <row r="62" spans="2:27" ht="12.75" customHeight="1">
+    <row r="62" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
         <v>182</v>
       </c>
@@ -7801,7 +7757,7 @@
       <c r="Z62" s="66"/>
       <c r="AA62" s="66"/>
     </row>
-    <row r="63" spans="2:27" ht="12.75" customHeight="1">
+    <row r="63" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
         <v>140</v>
       </c>
@@ -7843,7 +7799,7 @@
       <c r="Z63" s="66"/>
       <c r="AA63" s="66"/>
     </row>
-    <row r="64" spans="2:27" ht="12.75" customHeight="1">
+    <row r="64" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
         <v>140</v>
       </c>
@@ -7883,7 +7839,7 @@
       <c r="Z64" s="66"/>
       <c r="AA64" s="66"/>
     </row>
-    <row r="65" spans="2:27" ht="12.75" customHeight="1">
+    <row r="65" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
         <v>140</v>
       </c>
@@ -7923,7 +7879,7 @@
       <c r="Z65" s="66"/>
       <c r="AA65" s="66"/>
     </row>
-    <row r="66" spans="2:27" ht="12.75" customHeight="1">
+    <row r="66" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
         <v>231</v>
       </c>
@@ -7963,7 +7919,7 @@
       <c r="Z66" s="66"/>
       <c r="AA66" s="66"/>
     </row>
-    <row r="67" spans="2:27" ht="12.75" customHeight="1">
+    <row r="67" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
         <v>235</v>
       </c>
@@ -7995,7 +7951,7 @@
       <c r="Z67" s="66"/>
       <c r="AA67" s="66"/>
     </row>
-    <row r="68" spans="2:27" ht="12.75" customHeight="1">
+    <row r="68" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>237</v>
       </c>
@@ -8027,7 +7983,7 @@
       <c r="Z68" s="66"/>
       <c r="AA68" s="66"/>
     </row>
-    <row r="69" spans="2:27" ht="12.75" customHeight="1">
+    <row r="69" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="17" t="s">
         <v>239</v>
       </c>
@@ -8057,7 +8013,7 @@
       <c r="Z69" s="66"/>
       <c r="AA69" s="66"/>
     </row>
-    <row r="70" spans="2:27" ht="12.75" customHeight="1">
+    <row r="70" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
         <v>10</v>
       </c>
@@ -8097,7 +8053,7 @@
       <c r="Z70" s="66"/>
       <c r="AA70" s="66"/>
     </row>
-    <row r="71" spans="2:27" ht="12.75" customHeight="1">
+    <row r="71" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="60" t="s">
         <v>218</v>
       </c>
@@ -8137,7 +8093,7 @@
       <c r="Z71" s="66"/>
       <c r="AA71" s="66"/>
     </row>
-    <row r="72" spans="2:27" ht="12.75" customHeight="1">
+    <row r="72" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="60" t="s">
         <v>241</v>
       </c>
@@ -8165,7 +8121,7 @@
       <c r="Z72" s="66"/>
       <c r="AA72" s="66"/>
     </row>
-    <row r="73" spans="2:27" ht="12.75" customHeight="1">
+    <row r="73" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="60" t="s">
         <v>242</v>
       </c>
@@ -8205,7 +8161,7 @@
       <c r="Z73" s="66"/>
       <c r="AA73" s="66"/>
     </row>
-    <row r="74" spans="2:27" ht="12.75" customHeight="1">
+    <row r="74" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="60" t="s">
         <v>245</v>
       </c>
@@ -8237,7 +8193,7 @@
       <c r="Z74" s="66"/>
       <c r="AA74" s="66"/>
     </row>
-    <row r="75" spans="2:27" ht="12.75" customHeight="1">
+    <row r="75" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="71" t="s">
         <v>248</v>
       </c>
@@ -8275,7 +8231,7 @@
       <c r="Z75" s="66"/>
       <c r="AA75" s="66"/>
     </row>
-    <row r="76" spans="2:27" ht="12.75" customHeight="1">
+    <row r="76" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="75" t="s">
         <v>250</v>
       </c>
@@ -8313,7 +8269,7 @@
       <c r="Z76" s="66"/>
       <c r="AA76" s="66"/>
     </row>
-    <row r="77" spans="2:27" ht="12.75" customHeight="1">
+    <row r="77" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="38" t="s">
         <v>252</v>
       </c>
@@ -8353,7 +8309,7 @@
       <c r="Z77" s="66"/>
       <c r="AA77" s="66"/>
     </row>
-    <row r="78" spans="2:27" ht="12.75" customHeight="1">
+    <row r="78" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="62" t="s">
         <v>250</v>
       </c>
@@ -8392,7 +8348,7 @@
       <c r="Z78" s="66"/>
       <c r="AA78" s="66"/>
     </row>
-    <row r="79" spans="2:27" ht="12.75" customHeight="1">
+    <row r="79" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="62" t="s">
         <v>255</v>
       </c>
@@ -8431,7 +8387,7 @@
       <c r="Z79" s="66"/>
       <c r="AA79" s="66"/>
     </row>
-    <row r="80" spans="2:27" ht="12.75" customHeight="1">
+    <row r="80" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="62" t="s">
         <v>258</v>
       </c>
@@ -8470,7 +8426,7 @@
       <c r="Z80" s="66"/>
       <c r="AA80" s="66"/>
     </row>
-    <row r="81" spans="2:27" ht="12.75" customHeight="1">
+    <row r="81" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="62" t="s">
         <v>260</v>
       </c>
@@ -8509,7 +8465,7 @@
       <c r="Z81" s="66"/>
       <c r="AA81" s="66"/>
     </row>
-    <row r="82" spans="2:27" ht="12.75" customHeight="1">
+    <row r="82" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="78" t="s">
         <v>263</v>
       </c>
@@ -8542,7 +8498,7 @@
       <c r="Z82" s="66"/>
       <c r="AA82" s="66"/>
     </row>
-    <row r="83" spans="2:27" ht="12.75" customHeight="1">
+    <row r="83" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>265</v>
       </c>
@@ -8581,7 +8537,7 @@
       <c r="Z83" s="66"/>
       <c r="AA83" s="66"/>
     </row>
-    <row r="84" spans="2:27" ht="12.75" customHeight="1">
+    <row r="84" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="79" t="s">
         <v>268</v>
       </c>
@@ -8620,7 +8576,7 @@
       <c r="Z84" s="66"/>
       <c r="AA84" s="66"/>
     </row>
-    <row r="85" spans="2:27" ht="12.75" customHeight="1">
+    <row r="85" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="79" t="s">
         <v>269</v>
       </c>
@@ -8665,7 +8621,7 @@
       <c r="Z85" s="66"/>
       <c r="AA85" s="66"/>
     </row>
-    <row r="86" spans="2:27" ht="12.75" customHeight="1">
+    <row r="86" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L86" s="119"/>
       <c r="M86" s="119"/>
       <c r="N86" s="119"/>
@@ -8683,7 +8639,7 @@
       <c r="Z86" s="66"/>
       <c r="AA86" s="66"/>
     </row>
-    <row r="87" spans="2:27" ht="12.75" customHeight="1">
+    <row r="87" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L87" s="119"/>
       <c r="M87" s="119"/>
       <c r="N87" s="119"/>
@@ -8770,19 +8726,19 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="88.6640625" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="12.75" customHeight="1">
+    <row r="3" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="120" t="s">
         <v>272</v>
       </c>
@@ -8806,7 +8762,7 @@
       <c r="T3" s="120"/>
       <c r="U3" s="120"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="120"/>
       <c r="C4" s="120"/>
       <c r="D4" s="120"/>
@@ -8828,7 +8784,7 @@
       <c r="T4" s="120"/>
       <c r="U4" s="120"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="120"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -8850,7 +8806,7 @@
       <c r="T5" s="120"/>
       <c r="U5" s="120"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="120"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
@@ -8872,7 +8828,7 @@
       <c r="T6" s="120"/>
       <c r="U6" s="120"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="120"/>
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
@@ -8894,7 +8850,7 @@
       <c r="T7" s="120"/>
       <c r="U7" s="120"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="120"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
@@ -8916,7 +8872,7 @@
       <c r="T8" s="120"/>
       <c r="U8" s="120"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="120"/>
       <c r="C9" s="120"/>
       <c r="D9" s="120"/>
@@ -8938,7 +8894,7 @@
       <c r="T9" s="120"/>
       <c r="U9" s="120"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="120"/>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
@@ -8960,7 +8916,7 @@
       <c r="T10" s="120"/>
       <c r="U10" s="120"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="120"/>
       <c r="C11" s="120"/>
       <c r="D11" s="120"/>
@@ -8982,7 +8938,7 @@
       <c r="T11" s="120"/>
       <c r="U11" s="120"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="120"/>
       <c r="C12" s="120"/>
       <c r="D12" s="120"/>
@@ -9004,7 +8960,7 @@
       <c r="T12" s="120"/>
       <c r="U12" s="120"/>
     </row>
-    <row r="15" spans="2:21" ht="12.75" customHeight="1">
+    <row r="15" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>273</v>
       </c>
@@ -9021,7 +8977,7 @@
       <c r="N15" s="119"/>
       <c r="O15" s="119"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F16" s="119"/>
       <c r="G16" s="119"/>
       <c r="H16" s="119"/>
@@ -9033,7 +8989,7 @@
       <c r="N16" s="119"/>
       <c r="O16" s="119"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F17" s="119"/>
       <c r="G17" s="119"/>
       <c r="H17" s="119"/>
@@ -9045,7 +9001,7 @@
       <c r="N17" s="119"/>
       <c r="O17" s="119"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="s">
         <v>275</v>
       </c>
@@ -9069,7 +9025,7 @@
       <c r="N18" s="119"/>
       <c r="O18" s="119"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>278</v>
       </c>
@@ -9093,7 +9049,7 @@
       <c r="N19" s="119"/>
       <c r="O19" s="119"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>281</v>
       </c>
@@ -9114,7 +9070,7 @@
       <c r="N20" s="119"/>
       <c r="O20" s="119"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>284</v>
       </c>
@@ -9135,7 +9091,7 @@
       <c r="N21" s="119"/>
       <c r="O21" s="119"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -9156,7 +9112,7 @@
       <c r="N22" s="119"/>
       <c r="O22" s="119"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>288</v>
       </c>
@@ -9174,7 +9130,7 @@
       <c r="N23" s="119"/>
       <c r="O23" s="119"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F24" s="119"/>
       <c r="G24" s="119"/>
       <c r="H24" s="119"/>
@@ -9186,7 +9142,7 @@
       <c r="N24" s="119"/>
       <c r="O24" s="119"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F25" s="119"/>
       <c r="G25" s="119"/>
       <c r="H25" s="119"/>
@@ -9198,7 +9154,7 @@
       <c r="N25" s="119"/>
       <c r="O25" s="119"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F26" s="119"/>
       <c r="G26" s="119"/>
       <c r="H26" s="119"/>
@@ -9210,7 +9166,7 @@
       <c r="N26" s="119"/>
       <c r="O26" s="119"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F27" s="119"/>
       <c r="G27" s="119"/>
       <c r="H27" s="119"/>
@@ -9222,7 +9178,7 @@
       <c r="N27" s="119"/>
       <c r="O27" s="119"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F28" s="119"/>
       <c r="G28" s="119"/>
       <c r="H28" s="119"/>
@@ -9234,7 +9190,7 @@
       <c r="N28" s="119"/>
       <c r="O28" s="119"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F29" s="119"/>
       <c r="G29" s="119"/>
       <c r="H29" s="119"/>
@@ -9246,7 +9202,7 @@
       <c r="N29" s="119"/>
       <c r="O29" s="119"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F30" s="119"/>
       <c r="G30" s="119"/>
       <c r="H30" s="119"/>
@@ -9258,7 +9214,7 @@
       <c r="N30" s="119"/>
       <c r="O30" s="119"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F31" s="119"/>
       <c r="G31" s="119"/>
       <c r="H31" s="119"/>
@@ -9270,7 +9226,7 @@
       <c r="N31" s="119"/>
       <c r="O31" s="119"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F32" s="119"/>
       <c r="G32" s="119"/>
       <c r="H32" s="119"/>
@@ -9282,7 +9238,7 @@
       <c r="N32" s="119"/>
       <c r="O32" s="119"/>
     </row>
-    <row r="33" spans="5:15">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F33" s="119"/>
       <c r="G33" s="119"/>
       <c r="H33" s="119"/>
@@ -9294,7 +9250,7 @@
       <c r="N33" s="119"/>
       <c r="O33" s="119"/>
     </row>
-    <row r="34" spans="5:15">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F34" s="119"/>
       <c r="G34" s="119"/>
       <c r="H34" s="119"/>
@@ -9306,7 +9262,7 @@
       <c r="N34" s="119"/>
       <c r="O34" s="119"/>
     </row>
-    <row r="35" spans="5:15">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F35" s="119"/>
       <c r="G35" s="119"/>
       <c r="H35" s="119"/>
@@ -9318,7 +9274,7 @@
       <c r="N35" s="119"/>
       <c r="O35" s="119"/>
     </row>
-    <row r="36" spans="5:15" ht="14">
+    <row r="36" spans="5:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E36" s="23" t="s">
         <v>290</v>
       </c>
@@ -9333,7 +9289,7 @@
       <c r="N36" s="119"/>
       <c r="O36" s="119"/>
     </row>
-    <row r="37" spans="5:15" ht="14">
+    <row r="37" spans="5:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E37" s="23" t="s">
         <v>291</v>
       </c>
@@ -9348,7 +9304,7 @@
       <c r="N37" s="119"/>
       <c r="O37" s="119"/>
     </row>
-    <row r="38" spans="5:15">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F38" s="119"/>
       <c r="G38" s="119"/>
       <c r="H38" s="119"/>
@@ -9360,7 +9316,7 @@
       <c r="N38" s="119"/>
       <c r="O38" s="119"/>
     </row>
-    <row r="39" spans="5:15">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F39" s="119"/>
       <c r="G39" s="119"/>
       <c r="H39" s="119"/>
@@ -9372,7 +9328,7 @@
       <c r="N39" s="119"/>
       <c r="O39" s="119"/>
     </row>
-    <row r="40" spans="5:15">
+    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F40" s="119"/>
       <c r="G40" s="119"/>
       <c r="H40" s="119"/>
@@ -9384,7 +9340,7 @@
       <c r="N40" s="119"/>
       <c r="O40" s="119"/>
     </row>
-    <row r="41" spans="5:15">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F41" s="119"/>
       <c r="G41" s="119"/>
       <c r="H41" s="119"/>
@@ -9396,7 +9352,7 @@
       <c r="N41" s="119"/>
       <c r="O41" s="119"/>
     </row>
-    <row r="42" spans="5:15">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F42" s="119"/>
       <c r="G42" s="119"/>
       <c r="H42" s="119"/>
@@ -9408,7 +9364,7 @@
       <c r="N42" s="119"/>
       <c r="O42" s="119"/>
     </row>
-    <row r="43" spans="5:15">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F43" s="119"/>
       <c r="G43" s="119"/>
       <c r="H43" s="119"/>
@@ -9420,7 +9376,7 @@
       <c r="N43" s="119"/>
       <c r="O43" s="119"/>
     </row>
-    <row r="44" spans="5:15">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F44" s="119"/>
       <c r="G44" s="119"/>
       <c r="H44" s="119"/>
@@ -9432,7 +9388,7 @@
       <c r="N44" s="119"/>
       <c r="O44" s="119"/>
     </row>
-    <row r="45" spans="5:15">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F45" s="119"/>
       <c r="G45" s="119"/>
       <c r="H45" s="119"/>
@@ -9444,7 +9400,7 @@
       <c r="N45" s="119"/>
       <c r="O45" s="119"/>
     </row>
-    <row r="46" spans="5:15">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F46" s="119"/>
       <c r="G46" s="119"/>
       <c r="H46" s="119"/>
@@ -9456,7 +9412,7 @@
       <c r="N46" s="119"/>
       <c r="O46" s="119"/>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F47" s="119"/>
       <c r="G47" s="119"/>
       <c r="H47" s="119"/>
@@ -9468,7 +9424,7 @@
       <c r="N47" s="119"/>
       <c r="O47" s="119"/>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F48" s="119"/>
       <c r="G48" s="119"/>
       <c r="H48" s="119"/>
@@ -9480,7 +9436,7 @@
       <c r="N48" s="119"/>
       <c r="O48" s="119"/>
     </row>
-    <row r="49" spans="6:15">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F49" s="119"/>
       <c r="G49" s="119"/>
       <c r="H49" s="119"/>
@@ -9492,7 +9448,7 @@
       <c r="N49" s="119"/>
       <c r="O49" s="119"/>
     </row>
-    <row r="50" spans="6:15">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F50" s="119"/>
       <c r="G50" s="119"/>
       <c r="H50" s="119"/>
@@ -9504,7 +9460,7 @@
       <c r="N50" s="119"/>
       <c r="O50" s="119"/>
     </row>
-    <row r="51" spans="6:15">
+    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F51" s="119"/>
       <c r="G51" s="119"/>
       <c r="H51" s="119"/>
@@ -9516,7 +9472,7 @@
       <c r="N51" s="119"/>
       <c r="O51" s="119"/>
     </row>
-    <row r="52" spans="6:15">
+    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F52" s="119"/>
       <c r="G52" s="119"/>
       <c r="H52" s="119"/>
@@ -9546,21 +9502,21 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>292</v>
       </c>
@@ -9592,7 +9548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -9610,7 +9566,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -9642,7 +9598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="80">
         <v>2</v>
       </c>
@@ -9671,7 +9627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="80">
         <v>3</v>
       </c>
@@ -9694,7 +9650,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="80">
         <v>4</v>
       </c>
@@ -9717,7 +9673,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="80">
         <v>5</v>
       </c>
@@ -9740,7 +9696,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="s">
         <v>110</v>
       </c>
@@ -9754,7 +9710,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="56" t="s">
         <v>115</v>
       </c>
@@ -9768,7 +9724,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="56" t="s">
         <v>117</v>
       </c>
@@ -9779,7 +9735,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="86" t="s">
         <v>467</v>
       </c>
@@ -9790,7 +9746,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="15" t="s">
         <v>121</v>
       </c>
@@ -9801,7 +9757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="15" t="s">
         <v>125</v>
       </c>
@@ -9812,7 +9768,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="15" t="s">
         <v>128</v>
       </c>
@@ -9820,7 +9776,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="15" t="s">
         <v>131</v>
       </c>
@@ -9828,7 +9784,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="15" t="s">
         <v>131</v>
       </c>
@@ -9836,7 +9792,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D17" s="15" t="s">
         <v>135</v>
       </c>
@@ -9844,7 +9800,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
         <v>138</v>
       </c>
@@ -9852,7 +9808,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19" s="15" t="s">
         <v>142</v>
       </c>
@@ -9860,7 +9816,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D20" s="15" t="s">
         <v>145</v>
       </c>
@@ -9868,7 +9824,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D21" s="15" t="s">
         <v>11</v>
       </c>
@@ -9876,7 +9832,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22" s="15" t="s">
         <v>152</v>
       </c>
@@ -9884,7 +9840,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" s="15" t="s">
         <v>155</v>
       </c>
@@ -9892,7 +9848,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D24" s="15" t="s">
         <v>158</v>
       </c>
@@ -9900,7 +9856,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D25" s="15" t="s">
         <v>162</v>
       </c>
@@ -9908,7 +9864,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D26" s="15" t="s">
         <v>166</v>
       </c>
@@ -9916,7 +9872,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D27" s="15" t="s">
         <v>170</v>
       </c>
@@ -9924,7 +9880,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D28" s="15" t="s">
         <v>173</v>
       </c>
@@ -9932,7 +9888,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D29" s="15" t="s">
         <v>176</v>
       </c>
@@ -9940,7 +9896,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D30" s="15" t="s">
         <v>178</v>
       </c>
@@ -9948,7 +9904,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31" s="15" t="s">
         <v>181</v>
       </c>
@@ -9956,7 +9912,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D32" s="15" t="s">
         <v>183</v>
       </c>
@@ -9964,7 +9920,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" s="15" t="s">
         <v>184</v>
       </c>
@@ -9972,7 +9928,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" s="15" t="s">
         <v>336</v>
       </c>
@@ -9980,7 +9936,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35" s="15" t="s">
         <v>190</v>
       </c>
@@ -9988,7 +9944,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36" s="15" t="s">
         <v>193</v>
       </c>
@@ -9996,7 +9952,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37" s="15" t="s">
         <v>195</v>
       </c>
@@ -10004,7 +9960,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38" s="15" t="s">
         <v>199</v>
       </c>
@@ -10012,7 +9968,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>202</v>
       </c>
@@ -10020,7 +9976,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>205</v>
       </c>
@@ -10028,7 +9984,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>208</v>
       </c>
@@ -10036,547 +9992,547 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F42" s="15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F43" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F44" s="15" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F45" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F46" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F47" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F48" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="6:6">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="15" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="15" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="6:6">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68" s="15" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="6:6">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70" s="15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="6:6">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="6:6">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="73" spans="6:6">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="6:6">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="6:6">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="6:6">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="6:6">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="6:6">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="6:6">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="6:6">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="6:6">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="6:6">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="6:6">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F86" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="6:6">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="6:6">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="6:6">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F90" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="91" spans="6:6">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F91" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="6:6">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F92" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="6:6">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F93" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="6:6">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F94" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="6:6">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F95" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="96" spans="6:6">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="97" spans="6:6">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="6:6">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="6:6">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="6:6">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="6:6">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="6:6">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="6:6">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="6:6">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="6:6">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="6:6">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="6:6">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="6:6">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="6:6">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" s="15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="6:6">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="6:6">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="6:6">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="6:6">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="6:6">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="15" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="6:6">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="6:6">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F116" s="15" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="6:6">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117" s="15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="6:6">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F118" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="119" spans="6:6">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119" s="15" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="6:6">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F120" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="121" spans="6:6">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F121" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="122" spans="6:6">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F122" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="123" spans="6:6">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F123" s="15" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="6:6">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F124" s="15" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="6:6">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="6:6">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F126" s="15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="6:6">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="6:6">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F128" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="6:6">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="6:6">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="6:6">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" s="15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="132" spans="6:6">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132" s="15" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="6:6">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F133" s="15" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="6:6">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" s="15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="6:6">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="6:6">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="6:6">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" s="15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="138" spans="6:6">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" s="15" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="139" spans="6:6">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139" s="15" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="140" spans="6:6">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" s="15" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="141" spans="6:6">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141" s="15" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="142" spans="6:6">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" s="15" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="143" spans="6:6">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F143" s="15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="144" spans="6:6">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F144" s="15" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="145" spans="6:6">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F145" s="15" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="146" spans="6:6">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F146" s="15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="6:6">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F147" s="15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="148" spans="6:6">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F148" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="149" spans="6:6">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F149" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="150" spans="6:6">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F150" s="15" t="s">
         <v>113</v>
       </c>
@@ -10595,108 +10551,108 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.6640625" customWidth="1"/>
+    <col min="1" max="1" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
         <v>448</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>466</v>
       </c>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Code\Bootleg_Macro\Macro_Chartist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182363F5-EE49-4CCF-B11C-A1F8135935BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974BBB32-41BA-4552-B053-D49AAD0A88A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="TemplateList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="473">
   <si>
     <t>Index</t>
   </si>
@@ -1596,10 +1595,13 @@
     <t>Bitcoin price change is fueled by global monetary growth</t>
   </si>
   <si>
-    <t>YoY % change (numbers not right here but shape unchanged)</t>
-  </si>
-  <si>
     <t>2011-06-01</t>
+  </si>
+  <si>
+    <t>GM2_fc_Av3m</t>
+  </si>
+  <si>
+    <t>GM2 Forecast @ last 3 months mean growth rate</t>
   </si>
 </sst>
 </file>
@@ -2207,53 +2209,39 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2273,36 +2261,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2576,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2654,10 +2656,10 @@
       <c r="G2" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
@@ -2666,8 +2668,8 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>239</v>
+      <c r="B3" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>90</v>
@@ -2676,18 +2678,18 @@
         <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>345</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>472</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -2696,15 +2698,31 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -2718,7 +2736,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -2738,14 +2756,14 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,72 +2823,72 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="88" t="s">
+      <c r="J12" s="91" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="88"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="88"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="88"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
@@ -3105,170 +3123,170 @@
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="91" t="s">
+      <c r="J27" s="111" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
     </row>
     <row r="34" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
     </row>
     <row r="35" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="C36" s="100" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="31"/>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
     </row>
@@ -3276,17 +3294,17 @@
       <c r="A38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
@@ -3294,21 +3312,21 @@
       <c r="A39" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="106" t="s">
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="106"/>
-      <c r="H39" s="107" t="s">
+      <c r="G39" s="101"/>
+      <c r="H39" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
@@ -3320,80 +3338,80 @@
       <c r="B40" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="88" t="s">
+      <c r="H40" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="112"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
@@ -3405,16 +3423,16 @@
       <c r="B45" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
@@ -3424,16 +3442,16 @@
         <v>74</v>
       </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
@@ -3443,41 +3461,41 @@
         <v>76</v>
       </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
@@ -3489,16 +3507,16 @@
       <c r="B50" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
@@ -3511,25 +3529,25 @@
       <c r="B51" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="20"/>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
@@ -3539,19 +3557,19 @@
       <c r="A53" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="87" t="s">
         <v>462</v>
       </c>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109" t="s">
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
@@ -3563,28 +3581,28 @@
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
       <c r="N56" s="20"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3702,14 +3720,14 @@
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="110"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
@@ -3771,14 +3789,14 @@
       <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="110"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
@@ -5326,6 +5344,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="F53:J56"/>
     <mergeCell ref="C64:J64"/>
@@ -5340,37 +5389,6 @@
     <mergeCell ref="A49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="J27:J33"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B45" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Code\Bootleg_Macro\Macro_Chartist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F91C3D-3EBC-EA44-B9A0-D96421F5252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4F5C5-AD9B-433D-B115-70DE24195D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter_Input" sheetId="1" r:id="rId1"/>
@@ -1620,7 +1620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2587,31 +2587,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="8" width="44" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" customHeight="1">
+    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1">
+    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1">
+    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1">
+    <row r="4" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1">
+    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1">
+    <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:36" ht="18" customHeight="1">
+    <row r="7" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1">
+    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:36" ht="18" customHeight="1">
+    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:36" ht="18" customHeight="1">
+    <row r="10" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:36" ht="18" customHeight="1">
+    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:36" ht="18" customHeight="1">
+    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
         <v>27</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="18" customHeight="1">
+    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87"/>
       <c r="B13" s="88"/>
       <c r="C13" s="89"/>
@@ -2903,7 +2903,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="88"/>
     </row>
-    <row r="14" spans="1:36" ht="18" customHeight="1">
+    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="87"/>
       <c r="B14" s="88"/>
       <c r="C14" s="89"/>
@@ -2915,7 +2915,7 @@
       <c r="I14" s="91"/>
       <c r="J14" s="88"/>
     </row>
-    <row r="15" spans="1:36" ht="25.5" customHeight="1">
+    <row r="15" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87"/>
       <c r="B15" s="88"/>
       <c r="C15" s="89"/>
@@ -2927,7 +2927,7 @@
       <c r="I15" s="91"/>
       <c r="J15" s="88"/>
     </row>
-    <row r="16" spans="1:36" ht="21" customHeight="1">
+    <row r="16" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2978,16 +2978,12 @@
       <c r="AI16" s="20"/>
       <c r="AJ16" s="20"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="22">
-        <v>19.5</v>
-      </c>
-      <c r="C17" s="22">
-        <v>-4.8</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="23" t="s">
         <v>477</v>
       </c>
@@ -3017,7 +3013,7 @@
       <c r="AI17" s="20"/>
       <c r="AJ17" s="20"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>12</v>
       </c>
@@ -3050,7 +3046,7 @@
       <c r="AI18" s="20"/>
       <c r="AJ18" s="20"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>13</v>
       </c>
@@ -3064,7 +3060,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>14</v>
       </c>
@@ -3078,16 +3074,12 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B21" s="26">
-        <v>9732</v>
-      </c>
-      <c r="C21" s="26">
-        <v>-83.6</v>
-      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="23" t="s">
         <v>477</v>
       </c>
@@ -3098,7 +3090,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>16</v>
       </c>
@@ -3112,7 +3104,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>17</v>
       </c>
@@ -3126,7 +3118,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>18</v>
       </c>
@@ -3140,7 +3132,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>19</v>
       </c>
@@ -3154,7 +3146,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>20</v>
       </c>
@@ -3168,7 +3160,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="96" t="s">
         <v>47</v>
       </c>
@@ -3200,7 +3192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="96"/>
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
@@ -3212,7 +3204,7 @@
       <c r="I28" s="91"/>
       <c r="J28" s="91"/>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
@@ -3224,7 +3216,7 @@
       <c r="I29" s="91"/>
       <c r="J29" s="91"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="96"/>
       <c r="B30" s="97"/>
       <c r="C30" s="97"/>
@@ -3236,7 +3228,7 @@
       <c r="I30" s="91"/>
       <c r="J30" s="91"/>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="96"/>
       <c r="B31" s="97"/>
       <c r="C31" s="97"/>
@@ -3248,7 +3240,7 @@
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -3260,7 +3252,7 @@
       <c r="I32" s="91"/>
       <c r="J32" s="91"/>
     </row>
-    <row r="33" spans="1:13" ht="22.5" customHeight="1">
+    <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
         <v>56</v>
       </c>
@@ -3274,7 +3266,7 @@
       <c r="I33" s="91"/>
       <c r="J33" s="91"/>
     </row>
-    <row r="34" spans="1:13" ht="22.5" customHeight="1">
+    <row r="34" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98"/>
       <c r="B34" s="98"/>
       <c r="C34" s="98"/>
@@ -3286,7 +3278,7 @@
       <c r="I34" s="98"/>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="1:13" ht="22.5" customHeight="1">
+    <row r="35" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
         <v>57</v>
       </c>
@@ -3300,7 +3292,7 @@
       <c r="I35" s="99"/>
       <c r="J35" s="99"/>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>58</v>
       </c>
@@ -3318,7 +3310,7 @@
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
     </row>
-    <row r="37" spans="1:13" ht="16">
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
@@ -3336,7 +3328,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
     </row>
-    <row r="38" spans="1:13" ht="16">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>62</v>
       </c>
@@ -3354,7 +3346,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>64</v>
       </c>
@@ -3377,7 +3369,7 @@
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>67</v>
       </c>
@@ -3400,7 +3392,7 @@
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
     </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="112"/>
       <c r="B41" s="112"/>
       <c r="C41" s="112"/>
@@ -3415,7 +3407,7 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="112"/>
       <c r="B42" s="112"/>
       <c r="C42" s="112"/>
@@ -3430,7 +3422,7 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
     </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1">
+    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="112"/>
       <c r="B43" s="112"/>
       <c r="C43" s="112"/>
@@ -3445,7 +3437,7 @@
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
     </row>
-    <row r="44" spans="1:13" ht="18">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="113" t="s">
         <v>70</v>
       </c>
@@ -3462,7 +3454,7 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
     </row>
-    <row r="45" spans="1:13" ht="16">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>71</v>
       </c>
@@ -3483,7 +3475,7 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
     </row>
-    <row r="46" spans="1:13" ht="16">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>73</v>
       </c>
@@ -3502,7 +3494,7 @@
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:13" ht="16">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>75</v>
       </c>
@@ -3521,7 +3513,7 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H48" s="88"/>
       <c r="I48" s="88"/>
       <c r="J48" s="88"/>
@@ -3529,7 +3521,7 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
     </row>
-    <row r="49" spans="1:14" ht="24.75" customHeight="1">
+    <row r="49" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="116" t="s">
         <v>77</v>
       </c>
@@ -3546,7 +3538,7 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
     </row>
-    <row r="50" spans="1:14" ht="16">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>78</v>
       </c>
@@ -3568,7 +3560,7 @@
       <c r="M50" s="34"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +3582,7 @@
       <c r="M51" s="34"/>
       <c r="N51" s="20"/>
     </row>
-    <row r="52" spans="1:14" ht="12.75" customHeight="1">
+    <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H52" s="88"/>
       <c r="I52" s="88"/>
       <c r="J52" s="88"/>
@@ -3599,7 +3591,7 @@
       <c r="M52" s="34"/>
       <c r="N52" s="20"/>
     </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1">
+    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
         <v>82</v>
       </c>
@@ -3621,7 +3613,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="20"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3636,14 +3628,14 @@
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F55" s="109"/>
       <c r="G55" s="109"/>
       <c r="H55" s="109"/>
       <c r="I55" s="109"/>
       <c r="J55" s="109"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F56" s="109"/>
       <c r="G56" s="109"/>
       <c r="H56" s="109"/>
@@ -3651,7 +3643,7 @@
       <c r="J56" s="109"/>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3667,7 +3659,7 @@
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3683,7 +3675,7 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3699,7 +3691,7 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" ht="12.75" customHeight="1">
+    <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="46"/>
@@ -3715,7 +3707,7 @@
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" ht="12.75" customHeight="1">
+    <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="46"/>
@@ -3731,7 +3723,7 @@
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" ht="12.75" customHeight="1">
+    <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="46"/>
@@ -3747,7 +3739,7 @@
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" ht="12.75" customHeight="1">
+    <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="46"/>
@@ -3763,7 +3755,7 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" ht="12.75" customHeight="1">
+    <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="110"/>
@@ -3779,7 +3771,7 @@
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="1:14" ht="12.75" customHeight="1">
+    <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="46"/>
@@ -3795,7 +3787,7 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" ht="12.75" customHeight="1">
+    <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="46"/>
       <c r="D66" s="46"/>
       <c r="E66" s="46"/>
@@ -3809,7 +3801,7 @@
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" ht="12.75" customHeight="1">
+    <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="46"/>
       <c r="D67" s="46"/>
       <c r="E67" s="46"/>
@@ -3823,7 +3815,7 @@
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -3834,7 +3826,7 @@
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C69" s="110"/>
       <c r="D69" s="110"/>
       <c r="E69" s="110"/>
@@ -3848,7 +3840,7 @@
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -3859,7 +3851,7 @@
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
@@ -3870,7 +3862,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -3881,7 +3873,7 @@
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -3892,7 +3884,7 @@
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -3903,7 +3895,7 @@
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
@@ -3914,7 +3906,7 @@
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -3925,7 +3917,7 @@
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -3936,7 +3928,7 @@
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
@@ -3947,7 +3939,7 @@
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
@@ -3958,7 +3950,7 @@
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -3969,7 +3961,7 @@
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="6:14">
+    <row r="81" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -3980,7 +3972,7 @@
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
     </row>
-    <row r="82" spans="6:14">
+    <row r="82" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
@@ -3991,7 +3983,7 @@
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="6:14">
+    <row r="83" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -4002,7 +3994,7 @@
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="6:14">
+    <row r="84" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
@@ -4013,7 +4005,7 @@
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
     </row>
-    <row r="85" spans="6:14">
+    <row r="85" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -4024,7 +4016,7 @@
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="6:14">
+    <row r="86" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
@@ -4035,7 +4027,7 @@
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
     </row>
-    <row r="87" spans="6:14">
+    <row r="87" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
@@ -4046,7 +4038,7 @@
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
     </row>
-    <row r="88" spans="6:14">
+    <row r="88" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
@@ -4057,7 +4049,7 @@
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
     </row>
-    <row r="89" spans="6:14">
+    <row r="89" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -4068,7 +4060,7 @@
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
     </row>
-    <row r="90" spans="6:14">
+    <row r="90" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
@@ -4079,7 +4071,7 @@
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="6:14">
+    <row r="91" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
@@ -4090,7 +4082,7 @@
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
     </row>
-    <row r="92" spans="6:14">
+    <row r="92" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
@@ -4101,7 +4093,7 @@
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
     </row>
-    <row r="93" spans="6:14">
+    <row r="93" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
@@ -4112,7 +4104,7 @@
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="6:14">
+    <row r="94" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
@@ -4123,7 +4115,7 @@
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
     </row>
-    <row r="95" spans="6:14">
+    <row r="95" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
@@ -4134,7 +4126,7 @@
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
     </row>
-    <row r="96" spans="6:14">
+    <row r="96" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
@@ -4145,7 +4137,7 @@
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
     </row>
-    <row r="97" spans="6:14">
+    <row r="97" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -4156,7 +4148,7 @@
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="6:14">
+    <row r="98" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
@@ -4167,7 +4159,7 @@
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="6:14">
+    <row r="99" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -4178,7 +4170,7 @@
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="6:14">
+    <row r="100" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -4189,7 +4181,7 @@
       <c r="M100" s="20"/>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="6:14">
+    <row r="101" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -4200,7 +4192,7 @@
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="6:14">
+    <row r="102" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
@@ -4211,7 +4203,7 @@
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="6:14">
+    <row r="103" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -4222,7 +4214,7 @@
       <c r="M103" s="20"/>
       <c r="N103" s="20"/>
     </row>
-    <row r="104" spans="6:14">
+    <row r="104" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
@@ -4233,7 +4225,7 @@
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
     </row>
-    <row r="105" spans="6:14">
+    <row r="105" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -4244,7 +4236,7 @@
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
     </row>
-    <row r="106" spans="6:14">
+    <row r="106" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -4255,7 +4247,7 @@
       <c r="M106" s="20"/>
       <c r="N106" s="20"/>
     </row>
-    <row r="107" spans="6:14">
+    <row r="107" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
@@ -4266,7 +4258,7 @@
       <c r="M107" s="20"/>
       <c r="N107" s="20"/>
     </row>
-    <row r="108" spans="6:14">
+    <row r="108" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -4277,7 +4269,7 @@
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
     </row>
-    <row r="109" spans="6:14">
+    <row r="109" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
@@ -4288,7 +4280,7 @@
       <c r="M109" s="20"/>
       <c r="N109" s="20"/>
     </row>
-    <row r="110" spans="6:14">
+    <row r="110" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -4299,7 +4291,7 @@
       <c r="M110" s="20"/>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="6:14">
+    <row r="111" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
@@ -4310,7 +4302,7 @@
       <c r="M111" s="20"/>
       <c r="N111" s="20"/>
     </row>
-    <row r="112" spans="6:14">
+    <row r="112" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -4321,7 +4313,7 @@
       <c r="M112" s="20"/>
       <c r="N112" s="20"/>
     </row>
-    <row r="113" spans="6:14">
+    <row r="113" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
@@ -4332,7 +4324,7 @@
       <c r="M113" s="20"/>
       <c r="N113" s="20"/>
     </row>
-    <row r="114" spans="6:14">
+    <row r="114" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -4343,7 +4335,7 @@
       <c r="M114" s="20"/>
       <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="6:14">
+    <row r="115" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
@@ -4354,7 +4346,7 @@
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
     </row>
-    <row r="116" spans="6:14">
+    <row r="116" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -4365,7 +4357,7 @@
       <c r="M116" s="20"/>
       <c r="N116" s="20"/>
     </row>
-    <row r="117" spans="6:14">
+    <row r="117" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
@@ -4376,7 +4368,7 @@
       <c r="M117" s="20"/>
       <c r="N117" s="20"/>
     </row>
-    <row r="118" spans="6:14">
+    <row r="118" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
@@ -4387,7 +4379,7 @@
       <c r="M118" s="20"/>
       <c r="N118" s="20"/>
     </row>
-    <row r="119" spans="6:14">
+    <row r="119" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -4398,7 +4390,7 @@
       <c r="M119" s="20"/>
       <c r="N119" s="20"/>
     </row>
-    <row r="120" spans="6:14">
+    <row r="120" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
@@ -4409,7 +4401,7 @@
       <c r="M120" s="20"/>
       <c r="N120" s="20"/>
     </row>
-    <row r="121" spans="6:14">
+    <row r="121" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -4420,7 +4412,7 @@
       <c r="M121" s="20"/>
       <c r="N121" s="20"/>
     </row>
-    <row r="122" spans="6:14">
+    <row r="122" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
@@ -4431,7 +4423,7 @@
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
     </row>
-    <row r="123" spans="6:14">
+    <row r="123" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -4442,7 +4434,7 @@
       <c r="M123" s="20"/>
       <c r="N123" s="20"/>
     </row>
-    <row r="124" spans="6:14">
+    <row r="124" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
@@ -4453,7 +4445,7 @@
       <c r="M124" s="20"/>
       <c r="N124" s="20"/>
     </row>
-    <row r="125" spans="6:14">
+    <row r="125" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -4464,7 +4456,7 @@
       <c r="M125" s="20"/>
       <c r="N125" s="20"/>
     </row>
-    <row r="126" spans="6:14">
+    <row r="126" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
@@ -4475,7 +4467,7 @@
       <c r="M126" s="20"/>
       <c r="N126" s="20"/>
     </row>
-    <row r="127" spans="6:14">
+    <row r="127" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -4486,7 +4478,7 @@
       <c r="M127" s="20"/>
       <c r="N127" s="20"/>
     </row>
-    <row r="128" spans="6:14">
+    <row r="128" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -4497,7 +4489,7 @@
       <c r="M128" s="20"/>
       <c r="N128" s="20"/>
     </row>
-    <row r="129" spans="6:14">
+    <row r="129" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
@@ -4508,7 +4500,7 @@
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
     </row>
-    <row r="130" spans="6:14">
+    <row r="130" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
@@ -4519,7 +4511,7 @@
       <c r="M130" s="20"/>
       <c r="N130" s="20"/>
     </row>
-    <row r="131" spans="6:14">
+    <row r="131" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
@@ -4530,7 +4522,7 @@
       <c r="M131" s="20"/>
       <c r="N131" s="20"/>
     </row>
-    <row r="132" spans="6:14">
+    <row r="132" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -4541,7 +4533,7 @@
       <c r="M132" s="20"/>
       <c r="N132" s="20"/>
     </row>
-    <row r="133" spans="6:14">
+    <row r="133" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
@@ -4552,7 +4544,7 @@
       <c r="M133" s="20"/>
       <c r="N133" s="20"/>
     </row>
-    <row r="134" spans="6:14">
+    <row r="134" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
@@ -4563,7 +4555,7 @@
       <c r="M134" s="20"/>
       <c r="N134" s="20"/>
     </row>
-    <row r="135" spans="6:14">
+    <row r="135" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -4574,7 +4566,7 @@
       <c r="M135" s="20"/>
       <c r="N135" s="20"/>
     </row>
-    <row r="136" spans="6:14">
+    <row r="136" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
@@ -4585,7 +4577,7 @@
       <c r="M136" s="20"/>
       <c r="N136" s="20"/>
     </row>
-    <row r="137" spans="6:14">
+    <row r="137" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
@@ -4596,7 +4588,7 @@
       <c r="M137" s="20"/>
       <c r="N137" s="20"/>
     </row>
-    <row r="138" spans="6:14">
+    <row r="138" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -4607,7 +4599,7 @@
       <c r="M138" s="20"/>
       <c r="N138" s="20"/>
     </row>
-    <row r="139" spans="6:14">
+    <row r="139" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
@@ -4618,7 +4610,7 @@
       <c r="M139" s="20"/>
       <c r="N139" s="20"/>
     </row>
-    <row r="140" spans="6:14">
+    <row r="140" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -4629,7 +4621,7 @@
       <c r="M140" s="20"/>
       <c r="N140" s="20"/>
     </row>
-    <row r="141" spans="6:14">
+    <row r="141" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
@@ -4640,7 +4632,7 @@
       <c r="M141" s="20"/>
       <c r="N141" s="20"/>
     </row>
-    <row r="142" spans="6:14">
+    <row r="142" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
@@ -4651,7 +4643,7 @@
       <c r="M142" s="20"/>
       <c r="N142" s="20"/>
     </row>
-    <row r="143" spans="6:14">
+    <row r="143" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -4662,7 +4654,7 @@
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
     </row>
-    <row r="144" spans="6:14">
+    <row r="144" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
@@ -4673,7 +4665,7 @@
       <c r="M144" s="20"/>
       <c r="N144" s="20"/>
     </row>
-    <row r="145" spans="6:14">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -4684,7 +4676,7 @@
       <c r="M145" s="20"/>
       <c r="N145" s="20"/>
     </row>
-    <row r="146" spans="6:14">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
@@ -4695,7 +4687,7 @@
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
     </row>
-    <row r="147" spans="6:14">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -4706,7 +4698,7 @@
       <c r="M147" s="20"/>
       <c r="N147" s="20"/>
     </row>
-    <row r="148" spans="6:14">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
@@ -4717,7 +4709,7 @@
       <c r="M148" s="20"/>
       <c r="N148" s="20"/>
     </row>
-    <row r="149" spans="6:14">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
@@ -4728,7 +4720,7 @@
       <c r="M149" s="20"/>
       <c r="N149" s="20"/>
     </row>
-    <row r="150" spans="6:14">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
@@ -4739,7 +4731,7 @@
       <c r="M150" s="20"/>
       <c r="N150" s="20"/>
     </row>
-    <row r="151" spans="6:14">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
@@ -4750,7 +4742,7 @@
       <c r="M151" s="20"/>
       <c r="N151" s="20"/>
     </row>
-    <row r="152" spans="6:14">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -4761,7 +4753,7 @@
       <c r="M152" s="20"/>
       <c r="N152" s="20"/>
     </row>
-    <row r="153" spans="6:14">
+    <row r="153" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
@@ -4772,7 +4764,7 @@
       <c r="M153" s="20"/>
       <c r="N153" s="20"/>
     </row>
-    <row r="154" spans="6:14">
+    <row r="154" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
@@ -4783,7 +4775,7 @@
       <c r="M154" s="20"/>
       <c r="N154" s="20"/>
     </row>
-    <row r="155" spans="6:14">
+    <row r="155" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -4794,7 +4786,7 @@
       <c r="M155" s="20"/>
       <c r="N155" s="20"/>
     </row>
-    <row r="156" spans="6:14">
+    <row r="156" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
@@ -4805,7 +4797,7 @@
       <c r="M156" s="20"/>
       <c r="N156" s="20"/>
     </row>
-    <row r="157" spans="6:14">
+    <row r="157" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
@@ -4816,7 +4808,7 @@
       <c r="M157" s="20"/>
       <c r="N157" s="20"/>
     </row>
-    <row r="158" spans="6:14">
+    <row r="158" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
@@ -4827,7 +4819,7 @@
       <c r="M158" s="20"/>
       <c r="N158" s="20"/>
     </row>
-    <row r="159" spans="6:14">
+    <row r="159" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
@@ -4838,7 +4830,7 @@
       <c r="M159" s="20"/>
       <c r="N159" s="20"/>
     </row>
-    <row r="160" spans="6:14">
+    <row r="160" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
@@ -4849,7 +4841,7 @@
       <c r="M160" s="20"/>
       <c r="N160" s="20"/>
     </row>
-    <row r="161" spans="6:14">
+    <row r="161" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
@@ -4860,7 +4852,7 @@
       <c r="M161" s="20"/>
       <c r="N161" s="20"/>
     </row>
-    <row r="162" spans="6:14">
+    <row r="162" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
@@ -4871,7 +4863,7 @@
       <c r="M162" s="20"/>
       <c r="N162" s="20"/>
     </row>
-    <row r="163" spans="6:14">
+    <row r="163" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
@@ -4882,7 +4874,7 @@
       <c r="M163" s="20"/>
       <c r="N163" s="20"/>
     </row>
-    <row r="164" spans="6:14">
+    <row r="164" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
@@ -4893,7 +4885,7 @@
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
     </row>
-    <row r="165" spans="6:14">
+    <row r="165" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -4904,7 +4896,7 @@
       <c r="M165" s="20"/>
       <c r="N165" s="20"/>
     </row>
-    <row r="166" spans="6:14">
+    <row r="166" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
@@ -4915,7 +4907,7 @@
       <c r="M166" s="20"/>
       <c r="N166" s="20"/>
     </row>
-    <row r="167" spans="6:14">
+    <row r="167" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
@@ -4926,7 +4918,7 @@
       <c r="M167" s="20"/>
       <c r="N167" s="20"/>
     </row>
-    <row r="168" spans="6:14">
+    <row r="168" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
@@ -4937,7 +4929,7 @@
       <c r="M168" s="20"/>
       <c r="N168" s="20"/>
     </row>
-    <row r="169" spans="6:14">
+    <row r="169" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
@@ -4948,7 +4940,7 @@
       <c r="M169" s="20"/>
       <c r="N169" s="20"/>
     </row>
-    <row r="170" spans="6:14">
+    <row r="170" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
@@ -4959,7 +4951,7 @@
       <c r="M170" s="20"/>
       <c r="N170" s="20"/>
     </row>
-    <row r="171" spans="6:14">
+    <row r="171" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
       <c r="H171" s="20"/>
@@ -4970,7 +4962,7 @@
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
     </row>
-    <row r="172" spans="6:14">
+    <row r="172" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
@@ -4981,7 +4973,7 @@
       <c r="M172" s="20"/>
       <c r="N172" s="20"/>
     </row>
-    <row r="173" spans="6:14">
+    <row r="173" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
       <c r="H173" s="20"/>
@@ -4992,7 +4984,7 @@
       <c r="M173" s="20"/>
       <c r="N173" s="20"/>
     </row>
-    <row r="174" spans="6:14">
+    <row r="174" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
       <c r="H174" s="20"/>
@@ -5003,7 +4995,7 @@
       <c r="M174" s="20"/>
       <c r="N174" s="20"/>
     </row>
-    <row r="175" spans="6:14">
+    <row r="175" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
       <c r="H175" s="20"/>
@@ -5014,7 +5006,7 @@
       <c r="M175" s="20"/>
       <c r="N175" s="20"/>
     </row>
-    <row r="176" spans="6:14">
+    <row r="176" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
@@ -5025,7 +5017,7 @@
       <c r="M176" s="20"/>
       <c r="N176" s="20"/>
     </row>
-    <row r="177" spans="6:14">
+    <row r="177" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
       <c r="H177" s="20"/>
@@ -5036,7 +5028,7 @@
       <c r="M177" s="20"/>
       <c r="N177" s="20"/>
     </row>
-    <row r="178" spans="6:14">
+    <row r="178" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
       <c r="H178" s="20"/>
@@ -5047,7 +5039,7 @@
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
     </row>
-    <row r="179" spans="6:14">
+    <row r="179" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
       <c r="H179" s="20"/>
@@ -5058,7 +5050,7 @@
       <c r="M179" s="20"/>
       <c r="N179" s="20"/>
     </row>
-    <row r="180" spans="6:14">
+    <row r="180" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
       <c r="H180" s="20"/>
@@ -5069,7 +5061,7 @@
       <c r="M180" s="20"/>
       <c r="N180" s="20"/>
     </row>
-    <row r="181" spans="6:14">
+    <row r="181" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="20"/>
@@ -5080,7 +5072,7 @@
       <c r="M181" s="20"/>
       <c r="N181" s="20"/>
     </row>
-    <row r="182" spans="6:14">
+    <row r="182" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
@@ -5091,7 +5083,7 @@
       <c r="M182" s="20"/>
       <c r="N182" s="20"/>
     </row>
-    <row r="183" spans="6:14">
+    <row r="183" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" s="20"/>
@@ -5102,7 +5094,7 @@
       <c r="M183" s="20"/>
       <c r="N183" s="20"/>
     </row>
-    <row r="184" spans="6:14">
+    <row r="184" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
       <c r="H184" s="20"/>
@@ -5113,7 +5105,7 @@
       <c r="M184" s="20"/>
       <c r="N184" s="20"/>
     </row>
-    <row r="185" spans="6:14">
+    <row r="185" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
       <c r="H185" s="20"/>
@@ -5124,7 +5116,7 @@
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
     </row>
-    <row r="186" spans="6:14">
+    <row r="186" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
       <c r="H186" s="20"/>
@@ -5135,7 +5127,7 @@
       <c r="M186" s="20"/>
       <c r="N186" s="20"/>
     </row>
-    <row r="187" spans="6:14">
+    <row r="187" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="20"/>
@@ -5146,7 +5138,7 @@
       <c r="M187" s="20"/>
       <c r="N187" s="20"/>
     </row>
-    <row r="188" spans="6:14">
+    <row r="188" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
       <c r="H188" s="20"/>
@@ -5157,7 +5149,7 @@
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
     </row>
-    <row r="189" spans="6:14">
+    <row r="189" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -5168,7 +5160,7 @@
       <c r="M189" s="20"/>
       <c r="N189" s="20"/>
     </row>
-    <row r="190" spans="6:14">
+    <row r="190" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
       <c r="H190" s="20"/>
@@ -5179,7 +5171,7 @@
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
     </row>
-    <row r="191" spans="6:14">
+    <row r="191" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
@@ -5190,7 +5182,7 @@
       <c r="M191" s="20"/>
       <c r="N191" s="20"/>
     </row>
-    <row r="192" spans="6:14">
+    <row r="192" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
@@ -5201,7 +5193,7 @@
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
     </row>
-    <row r="193" spans="6:14">
+    <row r="193" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
       <c r="H193" s="20"/>
@@ -5212,7 +5204,7 @@
       <c r="M193" s="20"/>
       <c r="N193" s="20"/>
     </row>
-    <row r="194" spans="6:14">
+    <row r="194" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -5223,7 +5215,7 @@
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
     </row>
-    <row r="195" spans="6:14">
+    <row r="195" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="20"/>
@@ -5234,7 +5226,7 @@
       <c r="M195" s="20"/>
       <c r="N195" s="20"/>
     </row>
-    <row r="196" spans="6:14">
+    <row r="196" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
       <c r="H196" s="20"/>
@@ -5245,7 +5237,7 @@
       <c r="M196" s="20"/>
       <c r="N196" s="20"/>
     </row>
-    <row r="197" spans="6:14">
+    <row r="197" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
       <c r="H197" s="20"/>
@@ -5256,7 +5248,7 @@
       <c r="M197" s="20"/>
       <c r="N197" s="20"/>
     </row>
-    <row r="198" spans="6:14">
+    <row r="198" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
       <c r="H198" s="20"/>
@@ -5267,7 +5259,7 @@
       <c r="M198" s="20"/>
       <c r="N198" s="20"/>
     </row>
-    <row r="199" spans="6:14">
+    <row r="199" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
       <c r="H199" s="20"/>
@@ -5278,7 +5270,7 @@
       <c r="M199" s="20"/>
       <c r="N199" s="20"/>
     </row>
-    <row r="200" spans="6:14">
+    <row r="200" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
       <c r="H200" s="20"/>
@@ -5289,7 +5281,7 @@
       <c r="M200" s="20"/>
       <c r="N200" s="20"/>
     </row>
-    <row r="201" spans="6:14">
+    <row r="201" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
       <c r="H201" s="20"/>
@@ -5300,7 +5292,7 @@
       <c r="M201" s="20"/>
       <c r="N201" s="20"/>
     </row>
-    <row r="202" spans="6:14">
+    <row r="202" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
       <c r="H202" s="20"/>
@@ -5311,7 +5303,7 @@
       <c r="M202" s="20"/>
       <c r="N202" s="20"/>
     </row>
-    <row r="203" spans="6:14">
+    <row r="203" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
       <c r="H203" s="20"/>
@@ -5322,7 +5314,7 @@
       <c r="M203" s="20"/>
       <c r="N203" s="20"/>
     </row>
-    <row r="204" spans="6:14">
+    <row r="204" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
       <c r="H204" s="20"/>
@@ -5333,7 +5325,7 @@
       <c r="M204" s="20"/>
       <c r="N204" s="20"/>
     </row>
-    <row r="205" spans="6:14">
+    <row r="205" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
       <c r="H205" s="20"/>
@@ -5344,7 +5336,7 @@
       <c r="M205" s="20"/>
       <c r="N205" s="20"/>
     </row>
-    <row r="206" spans="6:14">
+    <row r="206" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
       <c r="H206" s="20"/>
@@ -5355,7 +5347,7 @@
       <c r="M206" s="20"/>
       <c r="N206" s="20"/>
     </row>
-    <row r="207" spans="6:14">
+    <row r="207" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
@@ -5366,7 +5358,7 @@
       <c r="M207" s="20"/>
       <c r="N207" s="20"/>
     </row>
-    <row r="208" spans="6:14">
+    <row r="208" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
@@ -5377,7 +5369,7 @@
       <c r="M208" s="20"/>
       <c r="N208" s="20"/>
     </row>
-    <row r="209" spans="6:14">
+    <row r="209" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
       <c r="H209" s="20"/>
@@ -5537,21 +5529,21 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
-    <col min="9" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="9" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
     <col min="13" max="13" width="119" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D1" s="48" t="s">
         <v>85</v>
       </c>
@@ -5571,7 +5563,7 @@
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -5610,7 +5602,7 @@
       <c r="Q2" s="58"/>
       <c r="R2" s="59"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="56" t="s">
         <v>88</v>
       </c>
@@ -5643,7 +5635,7 @@
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
         <v>95</v>
       </c>
@@ -5676,7 +5668,7 @@
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>100</v>
       </c>
@@ -5709,7 +5701,7 @@
       <c r="Q5" s="57"/>
       <c r="R5" s="57"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>104</v>
       </c>
@@ -5742,7 +5734,7 @@
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
@@ -5775,7 +5767,7 @@
       <c r="Q7" s="57"/>
       <c r="R7" s="57"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
         <v>111</v>
       </c>
@@ -5803,7 +5795,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
         <v>17</v>
       </c>
@@ -5831,7 +5823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>118</v>
       </c>
@@ -5862,7 +5854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>122</v>
       </c>
@@ -5889,7 +5881,7 @@
       </c>
       <c r="M11" s="57"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>100</v>
       </c>
@@ -5918,7 +5910,7 @@
       </c>
       <c r="M12" s="57"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>128</v>
       </c>
@@ -5947,7 +5939,7 @@
       </c>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>131</v>
       </c>
@@ -5973,7 +5965,7 @@
       </c>
       <c r="M14" s="57"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>133</v>
       </c>
@@ -5993,7 +5985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
         <v>100</v>
       </c>
@@ -6026,7 +6018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
         <v>139</v>
       </c>
@@ -6058,7 +6050,7 @@
       </c>
       <c r="M17" s="57"/>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
         <v>142</v>
       </c>
@@ -6089,7 +6081,7 @@
       </c>
       <c r="M18" s="57"/>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
         <v>145</v>
       </c>
@@ -6120,7 +6112,7 @@
       </c>
       <c r="M19" s="57"/>
     </row>
-    <row r="20" spans="2:27" ht="12.75" customHeight="1">
+    <row r="20" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
         <v>148</v>
       </c>
@@ -6163,7 +6155,7 @@
       <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
     </row>
-    <row r="21" spans="2:27" ht="12.75" customHeight="1">
+    <row r="21" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="56" t="s">
         <v>152</v>
       </c>
@@ -6198,7 +6190,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
     </row>
-    <row r="22" spans="2:27" ht="12.75" customHeight="1">
+    <row r="22" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>155</v>
       </c>
@@ -6233,7 +6225,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
     </row>
-    <row r="23" spans="2:27" ht="12.75" customHeight="1">
+    <row r="23" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
         <v>158</v>
       </c>
@@ -6276,7 +6268,7 @@
       <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
     </row>
-    <row r="24" spans="2:27" ht="12.75" customHeight="1">
+    <row r="24" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
@@ -6319,7 +6311,7 @@
       <c r="Z24" s="66"/>
       <c r="AA24" s="66"/>
     </row>
-    <row r="25" spans="2:27" ht="12.75" customHeight="1">
+    <row r="25" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="56" t="s">
         <v>166</v>
       </c>
@@ -6363,7 +6355,7 @@
       <c r="Z25" s="66"/>
       <c r="AA25" s="66"/>
     </row>
-    <row r="26" spans="2:27" ht="12.75" customHeight="1">
+    <row r="26" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="56" t="s">
         <v>170</v>
       </c>
@@ -6407,7 +6399,7 @@
       <c r="Z26" s="66"/>
       <c r="AA26" s="66"/>
     </row>
-    <row r="27" spans="2:27" ht="12.75" customHeight="1">
+    <row r="27" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="67" t="s">
         <v>173</v>
       </c>
@@ -6449,7 +6441,7 @@
       <c r="Z27" s="66"/>
       <c r="AA27" s="66"/>
     </row>
-    <row r="28" spans="2:27" ht="12.75" customHeight="1">
+    <row r="28" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>166</v>
       </c>
@@ -6493,7 +6485,7 @@
       <c r="Z28" s="66"/>
       <c r="AA28" s="66"/>
     </row>
-    <row r="29" spans="2:27" ht="12.75" customHeight="1">
+    <row r="29" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
         <v>178</v>
       </c>
@@ -6533,7 +6525,7 @@
       <c r="Z29" s="66"/>
       <c r="AA29" s="66"/>
     </row>
-    <row r="30" spans="2:27" ht="12.75" customHeight="1">
+    <row r="30" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>181</v>
       </c>
@@ -6577,7 +6569,7 @@
       <c r="Z30" s="66"/>
       <c r="AA30" s="66"/>
     </row>
-    <row r="31" spans="2:27" ht="12.75" customHeight="1">
+    <row r="31" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="56" t="s">
         <v>139</v>
       </c>
@@ -6619,7 +6611,7 @@
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
     </row>
-    <row r="32" spans="2:27" ht="12.75" customHeight="1">
+    <row r="32" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="56" t="s">
         <v>184</v>
       </c>
@@ -6651,7 +6643,7 @@
       <c r="Z32" s="66"/>
       <c r="AA32" s="66"/>
     </row>
-    <row r="33" spans="2:27" ht="12.75" customHeight="1">
+    <row r="33" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>186</v>
       </c>
@@ -6695,7 +6687,7 @@
       <c r="Z33" s="66"/>
       <c r="AA33" s="66"/>
     </row>
-    <row r="34" spans="2:27" ht="12.75" customHeight="1">
+    <row r="34" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="56" t="s">
         <v>88</v>
       </c>
@@ -6739,7 +6731,7 @@
       <c r="Z34" s="66"/>
       <c r="AA34" s="66"/>
     </row>
-    <row r="35" spans="2:27" ht="12.75" customHeight="1">
+    <row r="35" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="56" t="s">
         <v>133</v>
       </c>
@@ -6781,7 +6773,7 @@
       <c r="Z35" s="66"/>
       <c r="AA35" s="66"/>
     </row>
-    <row r="36" spans="2:27" ht="12.75" customHeight="1">
+    <row r="36" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="56" t="s">
         <v>195</v>
       </c>
@@ -6825,7 +6817,7 @@
       <c r="Z36" s="66"/>
       <c r="AA36" s="66"/>
     </row>
-    <row r="37" spans="2:27" ht="12.75" customHeight="1">
+    <row r="37" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
         <v>178</v>
       </c>
@@ -6869,7 +6861,7 @@
       <c r="Z37" s="66"/>
       <c r="AA37" s="66"/>
     </row>
-    <row r="38" spans="2:27" ht="12.75" customHeight="1">
+    <row r="38" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="56" t="s">
         <v>202</v>
       </c>
@@ -6913,7 +6905,7 @@
       <c r="Z38" s="66"/>
       <c r="AA38" s="66"/>
     </row>
-    <row r="39" spans="2:27" ht="12.75" customHeight="1">
+    <row r="39" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
         <v>205</v>
       </c>
@@ -6949,7 +6941,7 @@
       <c r="Z39" s="66"/>
       <c r="AA39" s="66"/>
     </row>
-    <row r="40" spans="2:27" ht="12.75" customHeight="1">
+    <row r="40" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -6978,7 +6970,7 @@
       <c r="Z40" s="66"/>
       <c r="AA40" s="66"/>
     </row>
-    <row r="41" spans="2:27" ht="12.75" customHeight="1">
+    <row r="41" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="56" t="s">
         <v>88</v>
       </c>
@@ -7009,7 +7001,7 @@
       <c r="Z41" s="66"/>
       <c r="AA41" s="66"/>
     </row>
-    <row r="42" spans="2:27" ht="12.75" customHeight="1">
+    <row r="42" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
         <v>133</v>
       </c>
@@ -7038,7 +7030,7 @@
       <c r="Z42" s="66"/>
       <c r="AA42" s="66"/>
     </row>
-    <row r="43" spans="2:27" ht="27.75" customHeight="1">
+    <row r="43" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>195</v>
       </c>
@@ -7070,7 +7062,7 @@
       <c r="Z43" s="66"/>
       <c r="AA43" s="66"/>
     </row>
-    <row r="44" spans="2:27" ht="12.75" customHeight="1">
+    <row r="44" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
         <v>210</v>
       </c>
@@ -7108,7 +7100,7 @@
       <c r="Z44" s="66"/>
       <c r="AA44" s="66"/>
     </row>
-    <row r="45" spans="2:27" ht="12.75" customHeight="1">
+    <row r="45" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
         <v>88</v>
       </c>
@@ -7144,7 +7136,7 @@
       <c r="Z45" s="66"/>
       <c r="AA45" s="66"/>
     </row>
-    <row r="46" spans="2:27" ht="12.75" customHeight="1">
+    <row r="46" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
         <v>152</v>
       </c>
@@ -7180,7 +7172,7 @@
       <c r="Z46" s="66"/>
       <c r="AA46" s="66"/>
     </row>
-    <row r="47" spans="2:27" ht="12.75" customHeight="1">
+    <row r="47" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
         <v>155</v>
       </c>
@@ -7216,7 +7208,7 @@
       <c r="Z47" s="66"/>
       <c r="AA47" s="66"/>
     </row>
-    <row r="48" spans="2:27" ht="12.75" customHeight="1">
+    <row r="48" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
@@ -7246,7 +7238,7 @@
       <c r="Z48" s="66"/>
       <c r="AA48" s="66"/>
     </row>
-    <row r="49" spans="2:27" ht="12.75" customHeight="1">
+    <row r="49" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="15" t="s">
         <v>214</v>
       </c>
@@ -7288,7 +7280,7 @@
       <c r="Z49" s="66"/>
       <c r="AA49" s="66"/>
     </row>
-    <row r="50" spans="2:27" ht="12.75" customHeight="1">
+    <row r="50" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
         <v>217</v>
       </c>
@@ -7322,7 +7314,7 @@
       <c r="Z50" s="66"/>
       <c r="AA50" s="66"/>
     </row>
-    <row r="51" spans="2:27" ht="12.75" customHeight="1">
+    <row r="51" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
         <v>219</v>
       </c>
@@ -7356,7 +7348,7 @@
       <c r="Z51" s="66"/>
       <c r="AA51" s="66"/>
     </row>
-    <row r="52" spans="2:27" ht="12.75" customHeight="1">
+    <row r="52" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
@@ -7400,7 +7392,7 @@
       <c r="Z52" s="66"/>
       <c r="AA52" s="66"/>
     </row>
-    <row r="53" spans="2:27" ht="12.75" customHeight="1">
+    <row r="53" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
         <v>217</v>
       </c>
@@ -7444,7 +7436,7 @@
       <c r="Z53" s="66"/>
       <c r="AA53" s="66"/>
     </row>
-    <row r="54" spans="2:27" ht="12.75" customHeight="1">
+    <row r="54" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="15" t="s">
         <v>88</v>
       </c>
@@ -7489,7 +7481,7 @@
       <c r="Z54" s="66"/>
       <c r="AA54" s="66"/>
     </row>
-    <row r="55" spans="2:27" ht="12.75" customHeight="1">
+    <row r="55" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>17</v>
       </c>
@@ -7531,7 +7523,7 @@
       <c r="Z55" s="66"/>
       <c r="AA55" s="66"/>
     </row>
-    <row r="56" spans="2:27" ht="12.75" customHeight="1">
+    <row r="56" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
         <v>217</v>
       </c>
@@ -7573,7 +7565,7 @@
       <c r="Z56" s="66"/>
       <c r="AA56" s="66"/>
     </row>
-    <row r="57" spans="2:27" ht="12.75" customHeight="1">
+    <row r="57" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
         <v>139</v>
       </c>
@@ -7613,7 +7605,7 @@
       <c r="Z57" s="66"/>
       <c r="AA57" s="66"/>
     </row>
-    <row r="58" spans="2:27" ht="12.75" customHeight="1">
+    <row r="58" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
         <v>17</v>
       </c>
@@ -7655,7 +7647,7 @@
       <c r="Z58" s="66"/>
       <c r="AA58" s="66"/>
     </row>
-    <row r="59" spans="2:27" ht="12.75" customHeight="1">
+    <row r="59" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>222</v>
       </c>
@@ -7695,7 +7687,7 @@
       <c r="Z59" s="66"/>
       <c r="AA59" s="66"/>
     </row>
-    <row r="60" spans="2:27" ht="12.75" customHeight="1">
+    <row r="60" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
         <v>217</v>
       </c>
@@ -7737,7 +7729,7 @@
       <c r="Z60" s="66"/>
       <c r="AA60" s="66"/>
     </row>
-    <row r="61" spans="2:27" ht="12.75" customHeight="1">
+    <row r="61" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="15" t="s">
         <v>88</v>
       </c>
@@ -7779,7 +7771,7 @@
       <c r="Z61" s="66"/>
       <c r="AA61" s="66"/>
     </row>
-    <row r="62" spans="2:27" ht="12.75" customHeight="1">
+    <row r="62" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
         <v>181</v>
       </c>
@@ -7821,7 +7813,7 @@
       <c r="Z62" s="66"/>
       <c r="AA62" s="66"/>
     </row>
-    <row r="63" spans="2:27" ht="12.75" customHeight="1">
+    <row r="63" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
         <v>139</v>
       </c>
@@ -7863,7 +7855,7 @@
       <c r="Z63" s="66"/>
       <c r="AA63" s="66"/>
     </row>
-    <row r="64" spans="2:27" ht="12.75" customHeight="1">
+    <row r="64" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
         <v>139</v>
       </c>
@@ -7903,7 +7895,7 @@
       <c r="Z64" s="66"/>
       <c r="AA64" s="66"/>
     </row>
-    <row r="65" spans="2:27" ht="12.75" customHeight="1">
+    <row r="65" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
         <v>139</v>
       </c>
@@ -7943,7 +7935,7 @@
       <c r="Z65" s="66"/>
       <c r="AA65" s="66"/>
     </row>
-    <row r="66" spans="2:27" ht="12.75" customHeight="1">
+    <row r="66" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
         <v>230</v>
       </c>
@@ -7983,7 +7975,7 @@
       <c r="Z66" s="66"/>
       <c r="AA66" s="66"/>
     </row>
-    <row r="67" spans="2:27" ht="12.75" customHeight="1">
+    <row r="67" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
         <v>234</v>
       </c>
@@ -8015,7 +8007,7 @@
       <c r="Z67" s="66"/>
       <c r="AA67" s="66"/>
     </row>
-    <row r="68" spans="2:27" ht="12.75" customHeight="1">
+    <row r="68" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>236</v>
       </c>
@@ -8047,7 +8039,7 @@
       <c r="Z68" s="66"/>
       <c r="AA68" s="66"/>
     </row>
-    <row r="69" spans="2:27" ht="12.75" customHeight="1">
+    <row r="69" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="17" t="s">
         <v>238</v>
       </c>
@@ -8077,7 +8069,7 @@
       <c r="Z69" s="66"/>
       <c r="AA69" s="66"/>
     </row>
-    <row r="70" spans="2:27" ht="12.75" customHeight="1">
+    <row r="70" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
         <v>10</v>
       </c>
@@ -8117,7 +8109,7 @@
       <c r="Z70" s="66"/>
       <c r="AA70" s="66"/>
     </row>
-    <row r="71" spans="2:27" ht="12.75" customHeight="1">
+    <row r="71" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="60" t="s">
         <v>217</v>
       </c>
@@ -8157,7 +8149,7 @@
       <c r="Z71" s="66"/>
       <c r="AA71" s="66"/>
     </row>
-    <row r="72" spans="2:27" ht="12.75" customHeight="1">
+    <row r="72" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="60" t="s">
         <v>240</v>
       </c>
@@ -8185,7 +8177,7 @@
       <c r="Z72" s="66"/>
       <c r="AA72" s="66"/>
     </row>
-    <row r="73" spans="2:27" ht="12.75" customHeight="1">
+    <row r="73" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="60" t="s">
         <v>241</v>
       </c>
@@ -8225,7 +8217,7 @@
       <c r="Z73" s="66"/>
       <c r="AA73" s="66"/>
     </row>
-    <row r="74" spans="2:27" ht="12.75" customHeight="1">
+    <row r="74" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="60" t="s">
         <v>244</v>
       </c>
@@ -8257,7 +8249,7 @@
       <c r="Z74" s="66"/>
       <c r="AA74" s="66"/>
     </row>
-    <row r="75" spans="2:27" ht="12.75" customHeight="1">
+    <row r="75" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="71" t="s">
         <v>247</v>
       </c>
@@ -8295,7 +8287,7 @@
       <c r="Z75" s="66"/>
       <c r="AA75" s="66"/>
     </row>
-    <row r="76" spans="2:27" ht="12.75" customHeight="1">
+    <row r="76" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="75" t="s">
         <v>249</v>
       </c>
@@ -8333,7 +8325,7 @@
       <c r="Z76" s="66"/>
       <c r="AA76" s="66"/>
     </row>
-    <row r="77" spans="2:27" ht="12.75" customHeight="1">
+    <row r="77" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="38" t="s">
         <v>251</v>
       </c>
@@ -8373,7 +8365,7 @@
       <c r="Z77" s="66"/>
       <c r="AA77" s="66"/>
     </row>
-    <row r="78" spans="2:27" ht="12.75" customHeight="1">
+    <row r="78" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="62" t="s">
         <v>249</v>
       </c>
@@ -8412,7 +8404,7 @@
       <c r="Z78" s="66"/>
       <c r="AA78" s="66"/>
     </row>
-    <row r="79" spans="2:27" ht="12.75" customHeight="1">
+    <row r="79" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="62" t="s">
         <v>254</v>
       </c>
@@ -8451,7 +8443,7 @@
       <c r="Z79" s="66"/>
       <c r="AA79" s="66"/>
     </row>
-    <row r="80" spans="2:27" ht="12.75" customHeight="1">
+    <row r="80" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="62" t="s">
         <v>257</v>
       </c>
@@ -8490,7 +8482,7 @@
       <c r="Z80" s="66"/>
       <c r="AA80" s="66"/>
     </row>
-    <row r="81" spans="2:27" ht="12.75" customHeight="1">
+    <row r="81" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="62" t="s">
         <v>259</v>
       </c>
@@ -8529,7 +8521,7 @@
       <c r="Z81" s="66"/>
       <c r="AA81" s="66"/>
     </row>
-    <row r="82" spans="2:27" ht="12.75" customHeight="1">
+    <row r="82" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="78" t="s">
         <v>262</v>
       </c>
@@ -8562,7 +8554,7 @@
       <c r="Z82" s="66"/>
       <c r="AA82" s="66"/>
     </row>
-    <row r="83" spans="2:27" ht="12.75" customHeight="1">
+    <row r="83" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>264</v>
       </c>
@@ -8601,7 +8593,7 @@
       <c r="Z83" s="66"/>
       <c r="AA83" s="66"/>
     </row>
-    <row r="84" spans="2:27" ht="12.75" customHeight="1">
+    <row r="84" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="79" t="s">
         <v>267</v>
       </c>
@@ -8640,7 +8632,7 @@
       <c r="Z84" s="66"/>
       <c r="AA84" s="66"/>
     </row>
-    <row r="85" spans="2:27" ht="12.75" customHeight="1">
+    <row r="85" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="79" t="s">
         <v>268</v>
       </c>
@@ -8685,7 +8677,7 @@
       <c r="Z85" s="66"/>
       <c r="AA85" s="66"/>
     </row>
-    <row r="86" spans="2:27" ht="12.75" customHeight="1">
+    <row r="86" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L86" s="119"/>
       <c r="M86" s="119"/>
       <c r="N86" s="119"/>
@@ -8703,7 +8695,7 @@
       <c r="Z86" s="66"/>
       <c r="AA86" s="66"/>
     </row>
-    <row r="87" spans="2:27" ht="12.75" customHeight="1">
+    <row r="87" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L87" s="119"/>
       <c r="M87" s="119"/>
       <c r="N87" s="119"/>
@@ -8790,19 +8782,19 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="88.6640625" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="12.75" customHeight="1">
+    <row r="3" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="120" t="s">
         <v>271</v>
       </c>
@@ -8826,7 +8818,7 @@
       <c r="T3" s="120"/>
       <c r="U3" s="120"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="120"/>
       <c r="C4" s="120"/>
       <c r="D4" s="120"/>
@@ -8848,7 +8840,7 @@
       <c r="T4" s="120"/>
       <c r="U4" s="120"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="120"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -8870,7 +8862,7 @@
       <c r="T5" s="120"/>
       <c r="U5" s="120"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="120"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
@@ -8892,7 +8884,7 @@
       <c r="T6" s="120"/>
       <c r="U6" s="120"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="120"/>
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
@@ -8914,7 +8906,7 @@
       <c r="T7" s="120"/>
       <c r="U7" s="120"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="120"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
@@ -8936,7 +8928,7 @@
       <c r="T8" s="120"/>
       <c r="U8" s="120"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="120"/>
       <c r="C9" s="120"/>
       <c r="D9" s="120"/>
@@ -8958,7 +8950,7 @@
       <c r="T9" s="120"/>
       <c r="U9" s="120"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="120"/>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
@@ -8980,7 +8972,7 @@
       <c r="T10" s="120"/>
       <c r="U10" s="120"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="120"/>
       <c r="C11" s="120"/>
       <c r="D11" s="120"/>
@@ -9002,7 +8994,7 @@
       <c r="T11" s="120"/>
       <c r="U11" s="120"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="120"/>
       <c r="C12" s="120"/>
       <c r="D12" s="120"/>
@@ -9024,7 +9016,7 @@
       <c r="T12" s="120"/>
       <c r="U12" s="120"/>
     </row>
-    <row r="15" spans="2:21" ht="12.75" customHeight="1">
+    <row r="15" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>272</v>
       </c>
@@ -9041,7 +9033,7 @@
       <c r="N15" s="119"/>
       <c r="O15" s="119"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F16" s="119"/>
       <c r="G16" s="119"/>
       <c r="H16" s="119"/>
@@ -9053,7 +9045,7 @@
       <c r="N16" s="119"/>
       <c r="O16" s="119"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F17" s="119"/>
       <c r="G17" s="119"/>
       <c r="H17" s="119"/>
@@ -9065,7 +9057,7 @@
       <c r="N17" s="119"/>
       <c r="O17" s="119"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="s">
         <v>274</v>
       </c>
@@ -9089,7 +9081,7 @@
       <c r="N18" s="119"/>
       <c r="O18" s="119"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>277</v>
       </c>
@@ -9113,7 +9105,7 @@
       <c r="N19" s="119"/>
       <c r="O19" s="119"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>280</v>
       </c>
@@ -9134,7 +9126,7 @@
       <c r="N20" s="119"/>
       <c r="O20" s="119"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>283</v>
       </c>
@@ -9155,7 +9147,7 @@
       <c r="N21" s="119"/>
       <c r="O21" s="119"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -9176,7 +9168,7 @@
       <c r="N22" s="119"/>
       <c r="O22" s="119"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>287</v>
       </c>
@@ -9194,7 +9186,7 @@
       <c r="N23" s="119"/>
       <c r="O23" s="119"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F24" s="119"/>
       <c r="G24" s="119"/>
       <c r="H24" s="119"/>
@@ -9206,7 +9198,7 @@
       <c r="N24" s="119"/>
       <c r="O24" s="119"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F25" s="119"/>
       <c r="G25" s="119"/>
       <c r="H25" s="119"/>
@@ -9218,7 +9210,7 @@
       <c r="N25" s="119"/>
       <c r="O25" s="119"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F26" s="119"/>
       <c r="G26" s="119"/>
       <c r="H26" s="119"/>
@@ -9230,7 +9222,7 @@
       <c r="N26" s="119"/>
       <c r="O26" s="119"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F27" s="119"/>
       <c r="G27" s="119"/>
       <c r="H27" s="119"/>
@@ -9242,7 +9234,7 @@
       <c r="N27" s="119"/>
       <c r="O27" s="119"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F28" s="119"/>
       <c r="G28" s="119"/>
       <c r="H28" s="119"/>
@@ -9254,7 +9246,7 @@
       <c r="N28" s="119"/>
       <c r="O28" s="119"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F29" s="119"/>
       <c r="G29" s="119"/>
       <c r="H29" s="119"/>
@@ -9266,7 +9258,7 @@
       <c r="N29" s="119"/>
       <c r="O29" s="119"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F30" s="119"/>
       <c r="G30" s="119"/>
       <c r="H30" s="119"/>
@@ -9278,7 +9270,7 @@
       <c r="N30" s="119"/>
       <c r="O30" s="119"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F31" s="119"/>
       <c r="G31" s="119"/>
       <c r="H31" s="119"/>
@@ -9290,7 +9282,7 @@
       <c r="N31" s="119"/>
       <c r="O31" s="119"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F32" s="119"/>
       <c r="G32" s="119"/>
       <c r="H32" s="119"/>
@@ -9302,7 +9294,7 @@
       <c r="N32" s="119"/>
       <c r="O32" s="119"/>
     </row>
-    <row r="33" spans="5:15">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F33" s="119"/>
       <c r="G33" s="119"/>
       <c r="H33" s="119"/>
@@ -9314,7 +9306,7 @@
       <c r="N33" s="119"/>
       <c r="O33" s="119"/>
     </row>
-    <row r="34" spans="5:15">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F34" s="119"/>
       <c r="G34" s="119"/>
       <c r="H34" s="119"/>
@@ -9326,7 +9318,7 @@
       <c r="N34" s="119"/>
       <c r="O34" s="119"/>
     </row>
-    <row r="35" spans="5:15">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F35" s="119"/>
       <c r="G35" s="119"/>
       <c r="H35" s="119"/>
@@ -9338,7 +9330,7 @@
       <c r="N35" s="119"/>
       <c r="O35" s="119"/>
     </row>
-    <row r="36" spans="5:15" ht="14">
+    <row r="36" spans="5:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E36" s="23" t="s">
         <v>289</v>
       </c>
@@ -9353,7 +9345,7 @@
       <c r="N36" s="119"/>
       <c r="O36" s="119"/>
     </row>
-    <row r="37" spans="5:15" ht="14">
+    <row r="37" spans="5:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E37" s="23" t="s">
         <v>290</v>
       </c>
@@ -9368,7 +9360,7 @@
       <c r="N37" s="119"/>
       <c r="O37" s="119"/>
     </row>
-    <row r="38" spans="5:15">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F38" s="119"/>
       <c r="G38" s="119"/>
       <c r="H38" s="119"/>
@@ -9380,7 +9372,7 @@
       <c r="N38" s="119"/>
       <c r="O38" s="119"/>
     </row>
-    <row r="39" spans="5:15">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F39" s="119"/>
       <c r="G39" s="119"/>
       <c r="H39" s="119"/>
@@ -9392,7 +9384,7 @@
       <c r="N39" s="119"/>
       <c r="O39" s="119"/>
     </row>
-    <row r="40" spans="5:15">
+    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F40" s="119"/>
       <c r="G40" s="119"/>
       <c r="H40" s="119"/>
@@ -9404,7 +9396,7 @@
       <c r="N40" s="119"/>
       <c r="O40" s="119"/>
     </row>
-    <row r="41" spans="5:15">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F41" s="119"/>
       <c r="G41" s="119"/>
       <c r="H41" s="119"/>
@@ -9416,7 +9408,7 @@
       <c r="N41" s="119"/>
       <c r="O41" s="119"/>
     </row>
-    <row r="42" spans="5:15">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F42" s="119"/>
       <c r="G42" s="119"/>
       <c r="H42" s="119"/>
@@ -9428,7 +9420,7 @@
       <c r="N42" s="119"/>
       <c r="O42" s="119"/>
     </row>
-    <row r="43" spans="5:15">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F43" s="119"/>
       <c r="G43" s="119"/>
       <c r="H43" s="119"/>
@@ -9440,7 +9432,7 @@
       <c r="N43" s="119"/>
       <c r="O43" s="119"/>
     </row>
-    <row r="44" spans="5:15">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F44" s="119"/>
       <c r="G44" s="119"/>
       <c r="H44" s="119"/>
@@ -9452,7 +9444,7 @@
       <c r="N44" s="119"/>
       <c r="O44" s="119"/>
     </row>
-    <row r="45" spans="5:15">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F45" s="119"/>
       <c r="G45" s="119"/>
       <c r="H45" s="119"/>
@@ -9464,7 +9456,7 @@
       <c r="N45" s="119"/>
       <c r="O45" s="119"/>
     </row>
-    <row r="46" spans="5:15">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F46" s="119"/>
       <c r="G46" s="119"/>
       <c r="H46" s="119"/>
@@ -9476,7 +9468,7 @@
       <c r="N46" s="119"/>
       <c r="O46" s="119"/>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F47" s="119"/>
       <c r="G47" s="119"/>
       <c r="H47" s="119"/>
@@ -9488,7 +9480,7 @@
       <c r="N47" s="119"/>
       <c r="O47" s="119"/>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F48" s="119"/>
       <c r="G48" s="119"/>
       <c r="H48" s="119"/>
@@ -9500,7 +9492,7 @@
       <c r="N48" s="119"/>
       <c r="O48" s="119"/>
     </row>
-    <row r="49" spans="6:15">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F49" s="119"/>
       <c r="G49" s="119"/>
       <c r="H49" s="119"/>
@@ -9512,7 +9504,7 @@
       <c r="N49" s="119"/>
       <c r="O49" s="119"/>
     </row>
-    <row r="50" spans="6:15">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F50" s="119"/>
       <c r="G50" s="119"/>
       <c r="H50" s="119"/>
@@ -9524,7 +9516,7 @@
       <c r="N50" s="119"/>
       <c r="O50" s="119"/>
     </row>
-    <row r="51" spans="6:15">
+    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F51" s="119"/>
       <c r="G51" s="119"/>
       <c r="H51" s="119"/>
@@ -9536,7 +9528,7 @@
       <c r="N51" s="119"/>
       <c r="O51" s="119"/>
     </row>
-    <row r="52" spans="6:15">
+    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F52" s="119"/>
       <c r="G52" s="119"/>
       <c r="H52" s="119"/>
@@ -9566,21 +9558,21 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -9612,7 +9604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -9630,7 +9622,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -9662,7 +9654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="80">
         <v>2</v>
       </c>
@@ -9691,7 +9683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="80">
         <v>3</v>
       </c>
@@ -9714,7 +9706,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="80">
         <v>4</v>
       </c>
@@ -9737,7 +9729,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="80">
         <v>5</v>
       </c>
@@ -9760,7 +9752,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="s">
         <v>109</v>
       </c>
@@ -9774,7 +9766,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="56" t="s">
         <v>114</v>
       </c>
@@ -9788,7 +9780,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="56" t="s">
         <v>116</v>
       </c>
@@ -9799,7 +9791,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="86" t="s">
         <v>466</v>
       </c>
@@ -9810,7 +9802,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="15" t="s">
         <v>120</v>
       </c>
@@ -9821,7 +9813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="15" t="s">
         <v>124</v>
       </c>
@@ -9832,7 +9824,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="15" t="s">
         <v>127</v>
       </c>
@@ -9840,7 +9832,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="15" t="s">
         <v>130</v>
       </c>
@@ -9848,7 +9840,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="15" t="s">
         <v>130</v>
       </c>
@@ -9856,7 +9848,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D17" s="15" t="s">
         <v>134</v>
       </c>
@@ -9864,7 +9856,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
         <v>137</v>
       </c>
@@ -9872,7 +9864,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19" s="15" t="s">
         <v>141</v>
       </c>
@@ -9880,7 +9872,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D20" s="15" t="s">
         <v>144</v>
       </c>
@@ -9888,7 +9880,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D21" s="15" t="s">
         <v>11</v>
       </c>
@@ -9896,7 +9888,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22" s="15" t="s">
         <v>151</v>
       </c>
@@ -9904,7 +9896,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" s="15" t="s">
         <v>154</v>
       </c>
@@ -9912,7 +9904,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D24" s="15" t="s">
         <v>157</v>
       </c>
@@ -9920,7 +9912,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D25" s="15" t="s">
         <v>161</v>
       </c>
@@ -9928,7 +9920,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D26" s="15" t="s">
         <v>165</v>
       </c>
@@ -9936,7 +9928,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D27" s="15" t="s">
         <v>169</v>
       </c>
@@ -9944,7 +9936,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D28" s="15" t="s">
         <v>172</v>
       </c>
@@ -9952,7 +9944,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D29" s="15" t="s">
         <v>175</v>
       </c>
@@ -9960,7 +9952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D30" s="15" t="s">
         <v>177</v>
       </c>
@@ -9968,7 +9960,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31" s="15" t="s">
         <v>180</v>
       </c>
@@ -9976,7 +9968,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D32" s="15" t="s">
         <v>182</v>
       </c>
@@ -9984,7 +9976,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" s="15" t="s">
         <v>183</v>
       </c>
@@ -9992,7 +9984,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" s="15" t="s">
         <v>335</v>
       </c>
@@ -10000,7 +9992,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35" s="15" t="s">
         <v>189</v>
       </c>
@@ -10008,7 +10000,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36" s="15" t="s">
         <v>192</v>
       </c>
@@ -10016,7 +10008,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37" s="15" t="s">
         <v>194</v>
       </c>
@@ -10024,7 +10016,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38" s="15" t="s">
         <v>198</v>
       </c>
@@ -10032,7 +10024,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>201</v>
       </c>
@@ -10040,7 +10032,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>204</v>
       </c>
@@ -10048,7 +10040,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>207</v>
       </c>
@@ -10056,547 +10048,547 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F42" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F43" s="15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F44" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F45" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F46" s="15" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F47" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F48" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="6:6">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="15" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="15" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="6:6">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="15" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="6:6">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="71" spans="6:6">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="6:6">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="6:6">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="74" spans="6:6">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="6:6">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="6:6">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="6:6">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="78" spans="6:6">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="6:6">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="6:6">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="6:6">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="6:6">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="6:6">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F86" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="6:6">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="6:6">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="6:6">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F90" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="6:6">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F91" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="6:6">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F92" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="6:6">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F93" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="6:6">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F94" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="6:6">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F95" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="6:6">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="6:6">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="6:6">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="6:6">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="6:6">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="6:6">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="6:6">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="6:6">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="6:6">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="6:6">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="6:6">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="6:6">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="6:6">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="6:6">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="6:6">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="6:6">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" s="15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="112" spans="6:6">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="6:6">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="6:6">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="6:6">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="15" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="116" spans="6:6">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F116" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="6:6">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117" s="15" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="6:6">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F118" s="15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="119" spans="6:6">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="120" spans="6:6">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F120" s="15" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="121" spans="6:6">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F121" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="122" spans="6:6">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F122" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="123" spans="6:6">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F123" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="124" spans="6:6">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F124" s="15" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="125" spans="6:6">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125" s="15" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="126" spans="6:6">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F126" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="127" spans="6:6">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="128" spans="6:6">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F128" s="15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="129" spans="6:6">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="130" spans="6:6">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="131" spans="6:6">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="132" spans="6:6">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132" s="15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="133" spans="6:6">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F133" s="15" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="134" spans="6:6">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" s="15" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="6:6">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" s="15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="136" spans="6:6">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="6:6">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="6:6">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" s="15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="139" spans="6:6">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139" s="15" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="6:6">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" s="15" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="6:6">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141" s="15" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="6:6">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" s="15" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="143" spans="6:6">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F143" s="15" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="144" spans="6:6">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F144" s="15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="145" spans="6:6">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F145" s="15" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="6:6">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F146" s="15" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="6:6">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F147" s="15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="6:6">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F148" s="15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="6:6">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F149" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="150" spans="6:6">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F150" s="15" t="s">
         <v>112</v>
       </c>
@@ -10615,108 +10607,108 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.6640625" customWidth="1"/>
+    <col min="1" max="1" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
         <v>447</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>465</v>
       </c>

--- a/Macro_Chartist/Control.xlsx
+++ b/Macro_Chartist/Control.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Code\Bootleg_Macro\Macro_Chartist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Macro_Chartist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4F5C5-AD9B-433D-B115-70DE24195D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EDC65E0-AB2B-6C4C-B9A7-9B5B8B2E974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter_Input" sheetId="1" r:id="rId1"/>
     <sheet name="TickerList" sheetId="2" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
-    <sheet name="DropDownValues" sheetId="4" r:id="rId4"/>
-    <sheet name="TemplateList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,7 +32,7 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="478">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="871" uniqueCount="453">
   <si>
     <t>Index</t>
   </si>
@@ -901,91 +901,9 @@
     <t>Real M2 (M2/CPI)</t>
   </si>
   <si>
-    <t>Macro data series to investigate</t>
-  </si>
-  <si>
-    <t>- Unemployment rate &amp; initial jobless claims. Divergence at the moment in these two generally highly correlated series. Look at 3 month annualized % change on both series.
-- Indicators that Micheal Pento is watching rgarding state of the economy:
- - Look at them on a 2nd derivivaive basis.
-- 42Macro global liquidity proxy:
-   - Top 6 CB's bal sheets (including swiss) + world FX reserves (excluding gold) + world M1
-- BOGMBASE - monetary base total from FRED. Let's look at this one</t>
-  </si>
-  <si>
-    <t>Indicators that Micheal Pento is watching rgarding state of the economy:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information on parameters: 
-- "ConvertUnits": Enter a number here to divide your series by. Generally one would enter powers of 10, e.g 10, or 1000
-etc. in order to convert say millions of $ to billions. </t>
-  </si>
-  <si>
-    <t>TICKER</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>T10YIE</t>
-  </si>
-  <si>
-    <t>10Y break-even inflation rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market expectations of what inflation will be 10 years out. </t>
-  </si>
-  <si>
-    <t>trading economics</t>
-  </si>
-  <si>
-    <t>NFIB small businesss optimisim survey</t>
-  </si>
-  <si>
-    <t>National federation of independent business</t>
-  </si>
-  <si>
-    <t>DRTSCILM</t>
-  </si>
-  <si>
-    <t>Net % of banks tightening lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fed funds effective rate CPI </t>
-  </si>
-  <si>
-    <t>Fed funds - CPI</t>
-  </si>
-  <si>
-    <t>GVI</t>
-  </si>
-  <si>
-    <t>Gold volatility index</t>
-  </si>
-  <si>
-    <t>Exponential, 1995-01-01, 2020-01-01</t>
-  </si>
-  <si>
-    <t>Linear, 1995-01-01, 2020-01-01</t>
-  </si>
-  <si>
-    <t>Show/HIDE</t>
-  </si>
-  <si>
     <t>Axis</t>
   </si>
   <si>
-    <t>Show</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
     <t>antiquewhite</t>
   </si>
   <si>
@@ -1497,33 +1415,6 @@
   </si>
   <si>
     <t>abs</t>
-  </si>
-  <si>
-    <t>Global M2 (Top 50)</t>
-  </si>
-  <si>
-    <t>2011-06-01</t>
-  </si>
-  <si>
-    <t>GM2_fc_Av3m</t>
-  </si>
-  <si>
-    <t>GM2_fc_neg0.25_MoM</t>
-  </si>
-  <si>
-    <t>GM2 forecast @ -0.25 % MoM</t>
-  </si>
-  <si>
-    <t>GM2 forecast @ last 3 months mean growth rate</t>
-  </si>
-  <si>
-    <t>GM2 forecast @ 0.25 % MoM</t>
-  </si>
-  <si>
-    <t>GM2_fc_0.25_MoM</t>
-  </si>
-  <si>
-    <t>Bitcoin price change is fueled by global monetary growth (with forecast)</t>
   </si>
   <si>
     <r>
@@ -1610,17 +1501,44 @@
     </r>
   </si>
   <si>
-    <t>Exponential, 2015-01-01, 2018-01-01</t>
+    <t>LRUNTTTTAUM156S</t>
+  </si>
+  <si>
+    <t>CPALTT01AUQ657N</t>
+  </si>
+  <si>
+    <t>Unemployment rate Australia</t>
+  </si>
+  <si>
+    <t>CPI USA</t>
+  </si>
+  <si>
+    <t>CPI Australia</t>
+  </si>
+  <si>
+    <t>CPI and Unemployment USA and Australia</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>% unemployed</t>
+  </si>
+  <si>
+    <t>DROPDOWN VALUES</t>
+  </si>
+  <si>
+    <t>glassnode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1705,14 +1623,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Latha"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1815,22 +1737,28 @@
         <bgColor rgb="FFFFA6A6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color auto="1"/>
-      </right>
+      </end>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1840,12 +1768,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color auto="1"/>
-      </right>
+      </end>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1853,10 +1781,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color auto="1"/>
-      </right>
+      </end>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1864,10 +1792,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color auto="1"/>
-      </right>
+      </end>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1877,10 +1805,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </start>
+      <end/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1890,10 +1818,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </start>
+      <end/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1901,8 +1829,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1912,10 +1840,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color auto="1"/>
-      </right>
+      </end>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1923,27 +1851,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color auto="1"/>
-      </right>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2199,72 +2123,59 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2284,44 +2195,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2410,7 +2332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2469,22 +2391,22 @@
         </a:solidFill>
         <a:gradFill>
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2493,22 +2415,22 @@
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2519,15 +2441,15 @@
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -2547,28 +2469,28 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
+            <a:tint val="95%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill>
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
+                <a:shade val="63%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2584,34 +2506,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="8" width="44" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="21" max="21" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2642,19 +2565,26 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+    </row>
+    <row r="2" spans="1:36" ht="18" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
@@ -2663,52 +2593,80 @@
         <v>14</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>450</v>
+      </c>
       <c r="I2" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="O2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="18" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="9"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="18" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>470</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>89</v>
@@ -2720,76 +2678,119 @@
         <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="14"/>
+      <c r="O4" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="80" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="18" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="O5" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="R5" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="18" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="11" t="s">
-        <v>303</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="S6" s="56"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="18" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2802,8 +2803,25 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="R7" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="S7" s="56"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="18" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2816,8 +2834,25 @@
       <c r="H8" s="10"/>
       <c r="I8" s="16"/>
       <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="S8" s="56"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="18" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2830,8 +2865,23 @@
       <c r="H9" s="10"/>
       <c r="I9" s="16"/>
       <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="18" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2844,8 +2894,23 @@
       <c r="H10" s="10"/>
       <c r="I10" s="16"/>
       <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="18" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2858,76 +2923,133 @@
       <c r="H11" s="10"/>
       <c r="I11" s="16"/>
       <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="O11" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="U11" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="18" customHeight="1">
+      <c r="A12" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="88" t="s">
+      <c r="J12" s="92" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="88"/>
-    </row>
-    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="88"/>
-    </row>
-    <row r="15" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="88"/>
-    </row>
-    <row r="16" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="18" customHeight="1">
+      <c r="A13" s="117"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="92"/>
+      <c r="O13" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="18" customHeight="1">
+      <c r="A14" s="117"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="92"/>
+      <c r="O14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="U14" s="57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="25.5" customHeight="1">
+      <c r="A15" s="117"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="92"/>
+      <c r="O15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="U15" s="57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="21" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2958,10 +3080,16 @@
       <c r="J16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="O16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="U16" s="57" t="s">
+        <v>435</v>
+      </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
@@ -2978,25 +3106,29 @@
       <c r="AI16" s="20"/>
       <c r="AJ16" s="20"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="21">
         <v>11</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
-        <v>477</v>
-      </c>
+      <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="23"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="O17" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
+      <c r="U17" s="57" t="s">
+        <v>436</v>
+      </c>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
@@ -3013,7 +3145,7 @@
       <c r="AI17" s="20"/>
       <c r="AJ17" s="20"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
       <c r="A18" s="21">
         <v>12</v>
       </c>
@@ -3026,10 +3158,16 @@
       <c r="H18" s="23"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="O18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="U18" s="57" t="s">
+        <v>437</v>
+      </c>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
@@ -3046,7 +3184,7 @@
       <c r="AI18" s="20"/>
       <c r="AJ18" s="20"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
       <c r="A19" s="21">
         <v>13</v>
       </c>
@@ -3059,8 +3197,17 @@
       <c r="H19" s="23"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U19" s="57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="21">
         <v>14</v>
       </c>
@@ -3073,24 +3220,40 @@
       <c r="H20" s="23"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="U20" s="57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="21">
         <v>15</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="23" t="s">
-        <v>477</v>
-      </c>
+      <c r="D21" s="23"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="U21" s="57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="21">
         <v>16</v>
       </c>
@@ -3103,8 +3266,15 @@
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U22" s="57"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="21">
         <v>17</v>
       </c>
@@ -3117,8 +3287,15 @@
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U23" s="57"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="21">
         <v>18</v>
       </c>
@@ -3131,8 +3308,15 @@
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="U24" s="57"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="21">
         <v>19</v>
       </c>
@@ -3145,8 +3329,15 @@
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="U25" s="57"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="21">
         <v>20</v>
       </c>
@@ -3159,491 +3350,667 @@
       <c r="H26" s="29"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
+      <c r="O26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="U26" s="57"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A27" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E27" s="94" t="s">
+      <c r="D27" s="112" t="s">
+        <v>442</v>
+      </c>
+      <c r="E27" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="91" t="s">
+      <c r="J27" s="112" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-    </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-    </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-    </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-    </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95" t="s">
+      <c r="O27" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="U27" s="57"/>
+    </row>
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="O28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="U28" s="57"/>
+    </row>
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="O29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="U29" s="57"/>
+    </row>
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="O30" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" s="57"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="O31" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="U31" s="57"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="O32" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="U32" s="57"/>
+    </row>
+    <row r="33" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A33" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-    </row>
-    <row r="35" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99" t="s">
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="O33" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="U33" s="57"/>
+    </row>
+    <row r="34" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="O34" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="U34" s="57"/>
+    </row>
+    <row r="35" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A35" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="O35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="U35" s="57"/>
+    </row>
+    <row r="36" spans="1:21" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C36" s="100" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="O36" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="U36" s="57"/>
+    </row>
+    <row r="37" spans="1:21" ht="16">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="31"/>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="U37" s="57"/>
+    </row>
+    <row r="38" spans="1:21" ht="16">
       <c r="A38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104" t="s">
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
-    </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="U38" s="57"/>
+    </row>
+    <row r="39" spans="1:21" ht="19.5" customHeight="1">
       <c r="A39" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="105" t="s">
-        <v>475</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="106" t="s">
+      <c r="B39" s="101" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="106"/>
-      <c r="H39" s="107" t="s">
+      <c r="G39" s="102"/>
+      <c r="H39" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="U39" s="57"/>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="88" t="s">
+      <c r="H40" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
+      <c r="O40" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="U40" s="57"/>
+    </row>
+    <row r="41" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
+      <c r="O41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="U41" s="57"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="112"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
+      <c r="O42" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="U42" s="57"/>
+    </row>
+    <row r="43" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="113" t="s">
+      <c r="O43" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="U43" s="57"/>
+    </row>
+    <row r="44" spans="1:21" ht="18">
+      <c r="A44" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q44" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="U44" s="57"/>
+    </row>
+    <row r="45" spans="1:21" ht="16">
       <c r="A45" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q45" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="U45" s="57"/>
+    </row>
+    <row r="46" spans="1:21" ht="16">
       <c r="A46" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="57"/>
+    </row>
+    <row r="47" spans="1:21" ht="16">
       <c r="A47" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
-    </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
+      <c r="Q47" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="U47" s="57"/>
+    </row>
+    <row r="48" spans="1:21" ht="12.75" customHeight="1">
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
-    </row>
-    <row r="49" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="116" t="s">
+      <c r="Q48" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="U48" s="57"/>
+    </row>
+    <row r="49" spans="1:21" ht="24.75" customHeight="1">
+      <c r="A49" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q49" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="U49" s="57"/>
+    </row>
+    <row r="50" spans="1:21" ht="16">
       <c r="A50" s="41" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
       <c r="N50" s="20"/>
-    </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="U50" s="57"/>
+    </row>
+    <row r="51" spans="1:21" ht="18" customHeight="1">
       <c r="A51" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="20"/>
-    </row>
-    <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
+      <c r="Q51" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U51" s="57"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.75" customHeight="1">
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
       <c r="N52" s="20"/>
-    </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="U52" s="57"/>
+    </row>
+    <row r="53" spans="1:21" ht="19.5" customHeight="1">
       <c r="A53" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109" t="s">
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
       <c r="N53" s="20"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q53" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="U53" s="57"/>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
+      <c r="Q54" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="U54" s="57"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="Q55" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="U55" s="57"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
       <c r="N56" s="20"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q56" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="U56" s="57"/>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3658,8 +4025,12 @@
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q57" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="U57" s="57"/>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3674,8 +4045,12 @@
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q58" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="U58" s="57"/>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3690,8 +4065,12 @@
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
-    </row>
-    <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q59" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="U59" s="57"/>
+    </row>
+    <row r="60" spans="1:21" ht="12.75" customHeight="1">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="46"/>
@@ -3706,8 +4085,12 @@
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
-    </row>
-    <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="U60" s="57"/>
+    </row>
+    <row r="61" spans="1:21" ht="12.75" customHeight="1">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="46"/>
@@ -3722,8 +4105,12 @@
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
-    </row>
-    <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="U61" s="57"/>
+    </row>
+    <row r="62" spans="1:21" ht="12.75" customHeight="1">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="46"/>
@@ -3738,8 +4125,12 @@
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
-    </row>
-    <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="U62" s="57"/>
+    </row>
+    <row r="63" spans="1:21" ht="12.75" customHeight="1">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="46"/>
@@ -3754,24 +4145,31 @@
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
-    </row>
-    <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="U63" s="57"/>
+    </row>
+    <row r="64" spans="1:21" ht="12.75" customHeight="1">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="110"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
-    </row>
-    <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="12.75" customHeight="1">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="46"/>
@@ -3786,8 +4184,11 @@
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
-    </row>
-    <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="12.75" customHeight="1">
       <c r="C66" s="46"/>
       <c r="D66" s="46"/>
       <c r="E66" s="46"/>
@@ -3800,8 +4201,11 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
-    </row>
-    <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="12.75" customHeight="1">
       <c r="C67" s="46"/>
       <c r="D67" s="46"/>
       <c r="E67" s="46"/>
@@ -3814,8 +4218,11 @@
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q67" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -3825,22 +4232,28 @@
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="110"/>
+      <c r="Q68" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q69" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -3850,8 +4263,11 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q70" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
@@ -3861,8 +4277,11 @@
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q71" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -3872,8 +4291,11 @@
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q72" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -3883,8 +4305,11 @@
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q73" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -3894,8 +4319,11 @@
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q74" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
@@ -3905,8 +4333,11 @@
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q75" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -3916,8 +4347,11 @@
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q76" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -3927,8 +4361,11 @@
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q77" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
@@ -3938,8 +4375,11 @@
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q78" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
@@ -3949,8 +4389,11 @@
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q79" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -3960,8 +4403,11 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
-    </row>
-    <row r="81" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q80" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="6:17">
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -3971,8 +4417,11 @@
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
-    </row>
-    <row r="82" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q81" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="6:17">
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
@@ -3982,8 +4431,11 @@
       <c r="L82" s="20"/>
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
-    </row>
-    <row r="83" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q82" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="6:17">
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -3993,8 +4445,11 @@
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
-    </row>
-    <row r="84" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q83" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="6:17">
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
@@ -4004,8 +4459,11 @@
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
-    </row>
-    <row r="85" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q84" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="6:17">
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -4015,8 +4473,11 @@
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
-    </row>
-    <row r="86" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q85" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="6:17">
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
@@ -4026,8 +4487,11 @@
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
-    </row>
-    <row r="87" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q86" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="6:17">
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
@@ -4037,8 +4501,11 @@
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
-    </row>
-    <row r="88" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q87" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="6:17">
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
@@ -4048,8 +4515,11 @@
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
-    </row>
-    <row r="89" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q88" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="6:17">
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -4059,8 +4529,11 @@
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
-    </row>
-    <row r="90" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q89" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="6:17">
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
@@ -4070,8 +4543,11 @@
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
-    </row>
-    <row r="91" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q90" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="6:17">
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
@@ -4081,8 +4557,11 @@
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
-    </row>
-    <row r="92" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q91" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="6:17">
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
@@ -4092,8 +4571,11 @@
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
-    </row>
-    <row r="93" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q92" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="6:17">
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
@@ -4103,8 +4585,11 @@
       <c r="L93" s="20"/>
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
-    </row>
-    <row r="94" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q93" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="6:17">
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
@@ -4114,8 +4599,11 @@
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
-    </row>
-    <row r="95" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q94" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="6:17">
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
@@ -4125,8 +4613,11 @@
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
-    </row>
-    <row r="96" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q95" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="6:17">
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
@@ -4136,8 +4627,11 @@
       <c r="L96" s="20"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
-    </row>
-    <row r="97" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q96" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="6:17">
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -4147,8 +4641,11 @@
       <c r="L97" s="20"/>
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
-    </row>
-    <row r="98" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q97" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="6:17">
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
@@ -4158,8 +4655,11 @@
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
-    </row>
-    <row r="99" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q98" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="6:17">
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -4169,8 +4669,11 @@
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
-    </row>
-    <row r="100" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q99" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="6:17">
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -4180,8 +4683,11 @@
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
       <c r="N100" s="20"/>
-    </row>
-    <row r="101" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q100" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="6:17">
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -4191,8 +4697,11 @@
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
-    </row>
-    <row r="102" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q101" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="6:17">
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
@@ -4202,8 +4711,11 @@
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
-    </row>
-    <row r="103" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q102" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="6:17">
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -4213,8 +4725,11 @@
       <c r="L103" s="20"/>
       <c r="M103" s="20"/>
       <c r="N103" s="20"/>
-    </row>
-    <row r="104" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q103" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="6:17">
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
@@ -4224,8 +4739,11 @@
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
-    </row>
-    <row r="105" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q104" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="6:17">
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -4235,8 +4753,11 @@
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
-    </row>
-    <row r="106" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q105" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="6:17">
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -4246,8 +4767,11 @@
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
       <c r="N106" s="20"/>
-    </row>
-    <row r="107" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q106" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="107" spans="6:17">
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
@@ -4257,8 +4781,11 @@
       <c r="L107" s="20"/>
       <c r="M107" s="20"/>
       <c r="N107" s="20"/>
-    </row>
-    <row r="108" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q107" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="6:17">
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -4268,8 +4795,11 @@
       <c r="L108" s="20"/>
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
-    </row>
-    <row r="109" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q108" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="6:17">
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
@@ -4279,8 +4809,11 @@
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
       <c r="N109" s="20"/>
-    </row>
-    <row r="110" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q109" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="6:17">
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -4290,8 +4823,11 @@
       <c r="L110" s="20"/>
       <c r="M110" s="20"/>
       <c r="N110" s="20"/>
-    </row>
-    <row r="111" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q110" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="6:17">
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
@@ -4301,8 +4837,11 @@
       <c r="L111" s="20"/>
       <c r="M111" s="20"/>
       <c r="N111" s="20"/>
-    </row>
-    <row r="112" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q111" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="6:17">
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -4312,8 +4851,11 @@
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
       <c r="N112" s="20"/>
-    </row>
-    <row r="113" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q112" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="6:17">
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
@@ -4323,8 +4865,11 @@
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
       <c r="N113" s="20"/>
-    </row>
-    <row r="114" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q113" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="6:17">
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -4334,8 +4879,11 @@
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
       <c r="N114" s="20"/>
-    </row>
-    <row r="115" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q114" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="6:17">
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
@@ -4345,8 +4893,11 @@
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
-    </row>
-    <row r="116" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q115" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="6:17">
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -4356,8 +4907,11 @@
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
       <c r="N116" s="20"/>
-    </row>
-    <row r="117" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q116" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="6:17">
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
@@ -4367,8 +4921,11 @@
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
       <c r="N117" s="20"/>
-    </row>
-    <row r="118" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q117" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="118" spans="6:17">
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
@@ -4378,8 +4935,11 @@
       <c r="L118" s="20"/>
       <c r="M118" s="20"/>
       <c r="N118" s="20"/>
-    </row>
-    <row r="119" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q118" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119" spans="6:17">
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -4389,8 +4949,11 @@
       <c r="L119" s="20"/>
       <c r="M119" s="20"/>
       <c r="N119" s="20"/>
-    </row>
-    <row r="120" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q119" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="120" spans="6:17">
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
@@ -4400,8 +4963,11 @@
       <c r="L120" s="20"/>
       <c r="M120" s="20"/>
       <c r="N120" s="20"/>
-    </row>
-    <row r="121" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q120" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="6:17">
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -4411,8 +4977,11 @@
       <c r="L121" s="20"/>
       <c r="M121" s="20"/>
       <c r="N121" s="20"/>
-    </row>
-    <row r="122" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q121" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="122" spans="6:17">
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
@@ -4422,8 +4991,11 @@
       <c r="L122" s="20"/>
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
-    </row>
-    <row r="123" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q122" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="123" spans="6:17">
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -4433,8 +5005,11 @@
       <c r="L123" s="20"/>
       <c r="M123" s="20"/>
       <c r="N123" s="20"/>
-    </row>
-    <row r="124" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q123" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="124" spans="6:17">
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
@@ -4444,8 +5019,11 @@
       <c r="L124" s="20"/>
       <c r="M124" s="20"/>
       <c r="N124" s="20"/>
-    </row>
-    <row r="125" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q124" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="6:17">
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -4455,8 +5033,11 @@
       <c r="L125" s="20"/>
       <c r="M125" s="20"/>
       <c r="N125" s="20"/>
-    </row>
-    <row r="126" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q125" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="6:17">
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
@@ -4466,8 +5047,11 @@
       <c r="L126" s="20"/>
       <c r="M126" s="20"/>
       <c r="N126" s="20"/>
-    </row>
-    <row r="127" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q126" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="6:17">
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -4477,8 +5061,11 @@
       <c r="L127" s="20"/>
       <c r="M127" s="20"/>
       <c r="N127" s="20"/>
-    </row>
-    <row r="128" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q127" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="6:17">
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -4488,8 +5075,11 @@
       <c r="L128" s="20"/>
       <c r="M128" s="20"/>
       <c r="N128" s="20"/>
-    </row>
-    <row r="129" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q128" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="6:17">
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
@@ -4499,8 +5089,11 @@
       <c r="L129" s="20"/>
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
-    </row>
-    <row r="130" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q129" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="6:17">
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
@@ -4510,8 +5103,11 @@
       <c r="L130" s="20"/>
       <c r="M130" s="20"/>
       <c r="N130" s="20"/>
-    </row>
-    <row r="131" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q130" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="6:17">
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
@@ -4521,8 +5117,11 @@
       <c r="L131" s="20"/>
       <c r="M131" s="20"/>
       <c r="N131" s="20"/>
-    </row>
-    <row r="132" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q131" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="132" spans="6:17">
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -4532,8 +5131,11 @@
       <c r="L132" s="20"/>
       <c r="M132" s="20"/>
       <c r="N132" s="20"/>
-    </row>
-    <row r="133" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q132" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="133" spans="6:17">
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
@@ -4543,8 +5145,11 @@
       <c r="L133" s="20"/>
       <c r="M133" s="20"/>
       <c r="N133" s="20"/>
-    </row>
-    <row r="134" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q133" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="134" spans="6:17">
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
@@ -4554,8 +5159,11 @@
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
       <c r="N134" s="20"/>
-    </row>
-    <row r="135" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q134" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="135" spans="6:17">
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -4565,8 +5173,11 @@
       <c r="L135" s="20"/>
       <c r="M135" s="20"/>
       <c r="N135" s="20"/>
-    </row>
-    <row r="136" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q135" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="6:17">
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
@@ -4576,8 +5187,11 @@
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
       <c r="N136" s="20"/>
-    </row>
-    <row r="137" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q136" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="6:17">
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
@@ -4587,8 +5201,11 @@
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
       <c r="N137" s="20"/>
-    </row>
-    <row r="138" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q137" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="6:17">
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -4598,8 +5215,11 @@
       <c r="L138" s="20"/>
       <c r="M138" s="20"/>
       <c r="N138" s="20"/>
-    </row>
-    <row r="139" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q138" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" spans="6:17">
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
@@ -4609,8 +5229,11 @@
       <c r="L139" s="20"/>
       <c r="M139" s="20"/>
       <c r="N139" s="20"/>
-    </row>
-    <row r="140" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q139" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="6:17">
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -4620,8 +5243,11 @@
       <c r="L140" s="20"/>
       <c r="M140" s="20"/>
       <c r="N140" s="20"/>
-    </row>
-    <row r="141" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q140" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="141" spans="6:17">
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
@@ -4631,8 +5257,11 @@
       <c r="L141" s="20"/>
       <c r="M141" s="20"/>
       <c r="N141" s="20"/>
-    </row>
-    <row r="142" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q141" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="6:17">
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
@@ -4642,8 +5271,11 @@
       <c r="L142" s="20"/>
       <c r="M142" s="20"/>
       <c r="N142" s="20"/>
-    </row>
-    <row r="143" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q142" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="143" spans="6:17">
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -4653,8 +5285,11 @@
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
-    </row>
-    <row r="144" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q143" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="6:17">
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
@@ -4664,8 +5299,11 @@
       <c r="L144" s="20"/>
       <c r="M144" s="20"/>
       <c r="N144" s="20"/>
-    </row>
-    <row r="145" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q144" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="6:17">
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -4675,8 +5313,11 @@
       <c r="L145" s="20"/>
       <c r="M145" s="20"/>
       <c r="N145" s="20"/>
-    </row>
-    <row r="146" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q145" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="146" spans="6:17">
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
@@ -4686,8 +5327,11 @@
       <c r="L146" s="20"/>
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
-    </row>
-    <row r="147" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q146" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="6:17">
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -4697,8 +5341,11 @@
       <c r="L147" s="20"/>
       <c r="M147" s="20"/>
       <c r="N147" s="20"/>
-    </row>
-    <row r="148" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q147" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="6:17">
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
@@ -4708,8 +5355,11 @@
       <c r="L148" s="20"/>
       <c r="M148" s="20"/>
       <c r="N148" s="20"/>
-    </row>
-    <row r="149" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q148" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="6:17">
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
@@ -4719,8 +5369,11 @@
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
       <c r="N149" s="20"/>
-    </row>
-    <row r="150" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q149" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="150" spans="6:17">
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
@@ -4730,8 +5383,11 @@
       <c r="L150" s="20"/>
       <c r="M150" s="20"/>
       <c r="N150" s="20"/>
-    </row>
-    <row r="151" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q150" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="6:17">
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
@@ -4741,8 +5397,11 @@
       <c r="L151" s="20"/>
       <c r="M151" s="20"/>
       <c r="N151" s="20"/>
-    </row>
-    <row r="152" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q151" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="6:17">
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -4753,7 +5412,7 @@
       <c r="M152" s="20"/>
       <c r="N152" s="20"/>
     </row>
-    <row r="153" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:17">
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
@@ -4764,7 +5423,7 @@
       <c r="M153" s="20"/>
       <c r="N153" s="20"/>
     </row>
-    <row r="154" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:17">
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
@@ -4775,7 +5434,7 @@
       <c r="M154" s="20"/>
       <c r="N154" s="20"/>
     </row>
-    <row r="155" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:17">
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -4786,7 +5445,7 @@
       <c r="M155" s="20"/>
       <c r="N155" s="20"/>
     </row>
-    <row r="156" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:17">
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
@@ -4797,7 +5456,7 @@
       <c r="M156" s="20"/>
       <c r="N156" s="20"/>
     </row>
-    <row r="157" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:17">
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
@@ -4808,7 +5467,7 @@
       <c r="M157" s="20"/>
       <c r="N157" s="20"/>
     </row>
-    <row r="158" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:17">
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
@@ -4819,7 +5478,7 @@
       <c r="M158" s="20"/>
       <c r="N158" s="20"/>
     </row>
-    <row r="159" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:17">
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
@@ -4830,7 +5489,7 @@
       <c r="M159" s="20"/>
       <c r="N159" s="20"/>
     </row>
-    <row r="160" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:17">
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
@@ -4841,7 +5500,7 @@
       <c r="M160" s="20"/>
       <c r="N160" s="20"/>
     </row>
-    <row r="161" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:14">
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
@@ -4852,7 +5511,7 @@
       <c r="M161" s="20"/>
       <c r="N161" s="20"/>
     </row>
-    <row r="162" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:14">
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
@@ -4863,7 +5522,7 @@
       <c r="M162" s="20"/>
       <c r="N162" s="20"/>
     </row>
-    <row r="163" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:14">
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
@@ -4874,7 +5533,7 @@
       <c r="M163" s="20"/>
       <c r="N163" s="20"/>
     </row>
-    <row r="164" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:14">
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
@@ -4885,7 +5544,7 @@
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
     </row>
-    <row r="165" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:14">
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -4896,7 +5555,7 @@
       <c r="M165" s="20"/>
       <c r="N165" s="20"/>
     </row>
-    <row r="166" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:14">
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
@@ -4907,7 +5566,7 @@
       <c r="M166" s="20"/>
       <c r="N166" s="20"/>
     </row>
-    <row r="167" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:14">
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
@@ -4918,7 +5577,7 @@
       <c r="M167" s="20"/>
       <c r="N167" s="20"/>
     </row>
-    <row r="168" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:14">
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
@@ -4929,7 +5588,7 @@
       <c r="M168" s="20"/>
       <c r="N168" s="20"/>
     </row>
-    <row r="169" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:14">
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
@@ -4940,7 +5599,7 @@
       <c r="M169" s="20"/>
       <c r="N169" s="20"/>
     </row>
-    <row r="170" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:14">
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
@@ -4951,7 +5610,7 @@
       <c r="M170" s="20"/>
       <c r="N170" s="20"/>
     </row>
-    <row r="171" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:14">
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
       <c r="H171" s="20"/>
@@ -4962,7 +5621,7 @@
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
     </row>
-    <row r="172" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:14">
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
@@ -4973,7 +5632,7 @@
       <c r="M172" s="20"/>
       <c r="N172" s="20"/>
     </row>
-    <row r="173" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:14">
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
       <c r="H173" s="20"/>
@@ -4984,7 +5643,7 @@
       <c r="M173" s="20"/>
       <c r="N173" s="20"/>
     </row>
-    <row r="174" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:14">
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
       <c r="H174" s="20"/>
@@ -4995,7 +5654,7 @@
       <c r="M174" s="20"/>
       <c r="N174" s="20"/>
     </row>
-    <row r="175" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:14">
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
       <c r="H175" s="20"/>
@@ -5006,7 +5665,7 @@
       <c r="M175" s="20"/>
       <c r="N175" s="20"/>
     </row>
-    <row r="176" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:14">
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
@@ -5017,7 +5676,7 @@
       <c r="M176" s="20"/>
       <c r="N176" s="20"/>
     </row>
-    <row r="177" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:14">
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
       <c r="H177" s="20"/>
@@ -5028,7 +5687,7 @@
       <c r="M177" s="20"/>
       <c r="N177" s="20"/>
     </row>
-    <row r="178" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:14">
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
       <c r="H178" s="20"/>
@@ -5039,7 +5698,7 @@
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
     </row>
-    <row r="179" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:14">
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
       <c r="H179" s="20"/>
@@ -5050,7 +5709,7 @@
       <c r="M179" s="20"/>
       <c r="N179" s="20"/>
     </row>
-    <row r="180" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:14">
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
       <c r="H180" s="20"/>
@@ -5061,7 +5720,7 @@
       <c r="M180" s="20"/>
       <c r="N180" s="20"/>
     </row>
-    <row r="181" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:14">
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="20"/>
@@ -5072,7 +5731,7 @@
       <c r="M181" s="20"/>
       <c r="N181" s="20"/>
     </row>
-    <row r="182" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:14">
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
@@ -5083,7 +5742,7 @@
       <c r="M182" s="20"/>
       <c r="N182" s="20"/>
     </row>
-    <row r="183" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:14">
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" s="20"/>
@@ -5094,7 +5753,7 @@
       <c r="M183" s="20"/>
       <c r="N183" s="20"/>
     </row>
-    <row r="184" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:14">
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
       <c r="H184" s="20"/>
@@ -5105,7 +5764,7 @@
       <c r="M184" s="20"/>
       <c r="N184" s="20"/>
     </row>
-    <row r="185" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:14">
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
       <c r="H185" s="20"/>
@@ -5116,7 +5775,7 @@
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
     </row>
-    <row r="186" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:14">
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
       <c r="H186" s="20"/>
@@ -5127,7 +5786,7 @@
       <c r="M186" s="20"/>
       <c r="N186" s="20"/>
     </row>
-    <row r="187" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:14">
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="20"/>
@@ -5138,7 +5797,7 @@
       <c r="M187" s="20"/>
       <c r="N187" s="20"/>
     </row>
-    <row r="188" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:14">
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
       <c r="H188" s="20"/>
@@ -5149,7 +5808,7 @@
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
     </row>
-    <row r="189" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:14">
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -5160,7 +5819,7 @@
       <c r="M189" s="20"/>
       <c r="N189" s="20"/>
     </row>
-    <row r="190" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:14">
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
       <c r="H190" s="20"/>
@@ -5171,7 +5830,7 @@
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
     </row>
-    <row r="191" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:14">
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
@@ -5182,7 +5841,7 @@
       <c r="M191" s="20"/>
       <c r="N191" s="20"/>
     </row>
-    <row r="192" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:14">
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
@@ -5193,7 +5852,7 @@
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
     </row>
-    <row r="193" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:14">
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
       <c r="H193" s="20"/>
@@ -5204,7 +5863,7 @@
       <c r="M193" s="20"/>
       <c r="N193" s="20"/>
     </row>
-    <row r="194" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:14">
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -5215,7 +5874,7 @@
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
     </row>
-    <row r="195" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:14">
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="20"/>
@@ -5226,7 +5885,7 @@
       <c r="M195" s="20"/>
       <c r="N195" s="20"/>
     </row>
-    <row r="196" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:14">
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
       <c r="H196" s="20"/>
@@ -5237,7 +5896,7 @@
       <c r="M196" s="20"/>
       <c r="N196" s="20"/>
     </row>
-    <row r="197" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:14">
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
       <c r="H197" s="20"/>
@@ -5248,7 +5907,7 @@
       <c r="M197" s="20"/>
       <c r="N197" s="20"/>
     </row>
-    <row r="198" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:14">
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
       <c r="H198" s="20"/>
@@ -5259,7 +5918,7 @@
       <c r="M198" s="20"/>
       <c r="N198" s="20"/>
     </row>
-    <row r="199" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:14">
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
       <c r="H199" s="20"/>
@@ -5270,7 +5929,7 @@
       <c r="M199" s="20"/>
       <c r="N199" s="20"/>
     </row>
-    <row r="200" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:14">
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
       <c r="H200" s="20"/>
@@ -5281,7 +5940,7 @@
       <c r="M200" s="20"/>
       <c r="N200" s="20"/>
     </row>
-    <row r="201" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:14">
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
       <c r="H201" s="20"/>
@@ -5292,7 +5951,7 @@
       <c r="M201" s="20"/>
       <c r="N201" s="20"/>
     </row>
-    <row r="202" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:14">
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
       <c r="H202" s="20"/>
@@ -5303,7 +5962,7 @@
       <c r="M202" s="20"/>
       <c r="N202" s="20"/>
     </row>
-    <row r="203" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:14">
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
       <c r="H203" s="20"/>
@@ -5314,7 +5973,7 @@
       <c r="M203" s="20"/>
       <c r="N203" s="20"/>
     </row>
-    <row r="204" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:14">
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
       <c r="H204" s="20"/>
@@ -5325,7 +5984,7 @@
       <c r="M204" s="20"/>
       <c r="N204" s="20"/>
     </row>
-    <row r="205" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:14">
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
       <c r="H205" s="20"/>
@@ -5336,7 +5995,7 @@
       <c r="M205" s="20"/>
       <c r="N205" s="20"/>
     </row>
-    <row r="206" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:14">
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
       <c r="H206" s="20"/>
@@ -5347,7 +6006,7 @@
       <c r="M206" s="20"/>
       <c r="N206" s="20"/>
     </row>
-    <row r="207" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:14">
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
@@ -5358,7 +6017,7 @@
       <c r="M207" s="20"/>
       <c r="N207" s="20"/>
     </row>
-    <row r="208" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:14">
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
@@ -5369,7 +6028,7 @@
       <c r="M208" s="20"/>
       <c r="N208" s="20"/>
     </row>
-    <row r="209" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:14">
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
       <c r="H209" s="20"/>
@@ -5381,7 +6040,38 @@
       <c r="N209" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="F53:J56"/>
     <mergeCell ref="C64:J64"/>
@@ -5397,41 +6087,34 @@
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="J27:J33"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="9">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45 B40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
-      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$P$4:$P$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>$Q$4:$Q$151</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>$S$4:$S$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>$T$3:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:E53" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>$U$3:$U$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11" xr:uid="{00000000-0002-0000-0000-000008000000}">
+      <formula1>$R$3:$R$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$O$3:$O$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5440,110 +6123,32 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$E$2:$E$13</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D2:D11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$F$2:$F$150</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>E2:E11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$H$2:$H$4</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>F2:F11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$L$2:$L$4</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>J2:J11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$L$3:$L$4</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B50:B51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
-          <x14:formula1>
-            <xm:f>TemplateList!$A$2:$A$10000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B53:E53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$G$2:$G$9</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>I2:I11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$D$2:$D$41</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C2:C11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
-    <col min="9" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="9" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
     <col min="13" max="13" width="119" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="D1" s="48" t="s">
         <v>85</v>
       </c>
@@ -5563,7 +6168,7 @@
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +6207,7 @@
       <c r="Q2" s="58"/>
       <c r="R2" s="59"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="B3" s="56" t="s">
         <v>88</v>
       </c>
@@ -5635,7 +6240,7 @@
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" s="56" t="s">
         <v>95</v>
       </c>
@@ -5668,7 +6273,7 @@
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="B5" s="15" t="s">
         <v>100</v>
       </c>
@@ -5701,7 +6306,7 @@
       <c r="Q5" s="57"/>
       <c r="R5" s="57"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="B6" s="56" t="s">
         <v>104</v>
       </c>
@@ -5734,7 +6339,7 @@
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
@@ -5767,7 +6372,7 @@
       <c r="Q7" s="57"/>
       <c r="R7" s="57"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1">
       <c r="B8" s="63" t="s">
         <v>111</v>
       </c>
@@ -5795,7 +6400,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="B9" s="56" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +6428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="B10" s="15" t="s">
         <v>118</v>
       </c>
@@ -5854,7 +6459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="B11" s="15" t="s">
         <v>122</v>
       </c>
@@ -5881,7 +6486,7 @@
       </c>
       <c r="M11" s="57"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" s="15" t="s">
         <v>100</v>
       </c>
@@ -5910,7 +6515,7 @@
       </c>
       <c r="M12" s="57"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="B13" s="15" t="s">
         <v>128</v>
       </c>
@@ -5939,7 +6544,7 @@
       </c>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" s="15" t="s">
         <v>131</v>
       </c>
@@ -5965,7 +6570,7 @@
       </c>
       <c r="M14" s="57"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="B15" s="15" t="s">
         <v>133</v>
       </c>
@@ -5985,7 +6590,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="B16" s="56" t="s">
         <v>100</v>
       </c>
@@ -6018,7 +6623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27">
       <c r="B17" s="56" t="s">
         <v>139</v>
       </c>
@@ -6050,7 +6655,7 @@
       </c>
       <c r="M17" s="57"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27">
       <c r="B18" s="56" t="s">
         <v>142</v>
       </c>
@@ -6081,7 +6686,7 @@
       </c>
       <c r="M18" s="57"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27">
       <c r="B19" s="56" t="s">
         <v>145</v>
       </c>
@@ -6112,7 +6717,7 @@
       </c>
       <c r="M19" s="57"/>
     </row>
-    <row r="20" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" ht="12.75" customHeight="1">
       <c r="B20" s="56" t="s">
         <v>148</v>
       </c>
@@ -6155,7 +6760,7 @@
       <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
     </row>
-    <row r="21" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" ht="12.75" customHeight="1">
       <c r="B21" s="56" t="s">
         <v>152</v>
       </c>
@@ -6190,7 +6795,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
     </row>
-    <row r="22" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" ht="12.75" customHeight="1">
       <c r="B22" s="15" t="s">
         <v>155</v>
       </c>
@@ -6225,7 +6830,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
     </row>
-    <row r="23" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" ht="12.75" customHeight="1">
       <c r="B23" s="56" t="s">
         <v>158</v>
       </c>
@@ -6268,7 +6873,7 @@
       <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
     </row>
-    <row r="24" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" ht="12.75" customHeight="1">
       <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
@@ -6311,7 +6916,7 @@
       <c r="Z24" s="66"/>
       <c r="AA24" s="66"/>
     </row>
-    <row r="25" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" ht="12.75" customHeight="1">
       <c r="B25" s="56" t="s">
         <v>166</v>
       </c>
@@ -6355,7 +6960,7 @@
       <c r="Z25" s="66"/>
       <c r="AA25" s="66"/>
     </row>
-    <row r="26" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" ht="12.75" customHeight="1">
       <c r="B26" s="56" t="s">
         <v>170</v>
       </c>
@@ -6399,7 +7004,7 @@
       <c r="Z26" s="66"/>
       <c r="AA26" s="66"/>
     </row>
-    <row r="27" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" ht="12.75" customHeight="1">
       <c r="B27" s="67" t="s">
         <v>173</v>
       </c>
@@ -6441,7 +7046,7 @@
       <c r="Z27" s="66"/>
       <c r="AA27" s="66"/>
     </row>
-    <row r="28" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" ht="12.75" customHeight="1">
       <c r="B28" s="15" t="s">
         <v>166</v>
       </c>
@@ -6485,7 +7090,7 @@
       <c r="Z28" s="66"/>
       <c r="AA28" s="66"/>
     </row>
-    <row r="29" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" ht="12.75" customHeight="1">
       <c r="B29" s="15" t="s">
         <v>178</v>
       </c>
@@ -6525,7 +7130,7 @@
       <c r="Z29" s="66"/>
       <c r="AA29" s="66"/>
     </row>
-    <row r="30" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" ht="12.75" customHeight="1">
       <c r="B30" s="15" t="s">
         <v>181</v>
       </c>
@@ -6569,7 +7174,7 @@
       <c r="Z30" s="66"/>
       <c r="AA30" s="66"/>
     </row>
-    <row r="31" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" ht="12.75" customHeight="1">
       <c r="B31" s="56" t="s">
         <v>139</v>
       </c>
@@ -6611,7 +7216,7 @@
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
     </row>
-    <row r="32" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" ht="12.75" customHeight="1">
       <c r="B32" s="56" t="s">
         <v>184</v>
       </c>
@@ -6643,7 +7248,7 @@
       <c r="Z32" s="66"/>
       <c r="AA32" s="66"/>
     </row>
-    <row r="33" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" ht="12.75" customHeight="1">
       <c r="B33" s="56" t="s">
         <v>186</v>
       </c>
@@ -6687,7 +7292,7 @@
       <c r="Z33" s="66"/>
       <c r="AA33" s="66"/>
     </row>
-    <row r="34" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" ht="12.75" customHeight="1">
       <c r="B34" s="56" t="s">
         <v>88</v>
       </c>
@@ -6731,7 +7336,7 @@
       <c r="Z34" s="66"/>
       <c r="AA34" s="66"/>
     </row>
-    <row r="35" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:27" ht="12.75" customHeight="1">
       <c r="B35" s="56" t="s">
         <v>133</v>
       </c>
@@ -6773,7 +7378,7 @@
       <c r="Z35" s="66"/>
       <c r="AA35" s="66"/>
     </row>
-    <row r="36" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" ht="12.75" customHeight="1">
       <c r="B36" s="56" t="s">
         <v>195</v>
       </c>
@@ -6817,7 +7422,7 @@
       <c r="Z36" s="66"/>
       <c r="AA36" s="66"/>
     </row>
-    <row r="37" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" ht="12.75" customHeight="1">
       <c r="B37" s="15" t="s">
         <v>178</v>
       </c>
@@ -6861,7 +7466,7 @@
       <c r="Z37" s="66"/>
       <c r="AA37" s="66"/>
     </row>
-    <row r="38" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" ht="12.75" customHeight="1">
       <c r="B38" s="56" t="s">
         <v>202</v>
       </c>
@@ -6905,7 +7510,7 @@
       <c r="Z38" s="66"/>
       <c r="AA38" s="66"/>
     </row>
-    <row r="39" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" ht="12.75" customHeight="1">
       <c r="B39" s="15" t="s">
         <v>205</v>
       </c>
@@ -6941,7 +7546,7 @@
       <c r="Z39" s="66"/>
       <c r="AA39" s="66"/>
     </row>
-    <row r="40" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" ht="12.75" customHeight="1">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -6970,7 +7575,7 @@
       <c r="Z40" s="66"/>
       <c r="AA40" s="66"/>
     </row>
-    <row r="41" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:27" ht="12.75" customHeight="1">
       <c r="B41" s="56" t="s">
         <v>88</v>
       </c>
@@ -7001,7 +7606,7 @@
       <c r="Z41" s="66"/>
       <c r="AA41" s="66"/>
     </row>
-    <row r="42" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" ht="12.75" customHeight="1">
       <c r="B42" s="15" t="s">
         <v>133</v>
       </c>
@@ -7030,7 +7635,7 @@
       <c r="Z42" s="66"/>
       <c r="AA42" s="66"/>
     </row>
-    <row r="43" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" ht="27.75" customHeight="1">
       <c r="B43" s="15" t="s">
         <v>195</v>
       </c>
@@ -7043,13 +7648,13 @@
       <c r="I43" s="15"/>
       <c r="J43" s="62"/>
       <c r="K43" s="62"/>
-      <c r="L43" s="118" t="s">
+      <c r="L43" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="119"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
       <c r="S43" s="66"/>
@@ -7062,7 +7667,7 @@
       <c r="Z43" s="66"/>
       <c r="AA43" s="66"/>
     </row>
-    <row r="44" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" ht="12.75" customHeight="1">
       <c r="B44" s="15" t="s">
         <v>210</v>
       </c>
@@ -7081,13 +7686,13 @@
       <c r="I44" s="15"/>
       <c r="J44" s="62"/>
       <c r="K44" s="62"/>
-      <c r="L44" s="119" t="s">
+      <c r="L44" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="119"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
       <c r="Q44" s="66"/>
       <c r="R44" s="66"/>
       <c r="S44" s="66"/>
@@ -7100,7 +7705,7 @@
       <c r="Z44" s="66"/>
       <c r="AA44" s="66"/>
     </row>
-    <row r="45" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" ht="12.75" customHeight="1">
       <c r="B45" s="15" t="s">
         <v>88</v>
       </c>
@@ -7119,11 +7724,11 @@
       <c r="I45" s="15"/>
       <c r="J45" s="62"/>
       <c r="K45" s="62"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
       <c r="S45" s="66"/>
@@ -7136,7 +7741,7 @@
       <c r="Z45" s="66"/>
       <c r="AA45" s="66"/>
     </row>
-    <row r="46" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" ht="12.75" customHeight="1">
       <c r="B46" s="15" t="s">
         <v>152</v>
       </c>
@@ -7155,11 +7760,11 @@
       <c r="I46" s="15"/>
       <c r="J46" s="62"/>
       <c r="K46" s="62"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="119"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
       <c r="S46" s="66"/>
@@ -7172,7 +7777,7 @@
       <c r="Z46" s="66"/>
       <c r="AA46" s="66"/>
     </row>
-    <row r="47" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" ht="12.75" customHeight="1">
       <c r="B47" s="15" t="s">
         <v>155</v>
       </c>
@@ -7191,11 +7796,11 @@
       <c r="I47" s="15"/>
       <c r="J47" s="62"/>
       <c r="K47" s="62"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="119"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
       <c r="S47" s="66"/>
@@ -7208,7 +7813,7 @@
       <c r="Z47" s="66"/>
       <c r="AA47" s="66"/>
     </row>
-    <row r="48" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" ht="12.75" customHeight="1">
       <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
@@ -7221,11 +7826,11 @@
       <c r="I48" s="15"/>
       <c r="J48" s="62"/>
       <c r="K48" s="62"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
       <c r="S48" s="66"/>
@@ -7238,7 +7843,7 @@
       <c r="Z48" s="66"/>
       <c r="AA48" s="66"/>
     </row>
-    <row r="49" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" ht="12.75" customHeight="1">
       <c r="B49" s="15" t="s">
         <v>214</v>
       </c>
@@ -7263,11 +7868,11 @@
       <c r="I49" s="15"/>
       <c r="J49" s="62"/>
       <c r="K49" s="62"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
       <c r="Q49" s="66"/>
       <c r="R49" s="66"/>
       <c r="S49" s="66"/>
@@ -7280,7 +7885,7 @@
       <c r="Z49" s="66"/>
       <c r="AA49" s="66"/>
     </row>
-    <row r="50" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" ht="12.75" customHeight="1">
       <c r="B50" s="15" t="s">
         <v>217</v>
       </c>
@@ -7297,11 +7902,11 @@
       <c r="I50" s="15"/>
       <c r="J50" s="62"/>
       <c r="K50" s="62"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
       <c r="S50" s="66"/>
@@ -7314,7 +7919,7 @@
       <c r="Z50" s="66"/>
       <c r="AA50" s="66"/>
     </row>
-    <row r="51" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" ht="12.75" customHeight="1">
       <c r="B51" s="15" t="s">
         <v>219</v>
       </c>
@@ -7331,11 +7936,11 @@
       <c r="I51" s="15"/>
       <c r="J51" s="62"/>
       <c r="K51" s="62"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
       <c r="S51" s="66"/>
@@ -7348,7 +7953,7 @@
       <c r="Z51" s="66"/>
       <c r="AA51" s="66"/>
     </row>
-    <row r="52" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" ht="12.75" customHeight="1">
       <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
@@ -7375,11 +7980,11 @@
       </c>
       <c r="J52" s="62"/>
       <c r="K52" s="62"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
       <c r="Q52" s="66"/>
       <c r="R52" s="66"/>
       <c r="S52" s="66"/>
@@ -7392,7 +7997,7 @@
       <c r="Z52" s="66"/>
       <c r="AA52" s="66"/>
     </row>
-    <row r="53" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" ht="12.75" customHeight="1">
       <c r="B53" s="15" t="s">
         <v>217</v>
       </c>
@@ -7419,11 +8024,11 @@
       </c>
       <c r="J53" s="62"/>
       <c r="K53" s="62"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
       <c r="Q53" s="66"/>
       <c r="R53" s="66"/>
       <c r="S53" s="66"/>
@@ -7436,7 +8041,7 @@
       <c r="Z53" s="66"/>
       <c r="AA53" s="66"/>
     </row>
-    <row r="54" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" ht="12.75" customHeight="1">
       <c r="B54" s="15" t="s">
         <v>88</v>
       </c>
@@ -7464,11 +8069,11 @@
       </c>
       <c r="J54" s="62"/>
       <c r="K54" s="62"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
       <c r="Q54" s="66"/>
       <c r="R54" s="66"/>
       <c r="S54" s="66"/>
@@ -7481,7 +8086,7 @@
       <c r="Z54" s="66"/>
       <c r="AA54" s="66"/>
     </row>
-    <row r="55" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" ht="12.75" customHeight="1">
       <c r="B55" s="15" t="s">
         <v>17</v>
       </c>
@@ -7506,11 +8111,11 @@
       <c r="I55" s="15"/>
       <c r="J55" s="62"/>
       <c r="K55" s="62"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
       <c r="Q55" s="66"/>
       <c r="R55" s="66"/>
       <c r="S55" s="66"/>
@@ -7523,7 +8128,7 @@
       <c r="Z55" s="66"/>
       <c r="AA55" s="66"/>
     </row>
-    <row r="56" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" ht="12.75" customHeight="1">
       <c r="B56" s="15" t="s">
         <v>217</v>
       </c>
@@ -7548,11 +8153,11 @@
       <c r="I56" s="15"/>
       <c r="J56" s="62"/>
       <c r="K56" s="62"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="120"/>
       <c r="Q56" s="66"/>
       <c r="R56" s="66"/>
       <c r="S56" s="66"/>
@@ -7565,7 +8170,7 @@
       <c r="Z56" s="66"/>
       <c r="AA56" s="66"/>
     </row>
-    <row r="57" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" ht="12.75" customHeight="1">
       <c r="B57" s="15" t="s">
         <v>139</v>
       </c>
@@ -7588,11 +8193,11 @@
       <c r="I57" s="15"/>
       <c r="J57" s="62"/>
       <c r="K57" s="62"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="120"/>
       <c r="Q57" s="66"/>
       <c r="R57" s="66"/>
       <c r="S57" s="66"/>
@@ -7605,7 +8210,7 @@
       <c r="Z57" s="66"/>
       <c r="AA57" s="66"/>
     </row>
-    <row r="58" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" ht="12.75" customHeight="1">
       <c r="B58" s="15" t="s">
         <v>17</v>
       </c>
@@ -7630,11 +8235,11 @@
       <c r="I58" s="15"/>
       <c r="J58" s="62"/>
       <c r="K58" s="62"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="120"/>
       <c r="Q58" s="66"/>
       <c r="R58" s="66"/>
       <c r="S58" s="66"/>
@@ -7647,7 +8252,7 @@
       <c r="Z58" s="66"/>
       <c r="AA58" s="66"/>
     </row>
-    <row r="59" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" ht="12.75" customHeight="1">
       <c r="B59" s="15" t="s">
         <v>222</v>
       </c>
@@ -7670,11 +8275,11 @@
       <c r="I59" s="15"/>
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="120"/>
       <c r="Q59" s="66"/>
       <c r="R59" s="66"/>
       <c r="S59" s="66"/>
@@ -7687,7 +8292,7 @@
       <c r="Z59" s="66"/>
       <c r="AA59" s="66"/>
     </row>
-    <row r="60" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" ht="12.75" customHeight="1">
       <c r="B60" s="15" t="s">
         <v>217</v>
       </c>
@@ -7712,11 +8317,11 @@
       <c r="I60" s="15"/>
       <c r="J60" s="62"/>
       <c r="K60" s="62"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="120"/>
       <c r="Q60" s="66"/>
       <c r="R60" s="66"/>
       <c r="S60" s="66"/>
@@ -7729,7 +8334,7 @@
       <c r="Z60" s="66"/>
       <c r="AA60" s="66"/>
     </row>
-    <row r="61" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" ht="12.75" customHeight="1">
       <c r="B61" s="15" t="s">
         <v>88</v>
       </c>
@@ -7754,11 +8359,11 @@
       <c r="I61" s="15"/>
       <c r="J61" s="62"/>
       <c r="K61" s="62"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="120"/>
       <c r="Q61" s="66"/>
       <c r="R61" s="66"/>
       <c r="S61" s="66"/>
@@ -7771,7 +8376,7 @@
       <c r="Z61" s="66"/>
       <c r="AA61" s="66"/>
     </row>
-    <row r="62" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" ht="12.75" customHeight="1">
       <c r="B62" s="15" t="s">
         <v>181</v>
       </c>
@@ -7796,11 +8401,11 @@
       <c r="I62" s="15"/>
       <c r="J62" s="62"/>
       <c r="K62" s="62"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="119"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="119"/>
-      <c r="P62" s="119"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
       <c r="Q62" s="66"/>
       <c r="R62" s="66"/>
       <c r="S62" s="66"/>
@@ -7813,7 +8418,7 @@
       <c r="Z62" s="66"/>
       <c r="AA62" s="66"/>
     </row>
-    <row r="63" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" ht="12.75" customHeight="1">
       <c r="B63" s="15" t="s">
         <v>139</v>
       </c>
@@ -7838,11 +8443,11 @@
       <c r="I63" s="15"/>
       <c r="J63" s="62"/>
       <c r="K63" s="62"/>
-      <c r="L63" s="119"/>
-      <c r="M63" s="119"/>
-      <c r="N63" s="119"/>
-      <c r="O63" s="119"/>
-      <c r="P63" s="119"/>
+      <c r="L63" s="120"/>
+      <c r="M63" s="120"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="120"/>
       <c r="Q63" s="66"/>
       <c r="R63" s="66"/>
       <c r="S63" s="66"/>
@@ -7855,7 +8460,7 @@
       <c r="Z63" s="66"/>
       <c r="AA63" s="66"/>
     </row>
-    <row r="64" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" ht="12.75" customHeight="1">
       <c r="B64" s="60" t="s">
         <v>139</v>
       </c>
@@ -7878,11 +8483,11 @@
         <v>226</v>
       </c>
       <c r="I64" s="60"/>
-      <c r="L64" s="119"/>
-      <c r="M64" s="119"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="119"/>
-      <c r="P64" s="119"/>
+      <c r="L64" s="120"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="120"/>
       <c r="Q64" s="66"/>
       <c r="R64" s="66"/>
       <c r="S64" s="66"/>
@@ -7895,7 +8500,7 @@
       <c r="Z64" s="66"/>
       <c r="AA64" s="66"/>
     </row>
-    <row r="65" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" ht="12.75" customHeight="1">
       <c r="B65" s="60" t="s">
         <v>139</v>
       </c>
@@ -7918,11 +8523,11 @@
         <v>229</v>
       </c>
       <c r="I65" s="60"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119"/>
-      <c r="P65" s="119"/>
+      <c r="L65" s="120"/>
+      <c r="M65" s="120"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="120"/>
+      <c r="P65" s="120"/>
       <c r="Q65" s="66"/>
       <c r="R65" s="66"/>
       <c r="S65" s="66"/>
@@ -7935,7 +8540,7 @@
       <c r="Z65" s="66"/>
       <c r="AA65" s="66"/>
     </row>
-    <row r="66" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:27" ht="12.75" customHeight="1">
       <c r="B66" s="60" t="s">
         <v>230</v>
       </c>
@@ -7958,11 +8563,11 @@
         <v>233</v>
       </c>
       <c r="I66" s="60"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="119"/>
-      <c r="P66" s="119"/>
+      <c r="L66" s="120"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="120"/>
+      <c r="O66" s="120"/>
+      <c r="P66" s="120"/>
       <c r="Q66" s="66"/>
       <c r="R66" s="66"/>
       <c r="S66" s="66"/>
@@ -7975,7 +8580,7 @@
       <c r="Z66" s="66"/>
       <c r="AA66" s="66"/>
     </row>
-    <row r="67" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" ht="12.75" customHeight="1">
       <c r="B67" s="60" t="s">
         <v>234</v>
       </c>
@@ -7990,11 +8595,11 @@
       </c>
       <c r="H67" s="60"/>
       <c r="I67" s="60"/>
-      <c r="L67" s="119"/>
-      <c r="M67" s="119"/>
-      <c r="N67" s="119"/>
-      <c r="O67" s="119"/>
-      <c r="P67" s="119"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="120"/>
       <c r="Q67" s="66"/>
       <c r="R67" s="66"/>
       <c r="S67" s="66"/>
@@ -8007,7 +8612,7 @@
       <c r="Z67" s="66"/>
       <c r="AA67" s="66"/>
     </row>
-    <row r="68" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" ht="12.75" customHeight="1">
       <c r="B68" s="17" t="s">
         <v>236</v>
       </c>
@@ -8022,11 +8627,11 @@
       </c>
       <c r="H68" s="60"/>
       <c r="I68" s="60"/>
-      <c r="L68" s="119"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="119"/>
-      <c r="P68" s="119"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="120"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="66"/>
       <c r="S68" s="66"/>
@@ -8039,7 +8644,7 @@
       <c r="Z68" s="66"/>
       <c r="AA68" s="66"/>
     </row>
-    <row r="69" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" ht="12.75" customHeight="1">
       <c r="B69" s="17" t="s">
         <v>238</v>
       </c>
@@ -8052,11 +8657,11 @@
       <c r="G69" s="60"/>
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="119"/>
-      <c r="P69" s="119"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="120"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="66"/>
       <c r="S69" s="66"/>
@@ -8069,7 +8674,7 @@
       <c r="Z69" s="66"/>
       <c r="AA69" s="66"/>
     </row>
-    <row r="70" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" ht="12.75" customHeight="1">
       <c r="B70" s="60" t="s">
         <v>10</v>
       </c>
@@ -8092,11 +8697,11 @@
         <v>15</v>
       </c>
       <c r="I70" s="60"/>
-      <c r="L70" s="119"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="119"/>
-      <c r="O70" s="119"/>
-      <c r="P70" s="119"/>
+      <c r="L70" s="120"/>
+      <c r="M70" s="120"/>
+      <c r="N70" s="120"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="120"/>
       <c r="Q70" s="66"/>
       <c r="R70" s="66"/>
       <c r="S70" s="66"/>
@@ -8109,7 +8714,7 @@
       <c r="Z70" s="66"/>
       <c r="AA70" s="66"/>
     </row>
-    <row r="71" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" ht="12.75" customHeight="1">
       <c r="B71" s="60" t="s">
         <v>217</v>
       </c>
@@ -8132,11 +8737,11 @@
         <v>15</v>
       </c>
       <c r="I71" s="60"/>
-      <c r="L71" s="119"/>
-      <c r="M71" s="119"/>
-      <c r="N71" s="119"/>
-      <c r="O71" s="119"/>
-      <c r="P71" s="119"/>
+      <c r="L71" s="120"/>
+      <c r="M71" s="120"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="120"/>
       <c r="Q71" s="66"/>
       <c r="R71" s="66"/>
       <c r="S71" s="66"/>
@@ -8149,7 +8754,7 @@
       <c r="Z71" s="66"/>
       <c r="AA71" s="66"/>
     </row>
-    <row r="72" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" ht="12.75" customHeight="1">
       <c r="B72" s="60" t="s">
         <v>240</v>
       </c>
@@ -8160,11 +8765,11 @@
       <c r="G72" s="60"/>
       <c r="H72" s="60"/>
       <c r="I72" s="60"/>
-      <c r="L72" s="119"/>
-      <c r="M72" s="119"/>
-      <c r="N72" s="119"/>
-      <c r="O72" s="119"/>
-      <c r="P72" s="119"/>
+      <c r="L72" s="120"/>
+      <c r="M72" s="120"/>
+      <c r="N72" s="120"/>
+      <c r="O72" s="120"/>
+      <c r="P72" s="120"/>
       <c r="Q72" s="66"/>
       <c r="R72" s="66"/>
       <c r="S72" s="66"/>
@@ -8177,7 +8782,7 @@
       <c r="Z72" s="66"/>
       <c r="AA72" s="66"/>
     </row>
-    <row r="73" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" ht="12.75" customHeight="1">
       <c r="B73" s="60" t="s">
         <v>241</v>
       </c>
@@ -8200,11 +8805,11 @@
         <v>243</v>
       </c>
       <c r="I73" s="60"/>
-      <c r="L73" s="119"/>
-      <c r="M73" s="119"/>
-      <c r="N73" s="119"/>
-      <c r="O73" s="119"/>
-      <c r="P73" s="119"/>
+      <c r="L73" s="120"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="120"/>
+      <c r="P73" s="120"/>
       <c r="Q73" s="66"/>
       <c r="R73" s="66"/>
       <c r="S73" s="66"/>
@@ -8217,7 +8822,7 @@
       <c r="Z73" s="66"/>
       <c r="AA73" s="66"/>
     </row>
-    <row r="74" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" ht="12.75" customHeight="1">
       <c r="B74" s="60" t="s">
         <v>244</v>
       </c>
@@ -8232,11 +8837,11 @@
         <v>246</v>
       </c>
       <c r="I74" s="60"/>
-      <c r="L74" s="119"/>
-      <c r="M74" s="119"/>
-      <c r="N74" s="119"/>
-      <c r="O74" s="119"/>
-      <c r="P74" s="119"/>
+      <c r="L74" s="120"/>
+      <c r="M74" s="120"/>
+      <c r="N74" s="120"/>
+      <c r="O74" s="120"/>
+      <c r="P74" s="120"/>
       <c r="Q74" s="66"/>
       <c r="R74" s="66"/>
       <c r="S74" s="66"/>
@@ -8249,7 +8854,7 @@
       <c r="Z74" s="66"/>
       <c r="AA74" s="66"/>
     </row>
-    <row r="75" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:27" ht="12.75" customHeight="1">
       <c r="B75" s="71" t="s">
         <v>247</v>
       </c>
@@ -8270,11 +8875,11 @@
       </c>
       <c r="H75" s="57"/>
       <c r="I75" s="57"/>
-      <c r="L75" s="119"/>
-      <c r="M75" s="119"/>
-      <c r="N75" s="119"/>
-      <c r="O75" s="119"/>
-      <c r="P75" s="119"/>
+      <c r="L75" s="120"/>
+      <c r="M75" s="120"/>
+      <c r="N75" s="120"/>
+      <c r="O75" s="120"/>
+      <c r="P75" s="120"/>
       <c r="Q75" s="66"/>
       <c r="R75" s="66"/>
       <c r="S75" s="66"/>
@@ -8287,7 +8892,7 @@
       <c r="Z75" s="66"/>
       <c r="AA75" s="66"/>
     </row>
-    <row r="76" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" ht="12.75" customHeight="1">
       <c r="B76" s="75" t="s">
         <v>249</v>
       </c>
@@ -8308,11 +8913,11 @@
       </c>
       <c r="H76" s="57"/>
       <c r="I76" s="57"/>
-      <c r="L76" s="119"/>
-      <c r="M76" s="119"/>
-      <c r="N76" s="119"/>
-      <c r="O76" s="119"/>
-      <c r="P76" s="119"/>
+      <c r="L76" s="120"/>
+      <c r="M76" s="120"/>
+      <c r="N76" s="120"/>
+      <c r="O76" s="120"/>
+      <c r="P76" s="120"/>
       <c r="Q76" s="66"/>
       <c r="R76" s="66"/>
       <c r="S76" s="66"/>
@@ -8325,7 +8930,7 @@
       <c r="Z76" s="66"/>
       <c r="AA76" s="66"/>
     </row>
-    <row r="77" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" ht="12.75" customHeight="1">
       <c r="B77" s="38" t="s">
         <v>251</v>
       </c>
@@ -8348,11 +8953,11 @@
         <v>253</v>
       </c>
       <c r="I77" s="57"/>
-      <c r="L77" s="119"/>
-      <c r="M77" s="119"/>
-      <c r="N77" s="119"/>
-      <c r="O77" s="119"/>
-      <c r="P77" s="119"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120"/>
       <c r="Q77" s="66"/>
       <c r="R77" s="66"/>
       <c r="S77" s="66"/>
@@ -8365,7 +8970,7 @@
       <c r="Z77" s="66"/>
       <c r="AA77" s="66"/>
     </row>
-    <row r="78" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:27" ht="12.75" customHeight="1">
       <c r="B78" s="62" t="s">
         <v>249</v>
       </c>
@@ -8387,11 +8992,11 @@
       <c r="H78" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="119"/>
-      <c r="P78" s="119"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
       <c r="Q78" s="66"/>
       <c r="R78" s="66"/>
       <c r="S78" s="66"/>
@@ -8404,7 +9009,7 @@
       <c r="Z78" s="66"/>
       <c r="AA78" s="66"/>
     </row>
-    <row r="79" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" ht="12.75" customHeight="1">
       <c r="B79" s="62" t="s">
         <v>254</v>
       </c>
@@ -8426,11 +9031,11 @@
       <c r="H79" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="L79" s="119"/>
-      <c r="M79" s="119"/>
-      <c r="N79" s="119"/>
-      <c r="O79" s="119"/>
-      <c r="P79" s="119"/>
+      <c r="L79" s="120"/>
+      <c r="M79" s="120"/>
+      <c r="N79" s="120"/>
+      <c r="O79" s="120"/>
+      <c r="P79" s="120"/>
       <c r="Q79" s="66"/>
       <c r="R79" s="66"/>
       <c r="S79" s="66"/>
@@ -8443,7 +9048,7 @@
       <c r="Z79" s="66"/>
       <c r="AA79" s="66"/>
     </row>
-    <row r="80" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" ht="12.75" customHeight="1">
       <c r="B80" s="62" t="s">
         <v>257</v>
       </c>
@@ -8465,11 +9070,11 @@
       <c r="H80" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="L80" s="119"/>
-      <c r="M80" s="119"/>
-      <c r="N80" s="119"/>
-      <c r="O80" s="119"/>
-      <c r="P80" s="119"/>
+      <c r="L80" s="120"/>
+      <c r="M80" s="120"/>
+      <c r="N80" s="120"/>
+      <c r="O80" s="120"/>
+      <c r="P80" s="120"/>
       <c r="Q80" s="66"/>
       <c r="R80" s="66"/>
       <c r="S80" s="66"/>
@@ -8482,7 +9087,7 @@
       <c r="Z80" s="66"/>
       <c r="AA80" s="66"/>
     </row>
-    <row r="81" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" ht="12.75" customHeight="1">
       <c r="B81" s="62" t="s">
         <v>259</v>
       </c>
@@ -8504,11 +9109,11 @@
       <c r="H81" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="L81" s="119"/>
-      <c r="M81" s="119"/>
-      <c r="N81" s="119"/>
-      <c r="O81" s="119"/>
-      <c r="P81" s="119"/>
+      <c r="L81" s="120"/>
+      <c r="M81" s="120"/>
+      <c r="N81" s="120"/>
+      <c r="O81" s="120"/>
+      <c r="P81" s="120"/>
       <c r="Q81" s="66"/>
       <c r="R81" s="66"/>
       <c r="S81" s="66"/>
@@ -8521,7 +9126,7 @@
       <c r="Z81" s="66"/>
       <c r="AA81" s="66"/>
     </row>
-    <row r="82" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" ht="12.75" customHeight="1">
       <c r="B82" s="78" t="s">
         <v>262</v>
       </c>
@@ -8537,11 +9142,11 @@
       <c r="H82" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="L82" s="119"/>
-      <c r="M82" s="119"/>
-      <c r="N82" s="119"/>
-      <c r="O82" s="119"/>
-      <c r="P82" s="119"/>
+      <c r="L82" s="120"/>
+      <c r="M82" s="120"/>
+      <c r="N82" s="120"/>
+      <c r="O82" s="120"/>
+      <c r="P82" s="120"/>
       <c r="Q82" s="66"/>
       <c r="R82" s="66"/>
       <c r="S82" s="66"/>
@@ -8554,7 +9159,7 @@
       <c r="Z82" s="66"/>
       <c r="AA82" s="66"/>
     </row>
-    <row r="83" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" ht="12.75" customHeight="1">
       <c r="B83" t="s">
         <v>264</v>
       </c>
@@ -8576,11 +9181,11 @@
       <c r="H83" t="s">
         <v>266</v>
       </c>
-      <c r="L83" s="119"/>
-      <c r="M83" s="119"/>
-      <c r="N83" s="119"/>
-      <c r="O83" s="119"/>
-      <c r="P83" s="119"/>
+      <c r="L83" s="120"/>
+      <c r="M83" s="120"/>
+      <c r="N83" s="120"/>
+      <c r="O83" s="120"/>
+      <c r="P83" s="120"/>
       <c r="Q83" s="66"/>
       <c r="R83" s="66"/>
       <c r="S83" s="66"/>
@@ -8593,7 +9198,7 @@
       <c r="Z83" s="66"/>
       <c r="AA83" s="66"/>
     </row>
-    <row r="84" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" ht="12.75" customHeight="1">
       <c r="B84" s="79" t="s">
         <v>267</v>
       </c>
@@ -8615,11 +9220,11 @@
       <c r="H84" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="119"/>
-      <c r="M84" s="119"/>
-      <c r="N84" s="119"/>
-      <c r="O84" s="119"/>
-      <c r="P84" s="119"/>
+      <c r="L84" s="120"/>
+      <c r="M84" s="120"/>
+      <c r="N84" s="120"/>
+      <c r="O84" s="120"/>
+      <c r="P84" s="120"/>
       <c r="Q84" s="66"/>
       <c r="R84" s="66"/>
       <c r="S84" s="66"/>
@@ -8632,7 +9237,7 @@
       <c r="Z84" s="66"/>
       <c r="AA84" s="66"/>
     </row>
-    <row r="85" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" ht="12.75" customHeight="1">
       <c r="B85" s="79" t="s">
         <v>268</v>
       </c>
@@ -8657,14 +9262,14 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="77"/>
-      <c r="L85" s="119"/>
-      <c r="M85" s="119"/>
-      <c r="N85" s="119"/>
-      <c r="O85" s="119">
+      <c r="L85" s="120"/>
+      <c r="M85" s="120"/>
+      <c r="N85" s="120"/>
+      <c r="O85" s="120">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="P85" s="119"/>
+      <c r="P85" s="120"/>
       <c r="Q85" s="66"/>
       <c r="R85" s="66"/>
       <c r="S85" s="66"/>
@@ -8677,12 +9282,12 @@
       <c r="Z85" s="66"/>
       <c r="AA85" s="66"/>
     </row>
-    <row r="86" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L86" s="119"/>
-      <c r="M86" s="119"/>
-      <c r="N86" s="119"/>
-      <c r="O86" s="119"/>
-      <c r="P86" s="119"/>
+    <row r="86" spans="2:27" ht="12.75" customHeight="1">
+      <c r="L86" s="120"/>
+      <c r="M86" s="120"/>
+      <c r="N86" s="120"/>
+      <c r="O86" s="120"/>
+      <c r="P86" s="120"/>
       <c r="Q86" s="66"/>
       <c r="R86" s="66"/>
       <c r="S86" s="66"/>
@@ -8695,12 +9300,12 @@
       <c r="Z86" s="66"/>
       <c r="AA86" s="66"/>
     </row>
-    <row r="87" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L87" s="119"/>
-      <c r="M87" s="119"/>
-      <c r="N87" s="119"/>
-      <c r="O87" s="119"/>
-      <c r="P87" s="119"/>
+    <row r="87" spans="2:27" ht="12.75" customHeight="1">
+      <c r="L87" s="120"/>
+      <c r="M87" s="120"/>
+      <c r="N87" s="120"/>
+      <c r="O87" s="120"/>
+      <c r="P87" s="120"/>
       <c r="Q87" s="66"/>
       <c r="R87" s="66"/>
       <c r="S87" s="66"/>
@@ -8718,2002 +9323,16 @@
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="L44:P87"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$H$2:$H$4</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>F76 F84:F85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$F$2:$F$150</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>E76 E84:E85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$E$2:$E$13</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D76 D84:D85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$L$2:$L$4</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>K85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
-          <x14:formula1>
-            <xm:f>DropDownValues!$D$2:$D$41</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C76 C84:C85</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:U52"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="88.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="120" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-    </row>
-    <row r="15" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" t="s">
-        <v>286</v>
-      </c>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-    </row>
-    <row r="36" spans="5:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E36" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-    </row>
-    <row r="37" spans="5:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E37" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
-    </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
-    </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119"/>
-    </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-    </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="119"/>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="119"/>
-    </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-    </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-    </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:U12"/>
-    <mergeCell ref="F15:O52"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L150"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="80">
-        <v>1</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="80">
-        <v>2</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="80">
-        <v>3</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="80">
-        <v>4</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="80">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="86" t="s">
-        <v>466</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F44" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F56" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F58" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F60" s="15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F62" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F90" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F91" s="15" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F92" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F93" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F95" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F101" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F125" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F127" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F128" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F129" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" s="15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F131" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" s="15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" s="15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F140" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F142" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F144" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F148" s="15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F149" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F150" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="92.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F76 F84:F85" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K85 C76:E76 C84:E85" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
